--- a/test.xlsx
+++ b/test.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ujjawal\AppData\Local\Programs\Python\Python39\phd_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1523243-5B1F-4698-877B-926167AE43D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{257B3F75-621B-46D2-BB7F-D70FD92B8325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="test" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>Month</t>
   </si>
@@ -36,6 +37,9 @@
   </si>
   <si>
     <t>TCI</t>
+  </si>
+  <si>
+    <t>SPI1</t>
   </si>
 </sst>
 </file>
@@ -862,8 +866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="I139" sqref="I139"/>
+    <sheetView topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="I150" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -3438,4 +3442,2586 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E151"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
+      <selection activeCell="B152" sqref="B152:B272"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>33359</v>
+      </c>
+      <c r="B2">
+        <v>0.443657684</v>
+      </c>
+      <c r="C2">
+        <v>3.047411818</v>
+      </c>
+      <c r="D2">
+        <v>47.489499819999999</v>
+      </c>
+      <c r="E2">
+        <v>38.58304545</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>33390</v>
+      </c>
+      <c r="B3">
+        <v>-0.390903102</v>
+      </c>
+      <c r="C3">
+        <v>0.48448945500000001</v>
+      </c>
+      <c r="D3">
+        <v>38.865454499999998</v>
+      </c>
+      <c r="E3">
+        <v>23.006499949999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>33420</v>
+      </c>
+      <c r="B4">
+        <v>-1.1406550440000001</v>
+      </c>
+      <c r="C4">
+        <v>0.525606727</v>
+      </c>
+      <c r="D4">
+        <v>32.03268173</v>
+      </c>
+      <c r="E4">
+        <v>2.7467272729999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>33451</v>
+      </c>
+      <c r="B5">
+        <v>-0.205048603</v>
+      </c>
+      <c r="C5">
+        <v>1.1443267269999999</v>
+      </c>
+      <c r="D5">
+        <v>20.649636359999999</v>
+      </c>
+      <c r="E5">
+        <v>4.4108636360000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>33482</v>
+      </c>
+      <c r="B6">
+        <v>-0.46552908599999998</v>
+      </c>
+      <c r="C6">
+        <v>0.15817472699999999</v>
+      </c>
+      <c r="D6">
+        <v>16.984545449999999</v>
+      </c>
+      <c r="E6">
+        <v>10.71536364</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>33725</v>
+      </c>
+      <c r="B7">
+        <v>0.48591820400000002</v>
+      </c>
+      <c r="C7">
+        <v>3.1061721819999999</v>
+      </c>
+      <c r="D7">
+        <v>52.24590895</v>
+      </c>
+      <c r="E7">
+        <v>51.318863589999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>33756</v>
+      </c>
+      <c r="B8">
+        <v>-0.97653967600000002</v>
+      </c>
+      <c r="C8">
+        <v>0.236471818</v>
+      </c>
+      <c r="D8">
+        <v>50.721726949999997</v>
+      </c>
+      <c r="E8">
+        <v>48.892999949999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>33786</v>
+      </c>
+      <c r="B9">
+        <v>-0.11773096399999999</v>
+      </c>
+      <c r="C9">
+        <v>1.5910905449999999</v>
+      </c>
+      <c r="D9">
+        <v>47.972545320000002</v>
+      </c>
+      <c r="E9">
+        <v>68.907636229999994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>33817</v>
+      </c>
+      <c r="B10">
+        <v>0.46141678200000003</v>
+      </c>
+      <c r="C10">
+        <v>2.1959119999999999</v>
+      </c>
+      <c r="D10">
+        <v>47.994499910000002</v>
+      </c>
+      <c r="E10">
+        <v>90.360545139999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>33848</v>
+      </c>
+      <c r="B11">
+        <v>1.492679748</v>
+      </c>
+      <c r="C11">
+        <v>2.970167091</v>
+      </c>
+      <c r="D11">
+        <v>52.7133635</v>
+      </c>
+      <c r="E11">
+        <v>70.315454270000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>34090</v>
+      </c>
+      <c r="B12">
+        <v>0.44947251900000001</v>
+      </c>
+      <c r="C12">
+        <v>3.055453091</v>
+      </c>
+      <c r="D12">
+        <v>73.084408819999993</v>
+      </c>
+      <c r="E12">
+        <v>57.760908999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>34121</v>
+      </c>
+      <c r="B13">
+        <v>0.779939983</v>
+      </c>
+      <c r="C13">
+        <v>1.444355091</v>
+      </c>
+      <c r="D13">
+        <v>70.024045270000002</v>
+      </c>
+      <c r="E13">
+        <v>40.413590859999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>34151</v>
+      </c>
+      <c r="B14">
+        <v>1.4748216350000001</v>
+      </c>
+      <c r="C14">
+        <v>4.8625663640000001</v>
+      </c>
+      <c r="D14">
+        <v>72.687590549999996</v>
+      </c>
+      <c r="E14">
+        <v>22.23509086</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>34182</v>
+      </c>
+      <c r="B15">
+        <v>-1.833914636</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>74.686544999999995</v>
+      </c>
+      <c r="E15">
+        <v>9.7742727269999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>34213</v>
+      </c>
+      <c r="B16">
+        <v>0.48317251</v>
+      </c>
+      <c r="C16">
+        <v>0.94380218199999999</v>
+      </c>
+      <c r="D16">
+        <v>66.936635949999996</v>
+      </c>
+      <c r="E16">
+        <v>11.74131818</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>34455</v>
+      </c>
+      <c r="B17">
+        <v>-0.196110116</v>
+      </c>
+      <c r="C17">
+        <v>2.2460194549999999</v>
+      </c>
+      <c r="D17">
+        <v>81.111226950000002</v>
+      </c>
+      <c r="E17">
+        <v>88.643726770000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>34486</v>
+      </c>
+      <c r="B18">
+        <v>-0.57603730799999997</v>
+      </c>
+      <c r="C18">
+        <v>0.39191727300000001</v>
+      </c>
+      <c r="D18">
+        <v>77.823226910000002</v>
+      </c>
+      <c r="E18">
+        <v>84.166499819999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>34516</v>
+      </c>
+      <c r="B19">
+        <v>1.552696632</v>
+      </c>
+      <c r="C19">
+        <v>5.0823078180000003</v>
+      </c>
+      <c r="D19">
+        <v>85.108636090000005</v>
+      </c>
+      <c r="E19">
+        <v>76.660408770000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>34547</v>
+      </c>
+      <c r="B20">
+        <v>6.0288709000000003E-2</v>
+      </c>
+      <c r="C20">
+        <v>1.5109272730000001</v>
+      </c>
+      <c r="D20">
+        <v>88.441136139999998</v>
+      </c>
+      <c r="E20">
+        <v>52.983181590000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>34578</v>
+      </c>
+      <c r="B21">
+        <v>1.203975349</v>
+      </c>
+      <c r="C21">
+        <v>2.2460194549999999</v>
+      </c>
+      <c r="D21">
+        <v>84.890227089999996</v>
+      </c>
+      <c r="E21">
+        <v>61.834727000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>34820</v>
+      </c>
+      <c r="B22">
+        <v>0.44326736100000003</v>
+      </c>
+      <c r="C22">
+        <v>3.0468725449999998</v>
+      </c>
+      <c r="D22">
+        <v>74.399136139999996</v>
+      </c>
+      <c r="E22">
+        <v>25.761590859999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>34851</v>
+      </c>
+      <c r="B23">
+        <v>-0.67811572399999998</v>
+      </c>
+      <c r="C23">
+        <v>0.34673145500000002</v>
+      </c>
+      <c r="D23">
+        <v>68.94163623</v>
+      </c>
+      <c r="E23">
+        <v>10.947181820000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>34881</v>
+      </c>
+      <c r="B24">
+        <v>1.2447350260000001</v>
+      </c>
+      <c r="C24">
+        <v>4.2477427270000003</v>
+      </c>
+      <c r="D24">
+        <v>49.789409050000003</v>
+      </c>
+      <c r="E24">
+        <v>7.980590909</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>34912</v>
+      </c>
+      <c r="B25">
+        <v>-0.20033488999999999</v>
+      </c>
+      <c r="C25">
+        <v>1.150274909</v>
+      </c>
+      <c r="D25">
+        <v>44.887409050000002</v>
+      </c>
+      <c r="E25">
+        <v>15.532</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>34943</v>
+      </c>
+      <c r="B26">
+        <v>-8.7698729999999992E-3</v>
+      </c>
+      <c r="C26">
+        <v>0.42525690900000002</v>
+      </c>
+      <c r="D26">
+        <v>52.238499910000002</v>
+      </c>
+      <c r="E26">
+        <v>18.163636360000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>33725</v>
+      </c>
+      <c r="B27">
+        <v>1.0909838220000001</v>
+      </c>
+      <c r="C27">
+        <v>4.0302812729999999</v>
+      </c>
+      <c r="D27">
+        <v>61.677954139999997</v>
+      </c>
+      <c r="E27">
+        <v>28.489045449999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>35217</v>
+      </c>
+      <c r="B28">
+        <v>2.5465447120000002</v>
+      </c>
+      <c r="C28">
+        <v>4.3929309090000004</v>
+      </c>
+      <c r="D28">
+        <v>52.811772499999996</v>
+      </c>
+      <c r="E28">
+        <v>39.669045449999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>35247</v>
+      </c>
+      <c r="B29">
+        <v>-0.50921749500000002</v>
+      </c>
+      <c r="C29">
+        <v>1.1048341820000001</v>
+      </c>
+      <c r="D29">
+        <v>64.722681730000005</v>
+      </c>
+      <c r="E29">
+        <v>25.81804545</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>35278</v>
+      </c>
+      <c r="B30">
+        <v>-0.52057829200000005</v>
+      </c>
+      <c r="C30">
+        <v>0.78962854500000002</v>
+      </c>
+      <c r="D30">
+        <v>59.119227049999999</v>
+      </c>
+      <c r="E30">
+        <v>19.701909090000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>35309</v>
+      </c>
+      <c r="B31">
+        <v>-0.798035143</v>
+      </c>
+      <c r="C31">
+        <v>5.9406544999999998E-2</v>
+      </c>
+      <c r="D31">
+        <v>43.325363500000002</v>
+      </c>
+      <c r="E31">
+        <v>22.65295455</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>35551</v>
+      </c>
+      <c r="B32">
+        <v>0.738375644</v>
+      </c>
+      <c r="C32">
+        <v>3.4727480000000002</v>
+      </c>
+      <c r="D32">
+        <v>59.18759068</v>
+      </c>
+      <c r="E32">
+        <v>36.245575700000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>35582</v>
+      </c>
+      <c r="B33">
+        <v>1.7210064869999999</v>
+      </c>
+      <c r="C33">
+        <v>2.7701538179999998</v>
+      </c>
+      <c r="D33">
+        <v>47.346045320000002</v>
+      </c>
+      <c r="E33">
+        <v>37.580681769999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>35612</v>
+      </c>
+      <c r="B34">
+        <v>-0.80772951299999995</v>
+      </c>
+      <c r="C34">
+        <v>0.80280709100000003</v>
+      </c>
+      <c r="D34">
+        <v>46.998863550000003</v>
+      </c>
+      <c r="E34">
+        <v>18.644681819999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>35643</v>
+      </c>
+      <c r="B35">
+        <v>-0.15690743500000001</v>
+      </c>
+      <c r="C35">
+        <v>1.2060141820000001</v>
+      </c>
+      <c r="D35">
+        <v>43.908954450000003</v>
+      </c>
+      <c r="E35">
+        <v>12.454727269999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <v>35674</v>
+      </c>
+      <c r="B36">
+        <v>-0.155283584</v>
+      </c>
+      <c r="C36">
+        <v>0.31984654499999998</v>
+      </c>
+      <c r="D36">
+        <v>40.187954499999996</v>
+      </c>
+      <c r="E36">
+        <v>17.533045449999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>35916</v>
+      </c>
+      <c r="B37">
+        <v>0.38589372100000002</v>
+      </c>
+      <c r="C37">
+        <v>2.9682879999999998</v>
+      </c>
+      <c r="D37">
+        <v>55.98840895</v>
+      </c>
+      <c r="E37">
+        <v>45.315227229999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>35947</v>
+      </c>
+      <c r="B38">
+        <v>0.34742319900000002</v>
+      </c>
+      <c r="C38">
+        <v>1.0079565450000001</v>
+      </c>
+      <c r="D38">
+        <v>59.976045360000001</v>
+      </c>
+      <c r="E38">
+        <v>36.77690905</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <v>35977</v>
+      </c>
+      <c r="B39">
+        <v>0.121055939</v>
+      </c>
+      <c r="C39">
+        <v>1.943388364</v>
+      </c>
+      <c r="D39">
+        <v>54.210318000000001</v>
+      </c>
+      <c r="E39">
+        <v>31.655045449999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <v>36008</v>
+      </c>
+      <c r="B40">
+        <v>-0.48779397299999999</v>
+      </c>
+      <c r="C40">
+        <v>0.82263836400000001</v>
+      </c>
+      <c r="D40">
+        <v>38.100954450000003</v>
+      </c>
+      <c r="E40">
+        <v>17.844363640000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <v>36039</v>
+      </c>
+      <c r="B41">
+        <v>1.608817121</v>
+      </c>
+      <c r="C41">
+        <v>3.2958994549999998</v>
+      </c>
+      <c r="D41">
+        <v>25.361772640000002</v>
+      </c>
+      <c r="E41">
+        <v>21.850909089999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <v>36281</v>
+      </c>
+      <c r="B42">
+        <v>2.2219626080000001</v>
+      </c>
+      <c r="C42">
+        <v>6.1943185449999998</v>
+      </c>
+      <c r="D42">
+        <v>85.860090589999999</v>
+      </c>
+      <c r="E42">
+        <v>51.819272589999997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <v>36312</v>
+      </c>
+      <c r="B43">
+        <v>-0.10435270100000001</v>
+      </c>
+      <c r="C43">
+        <v>0.65686781800000005</v>
+      </c>
+      <c r="D43">
+        <v>89.997999770000007</v>
+      </c>
+      <c r="E43">
+        <v>47.16772718</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
+        <v>36342</v>
+      </c>
+      <c r="B44">
+        <v>-1.177605164</v>
+      </c>
+      <c r="C44">
+        <v>0.49814472700000001</v>
+      </c>
+      <c r="D44">
+        <v>85.10231795</v>
+      </c>
+      <c r="E44">
+        <v>15.449272730000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <v>36373</v>
+      </c>
+      <c r="B45">
+        <v>1.470682555</v>
+      </c>
+      <c r="C45">
+        <v>4.7021505450000003</v>
+      </c>
+      <c r="D45">
+        <v>67.651317820000003</v>
+      </c>
+      <c r="E45">
+        <v>10.556590910000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <v>36404</v>
+      </c>
+      <c r="B46">
+        <v>-1.1056887660000001</v>
+      </c>
+      <c r="C46">
+        <v>1.5954545000000001E-2</v>
+      </c>
+      <c r="D46">
+        <v>62.897954179999999</v>
+      </c>
+      <c r="E46">
+        <v>18.080090909999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
+        <v>36647</v>
+      </c>
+      <c r="B47">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C47">
+        <v>4.3068179999999996E-3</v>
+      </c>
+      <c r="D47">
+        <v>21.454090910000001</v>
+      </c>
+      <c r="E47">
+        <v>74.102726820000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
+        <v>36678</v>
+      </c>
+      <c r="B48">
+        <v>-1.2265367869999999</v>
+      </c>
+      <c r="C48">
+        <v>0.16643227299999999</v>
+      </c>
+      <c r="D48">
+        <v>4.109636364</v>
+      </c>
+      <c r="E48">
+        <v>72.73563609</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
+        <v>36708</v>
+      </c>
+      <c r="B49">
+        <v>0.46211000299999999</v>
+      </c>
+      <c r="C49">
+        <v>2.5260418179999999</v>
+      </c>
+      <c r="D49">
+        <v>12.41790909</v>
+      </c>
+      <c r="E49">
+        <v>33.557045410000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
+        <v>36739</v>
+      </c>
+      <c r="B50">
+        <v>-1.0972959170000001</v>
+      </c>
+      <c r="C50">
+        <v>0.33617636400000001</v>
+      </c>
+      <c r="D50">
+        <v>27.17859091</v>
+      </c>
+      <c r="E50">
+        <v>22.946000000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
+        <v>36770</v>
+      </c>
+      <c r="B51">
+        <v>-0.779073342</v>
+      </c>
+      <c r="C51">
+        <v>6.3381636000000005E-2</v>
+      </c>
+      <c r="D51">
+        <v>32.697318180000003</v>
+      </c>
+      <c r="E51">
+        <v>27.770045450000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="1">
+        <v>37012</v>
+      </c>
+      <c r="B52">
+        <v>0.62110289600000002</v>
+      </c>
+      <c r="C52">
+        <v>3.299131091</v>
+      </c>
+      <c r="D52">
+        <v>23.736090910000001</v>
+      </c>
+      <c r="E52">
+        <v>52.01395436</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="1">
+        <v>37043</v>
+      </c>
+      <c r="B53">
+        <v>0.96721336000000002</v>
+      </c>
+      <c r="C53">
+        <v>1.6659110909999999</v>
+      </c>
+      <c r="D53">
+        <v>11.93218182</v>
+      </c>
+      <c r="E53">
+        <v>81.528681640000002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" s="1">
+        <v>37073</v>
+      </c>
+      <c r="B54">
+        <v>1.2280267309999999</v>
+      </c>
+      <c r="C54">
+        <v>4.2050770909999997</v>
+      </c>
+      <c r="D54">
+        <v>45.545817999999997</v>
+      </c>
+      <c r="E54">
+        <v>60.154681770000003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" s="1">
+        <v>37104</v>
+      </c>
+      <c r="B55">
+        <v>1.3395687999999999E-2</v>
+      </c>
+      <c r="C55">
+        <v>1.441327636</v>
+      </c>
+      <c r="D55">
+        <v>78.052681680000006</v>
+      </c>
+      <c r="E55">
+        <v>41.19131814</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" s="1">
+        <v>37135</v>
+      </c>
+      <c r="B56">
+        <v>-0.68796082400000003</v>
+      </c>
+      <c r="C56">
+        <v>8.5028544999999997E-2</v>
+      </c>
+      <c r="D56">
+        <v>75.078408909999993</v>
+      </c>
+      <c r="E56">
+        <v>27.910045449999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" s="1">
+        <v>37377</v>
+      </c>
+      <c r="B57">
+        <v>-3.8504461280000002</v>
+      </c>
+      <c r="C57">
+        <v>0.173302609</v>
+      </c>
+      <c r="D57">
+        <v>68.757590730000004</v>
+      </c>
+      <c r="E57">
+        <v>13.571</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" s="1">
+        <v>37408</v>
+      </c>
+      <c r="B58">
+        <v>-0.32792738100000002</v>
+      </c>
+      <c r="C58">
+        <v>0.519251087</v>
+      </c>
+      <c r="D58">
+        <v>48.975227179999997</v>
+      </c>
+      <c r="E58">
+        <v>8.0361363640000008</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" s="1">
+        <v>37438</v>
+      </c>
+      <c r="B59">
+        <v>-1.833914636</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>26.240318179999999</v>
+      </c>
+      <c r="E59">
+        <v>4.8535454549999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" s="1">
+        <v>37469</v>
+      </c>
+      <c r="B60">
+        <v>-1.7967472099999999</v>
+      </c>
+      <c r="C60">
+        <v>2.0046957000000001E-2</v>
+      </c>
+      <c r="D60">
+        <v>11.79268182</v>
+      </c>
+      <c r="E60">
+        <v>4.0346363639999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" s="1">
+        <v>37500</v>
+      </c>
+      <c r="B61">
+        <v>-2.1757505E-2</v>
+      </c>
+      <c r="C61">
+        <v>0.41508163599999998</v>
+      </c>
+      <c r="D61">
+        <v>6.8055454549999999</v>
+      </c>
+      <c r="E61">
+        <v>2.9205454550000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" s="1">
+        <v>37742</v>
+      </c>
+      <c r="B62">
+        <v>0.40207002600000002</v>
+      </c>
+      <c r="C62">
+        <v>2.9903074549999999</v>
+      </c>
+      <c r="D62">
+        <v>41.750409089999998</v>
+      </c>
+      <c r="E62">
+        <v>42.956136360000002</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" s="1">
+        <v>37773</v>
+      </c>
+      <c r="B63">
+        <v>-0.16903865300000001</v>
+      </c>
+      <c r="C63">
+        <v>0.61471527299999995</v>
+      </c>
+      <c r="D63">
+        <v>29.045090859999998</v>
+      </c>
+      <c r="E63">
+        <v>59.11790886</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" s="1">
+        <v>37803</v>
+      </c>
+      <c r="B64">
+        <v>0.81233562999999998</v>
+      </c>
+      <c r="C64">
+        <v>3.2278440000000002</v>
+      </c>
+      <c r="D64">
+        <v>34.32809091</v>
+      </c>
+      <c r="E64">
+        <v>68.519090640000002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" s="1">
+        <v>37834</v>
+      </c>
+      <c r="B65">
+        <v>0.390250337</v>
+      </c>
+      <c r="C65">
+        <v>2.0623170910000002</v>
+      </c>
+      <c r="D65">
+        <v>56.599090500000003</v>
+      </c>
+      <c r="E65">
+        <v>53.379363589999997</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" s="1">
+        <v>37865</v>
+      </c>
+      <c r="B66">
+        <v>-1.5010859459999999</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>70.874727140000005</v>
+      </c>
+      <c r="E66">
+        <v>41.057499909999997</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" s="1">
+        <v>38108</v>
+      </c>
+      <c r="B67">
+        <v>0.40207002600000002</v>
+      </c>
+      <c r="C67">
+        <v>2.9903074549999999</v>
+      </c>
+      <c r="D67">
+        <v>41.750409089999998</v>
+      </c>
+      <c r="E67">
+        <v>42.956136360000002</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" s="1">
+        <v>38139</v>
+      </c>
+      <c r="B68">
+        <v>-0.16903865300000001</v>
+      </c>
+      <c r="C68">
+        <v>0.61471527299999995</v>
+      </c>
+      <c r="D68">
+        <v>29.045090859999998</v>
+      </c>
+      <c r="E68">
+        <v>59.11790886</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" s="1">
+        <v>38169</v>
+      </c>
+      <c r="B69">
+        <v>0.81233562999999998</v>
+      </c>
+      <c r="C69">
+        <v>3.2278440000000002</v>
+      </c>
+      <c r="D69">
+        <v>34.32809091</v>
+      </c>
+      <c r="E69">
+        <v>68.519090640000002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" s="1">
+        <v>38200</v>
+      </c>
+      <c r="B70">
+        <v>0.390250337</v>
+      </c>
+      <c r="C70">
+        <v>2.0623170910000002</v>
+      </c>
+      <c r="D70">
+        <v>56.599090500000003</v>
+      </c>
+      <c r="E70">
+        <v>53.379363589999997</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" s="1">
+        <v>38231</v>
+      </c>
+      <c r="B71">
+        <v>-1.5010859459999999</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>70.874727140000005</v>
+      </c>
+      <c r="E71">
+        <v>41.057499909999997</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" s="1">
+        <v>38473</v>
+      </c>
+      <c r="B72">
+        <v>0.83946729899999994</v>
+      </c>
+      <c r="C72">
+        <v>3.6271045449999999</v>
+      </c>
+      <c r="D72">
+        <v>57.94727245</v>
+      </c>
+      <c r="E72">
+        <v>67.399454320000004</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" s="1">
+        <v>38504</v>
+      </c>
+      <c r="B73">
+        <v>0.23169582999999999</v>
+      </c>
+      <c r="C73">
+        <v>0.90823490900000003</v>
+      </c>
+      <c r="D73">
+        <v>49.611045320000002</v>
+      </c>
+      <c r="E73">
+        <v>68.043772680000004</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" s="1">
+        <v>38534</v>
+      </c>
+      <c r="B74">
+        <v>-0.69720373099999999</v>
+      </c>
+      <c r="C74">
+        <v>0.90823490900000003</v>
+      </c>
+      <c r="D74">
+        <v>39.489272679999999</v>
+      </c>
+      <c r="E74">
+        <v>41.42386355</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" s="1">
+        <v>38565</v>
+      </c>
+      <c r="B75">
+        <v>-0.40649992400000001</v>
+      </c>
+      <c r="C75">
+        <v>0.90823490900000003</v>
+      </c>
+      <c r="D75">
+        <v>31.53372723</v>
+      </c>
+      <c r="E75">
+        <v>20.885545449999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" s="1">
+        <v>38596</v>
+      </c>
+      <c r="B76">
+        <v>0.45624809399999999</v>
+      </c>
+      <c r="C76">
+        <v>0.90823490900000003</v>
+      </c>
+      <c r="D76">
+        <v>32.093954549999999</v>
+      </c>
+      <c r="E76">
+        <v>11.9815</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" s="1">
+        <v>38838</v>
+      </c>
+      <c r="B77">
+        <v>0.38622188699999999</v>
+      </c>
+      <c r="C77">
+        <v>2.9687336360000001</v>
+      </c>
+      <c r="D77">
+        <v>29.89627273</v>
+      </c>
+      <c r="E77">
+        <v>41.91704541</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" s="1">
+        <v>38869</v>
+      </c>
+      <c r="B78">
+        <v>7.5039988000000002E-2</v>
+      </c>
+      <c r="C78">
+        <v>0.78414399999999995</v>
+      </c>
+      <c r="D78">
+        <v>25.349636360000002</v>
+      </c>
+      <c r="E78">
+        <v>37.634136269999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" s="1">
+        <v>38899</v>
+      </c>
+      <c r="B79">
+        <v>-1.5188398000000001</v>
+      </c>
+      <c r="C79">
+        <v>0.26664727300000002</v>
+      </c>
+      <c r="D79">
+        <v>23.114363640000001</v>
+      </c>
+      <c r="E79">
+        <v>51.908454499999998</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80" s="1">
+        <v>38930</v>
+      </c>
+      <c r="B80">
+        <v>2.443026498</v>
+      </c>
+      <c r="C80">
+        <v>8.2925900000000006</v>
+      </c>
+      <c r="D80">
+        <v>24.164681819999998</v>
+      </c>
+      <c r="E80">
+        <v>46.179681500000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81" s="1">
+        <v>38961</v>
+      </c>
+      <c r="B81">
+        <v>-0.33612974800000001</v>
+      </c>
+      <c r="C81">
+        <v>0.216249091</v>
+      </c>
+      <c r="D81">
+        <v>38.470999910000003</v>
+      </c>
+      <c r="E81">
+        <v>62.969454409999997</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82" s="1">
+        <v>39203</v>
+      </c>
+      <c r="B82">
+        <v>0.48953523100000002</v>
+      </c>
+      <c r="C82">
+        <v>3.1112358000000002</v>
+      </c>
+      <c r="D82">
+        <v>80.677908770000002</v>
+      </c>
+      <c r="E82">
+        <v>30.878272729999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83" s="1">
+        <v>39234</v>
+      </c>
+      <c r="B83">
+        <v>-0.79694384500000004</v>
+      </c>
+      <c r="C83">
+        <v>0.29906882400000001</v>
+      </c>
+      <c r="D83">
+        <v>57.654727090000002</v>
+      </c>
+      <c r="E83">
+        <v>45.425272550000003</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84" s="1">
+        <v>39264</v>
+      </c>
+      <c r="B84">
+        <v>-0.48113352100000001</v>
+      </c>
+      <c r="C84">
+        <v>1.1361674509999999</v>
+      </c>
+      <c r="D84">
+        <v>42.866545360000003</v>
+      </c>
+      <c r="E84">
+        <v>34.027954450000003</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85" s="1">
+        <v>39295</v>
+      </c>
+      <c r="B85">
+        <v>0.82279285300000005</v>
+      </c>
+      <c r="C85">
+        <v>2.958944314</v>
+      </c>
+      <c r="D85">
+        <v>35.018999999999998</v>
+      </c>
+      <c r="E85">
+        <v>20.30686364</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A86" s="1">
+        <v>39326</v>
+      </c>
+      <c r="B86">
+        <v>1.4885473220000001</v>
+      </c>
+      <c r="C86">
+        <v>2.958944314</v>
+      </c>
+      <c r="D86">
+        <v>37.879909050000002</v>
+      </c>
+      <c r="E86">
+        <v>23.75981818</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87" s="1">
+        <v>39569</v>
+      </c>
+      <c r="B87">
+        <v>0.53129171600000002</v>
+      </c>
+      <c r="C87">
+        <v>3.1700861819999999</v>
+      </c>
+      <c r="D87">
+        <v>42.014909090000003</v>
+      </c>
+      <c r="E87">
+        <v>43.083090859999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88" s="1">
+        <v>39600</v>
+      </c>
+      <c r="B88">
+        <v>6.2603382999999999E-2</v>
+      </c>
+      <c r="C88">
+        <v>0.77481745499999999</v>
+      </c>
+      <c r="D88">
+        <v>27.954772729999998</v>
+      </c>
+      <c r="E88">
+        <v>63.525227090000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A89" s="1">
+        <v>39630</v>
+      </c>
+      <c r="B89">
+        <v>0.60697518500000003</v>
+      </c>
+      <c r="C89">
+        <v>2.8032541819999999</v>
+      </c>
+      <c r="D89">
+        <v>33.057181679999999</v>
+      </c>
+      <c r="E89">
+        <v>33.616318049999997</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90" s="1">
+        <v>39661</v>
+      </c>
+      <c r="B90">
+        <v>-0.49475569699999999</v>
+      </c>
+      <c r="C90">
+        <v>0.81555709099999996</v>
+      </c>
+      <c r="D90">
+        <v>40.333681820000002</v>
+      </c>
+      <c r="E90">
+        <v>23.142818179999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91" s="1">
+        <v>39692</v>
+      </c>
+      <c r="B91">
+        <v>-1.0496387650000001</v>
+      </c>
+      <c r="C91">
+        <v>2.1305091000000002E-2</v>
+      </c>
+      <c r="D91">
+        <v>46.186454550000001</v>
+      </c>
+      <c r="E91">
+        <v>21.622045450000002</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A92" s="1">
+        <v>39934</v>
+      </c>
+      <c r="B92">
+        <v>-6.2935370989999999</v>
+      </c>
+      <c r="C92">
+        <v>9.5067269999999995E-3</v>
+      </c>
+      <c r="D92">
+        <v>52.537999859999999</v>
+      </c>
+      <c r="E92">
+        <v>38.333409000000003</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93" s="1">
+        <v>39965</v>
+      </c>
+      <c r="B93">
+        <v>0.37767542700000001</v>
+      </c>
+      <c r="C93">
+        <v>1.0351790910000001</v>
+      </c>
+      <c r="D93">
+        <v>43.242272730000003</v>
+      </c>
+      <c r="E93">
+        <v>25.765727269999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94" s="1">
+        <v>39995</v>
+      </c>
+      <c r="B94">
+        <v>-0.350354689</v>
+      </c>
+      <c r="C94">
+        <v>1.2891103639999999</v>
+      </c>
+      <c r="D94">
+        <v>33.55831809</v>
+      </c>
+      <c r="E94">
+        <v>18.482227269999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95" s="1">
+        <v>40026</v>
+      </c>
+      <c r="B95">
+        <v>-1.2517711419999999</v>
+      </c>
+      <c r="C95">
+        <v>0.24991163599999999</v>
+      </c>
+      <c r="D95">
+        <v>29.277590910000001</v>
+      </c>
+      <c r="E95">
+        <v>14.67963636</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96" s="1">
+        <v>40057</v>
+      </c>
+      <c r="B96">
+        <v>-4.3899288000000002E-2</v>
+      </c>
+      <c r="C96">
+        <v>0.39811563599999999</v>
+      </c>
+      <c r="D96">
+        <v>27.106772679999999</v>
+      </c>
+      <c r="E96">
+        <v>14.87822727</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A97" s="1">
+        <v>40299</v>
+      </c>
+      <c r="B97">
+        <v>0.39030109099999999</v>
+      </c>
+      <c r="C97">
+        <v>2.9742767269999999</v>
+      </c>
+      <c r="D97">
+        <v>50.926681770000002</v>
+      </c>
+      <c r="E97">
+        <v>6.5215909090000004</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A98" s="1">
+        <v>40330</v>
+      </c>
+      <c r="B98">
+        <v>1.530418442</v>
+      </c>
+      <c r="C98">
+        <v>2.4578909090000001</v>
+      </c>
+      <c r="D98">
+        <v>58.881909</v>
+      </c>
+      <c r="E98">
+        <v>15.56286364</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A99" s="1">
+        <v>40360</v>
+      </c>
+      <c r="B99">
+        <v>1.5070557570000001</v>
+      </c>
+      <c r="C99">
+        <v>4.9528014550000004</v>
+      </c>
+      <c r="D99">
+        <v>65.722999680000001</v>
+      </c>
+      <c r="E99">
+        <v>27.80545455</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A100" s="1">
+        <v>40391</v>
+      </c>
+      <c r="B100">
+        <v>0.197263087</v>
+      </c>
+      <c r="C100">
+        <v>1.7265116359999999</v>
+      </c>
+      <c r="D100">
+        <v>75.468954409999995</v>
+      </c>
+      <c r="E100">
+        <v>42.925136270000003</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A101" s="1">
+        <v>40422</v>
+      </c>
+      <c r="B101">
+        <v>0.72808197900000005</v>
+      </c>
+      <c r="C101">
+        <v>1.308907273</v>
+      </c>
+      <c r="D101">
+        <v>86.895408639999999</v>
+      </c>
+      <c r="E101">
+        <v>50.033909049999998</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A102" s="1">
+        <v>40664</v>
+      </c>
+      <c r="B102">
+        <v>0.39854222500000003</v>
+      </c>
+      <c r="C102">
+        <v>2.9854961819999999</v>
+      </c>
+      <c r="D102">
+        <v>67.188135950000003</v>
+      </c>
+      <c r="E102">
+        <v>34.435454499999999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A103" s="1">
+        <v>40695</v>
+      </c>
+      <c r="B103">
+        <v>-1.59854385</v>
+      </c>
+      <c r="C103">
+        <v>9.3167454999999996E-2</v>
+      </c>
+      <c r="D103">
+        <v>51.742681730000001</v>
+      </c>
+      <c r="E103">
+        <v>39.630409049999997</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A104" s="1">
+        <v>40725</v>
+      </c>
+      <c r="B104">
+        <v>9.0308920000000001E-2</v>
+      </c>
+      <c r="C104">
+        <v>1.895526182</v>
+      </c>
+      <c r="D104">
+        <v>46.190545409999999</v>
+      </c>
+      <c r="E104">
+        <v>33.366409050000001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A105" s="1">
+        <v>40756</v>
+      </c>
+      <c r="B105">
+        <v>1.1922259129999999</v>
+      </c>
+      <c r="C105">
+        <v>3.8919098179999998</v>
+      </c>
+      <c r="D105">
+        <v>44.511363590000002</v>
+      </c>
+      <c r="E105">
+        <v>38.477772639999998</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A106" s="1">
+        <v>40787</v>
+      </c>
+      <c r="B106">
+        <v>1.586627217</v>
+      </c>
+      <c r="C106">
+        <v>3.2321169090000001</v>
+      </c>
+      <c r="D106">
+        <v>49.060499819999997</v>
+      </c>
+      <c r="E106">
+        <v>66.711863410000007</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A107" s="1">
+        <v>41030</v>
+      </c>
+      <c r="B107">
+        <v>0.49578688500000001</v>
+      </c>
+      <c r="C107">
+        <v>3.1200005449999999</v>
+      </c>
+      <c r="D107">
+        <v>90.451499319999996</v>
+      </c>
+      <c r="E107">
+        <v>43.921045319999998</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A108" s="1">
+        <v>41061</v>
+      </c>
+      <c r="B108">
+        <v>-0.90309672500000004</v>
+      </c>
+      <c r="C108">
+        <v>0.260750182</v>
+      </c>
+      <c r="D108">
+        <v>81.845999680000006</v>
+      </c>
+      <c r="E108">
+        <v>24.013500000000001</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A109" s="1">
+        <v>41091</v>
+      </c>
+      <c r="B109">
+        <v>-1.2188395190000001</v>
+      </c>
+      <c r="C109">
+        <v>0.46817145500000001</v>
+      </c>
+      <c r="D109">
+        <v>66.150772500000002</v>
+      </c>
+      <c r="E109">
+        <v>84.365455949999998</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A110" s="1">
+        <v>41122</v>
+      </c>
+      <c r="B110">
+        <v>1.460947856</v>
+      </c>
+      <c r="C110">
+        <v>4.6722347270000002</v>
+      </c>
+      <c r="D110">
+        <v>39.940181770000002</v>
+      </c>
+      <c r="E110">
+        <v>22.710909050000001</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A111" s="1">
+        <v>41153</v>
+      </c>
+      <c r="B111">
+        <v>0.51189115799999996</v>
+      </c>
+      <c r="C111">
+        <v>0.98271654500000005</v>
+      </c>
+      <c r="D111">
+        <v>39.117227139999997</v>
+      </c>
+      <c r="E111">
+        <v>39.494372499999997</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A112" s="1">
+        <v>41395</v>
+      </c>
+      <c r="B112">
+        <v>0.41766682399999999</v>
+      </c>
+      <c r="C112">
+        <v>3.0116399999999999</v>
+      </c>
+      <c r="D112">
+        <v>64.704772270000007</v>
+      </c>
+      <c r="E112">
+        <v>35.836499949999997</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A113" s="1">
+        <v>41426</v>
+      </c>
+      <c r="B113">
+        <v>0.371630501</v>
+      </c>
+      <c r="C113">
+        <v>1.029700909</v>
+      </c>
+      <c r="D113">
+        <v>46.31181814</v>
+      </c>
+      <c r="E113">
+        <v>60.641636269999999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A114" s="1">
+        <v>41456</v>
+      </c>
+      <c r="B114">
+        <v>-0.31016204400000003</v>
+      </c>
+      <c r="C114">
+        <v>1.3384969090000001</v>
+      </c>
+      <c r="D114">
+        <v>22.13863632</v>
+      </c>
+      <c r="E114">
+        <v>60.69704514</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A115" s="1">
+        <v>41487</v>
+      </c>
+      <c r="B115">
+        <v>1.0255246440000001</v>
+      </c>
+      <c r="C115">
+        <v>3.4512414549999999</v>
+      </c>
+      <c r="D115">
+        <v>29.988590909999999</v>
+      </c>
+      <c r="E115">
+        <v>40.960590910000001</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A116" s="1">
+        <v>41518</v>
+      </c>
+      <c r="B116">
+        <v>-5.8326536999999998E-2</v>
+      </c>
+      <c r="C116">
+        <v>0.38731690899999999</v>
+      </c>
+      <c r="D116">
+        <v>48.569272589999997</v>
+      </c>
+      <c r="E116">
+        <v>31.528136360000001</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A117" s="1">
+        <v>41760</v>
+      </c>
+      <c r="B117">
+        <v>0.62530055600000001</v>
+      </c>
+      <c r="C117">
+        <v>3.3052452730000002</v>
+      </c>
+      <c r="D117">
+        <v>62.96322705</v>
+      </c>
+      <c r="E117">
+        <v>52.089999949999999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A118" s="1">
+        <v>41791</v>
+      </c>
+      <c r="B118">
+        <v>-2.0897159040000002</v>
+      </c>
+      <c r="C118">
+        <v>3.8491455000000001E-2</v>
+      </c>
+      <c r="D118">
+        <v>44.653363589999998</v>
+      </c>
+      <c r="E118">
+        <v>48.186181679999997</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A119" s="1">
+        <v>41821</v>
+      </c>
+      <c r="B119">
+        <v>-5.3164495999999999E-2</v>
+      </c>
+      <c r="C119">
+        <v>1.6820067270000001</v>
+      </c>
+      <c r="D119">
+        <v>20.088954449999999</v>
+      </c>
+      <c r="E119">
+        <v>45.582636229999999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A120" s="1">
+        <v>41852</v>
+      </c>
+      <c r="B120">
+        <v>-0.70065961600000004</v>
+      </c>
+      <c r="C120">
+        <v>0.62312854500000003</v>
+      </c>
+      <c r="D120">
+        <v>25.911000000000001</v>
+      </c>
+      <c r="E120">
+        <v>37.774227140000001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A121" s="1">
+        <v>41883</v>
+      </c>
+      <c r="B121">
+        <v>-0.52161407699999995</v>
+      </c>
+      <c r="C121">
+        <v>0.13674509100000001</v>
+      </c>
+      <c r="D121">
+        <v>40.657636359999998</v>
+      </c>
+      <c r="E121">
+        <v>31.5015</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A122" s="1">
+        <v>42125</v>
+      </c>
+      <c r="B122">
+        <v>0.53843812999999996</v>
+      </c>
+      <c r="C122">
+        <v>3.1802309090000001</v>
+      </c>
+      <c r="D122">
+        <v>58.670499730000003</v>
+      </c>
+      <c r="E122">
+        <v>39.33004536</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A123" s="1">
+        <v>42156</v>
+      </c>
+      <c r="B123">
+        <v>0.65929930599999997</v>
+      </c>
+      <c r="C123">
+        <v>1.3122450910000001</v>
+      </c>
+      <c r="D123">
+        <v>40.432454450000002</v>
+      </c>
+      <c r="E123">
+        <v>62.670908820000001</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A124" s="1">
+        <v>42186</v>
+      </c>
+      <c r="B124">
+        <v>1.2257285179999999</v>
+      </c>
+      <c r="C124">
+        <v>4.1992292730000003</v>
+      </c>
+      <c r="D124">
+        <v>17.838545409999998</v>
+      </c>
+      <c r="E124">
+        <v>58.115227050000001</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A125" s="1">
+        <v>42217</v>
+      </c>
+      <c r="B125">
+        <v>-0.17206270300000001</v>
+      </c>
+      <c r="C125">
+        <v>1.1863692729999999</v>
+      </c>
+      <c r="D125">
+        <v>31.21118173</v>
+      </c>
+      <c r="E125">
+        <v>38.184863640000003</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A126" s="1">
+        <v>42248</v>
+      </c>
+      <c r="B126">
+        <v>0.898702326</v>
+      </c>
+      <c r="C126">
+        <v>1.609299636</v>
+      </c>
+      <c r="D126">
+        <v>53.247136140000002</v>
+      </c>
+      <c r="E126">
+        <v>26.158909090000002</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A127" s="1">
+        <v>42491</v>
+      </c>
+      <c r="B127">
+        <v>0.4947397</v>
+      </c>
+      <c r="C127">
+        <v>3.1185312729999999</v>
+      </c>
+      <c r="D127">
+        <v>66.700590910000003</v>
+      </c>
+      <c r="E127">
+        <v>43.551454550000003</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A128" s="1">
+        <v>42522</v>
+      </c>
+      <c r="B128">
+        <v>-0.16372046800000001</v>
+      </c>
+      <c r="C128">
+        <v>0.61810781800000003</v>
+      </c>
+      <c r="D128">
+        <v>44.914454450000001</v>
+      </c>
+      <c r="E128">
+        <v>48.635363550000001</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A129" s="1">
+        <v>42552</v>
+      </c>
+      <c r="B129">
+        <v>-0.28985074199999999</v>
+      </c>
+      <c r="C129">
+        <v>1.3638896359999999</v>
+      </c>
+      <c r="D129">
+        <v>19.432727270000001</v>
+      </c>
+      <c r="E129">
+        <v>57.21568164</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A130" s="1">
+        <v>42583</v>
+      </c>
+      <c r="B130">
+        <v>0.30703115600000003</v>
+      </c>
+      <c r="C130">
+        <v>1.9128223639999999</v>
+      </c>
+      <c r="D130">
+        <v>29.288909090000001</v>
+      </c>
+      <c r="E130">
+        <v>42.04954532</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A131" s="1">
+        <v>42614</v>
+      </c>
+      <c r="B131">
+        <v>-0.51393948700000003</v>
+      </c>
+      <c r="C131">
+        <v>0.139551273</v>
+      </c>
+      <c r="D131">
+        <v>6.5334543639999998</v>
+      </c>
+      <c r="E131">
+        <v>33.46604541</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A132" s="1">
+        <v>42856</v>
+      </c>
+      <c r="B132">
+        <v>0.89331495800000005</v>
+      </c>
+      <c r="C132">
+        <v>3.7111139999999998</v>
+      </c>
+      <c r="D132">
+        <v>58.460818000000003</v>
+      </c>
+      <c r="E132">
+        <v>28.620909050000002</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A133" s="1">
+        <v>42887</v>
+      </c>
+      <c r="B133">
+        <v>0.588652234</v>
+      </c>
+      <c r="C133">
+        <v>1.238666</v>
+      </c>
+      <c r="D133">
+        <v>41.283636270000002</v>
+      </c>
+      <c r="E133">
+        <v>53.895409000000001</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A134" s="1">
+        <v>42917</v>
+      </c>
+      <c r="B134">
+        <v>1.1620337300000001</v>
+      </c>
+      <c r="C134">
+        <v>4.0391534550000001</v>
+      </c>
+      <c r="D134">
+        <v>22.60304541</v>
+      </c>
+      <c r="E134">
+        <v>59.768499730000002</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A135" s="1">
+        <v>42948</v>
+      </c>
+      <c r="B135">
+        <v>-0.55685753000000004</v>
+      </c>
+      <c r="C135">
+        <v>0.75408963600000001</v>
+      </c>
+      <c r="D135">
+        <v>38.63804536</v>
+      </c>
+      <c r="E135">
+        <v>43.633045410000001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A136" s="1">
+        <v>42979</v>
+      </c>
+      <c r="B136">
+        <v>-0.87731666200000002</v>
+      </c>
+      <c r="C136">
+        <v>4.4602727000000002E-2</v>
+      </c>
+      <c r="D136">
+        <v>12.144408950000001</v>
+      </c>
+      <c r="E136">
+        <v>31.123181819999999</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A137" s="1">
+        <v>43221</v>
+      </c>
+      <c r="B137">
+        <v>-3.7348471569999999</v>
+      </c>
+      <c r="C137">
+        <v>0.19335781799999999</v>
+      </c>
+      <c r="D137">
+        <v>59.147590639999997</v>
+      </c>
+      <c r="E137">
+        <v>11.3345</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A138" s="1">
+        <v>43252</v>
+      </c>
+      <c r="B138">
+        <v>0.27413875999999998</v>
+      </c>
+      <c r="C138">
+        <v>0.944000909</v>
+      </c>
+      <c r="D138">
+        <v>40.859090770000002</v>
+      </c>
+      <c r="E138">
+        <v>22.00136359</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A139" s="1">
+        <v>43282</v>
+      </c>
+      <c r="B139">
+        <v>-0.29995592399999998</v>
+      </c>
+      <c r="C139">
+        <v>1.3512196359999999</v>
+      </c>
+      <c r="D139">
+        <v>18.765772680000001</v>
+      </c>
+      <c r="E139">
+        <v>40.779409049999998</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A140" s="1">
+        <v>43313</v>
+      </c>
+      <c r="B140">
+        <v>-0.33148645700000001</v>
+      </c>
+      <c r="C140">
+        <v>0.99207472699999999</v>
+      </c>
+      <c r="D140">
+        <v>27.945999950000001</v>
+      </c>
+      <c r="E140">
+        <v>36.760909089999998</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A141" s="1">
+        <v>43344</v>
+      </c>
+      <c r="B141">
+        <v>-0.527452001</v>
+      </c>
+      <c r="C141">
+        <v>0.13463672700000001</v>
+      </c>
+      <c r="D141">
+        <v>42.012636319999999</v>
+      </c>
+      <c r="E141">
+        <v>30.340090910000001</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A142" s="1">
+        <v>43586</v>
+      </c>
+      <c r="B142">
+        <v>-2.0580658829999998</v>
+      </c>
+      <c r="C142">
+        <v>0.749246364</v>
+      </c>
+      <c r="D142">
+        <v>57.407272640000002</v>
+      </c>
+      <c r="E142">
+        <v>53.246772640000003</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A143" s="1">
+        <v>43617</v>
+      </c>
+      <c r="B143">
+        <v>0.43486194500000003</v>
+      </c>
+      <c r="C143">
+        <v>1.0879647269999999</v>
+      </c>
+      <c r="D143">
+        <v>39.967499949999997</v>
+      </c>
+      <c r="E143">
+        <v>52.553454410000001</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A144" s="1">
+        <v>43647</v>
+      </c>
+      <c r="B144">
+        <v>-0.68524298800000005</v>
+      </c>
+      <c r="C144">
+        <v>0.92008254499999997</v>
+      </c>
+      <c r="D144">
+        <v>17.311636320000002</v>
+      </c>
+      <c r="E144">
+        <v>52.258999860000003</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A145" s="1">
+        <v>43678</v>
+      </c>
+      <c r="B145">
+        <v>3.4934082999999998E-2</v>
+      </c>
+      <c r="C145">
+        <v>1.4730329090000001</v>
+      </c>
+      <c r="D145">
+        <v>25.045272730000001</v>
+      </c>
+      <c r="E145">
+        <v>39.8353635</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A146" s="1">
+        <v>43709</v>
+      </c>
+      <c r="B146">
+        <v>0.75757136999999997</v>
+      </c>
+      <c r="C146">
+        <v>1.3580639999999999</v>
+      </c>
+      <c r="D146">
+        <v>42.012636319999999</v>
+      </c>
+      <c r="E146">
+        <v>36.666090910000001</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A147" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B147">
+        <v>-3.620798819</v>
+      </c>
+      <c r="C147">
+        <v>0.214939818</v>
+      </c>
+      <c r="D147">
+        <v>61.607135999999997</v>
+      </c>
+      <c r="E147">
+        <v>60.280681549999997</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A148" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B148">
+        <v>-2.0621799999999999E-2</v>
+      </c>
+      <c r="C148">
+        <v>0.71434818200000005</v>
+      </c>
+      <c r="D148">
+        <v>42.846409000000001</v>
+      </c>
+      <c r="E148">
+        <v>67.012090729999997</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A149" s="1">
+        <v>44013</v>
+      </c>
+      <c r="B149">
+        <v>-9.4565803000000004E-2</v>
+      </c>
+      <c r="C149">
+        <v>1.623346</v>
+      </c>
+      <c r="D149">
+        <v>19.875727269999999</v>
+      </c>
+      <c r="E149">
+        <v>58.164499550000002</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A150" s="1">
+        <v>44044</v>
+      </c>
+      <c r="B150">
+        <v>0.917953354</v>
+      </c>
+      <c r="C150">
+        <v>3.1841370910000002</v>
+      </c>
+      <c r="D150">
+        <v>30.65186345</v>
+      </c>
+      <c r="E150">
+        <v>39.697818050000002</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A151" s="1">
+        <v>44075</v>
+      </c>
+      <c r="B151">
+        <v>1.1986394869999999</v>
+      </c>
+      <c r="C151">
+        <v>2.2337670909999998</v>
+      </c>
+      <c r="D151">
+        <v>3.8024544090000001</v>
+      </c>
+      <c r="E151">
+        <v>37.88859077</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ujjawal\AppData\Local\Programs\Python\Python39\phd_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{257B3F75-621B-46D2-BB7F-D70FD92B8325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{B8546A2D-F7B3-4302-9EAB-4E5BD56154D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="SPI3" sheetId="1" r:id="rId1"/>
+    <sheet name="SPI1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -39,7 +39,7 @@
     <t>TCI</t>
   </si>
   <si>
-    <t>SPI1</t>
+    <t>SPI2</t>
   </si>
 </sst>
 </file>
@@ -866,8 +866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E151"/>
   <sheetViews>
-    <sheetView topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="I150" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I144" sqref="I144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -3448,8 +3448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="B152" sqref="B152:B272"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ujjawal\AppData\Local\Programs\Python\Python39\phd_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{B8546A2D-F7B3-4302-9EAB-4E5BD56154D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{43DDECB4-F0B4-4A3F-9474-A9A262C90AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SPI3" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
   <si>
     <t>Month</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>TCI</t>
-  </si>
-  <si>
-    <t>SPI2</t>
   </si>
 </sst>
 </file>
@@ -866,7 +863,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I144" sqref="I144"/>
     </sheetView>
   </sheetViews>
@@ -3448,7 +3445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E151"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -3459,7 +3456,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ujjawal\AppData\Local\Programs\Python\Python39\phd_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{43DDECB4-F0B4-4A3F-9474-A9A262C90AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{05963BA3-C6E3-4C94-BC19-6216CC0889FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SPI3" sheetId="1" r:id="rId1"/>
     <sheet name="SPI1" sheetId="2" r:id="rId2"/>
+    <sheet name="Uni_SPI1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="5">
   <si>
     <t>Month</t>
   </si>
@@ -3445,8 +3446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -6021,4 +6022,774 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A151"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>0.443657684</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>-0.390903102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>-1.1406550440000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>-0.205048603</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>-0.46552908599999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>0.48591820400000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>-0.97653967600000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>-0.11773096399999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>0.46141678200000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>1.492679748</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>0.44947251900000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>0.779939983</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>1.4748216350000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>-1.833914636</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>0.48317251</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>-0.196110116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>-0.57603730799999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>1.552696632</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>6.0288709000000003E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>1.203975349</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>0.44326736100000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>-0.67811572399999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>1.2447350260000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>-0.20033488999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>-8.7698729999999992E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>1.0909838220000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>2.5465447120000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>-0.50921749500000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>-0.52057829200000005</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>-0.798035143</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>0.738375644</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>1.7210064869999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>-0.80772951299999995</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>-0.15690743500000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>-0.155283584</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>0.38589372100000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>0.34742319900000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>0.121055939</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>-0.48779397299999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>1.608817121</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>2.2219626080000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>-0.10435270100000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>-1.177605164</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>1.470682555</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>-1.1056887660000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>-6.8242493160000004</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>-1.2265367869999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>0.46211000299999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>-1.0972959170000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>-0.779073342</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>0.62110289600000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>0.96721336000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>1.2280267309999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>1.3395687999999999E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>-0.68796082400000003</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>-3.8504461280000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>-0.32792738100000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>-1.833914636</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>-1.7967472099999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>-2.1757505E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>0.40207002600000002</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>-0.16903865300000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>0.81233562999999998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>0.390250337</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>-1.5010859459999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>0.40207002600000002</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>-0.16903865300000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>0.81233562999999998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>0.390250337</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>-1.5010859459999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>0.83946729899999994</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>0.23169582999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>-0.69720373099999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>-0.40649992400000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>0.45624809399999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>0.38622188699999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>7.5039988000000002E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>-1.5188398000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>2.443026498</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>-0.33612974800000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>0.48953523100000002</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>-0.79694384500000004</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>-0.48113352100000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>0.82279285300000005</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>1.4885473220000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>0.53129171600000002</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>6.2603382999999999E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>0.60697518500000003</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>-0.49475569699999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>-1.0496387650000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>-6.2935370989999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>0.37767542700000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>-0.350354689</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>-1.2517711419999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>-4.3899288000000002E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>0.39030109099999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>1.530418442</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>1.5070557570000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>0.197263087</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>0.72808197900000005</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>0.39854222500000003</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>-1.59854385</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>9.0308920000000001E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>1.1922259129999999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>1.586627217</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>0.49578688500000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>-0.90309672500000004</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>-1.2188395190000001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <v>1.460947856</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>0.51189115799999996</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>0.41766682399999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <v>0.371630501</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <v>-0.31016204400000003</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A115">
+        <v>1.0255246440000001</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A116">
+        <v>-5.8326536999999998E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A117">
+        <v>0.62530055600000001</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A118">
+        <v>-2.0897159040000002</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A119">
+        <v>-5.3164495999999999E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A120">
+        <v>-0.70065961600000004</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A121">
+        <v>-0.52161407699999995</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A122">
+        <v>0.53843812999999996</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A123">
+        <v>0.65929930599999997</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A124">
+        <v>1.2257285179999999</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A125">
+        <v>-0.17206270300000001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A126">
+        <v>0.898702326</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A127">
+        <v>0.4947397</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A128">
+        <v>-0.16372046800000001</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A129">
+        <v>-0.28985074199999999</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A130">
+        <v>0.30703115600000003</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A131">
+        <v>-0.51393948700000003</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A132">
+        <v>0.89331495800000005</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A133">
+        <v>0.588652234</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A134">
+        <v>1.1620337300000001</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A135">
+        <v>-0.55685753000000004</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A136">
+        <v>-0.87731666200000002</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A137">
+        <v>-3.7348471569999999</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A138">
+        <v>0.27413875999999998</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A139">
+        <v>-0.29995592399999998</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A140">
+        <v>-0.33148645700000001</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A141">
+        <v>-0.527452001</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A142">
+        <v>-2.0580658829999998</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A143">
+        <v>0.43486194500000003</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A144">
+        <v>-0.68524298800000005</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A145">
+        <v>3.4934082999999998E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A146">
+        <v>0.75757136999999997</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A147">
+        <v>-3.620798819</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A148">
+        <v>-2.0621799999999999E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A149">
+        <v>-9.4565803000000004E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A150">
+        <v>0.917953354</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A151">
+        <v>1.1986394869999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ujjawal\AppData\Local\Programs\Python\Python39\phd_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{05963BA3-C6E3-4C94-BC19-6216CC0889FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{24BFF11E-EACD-40BB-AC63-CD8CC6461F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="SPI3" sheetId="1" r:id="rId1"/>
@@ -862,13 +862,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E151"/>
+  <dimension ref="A1:E206"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I144" sqref="I144"/>
+    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="B197" sqref="B197:E206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -3435,6 +3438,836 @@
       </c>
       <c r="E151">
         <v>37.88859077</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A152" s="1">
+        <v>44317</v>
+      </c>
+      <c r="B152">
+        <v>0.443657684</v>
+      </c>
+      <c r="C152">
+        <v>3.047411818</v>
+      </c>
+      <c r="D152">
+        <v>47.489499819999999</v>
+      </c>
+      <c r="E152">
+        <v>38.58304545</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A153" s="1">
+        <v>44348</v>
+      </c>
+      <c r="B153">
+        <v>0.112494049</v>
+      </c>
+      <c r="C153">
+        <v>0.48448945500000001</v>
+      </c>
+      <c r="D153">
+        <v>38.865454499999998</v>
+      </c>
+      <c r="E153">
+        <v>23.006499949999998</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A154" s="1">
+        <v>44378</v>
+      </c>
+      <c r="B154">
+        <v>-0.55924382699999997</v>
+      </c>
+      <c r="C154">
+        <v>0.525606727</v>
+      </c>
+      <c r="D154">
+        <v>32.03268173</v>
+      </c>
+      <c r="E154">
+        <v>2.7467272729999999</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A155" s="1">
+        <v>44409</v>
+      </c>
+      <c r="B155">
+        <v>-1.631902489</v>
+      </c>
+      <c r="C155">
+        <v>1.1443267269999999</v>
+      </c>
+      <c r="D155">
+        <v>20.649636359999999</v>
+      </c>
+      <c r="E155">
+        <v>4.4108636360000002</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A156" s="1">
+        <v>44440</v>
+      </c>
+      <c r="B156">
+        <v>-1.505868325</v>
+      </c>
+      <c r="C156">
+        <v>0.15817472699999999</v>
+      </c>
+      <c r="D156">
+        <v>16.984545449999999</v>
+      </c>
+      <c r="E156">
+        <v>10.71536364</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A157" s="1">
+        <v>44682</v>
+      </c>
+      <c r="B157">
+        <v>-2.0580658829999998</v>
+      </c>
+      <c r="C157">
+        <v>0.749246364</v>
+      </c>
+      <c r="D157">
+        <v>57.407272640000002</v>
+      </c>
+      <c r="E157">
+        <v>53.246772640000003</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A158" s="1">
+        <v>44713</v>
+      </c>
+      <c r="B158">
+        <v>-1.0451221829999999</v>
+      </c>
+      <c r="C158">
+        <v>1.0879647269999999</v>
+      </c>
+      <c r="D158">
+        <v>39.967499949999997</v>
+      </c>
+      <c r="E158">
+        <v>52.553454410000001</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A159" s="1">
+        <v>44743</v>
+      </c>
+      <c r="B159">
+        <v>-1.257993914</v>
+      </c>
+      <c r="C159">
+        <v>0.92008254499999997</v>
+      </c>
+      <c r="D159">
+        <v>17.311636320000002</v>
+      </c>
+      <c r="E159">
+        <v>52.258999860000003</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A160" s="1">
+        <v>44774</v>
+      </c>
+      <c r="B160">
+        <v>-0.67583829699999998</v>
+      </c>
+      <c r="C160">
+        <v>1.4730329090000001</v>
+      </c>
+      <c r="D160">
+        <v>25.045272730000001</v>
+      </c>
+      <c r="E160">
+        <v>39.8353635</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A161" s="1">
+        <v>44805</v>
+      </c>
+      <c r="B161">
+        <v>-0.34262161499999999</v>
+      </c>
+      <c r="C161">
+        <v>1.3580639999999999</v>
+      </c>
+      <c r="D161">
+        <v>42.012636319999999</v>
+      </c>
+      <c r="E161">
+        <v>36.666090910000001</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A162" s="1">
+        <v>45047</v>
+      </c>
+      <c r="B162">
+        <v>0.4947397</v>
+      </c>
+      <c r="C162">
+        <v>3.1185312729999999</v>
+      </c>
+      <c r="D162">
+        <v>66.700590910000003</v>
+      </c>
+      <c r="E162">
+        <v>43.551454550000003</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A163" s="1">
+        <v>45444</v>
+      </c>
+      <c r="B163">
+        <v>0.22410369999999999</v>
+      </c>
+      <c r="C163">
+        <v>0.61810781800000003</v>
+      </c>
+      <c r="D163">
+        <v>44.914454450000001</v>
+      </c>
+      <c r="E163">
+        <v>48.635363550000001</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A164" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B164">
+        <v>-0.10425334</v>
+      </c>
+      <c r="C164">
+        <v>1.3638896359999999</v>
+      </c>
+      <c r="D164">
+        <v>19.432727270000001</v>
+      </c>
+      <c r="E164">
+        <v>57.21568164</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A165" s="1">
+        <v>46235</v>
+      </c>
+      <c r="B165">
+        <v>-0.43107942799999999</v>
+      </c>
+      <c r="C165">
+        <v>1.9128223639999999</v>
+      </c>
+      <c r="D165">
+        <v>29.288909090000001</v>
+      </c>
+      <c r="E165">
+        <v>42.04954532</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A166" s="1">
+        <v>44075</v>
+      </c>
+      <c r="B166">
+        <v>-0.508626519</v>
+      </c>
+      <c r="C166">
+        <v>0.139551273</v>
+      </c>
+      <c r="D166">
+        <v>6.5334543639999998</v>
+      </c>
+      <c r="E166">
+        <v>33.46604541</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A167" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B167">
+        <v>0.39854222500000003</v>
+      </c>
+      <c r="C167">
+        <v>2.9854961819999999</v>
+      </c>
+      <c r="D167">
+        <v>67.188135950000003</v>
+      </c>
+      <c r="E167">
+        <v>34.435454499999999</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A168" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B168">
+        <v>-0.15099926599999999</v>
+      </c>
+      <c r="C168">
+        <v>9.3167454999999996E-2</v>
+      </c>
+      <c r="D168">
+        <v>51.742681730000001</v>
+      </c>
+      <c r="E168">
+        <v>39.630409049999997</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A169" s="1">
+        <v>44013</v>
+      </c>
+      <c r="B169">
+        <v>-0.155782746</v>
+      </c>
+      <c r="C169">
+        <v>1.895526182</v>
+      </c>
+      <c r="D169">
+        <v>46.190545409999999</v>
+      </c>
+      <c r="E169">
+        <v>33.366409050000001</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A170" s="1">
+        <v>44044</v>
+      </c>
+      <c r="B170">
+        <v>0.54734800699999997</v>
+      </c>
+      <c r="C170">
+        <v>3.8919098179999998</v>
+      </c>
+      <c r="D170">
+        <v>44.511363590000002</v>
+      </c>
+      <c r="E170">
+        <v>38.477772639999998</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A171" s="1">
+        <v>44075</v>
+      </c>
+      <c r="B171">
+        <v>1.493907146</v>
+      </c>
+      <c r="C171">
+        <v>3.2321169090000001</v>
+      </c>
+      <c r="D171">
+        <v>49.060499819999997</v>
+      </c>
+      <c r="E171">
+        <v>66.711863410000007</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B172">
+        <v>0.44947251900000001</v>
+      </c>
+      <c r="C172">
+        <v>3.055453091</v>
+      </c>
+      <c r="D172">
+        <v>73.084408819999993</v>
+      </c>
+      <c r="E172">
+        <v>57.760908999999998</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B173">
+        <v>0.607588499</v>
+      </c>
+      <c r="C173">
+        <v>1.444355091</v>
+      </c>
+      <c r="D173">
+        <v>70.024045270000002</v>
+      </c>
+      <c r="E173">
+        <v>40.413590859999999</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B174">
+        <v>1.286319575</v>
+      </c>
+      <c r="C174">
+        <v>4.8625663640000001</v>
+      </c>
+      <c r="D174">
+        <v>72.687590549999996</v>
+      </c>
+      <c r="E174">
+        <v>22.23509086</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B175">
+        <v>0.72743277799999995</v>
+      </c>
+      <c r="C175">
+        <v>0</v>
+      </c>
+      <c r="D175">
+        <v>74.686544999999995</v>
+      </c>
+      <c r="E175">
+        <v>9.7742727269999996</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B176">
+        <v>0.50308770700000005</v>
+      </c>
+      <c r="C176">
+        <v>0.94380218199999999</v>
+      </c>
+      <c r="D176">
+        <v>66.936635949999996</v>
+      </c>
+      <c r="E176">
+        <v>11.74131818</v>
+      </c>
+    </row>
+    <row r="177" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B177">
+        <v>0.38622188699999999</v>
+      </c>
+      <c r="C177">
+        <v>2.9687336360000001</v>
+      </c>
+      <c r="D177">
+        <v>29.89627273</v>
+      </c>
+      <c r="E177">
+        <v>41.91704541</v>
+      </c>
+    </row>
+    <row r="178" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B178">
+        <v>0.232779666</v>
+      </c>
+      <c r="C178">
+        <v>0.78414399999999995</v>
+      </c>
+      <c r="D178">
+        <v>25.349636360000002</v>
+      </c>
+      <c r="E178">
+        <v>37.634136269999999</v>
+      </c>
+    </row>
+    <row r="179" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B179">
+        <v>-0.577252243</v>
+      </c>
+      <c r="C179">
+        <v>0.26664727300000002</v>
+      </c>
+      <c r="D179">
+        <v>23.114363640000001</v>
+      </c>
+      <c r="E179">
+        <v>51.908454499999998</v>
+      </c>
+    </row>
+    <row r="180" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B180">
+        <v>1.8254723719999999</v>
+      </c>
+      <c r="C180">
+        <v>8.2925900000000006</v>
+      </c>
+      <c r="D180">
+        <v>24.164681819999998</v>
+      </c>
+      <c r="E180">
+        <v>46.179681500000001</v>
+      </c>
+    </row>
+    <row r="181" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B181">
+        <v>1.4275267169999999</v>
+      </c>
+      <c r="C181">
+        <v>0.216249091</v>
+      </c>
+      <c r="D181">
+        <v>38.470999910000003</v>
+      </c>
+      <c r="E181">
+        <v>62.969454409999997</v>
+      </c>
+    </row>
+    <row r="182" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B182">
+        <v>0.89331495800000005</v>
+      </c>
+      <c r="C182">
+        <v>3.7111139999999998</v>
+      </c>
+      <c r="D182">
+        <v>58.460818000000003</v>
+      </c>
+      <c r="E182">
+        <v>28.620909050000002</v>
+      </c>
+    </row>
+    <row r="183" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B183">
+        <v>0.813948224</v>
+      </c>
+      <c r="C183">
+        <v>1.238666</v>
+      </c>
+      <c r="D183">
+        <v>41.283636270000002</v>
+      </c>
+      <c r="E183">
+        <v>53.895409000000001</v>
+      </c>
+    </row>
+    <row r="184" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B184">
+        <v>1.183652554</v>
+      </c>
+      <c r="C184">
+        <v>4.0391534550000001</v>
+      </c>
+      <c r="D184">
+        <v>22.60304541</v>
+      </c>
+      <c r="E184">
+        <v>59.768499730000002</v>
+      </c>
+    </row>
+    <row r="185" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B185">
+        <v>0.612213856</v>
+      </c>
+      <c r="C185">
+        <v>0.75408963600000001</v>
+      </c>
+      <c r="D185">
+        <v>38.63804536</v>
+      </c>
+      <c r="E185">
+        <v>43.633045410000001</v>
+      </c>
+    </row>
+    <row r="186" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B186">
+        <v>0.13493322399999999</v>
+      </c>
+      <c r="C186">
+        <v>4.4602727000000002E-2</v>
+      </c>
+      <c r="D186">
+        <v>12.144408950000001</v>
+      </c>
+      <c r="E186">
+        <v>31.123181819999999</v>
+      </c>
+    </row>
+    <row r="187" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B187">
+        <v>-3.7348471569999999</v>
+      </c>
+      <c r="C187">
+        <v>0.19335781799999999</v>
+      </c>
+      <c r="D187">
+        <v>59.147590639999997</v>
+      </c>
+      <c r="E187">
+        <v>11.3345</v>
+      </c>
+    </row>
+    <row r="188" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B188">
+        <v>-1.7622734330000001</v>
+      </c>
+      <c r="C188">
+        <v>0.944000909</v>
+      </c>
+      <c r="D188">
+        <v>40.859090770000002</v>
+      </c>
+      <c r="E188">
+        <v>22.00136359</v>
+      </c>
+    </row>
+    <row r="189" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B189">
+        <v>-1.430425353</v>
+      </c>
+      <c r="C189">
+        <v>1.3512196359999999</v>
+      </c>
+      <c r="D189">
+        <v>18.765772680000001</v>
+      </c>
+      <c r="E189">
+        <v>40.779409049999998</v>
+      </c>
+    </row>
+    <row r="190" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B190">
+        <v>-0.79738964099999998</v>
+      </c>
+      <c r="C190">
+        <v>0.99207472699999999</v>
+      </c>
+      <c r="D190">
+        <v>27.945999950000001</v>
+      </c>
+      <c r="E190">
+        <v>36.760909089999998</v>
+      </c>
+    </row>
+    <row r="191" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B191">
+        <v>-1.0436263079999999</v>
+      </c>
+      <c r="C191">
+        <v>0.13463672700000001</v>
+      </c>
+      <c r="D191">
+        <v>42.012636319999999</v>
+      </c>
+      <c r="E191">
+        <v>30.340090910000001</v>
+      </c>
+    </row>
+    <row r="192" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B192">
+        <v>-2.0580658829999998</v>
+      </c>
+      <c r="C192">
+        <v>0.749246364</v>
+      </c>
+      <c r="D192">
+        <v>57.407272640000002</v>
+      </c>
+      <c r="E192">
+        <v>53.246772640000003</v>
+      </c>
+    </row>
+    <row r="193" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B193">
+        <v>-1.0451221829999999</v>
+      </c>
+      <c r="C193">
+        <v>1.0879647269999999</v>
+      </c>
+      <c r="D193">
+        <v>39.967499949999997</v>
+      </c>
+      <c r="E193">
+        <v>52.553454410000001</v>
+      </c>
+    </row>
+    <row r="194" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B194">
+        <v>-1.257993914</v>
+      </c>
+      <c r="C194">
+        <v>0.92008254499999997</v>
+      </c>
+      <c r="D194">
+        <v>17.311636320000002</v>
+      </c>
+      <c r="E194">
+        <v>52.258999860000003</v>
+      </c>
+    </row>
+    <row r="195" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B195">
+        <v>-0.67583829699999998</v>
+      </c>
+      <c r="C195">
+        <v>1.4730329090000001</v>
+      </c>
+      <c r="D195">
+        <v>25.045272730000001</v>
+      </c>
+      <c r="E195">
+        <v>39.8353635</v>
+      </c>
+    </row>
+    <row r="196" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B196">
+        <v>-0.34262161499999999</v>
+      </c>
+      <c r="C196">
+        <v>1.3580639999999999</v>
+      </c>
+      <c r="D196">
+        <v>42.012636319999999</v>
+      </c>
+      <c r="E196">
+        <v>36.666090910000001</v>
+      </c>
+    </row>
+    <row r="197" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B197">
+        <v>0.49578688500000001</v>
+      </c>
+      <c r="C197">
+        <v>3.1200005449999999</v>
+      </c>
+      <c r="D197">
+        <v>90.451499319999996</v>
+      </c>
+      <c r="E197">
+        <v>43.921045319999998</v>
+      </c>
+    </row>
+    <row r="198" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B198">
+        <v>2.7289328000000002E-2</v>
+      </c>
+      <c r="C198">
+        <v>0.260750182</v>
+      </c>
+      <c r="D198">
+        <v>81.845999680000006</v>
+      </c>
+      <c r="E198">
+        <v>24.013500000000001</v>
+      </c>
+    </row>
+    <row r="199" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B199">
+        <v>-0.65961513800000005</v>
+      </c>
+      <c r="C199">
+        <v>0.46817145500000001</v>
+      </c>
+      <c r="D199">
+        <v>66.150772500000002</v>
+      </c>
+      <c r="E199">
+        <v>84.365455949999998</v>
+      </c>
+    </row>
+    <row r="200" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B200">
+        <v>0.33424169500000001</v>
+      </c>
+      <c r="C200">
+        <v>4.6722347270000002</v>
+      </c>
+      <c r="D200">
+        <v>39.940181770000002</v>
+      </c>
+      <c r="E200">
+        <v>22.710909050000001</v>
+      </c>
+    </row>
+    <row r="201" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B201">
+        <v>0.61460779799999998</v>
+      </c>
+      <c r="C201">
+        <v>0.98271654500000005</v>
+      </c>
+      <c r="D201">
+        <v>39.117227139999997</v>
+      </c>
+      <c r="E201">
+        <v>39.494372499999997</v>
+      </c>
+    </row>
+    <row r="202" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B202">
+        <v>0.41766682399999999</v>
+      </c>
+      <c r="C202">
+        <v>3.0116399999999999</v>
+      </c>
+      <c r="D202">
+        <v>64.704772270000007</v>
+      </c>
+      <c r="E202">
+        <v>35.836499949999997</v>
+      </c>
+    </row>
+    <row r="203" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B203">
+        <v>0.38291089499999997</v>
+      </c>
+      <c r="C203">
+        <v>1.029700909</v>
+      </c>
+      <c r="D203">
+        <v>46.31181814</v>
+      </c>
+      <c r="E203">
+        <v>60.641636269999999</v>
+      </c>
+    </row>
+    <row r="204" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B204">
+        <v>6.6899519999999999E-3</v>
+      </c>
+      <c r="C204">
+        <v>1.3384969090000001</v>
+      </c>
+      <c r="D204">
+        <v>22.13863632</v>
+      </c>
+      <c r="E204">
+        <v>60.69704514</v>
+      </c>
+    </row>
+    <row r="205" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B205">
+        <v>0.52081505100000003</v>
+      </c>
+      <c r="C205">
+        <v>3.4512414549999999</v>
+      </c>
+      <c r="D205">
+        <v>29.988590909999999</v>
+      </c>
+      <c r="E205">
+        <v>40.960590910000001</v>
+      </c>
+    </row>
+    <row r="206" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B206">
+        <v>0.26901652799999998</v>
+      </c>
+      <c r="C206">
+        <v>0.38731690899999999</v>
+      </c>
+      <c r="D206">
+        <v>48.569272589999997</v>
+      </c>
+      <c r="E206">
+        <v>31.528136360000001</v>
       </c>
     </row>
   </sheetData>
@@ -3447,7 +4280,7 @@
   <dimension ref="A1:E151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -6028,8 +6861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="A127" sqref="A127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ujjawal\AppData\Local\Programs\Python\Python39\phd_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{24BFF11E-EACD-40BB-AC63-CD8CC6461F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{51E09C28-39DB-4540-80A2-EC3CEF94791D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SPI3" sheetId="1" r:id="rId1"/>
-    <sheet name="SPI1" sheetId="2" r:id="rId2"/>
-    <sheet name="Uni_SPI1" sheetId="3" r:id="rId3"/>
+    <sheet name="12-months data" sheetId="4" r:id="rId2"/>
+    <sheet name="SPI1" sheetId="2" r:id="rId3"/>
+    <sheet name="Uni_SPI1" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="5">
   <si>
     <t>Month</t>
   </si>
@@ -864,7 +865,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+    <sheetView topLeftCell="A151" workbookViewId="0">
       <selection activeCell="B197" sqref="B197:E206"/>
     </sheetView>
   </sheetViews>
@@ -4277,10 +4278,5121 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E151"/>
+  <dimension ref="A1:E361"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>33239</v>
+      </c>
+      <c r="B2">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C2">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D2">
+        <v>46.32601623</v>
+      </c>
+      <c r="E2">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>33270</v>
+      </c>
+      <c r="B3">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C3">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D3">
+        <v>46.32601623</v>
+      </c>
+      <c r="E3">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>33298</v>
+      </c>
+      <c r="B4">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C4">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D4">
+        <v>46.32601623</v>
+      </c>
+      <c r="E4">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>33329</v>
+      </c>
+      <c r="B5">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C5">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D5">
+        <v>46.32601623</v>
+      </c>
+      <c r="E5">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>33359</v>
+      </c>
+      <c r="B6">
+        <v>0.443657684</v>
+      </c>
+      <c r="C6">
+        <v>3.0474118181818177</v>
+      </c>
+      <c r="D6">
+        <v>47.489499818181805</v>
+      </c>
+      <c r="E6">
+        <v>38.583045454545449</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>33390</v>
+      </c>
+      <c r="B7">
+        <v>0.112494049</v>
+      </c>
+      <c r="C7">
+        <v>0.48448945454545445</v>
+      </c>
+      <c r="D7">
+        <v>38.865454499999991</v>
+      </c>
+      <c r="E7">
+        <v>23.00649995454545</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>33420</v>
+      </c>
+      <c r="B8">
+        <v>-0.55924382699999997</v>
+      </c>
+      <c r="C8">
+        <v>0.52560672727272717</v>
+      </c>
+      <c r="D8">
+        <v>32.032681727272724</v>
+      </c>
+      <c r="E8">
+        <v>2.7467272727272731</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>33451</v>
+      </c>
+      <c r="B9">
+        <v>-1.631902489</v>
+      </c>
+      <c r="C9">
+        <v>1.1443267272727273</v>
+      </c>
+      <c r="D9">
+        <v>20.649636363636372</v>
+      </c>
+      <c r="E9">
+        <v>4.4108636363636364</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>33482</v>
+      </c>
+      <c r="B10">
+        <v>-1.505868325</v>
+      </c>
+      <c r="C10">
+        <v>0.15817472727272724</v>
+      </c>
+      <c r="D10">
+        <v>16.984545454545451</v>
+      </c>
+      <c r="E10">
+        <v>10.715363636363636</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>33512</v>
+      </c>
+      <c r="B11">
+        <v>-0.51908046600000002</v>
+      </c>
+      <c r="C11">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D11">
+        <v>46.32601623</v>
+      </c>
+      <c r="E11">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>33543</v>
+      </c>
+      <c r="B12">
+        <v>-0.46552908599999998</v>
+      </c>
+      <c r="C12">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D12">
+        <v>46.32601623</v>
+      </c>
+      <c r="E12">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>33573</v>
+      </c>
+      <c r="B13">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C13">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D13">
+        <v>46.32601623</v>
+      </c>
+      <c r="E13">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B14">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C14">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D14">
+        <v>46.32601623</v>
+      </c>
+      <c r="E14">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B15">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C15">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D15">
+        <v>46.32601623</v>
+      </c>
+      <c r="E15">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B16">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C16">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D16">
+        <v>46.32601623</v>
+      </c>
+      <c r="E16">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B17">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C17">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D17">
+        <v>46.32601623</v>
+      </c>
+      <c r="E17">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B18">
+        <v>0.48591820400000002</v>
+      </c>
+      <c r="C18">
+        <v>3.1061721818181809</v>
+      </c>
+      <c r="D18">
+        <v>52.245908954545463</v>
+      </c>
+      <c r="E18">
+        <v>51.318863589999999</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B19">
+        <v>5.4064229999999996E-3</v>
+      </c>
+      <c r="C19">
+        <v>0.23647181818181828</v>
+      </c>
+      <c r="D19">
+        <v>50.72172695454546</v>
+      </c>
+      <c r="E19">
+        <v>48.892999949999997</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B20">
+        <v>-0.172469701</v>
+      </c>
+      <c r="C20">
+        <v>1.5910905454545463</v>
+      </c>
+      <c r="D20">
+        <v>47.972545318181837</v>
+      </c>
+      <c r="E20">
+        <v>68.907636229999994</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B21">
+        <v>-0.35860864399999998</v>
+      </c>
+      <c r="C21">
+        <v>2.1959119999999999</v>
+      </c>
+      <c r="D21">
+        <v>47.994499909090926</v>
+      </c>
+      <c r="E21">
+        <v>90.360545139999999</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B22">
+        <v>0.82698484500000002</v>
+      </c>
+      <c r="C22">
+        <v>2.9701670909090909</v>
+      </c>
+      <c r="D22">
+        <v>52.7133635</v>
+      </c>
+      <c r="E22">
+        <v>70.315454270000004</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B23">
+        <v>1.092819083</v>
+      </c>
+      <c r="C23">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D23">
+        <v>46.32601623</v>
+      </c>
+      <c r="E23">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B24">
+        <v>1.492679748</v>
+      </c>
+      <c r="C24">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D24">
+        <v>46.32601623</v>
+      </c>
+      <c r="E24">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B25">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C25">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D25">
+        <v>46.32601623</v>
+      </c>
+      <c r="E25">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B26">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C26">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D26">
+        <v>46.32601623</v>
+      </c>
+      <c r="E26">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B27">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C27">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D27">
+        <v>46.32601623</v>
+      </c>
+      <c r="E27">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B28">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C28">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D28">
+        <v>46.32601623</v>
+      </c>
+      <c r="E28">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B29">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C29">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D29">
+        <v>46.32601623</v>
+      </c>
+      <c r="E29">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B30">
+        <v>0.44947251900000001</v>
+      </c>
+      <c r="C30">
+        <v>3.0554530909090913</v>
+      </c>
+      <c r="D30">
+        <v>73.084408818181828</v>
+      </c>
+      <c r="E30">
+        <v>57.760908999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B31">
+        <v>0.607588499</v>
+      </c>
+      <c r="C31">
+        <v>1.4443550909090905</v>
+      </c>
+      <c r="D31">
+        <v>70.024045272727278</v>
+      </c>
+      <c r="E31">
+        <v>40.413590859999999</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B32">
+        <v>1.286319575</v>
+      </c>
+      <c r="C32">
+        <v>4.8625663636363665</v>
+      </c>
+      <c r="D32">
+        <v>72.68759054545454</v>
+      </c>
+      <c r="E32">
+        <v>22.23509086</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B33">
+        <v>0.72743277799999995</v>
+      </c>
+      <c r="C33">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D33">
+        <v>74.686544999999995</v>
+      </c>
+      <c r="E33">
+        <v>9.7742727269999996</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B34">
+        <v>0.50308770700000005</v>
+      </c>
+      <c r="C34">
+        <v>0.94380218181818154</v>
+      </c>
+      <c r="D34">
+        <v>66.936635954545451</v>
+      </c>
+      <c r="E34">
+        <v>11.74131818</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B35">
+        <v>-0.80712953700000001</v>
+      </c>
+      <c r="C35">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D35">
+        <v>46.32601623</v>
+      </c>
+      <c r="E35">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B36">
+        <v>0.48317251</v>
+      </c>
+      <c r="C36">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D36">
+        <v>46.32601623</v>
+      </c>
+      <c r="E36">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B37">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C37">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D37">
+        <v>46.32601623</v>
+      </c>
+      <c r="E37">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B38">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C38">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D38">
+        <v>46.32601623</v>
+      </c>
+      <c r="E38">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B39">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C39">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D39">
+        <v>46.32601623</v>
+      </c>
+      <c r="E39">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B40">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C40">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D40">
+        <v>46.32601623</v>
+      </c>
+      <c r="E40">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B41">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C41">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D41">
+        <v>46.32601623</v>
+      </c>
+      <c r="E41">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B42">
+        <v>-0.196110116</v>
+      </c>
+      <c r="C42">
+        <v>2.2460194545454542</v>
+      </c>
+      <c r="D42">
+        <v>81.111226954545415</v>
+      </c>
+      <c r="E42">
+        <v>88.643726770000001</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B43">
+        <v>-0.43376891699999998</v>
+      </c>
+      <c r="C43">
+        <v>0.39191727272727273</v>
+      </c>
+      <c r="D43">
+        <v>77.82322690909092</v>
+      </c>
+      <c r="E43">
+        <v>84.166499819999999</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B44">
+        <v>0.81279453899999998</v>
+      </c>
+      <c r="C44">
+        <v>5.0823078181818166</v>
+      </c>
+      <c r="D44">
+        <v>85.108636090909087</v>
+      </c>
+      <c r="E44">
+        <v>76.660408770000004</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B45">
+        <v>0.99821470499999998</v>
+      </c>
+      <c r="C45">
+        <v>1.5109272727272729</v>
+      </c>
+      <c r="D45">
+        <v>88.441136136363653</v>
+      </c>
+      <c r="E45">
+        <v>52.983181590000001</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B46">
+        <v>1.4449820630000001</v>
+      </c>
+      <c r="C46">
+        <v>2.2460194545454542</v>
+      </c>
+      <c r="D46">
+        <v>84.890227090909107</v>
+      </c>
+      <c r="E46">
+        <v>61.834727000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B47">
+        <v>0.65158797700000004</v>
+      </c>
+      <c r="C47">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D47">
+        <v>46.32601623</v>
+      </c>
+      <c r="E47">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B48">
+        <v>1.203975349</v>
+      </c>
+      <c r="C48">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D48">
+        <v>46.32601623</v>
+      </c>
+      <c r="E48">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B49">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C49">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D49">
+        <v>46.32601623</v>
+      </c>
+      <c r="E49">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B50">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C50">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D50">
+        <v>46.32601623</v>
+      </c>
+      <c r="E50">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B51">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C51">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D51">
+        <v>46.32601623</v>
+      </c>
+      <c r="E51">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B52">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C52">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D52">
+        <v>46.32601623</v>
+      </c>
+      <c r="E52">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B53">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C53">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D53">
+        <v>46.32601623</v>
+      </c>
+      <c r="E53">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B54">
+        <v>0.44326736100000003</v>
+      </c>
+      <c r="C54">
+        <v>3.0468725454545451</v>
+      </c>
+      <c r="D54">
+        <v>74.399136136363651</v>
+      </c>
+      <c r="E54">
+        <v>25.761590859999998</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B55">
+        <v>3.4632994E-2</v>
+      </c>
+      <c r="C55">
+        <v>0.34673145454545451</v>
+      </c>
+      <c r="D55">
+        <v>68.941636227272724</v>
+      </c>
+      <c r="E55">
+        <v>10.947181820000001</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B56">
+        <v>0.78846469399999997</v>
+      </c>
+      <c r="C56">
+        <v>4.2477427272727271</v>
+      </c>
+      <c r="D56">
+        <v>49.789409045454548</v>
+      </c>
+      <c r="E56">
+        <v>7.980590909</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B57">
+        <v>0.48816437400000001</v>
+      </c>
+      <c r="C57">
+        <v>1.1502749090909095</v>
+      </c>
+      <c r="D57">
+        <v>44.887409045454547</v>
+      </c>
+      <c r="E57">
+        <v>15.532</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B58">
+        <v>0.50913940099999999</v>
+      </c>
+      <c r="C58">
+        <v>0.42525690909090913</v>
+      </c>
+      <c r="D58">
+        <v>52.238499909090919</v>
+      </c>
+      <c r="E58">
+        <v>18.163636360000002</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B59">
+        <v>-0.33614949500000002</v>
+      </c>
+      <c r="C59">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D59">
+        <v>46.32601623</v>
+      </c>
+      <c r="E59">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B60">
+        <v>-8.7698729999999992E-3</v>
+      </c>
+      <c r="C60">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D60">
+        <v>46.32601623</v>
+      </c>
+      <c r="E60">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B61">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C61">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D61">
+        <v>46.32601623</v>
+      </c>
+      <c r="E61">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B62">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C62">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D62">
+        <v>46.32601623</v>
+      </c>
+      <c r="E62">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B63">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C63">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D63">
+        <v>46.32601623</v>
+      </c>
+      <c r="E63">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B64">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C64">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D64">
+        <v>46.32601623</v>
+      </c>
+      <c r="E64">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B65">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C65">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D65">
+        <v>46.32601623</v>
+      </c>
+      <c r="E65">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B66">
+        <v>1.0909838220000001</v>
+      </c>
+      <c r="C66">
+        <v>4.0302812727272732</v>
+      </c>
+      <c r="D66">
+        <v>61.677954136363645</v>
+      </c>
+      <c r="E66">
+        <v>28.489045449999999</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B67">
+        <v>2.1038267780000002</v>
+      </c>
+      <c r="C67">
+        <v>4.3929309090909081</v>
+      </c>
+      <c r="D67">
+        <v>52.811772500000004</v>
+      </c>
+      <c r="E67">
+        <v>39.669045449999999</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B68">
+        <v>1.331026772</v>
+      </c>
+      <c r="C68">
+        <v>1.1048341818181813</v>
+      </c>
+      <c r="D68">
+        <v>64.722681727272715</v>
+      </c>
+      <c r="E68">
+        <v>25.81804545</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B69">
+        <v>0.71936117399999999</v>
+      </c>
+      <c r="C69">
+        <v>0.78962854545454564</v>
+      </c>
+      <c r="D69">
+        <v>59.119227045454565</v>
+      </c>
+      <c r="E69">
+        <v>19.701909090000001</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B70">
+        <v>-1.4081247059999999</v>
+      </c>
+      <c r="C70">
+        <v>5.9406545454545462E-2</v>
+      </c>
+      <c r="D70">
+        <v>43.325363500000002</v>
+      </c>
+      <c r="E70">
+        <v>22.65295455</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B71">
+        <v>-0.89639787000000004</v>
+      </c>
+      <c r="C71">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D71">
+        <v>46.32601623</v>
+      </c>
+      <c r="E71">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B72">
+        <v>-0.798035143</v>
+      </c>
+      <c r="C72">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D72">
+        <v>46.32601623</v>
+      </c>
+      <c r="E72">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B73">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C73">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D73">
+        <v>46.32601623</v>
+      </c>
+      <c r="E73">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B74">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C74">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D74">
+        <v>46.32601623</v>
+      </c>
+      <c r="E74">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B75">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C75">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D75">
+        <v>46.32601623</v>
+      </c>
+      <c r="E75">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B76">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C76">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D76">
+        <v>46.32601623</v>
+      </c>
+      <c r="E76">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B77">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C77">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D77">
+        <v>46.32601623</v>
+      </c>
+      <c r="E77">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B78">
+        <v>0.738375644</v>
+      </c>
+      <c r="C78">
+        <v>3.4727479999999993</v>
+      </c>
+      <c r="D78">
+        <v>59.187590681818165</v>
+      </c>
+      <c r="E78">
+        <v>36.245575700000003</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B79">
+        <v>1.3464969979999999</v>
+      </c>
+      <c r="C79">
+        <v>2.7701538181818179</v>
+      </c>
+      <c r="D79">
+        <v>47.346045318181808</v>
+      </c>
+      <c r="E79">
+        <v>37.580681769999998</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B80">
+        <v>0.59926995699999996</v>
+      </c>
+      <c r="C80">
+        <v>0.80280709090909086</v>
+      </c>
+      <c r="D80">
+        <v>46.998863545454526</v>
+      </c>
+      <c r="E80">
+        <v>18.644681819999999</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B81">
+        <v>3.8087688000000001E-2</v>
+      </c>
+      <c r="C81">
+        <v>1.206014181818182</v>
+      </c>
+      <c r="D81">
+        <v>43.908954454545452</v>
+      </c>
+      <c r="E81">
+        <v>12.454727269999999</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B82">
+        <v>-1.1413470219999999</v>
+      </c>
+      <c r="C82">
+        <v>0.31984654545454544</v>
+      </c>
+      <c r="D82">
+        <v>40.187954499999996</v>
+      </c>
+      <c r="E82">
+        <v>17.533045449999999</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B83">
+        <v>-0.36765915900000001</v>
+      </c>
+      <c r="C83">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D83">
+        <v>46.32601623</v>
+      </c>
+      <c r="E83">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B84">
+        <v>-0.155283584</v>
+      </c>
+      <c r="C84">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D84">
+        <v>46.32601623</v>
+      </c>
+      <c r="E84">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B85">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C85">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D85">
+        <v>46.32601623</v>
+      </c>
+      <c r="E85">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B86">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C86">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D86">
+        <v>46.32601623</v>
+      </c>
+      <c r="E86">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B87">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C87">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D87">
+        <v>46.32601623</v>
+      </c>
+      <c r="E87">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B88">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C88">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D88">
+        <v>46.32601623</v>
+      </c>
+      <c r="E88">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B89">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C89">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D89">
+        <v>46.32601623</v>
+      </c>
+      <c r="E89">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B90">
+        <v>0.38589372100000002</v>
+      </c>
+      <c r="C90">
+        <v>2.9682880000000003</v>
+      </c>
+      <c r="D90">
+        <v>55.988408954545456</v>
+      </c>
+      <c r="E90">
+        <v>45.315227229999998</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B91">
+        <v>0.34966792400000002</v>
+      </c>
+      <c r="C91">
+        <v>1.0079565450000001</v>
+      </c>
+      <c r="D91">
+        <v>59.976045363636366</v>
+      </c>
+      <c r="E91">
+        <v>36.77690905</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B92">
+        <v>0.210613782</v>
+      </c>
+      <c r="C92">
+        <v>1.9433883636363627</v>
+      </c>
+      <c r="D92">
+        <v>54.210317999999987</v>
+      </c>
+      <c r="E92">
+        <v>31.655045449999999</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B93">
+        <v>-0.50064646800000001</v>
+      </c>
+      <c r="C93">
+        <v>0.82263836363636356</v>
+      </c>
+      <c r="D93">
+        <v>38.100954454545452</v>
+      </c>
+      <c r="E93">
+        <v>17.844363640000001</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B94">
+        <v>0.59336236799999997</v>
+      </c>
+      <c r="C94">
+        <v>3.2958994545454541</v>
+      </c>
+      <c r="D94">
+        <v>25.361772636363643</v>
+      </c>
+      <c r="E94">
+        <v>21.850909089999998</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B95">
+        <v>0.77378273900000005</v>
+      </c>
+      <c r="C95">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D95">
+        <v>46.32601623</v>
+      </c>
+      <c r="E95">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B96">
+        <v>1.608817121</v>
+      </c>
+      <c r="C96">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D96">
+        <v>46.32601623</v>
+      </c>
+      <c r="E96">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B97">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C97">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D97">
+        <v>46.32601623</v>
+      </c>
+      <c r="E97">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B98">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C98">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D98">
+        <v>46.32601623</v>
+      </c>
+      <c r="E98">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B99">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C99">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D99">
+        <v>46.32601623</v>
+      </c>
+      <c r="E99">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B100">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C100">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D100">
+        <v>46.32601623</v>
+      </c>
+      <c r="E100">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B101">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C101">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D101">
+        <v>46.32601623</v>
+      </c>
+      <c r="E101">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B102">
+        <v>2.2219626080000001</v>
+      </c>
+      <c r="C102">
+        <v>6.1943185454545446</v>
+      </c>
+      <c r="D102">
+        <v>85.86009059090911</v>
+      </c>
+      <c r="E102">
+        <v>51.819272590909087</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B103">
+        <v>1.5726474699999999</v>
+      </c>
+      <c r="C103">
+        <v>0.65686781818181816</v>
+      </c>
+      <c r="D103">
+        <v>89.997999772727283</v>
+      </c>
+      <c r="E103">
+        <v>47.167727181818158</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B104">
+        <v>0.69696351999999995</v>
+      </c>
+      <c r="C104">
+        <v>0.49814472727272713</v>
+      </c>
+      <c r="D104">
+        <v>85.102317954545441</v>
+      </c>
+      <c r="E104">
+        <v>15.449272727272728</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B105">
+        <v>0.53720115899999998</v>
+      </c>
+      <c r="C105">
+        <v>4.702150545454546</v>
+      </c>
+      <c r="D105">
+        <v>67.651317818181809</v>
+      </c>
+      <c r="E105">
+        <v>10.556590909090906</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B106">
+        <v>0.28412856800000003</v>
+      </c>
+      <c r="C106">
+        <v>1.5954545454545461E-2</v>
+      </c>
+      <c r="D106">
+        <v>62.897954181818186</v>
+      </c>
+      <c r="E106">
+        <v>18.080090909090913</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B107">
+        <v>0.96197793300000001</v>
+      </c>
+      <c r="C107">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D107">
+        <v>46.32601623</v>
+      </c>
+      <c r="E107">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B108">
+        <v>-1.1056887660000001</v>
+      </c>
+      <c r="C108">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D108">
+        <v>46.32601623</v>
+      </c>
+      <c r="E108">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B109">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C109">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D109">
+        <v>46.32601623</v>
+      </c>
+      <c r="E109">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B110">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C110">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D110">
+        <v>46.32601623</v>
+      </c>
+      <c r="E110">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B111">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C111">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D111">
+        <v>46.32601623</v>
+      </c>
+      <c r="E111">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B112">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C112">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D112">
+        <v>46.32601623</v>
+      </c>
+      <c r="E112">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B113">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C113">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D113">
+        <v>46.32601623</v>
+      </c>
+      <c r="E113">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B114">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C114">
+        <v>4.3068181818181816E-3</v>
+      </c>
+      <c r="D114">
+        <v>21.454090909090905</v>
+      </c>
+      <c r="E114">
+        <v>74.102726818181793</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B115">
+        <v>-3.904517507</v>
+      </c>
+      <c r="C115">
+        <v>0.16643227272727271</v>
+      </c>
+      <c r="D115">
+        <v>4.1096363636363638</v>
+      </c>
+      <c r="E115">
+        <v>72.735636090909082</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B116">
+        <v>-1.295743877</v>
+      </c>
+      <c r="C116">
+        <v>2.5260418181818181</v>
+      </c>
+      <c r="D116">
+        <v>12.41790909090909</v>
+      </c>
+      <c r="E116">
+        <v>33.557045409090918</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B117">
+        <v>-0.96759947899999998</v>
+      </c>
+      <c r="C117">
+        <v>0.33617636363636361</v>
+      </c>
+      <c r="D117">
+        <v>27.1785909090909</v>
+      </c>
+      <c r="E117">
+        <v>22.945999999999998</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B118">
+        <v>-0.77343355400000002</v>
+      </c>
+      <c r="C118">
+        <v>6.3381636363636376E-2</v>
+      </c>
+      <c r="D118">
+        <v>32.697318181818176</v>
+      </c>
+      <c r="E118">
+        <v>27.770045454545446</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B119">
+        <v>-1.4685914200000001</v>
+      </c>
+      <c r="C119">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D119">
+        <v>46.32601623</v>
+      </c>
+      <c r="E119">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B120">
+        <v>-0.779073342</v>
+      </c>
+      <c r="C120">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D120">
+        <v>46.32601623</v>
+      </c>
+      <c r="E120">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B121">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C121">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D121">
+        <v>46.32601623</v>
+      </c>
+      <c r="E121">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B122">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C122">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D122">
+        <v>46.32601623</v>
+      </c>
+      <c r="E122">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B123">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C123">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D123">
+        <v>46.32601623</v>
+      </c>
+      <c r="E123">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B124">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C124">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D124">
+        <v>46.32601623</v>
+      </c>
+      <c r="E124">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B125">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C125">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D125">
+        <v>46.32601623</v>
+      </c>
+      <c r="E125">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="126" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B126">
+        <v>0.62110289600000002</v>
+      </c>
+      <c r="C126">
+        <v>3.2991310909090914</v>
+      </c>
+      <c r="D126">
+        <v>23.736090909090908</v>
+      </c>
+      <c r="E126">
+        <v>52.013954363636365</v>
+      </c>
+    </row>
+    <row r="127" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B127">
+        <v>0.82072905900000004</v>
+      </c>
+      <c r="C127">
+        <v>1.6659110909090906</v>
+      </c>
+      <c r="D127">
+        <v>11.932181818181817</v>
+      </c>
+      <c r="E127">
+        <v>81.528681636363643</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B128">
+        <v>1.233799206</v>
+      </c>
+      <c r="C128">
+        <v>4.2050770909090893</v>
+      </c>
+      <c r="D128">
+        <v>45.545817999999997</v>
+      </c>
+      <c r="E128">
+        <v>60.154681772727258</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B129">
+        <v>1.1227490979999999</v>
+      </c>
+      <c r="C129">
+        <v>1.4413276363636365</v>
+      </c>
+      <c r="D129">
+        <v>78.052681681818171</v>
+      </c>
+      <c r="E129">
+        <v>41.191318136363641</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B130">
+        <v>0.47612327900000001</v>
+      </c>
+      <c r="C130">
+        <v>8.5028545454545426E-2</v>
+      </c>
+      <c r="D130">
+        <v>75.078408909090911</v>
+      </c>
+      <c r="E130">
+        <v>27.910045454545454</v>
+      </c>
+    </row>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B131">
+        <v>-0.36734131599999997</v>
+      </c>
+      <c r="C131">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D131">
+        <v>46.32601623</v>
+      </c>
+      <c r="E131">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B132">
+        <v>-0.68796082400000003</v>
+      </c>
+      <c r="C132">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D132">
+        <v>46.32601623</v>
+      </c>
+      <c r="E132">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B133">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C133">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D133">
+        <v>46.32601623</v>
+      </c>
+      <c r="E133">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B134">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C134">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D134">
+        <v>46.32601623</v>
+      </c>
+      <c r="E134">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B135">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C135">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D135">
+        <v>46.32601623</v>
+      </c>
+      <c r="E135">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B136">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C136">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D136">
+        <v>46.32601623</v>
+      </c>
+      <c r="E136">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B137">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C137">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D137">
+        <v>46.32601623</v>
+      </c>
+      <c r="E137">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B138">
+        <v>-3.8504461280000002</v>
+      </c>
+      <c r="C138">
+        <v>0.1733026086956522</v>
+      </c>
+      <c r="D138">
+        <v>68.757590727272728</v>
+      </c>
+      <c r="E138">
+        <v>13.571000000000002</v>
+      </c>
+    </row>
+    <row r="139" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B139">
+        <v>-2.413822454</v>
+      </c>
+      <c r="C139">
+        <v>0.51925108695652167</v>
+      </c>
+      <c r="D139">
+        <v>48.975227181818184</v>
+      </c>
+      <c r="E139">
+        <v>8.0361363636363627</v>
+      </c>
+    </row>
+    <row r="140" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B140">
+        <v>-3.2318402810000002</v>
+      </c>
+      <c r="C140">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D140">
+        <v>26.240318181818182</v>
+      </c>
+      <c r="E140">
+        <v>4.8535454545454551</v>
+      </c>
+    </row>
+    <row r="141" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B141">
+        <v>-3.7892466100000002</v>
+      </c>
+      <c r="C141">
+        <v>2.0046956521739129E-2</v>
+      </c>
+      <c r="D141">
+        <v>11.792681818181817</v>
+      </c>
+      <c r="E141">
+        <v>4.0346363636363636</v>
+      </c>
+    </row>
+    <row r="142" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B142">
+        <v>-3.2610745149999998</v>
+      </c>
+      <c r="C142">
+        <v>0.41508163636363632</v>
+      </c>
+      <c r="D142">
+        <v>6.8055454545454559</v>
+      </c>
+      <c r="E142">
+        <v>2.9205454545454548</v>
+      </c>
+    </row>
+    <row r="143" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B143">
+        <v>-1.4088135740000001</v>
+      </c>
+      <c r="C143">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D143">
+        <v>46.32601623</v>
+      </c>
+      <c r="E143">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="144" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B144">
+        <v>-2.1757505E-2</v>
+      </c>
+      <c r="C144">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D144">
+        <v>46.32601623</v>
+      </c>
+      <c r="E144">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="145" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B145">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C145">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D145">
+        <v>46.32601623</v>
+      </c>
+      <c r="E145">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B146">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C146">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D146">
+        <v>46.32601623</v>
+      </c>
+      <c r="E146">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="147" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B147">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C147">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D147">
+        <v>46.32601623</v>
+      </c>
+      <c r="E147">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="148" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B148">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C148">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D148">
+        <v>46.32601623</v>
+      </c>
+      <c r="E148">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="149" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B149">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C149">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D149">
+        <v>46.32601623</v>
+      </c>
+      <c r="E149">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="150" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B150">
+        <v>0.40207002600000002</v>
+      </c>
+      <c r="C150">
+        <v>2.9903074545454551</v>
+      </c>
+      <c r="D150">
+        <v>41.750409090909095</v>
+      </c>
+      <c r="E150">
+        <v>42.956136363636297</v>
+      </c>
+    </row>
+    <row r="151" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B151">
+        <v>0.15283897499999999</v>
+      </c>
+      <c r="C151">
+        <v>0.61471527272727255</v>
+      </c>
+      <c r="D151">
+        <v>29.045090863636364</v>
+      </c>
+      <c r="E151">
+        <v>59.117908863636366</v>
+      </c>
+    </row>
+    <row r="152" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B152">
+        <v>0.52912827500000004</v>
+      </c>
+      <c r="C152">
+        <v>3.2278439999999988</v>
+      </c>
+      <c r="D152">
+        <v>34.328090909090918</v>
+      </c>
+      <c r="E152">
+        <v>68.519090636363657</v>
+      </c>
+    </row>
+    <row r="153" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B153">
+        <v>0.55782725300000002</v>
+      </c>
+      <c r="C153">
+        <v>2.0623170909090907</v>
+      </c>
+      <c r="D153">
+        <v>56.59909050000001</v>
+      </c>
+      <c r="E153">
+        <v>53.379363590909094</v>
+      </c>
+    </row>
+    <row r="154" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B154">
+        <v>0.31242234099999999</v>
+      </c>
+      <c r="C154">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D154">
+        <v>70.874727136363632</v>
+      </c>
+      <c r="E154">
+        <v>41.057499909090907</v>
+      </c>
+    </row>
+    <row r="155" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B155">
+        <v>-5.8935620000000001E-2</v>
+      </c>
+      <c r="C155">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D155">
+        <v>46.32601623</v>
+      </c>
+      <c r="E155">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="156" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B156">
+        <v>-1.5010859459999999</v>
+      </c>
+      <c r="C156">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D156">
+        <v>46.32601623</v>
+      </c>
+      <c r="E156">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="157" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B157">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C157">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D157">
+        <v>46.32601623</v>
+      </c>
+      <c r="E157">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="158" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B158">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C158">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D158">
+        <v>46.32601623</v>
+      </c>
+      <c r="E158">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="159" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B159">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C159">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D159">
+        <v>46.32601623</v>
+      </c>
+      <c r="E159">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="160" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B160">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C160">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D160">
+        <v>46.32601623</v>
+      </c>
+      <c r="E160">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="161" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B161">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C161">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D161">
+        <v>46.32601623</v>
+      </c>
+      <c r="E161">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="162" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B162">
+        <v>0.40207002600000002</v>
+      </c>
+      <c r="C162">
+        <v>2.9903074545454551</v>
+      </c>
+      <c r="D162">
+        <v>46.32601623</v>
+      </c>
+      <c r="E162">
+        <v>42.956136363636297</v>
+      </c>
+    </row>
+    <row r="163" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B163">
+        <v>0.15283897499999999</v>
+      </c>
+      <c r="C163">
+        <v>0.61471527272727255</v>
+      </c>
+      <c r="D163">
+        <v>46.32601623</v>
+      </c>
+      <c r="E163">
+        <v>59.117908863636366</v>
+      </c>
+    </row>
+    <row r="164" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B164">
+        <v>0.52912827500000004</v>
+      </c>
+      <c r="C164">
+        <v>3.2278439999999988</v>
+      </c>
+      <c r="D164">
+        <v>46.32601623</v>
+      </c>
+      <c r="E164">
+        <v>68.519090636363657</v>
+      </c>
+    </row>
+    <row r="165" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B165">
+        <v>0.55782725300000002</v>
+      </c>
+      <c r="C165">
+        <v>2.0623170909090907</v>
+      </c>
+      <c r="D165">
+        <v>46.32601623</v>
+      </c>
+      <c r="E165">
+        <v>53.379363590909094</v>
+      </c>
+    </row>
+    <row r="166" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B166">
+        <v>0.31242234099999999</v>
+      </c>
+      <c r="C166">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D166">
+        <v>46.32601623</v>
+      </c>
+      <c r="E166">
+        <v>41.057499909090907</v>
+      </c>
+    </row>
+    <row r="167" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B167">
+        <v>-5.8935620000000001E-2</v>
+      </c>
+      <c r="C167">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D167">
+        <v>46.32601623</v>
+      </c>
+      <c r="E167">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="168" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B168">
+        <v>-1.5010859459999999</v>
+      </c>
+      <c r="C168">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D168">
+        <v>46.32601623</v>
+      </c>
+      <c r="E168">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="169" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B169">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C169">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D169">
+        <v>46.32601623</v>
+      </c>
+      <c r="E169">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="170" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B170">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C170">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D170">
+        <v>46.32601623</v>
+      </c>
+      <c r="E170">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="171" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B171">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C171">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D171">
+        <v>46.32601623</v>
+      </c>
+      <c r="E171">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="172" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B172">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C172">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D172">
+        <v>46.32601623</v>
+      </c>
+      <c r="E172">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="173" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B173">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C173">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D173">
+        <v>46.32601623</v>
+      </c>
+      <c r="E173">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="174" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B174">
+        <v>0.83946729899999994</v>
+      </c>
+      <c r="C174">
+        <v>3.6271045454545456</v>
+      </c>
+      <c r="D174">
+        <v>57.947272454545441</v>
+      </c>
+      <c r="E174">
+        <v>67.39945431818181</v>
+      </c>
+    </row>
+    <row r="175" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B175">
+        <v>0.62436090200000005</v>
+      </c>
+      <c r="C175">
+        <v>0.90823490909090931</v>
+      </c>
+      <c r="D175">
+        <v>49.611045318181823</v>
+      </c>
+      <c r="E175">
+        <v>68.043772681818183</v>
+      </c>
+    </row>
+    <row r="176" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B176">
+        <v>3.1461437000000002E-2</v>
+      </c>
+      <c r="C176">
+        <v>0.90823490909090931</v>
+      </c>
+      <c r="D176">
+        <v>39.489272681818179</v>
+      </c>
+      <c r="E176">
+        <v>41.423863545454537</v>
+      </c>
+    </row>
+    <row r="177" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B177">
+        <v>-1.1810850180000001</v>
+      </c>
+      <c r="C177">
+        <v>0.90823490909090931</v>
+      </c>
+      <c r="D177">
+        <v>31.533727227272731</v>
+      </c>
+      <c r="E177">
+        <v>20.885545454545458</v>
+      </c>
+    </row>
+    <row r="178" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B178">
+        <v>-0.89081250899999997</v>
+      </c>
+      <c r="C178">
+        <v>0.90823490909090931</v>
+      </c>
+      <c r="D178">
+        <v>32.093954545454551</v>
+      </c>
+      <c r="E178">
+        <v>11.9815</v>
+      </c>
+    </row>
+    <row r="179" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B179">
+        <v>-0.19247051700000001</v>
+      </c>
+      <c r="C179">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D179">
+        <v>46.32601623</v>
+      </c>
+      <c r="E179">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="180" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B180">
+        <v>0.45624809399999999</v>
+      </c>
+      <c r="C180">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D180">
+        <v>46.32601623</v>
+      </c>
+      <c r="E180">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="181" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B181">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C181">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D181">
+        <v>46.32601623</v>
+      </c>
+      <c r="E181">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="182" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B182">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C182">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D182">
+        <v>46.32601623</v>
+      </c>
+      <c r="E182">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="183" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B183">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C183">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D183">
+        <v>46.32601623</v>
+      </c>
+      <c r="E183">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="184" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B184">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C184">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D184">
+        <v>46.32601623</v>
+      </c>
+      <c r="E184">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="185" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B185">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C185">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D185">
+        <v>46.32601623</v>
+      </c>
+      <c r="E185">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="186" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B186">
+        <v>0.38622188699999999</v>
+      </c>
+      <c r="C186">
+        <v>2.9687336363636359</v>
+      </c>
+      <c r="D186">
+        <v>29.896272727272734</v>
+      </c>
+      <c r="E186">
+        <v>41.917045409090903</v>
+      </c>
+    </row>
+    <row r="187" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B187">
+        <v>0.232779666</v>
+      </c>
+      <c r="C187">
+        <v>0.78414400000000006</v>
+      </c>
+      <c r="D187">
+        <v>25.349636363636364</v>
+      </c>
+      <c r="E187">
+        <v>37.634136272727268</v>
+      </c>
+    </row>
+    <row r="188" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B188">
+        <v>-0.577252243</v>
+      </c>
+      <c r="C188">
+        <v>0.26664727272727257</v>
+      </c>
+      <c r="D188">
+        <v>23.114363636363638</v>
+      </c>
+      <c r="E188">
+        <v>51.908454500000005</v>
+      </c>
+    </row>
+    <row r="189" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B189">
+        <v>1.8254723719999999</v>
+      </c>
+      <c r="C189">
+        <v>8.2925900000000006</v>
+      </c>
+      <c r="D189">
+        <v>24.164681818181808</v>
+      </c>
+      <c r="E189">
+        <v>46.179681500000008</v>
+      </c>
+    </row>
+    <row r="190" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B190">
+        <v>1.4275267169999999</v>
+      </c>
+      <c r="C190">
+        <v>0.21624909090909084</v>
+      </c>
+      <c r="D190">
+        <v>38.470999909090914</v>
+      </c>
+      <c r="E190">
+        <v>62.969454409090908</v>
+      </c>
+    </row>
+    <row r="191" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B191">
+        <v>1.897802735</v>
+      </c>
+      <c r="C191">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D191">
+        <v>46.32601623</v>
+      </c>
+      <c r="E191">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="192" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B192">
+        <v>-0.33612974800000001</v>
+      </c>
+      <c r="C192">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D192">
+        <v>46.32601623</v>
+      </c>
+      <c r="E192">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="193" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B193">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C193">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D193">
+        <v>46.32601623</v>
+      </c>
+      <c r="E193">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="194" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B194">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C194">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D194">
+        <v>46.32601623</v>
+      </c>
+      <c r="E194">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="195" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B195">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C195">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D195">
+        <v>46.32601623</v>
+      </c>
+      <c r="E195">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="196" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B196">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C196">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D196">
+        <v>46.32601623</v>
+      </c>
+      <c r="E196">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="197" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B197">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C197">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D197">
+        <v>46.32601623</v>
+      </c>
+      <c r="E197">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="198" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B198">
+        <v>0.48953523100000002</v>
+      </c>
+      <c r="C198">
+        <v>3.1112358000000002</v>
+      </c>
+      <c r="D198">
+        <v>80.677908772727278</v>
+      </c>
+      <c r="E198">
+        <v>30.87827272727273</v>
+      </c>
+    </row>
+    <row r="199" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B199">
+        <v>4.4147000999999998E-2</v>
+      </c>
+      <c r="C199">
+        <v>0.29906882352941172</v>
+      </c>
+      <c r="D199">
+        <v>57.654727090909098</v>
+      </c>
+      <c r="E199">
+        <v>45.425272545454561</v>
+      </c>
+    </row>
+    <row r="200" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B200">
+        <v>-0.337106079</v>
+      </c>
+      <c r="C200">
+        <v>1.1361674509803921</v>
+      </c>
+      <c r="D200">
+        <v>42.866545363636355</v>
+      </c>
+      <c r="E200">
+        <v>34.027954454545451</v>
+      </c>
+    </row>
+    <row r="201" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B201">
+        <v>-0.15820946599999999</v>
+      </c>
+      <c r="C201">
+        <v>2.9589443137254898</v>
+      </c>
+      <c r="D201">
+        <v>35.018999999999991</v>
+      </c>
+      <c r="E201">
+        <v>20.306863636363641</v>
+      </c>
+    </row>
+    <row r="202" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B202">
+        <v>0.92198289700000002</v>
+      </c>
+      <c r="C202">
+        <v>2.9589443137254898</v>
+      </c>
+      <c r="D202">
+        <v>37.879909045454546</v>
+      </c>
+      <c r="E202">
+        <v>23.759818181818186</v>
+      </c>
+    </row>
+    <row r="203" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B203">
+        <v>1.297153032</v>
+      </c>
+      <c r="C203">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D203">
+        <v>46.32601623</v>
+      </c>
+      <c r="E203">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="204" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B204">
+        <v>1.4885473220000001</v>
+      </c>
+      <c r="C204">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D204">
+        <v>46.32601623</v>
+      </c>
+      <c r="E204">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="205" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B205">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C205">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D205">
+        <v>46.32601623</v>
+      </c>
+      <c r="E205">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="206" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B206">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C206">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D206">
+        <v>46.32601623</v>
+      </c>
+      <c r="E206">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="207" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B207">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C207">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D207">
+        <v>46.32601623</v>
+      </c>
+      <c r="E207">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="208" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B208">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C208">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D208">
+        <v>46.32601623</v>
+      </c>
+      <c r="E208">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="209" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B209">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C209">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D209">
+        <v>46.32601623</v>
+      </c>
+      <c r="E209">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="210" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B210">
+        <v>0.53129171600000002</v>
+      </c>
+      <c r="C210">
+        <v>3.1700861818181827</v>
+      </c>
+      <c r="D210">
+        <v>42.014909090909079</v>
+      </c>
+      <c r="E210">
+        <v>43.08309086363635</v>
+      </c>
+    </row>
+    <row r="211" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B211">
+        <v>0.33353440600000001</v>
+      </c>
+      <c r="C211">
+        <v>0.77481745454545448</v>
+      </c>
+      <c r="D211">
+        <v>27.954772727272729</v>
+      </c>
+      <c r="E211">
+        <v>63.525227090909098</v>
+      </c>
+    </row>
+    <row r="212" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B212">
+        <v>0.50081321300000003</v>
+      </c>
+      <c r="C212">
+        <v>2.8032541818181822</v>
+      </c>
+      <c r="D212">
+        <v>33.057181681818186</v>
+      </c>
+      <c r="E212">
+        <v>33.616318045454555</v>
+      </c>
+    </row>
+    <row r="213" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B213">
+        <v>-0.15849913700000001</v>
+      </c>
+      <c r="C213">
+        <v>0.8155570909090909</v>
+      </c>
+      <c r="D213">
+        <v>40.333681818181837</v>
+      </c>
+      <c r="E213">
+        <v>23.142818181818178</v>
+      </c>
+    </row>
+    <row r="214" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B214">
+        <v>-0.396503039</v>
+      </c>
+      <c r="C214">
+        <v>2.1305090909090919E-2</v>
+      </c>
+      <c r="D214">
+        <v>46.186454545454545</v>
+      </c>
+      <c r="E214">
+        <v>21.622045454545461</v>
+      </c>
+    </row>
+    <row r="215" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B215">
+        <v>-0.90838962999999995</v>
+      </c>
+      <c r="C215">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D215">
+        <v>46.32601623</v>
+      </c>
+      <c r="E215">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="216" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B216">
+        <v>-1.0496387650000001</v>
+      </c>
+      <c r="C216">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D216">
+        <v>46.32601623</v>
+      </c>
+      <c r="E216">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="217" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B217">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C217">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D217">
+        <v>46.32601623</v>
+      </c>
+      <c r="E217">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="218" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B218">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C218">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D218" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E218">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="219" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B219">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C219">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D219" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E219">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="220" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B220">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C220">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D220" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E220">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="221" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B221">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C221">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D221" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E221">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="222" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B222">
+        <v>-6.2935370989999999</v>
+      </c>
+      <c r="C222">
+        <v>9.5067272727272674E-3</v>
+      </c>
+      <c r="D222">
+        <v>52.537999863636372</v>
+      </c>
+      <c r="E222">
+        <v>38.333409000000003</v>
+      </c>
+    </row>
+    <row r="223" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B223">
+        <v>-1.879846828</v>
+      </c>
+      <c r="C223">
+        <v>1.0351790909090908</v>
+      </c>
+      <c r="D223">
+        <v>43.242272727272734</v>
+      </c>
+      <c r="E223">
+        <v>25.765727272727275</v>
+      </c>
+    </row>
+    <row r="224" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B224">
+        <v>-1.5358710010000001</v>
+      </c>
+      <c r="C224">
+        <v>1.2891103636363634</v>
+      </c>
+      <c r="D224">
+        <v>33.55831809090909</v>
+      </c>
+      <c r="E224">
+        <v>18.482227272727272</v>
+      </c>
+    </row>
+    <row r="225" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B225">
+        <v>-1.2930246000000001</v>
+      </c>
+      <c r="C225">
+        <v>0.24991163636363642</v>
+      </c>
+      <c r="D225">
+        <v>29.277590909090911</v>
+      </c>
+      <c r="E225">
+        <v>14.679636363636364</v>
+      </c>
+    </row>
+    <row r="226" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B226">
+        <v>-1.420861865</v>
+      </c>
+      <c r="C226">
+        <v>0.39811563636363628</v>
+      </c>
+      <c r="D226">
+        <v>27.106772681818185</v>
+      </c>
+      <c r="E226">
+        <v>14.878227272727273</v>
+      </c>
+    </row>
+    <row r="227" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B227">
+        <v>-1.1135816510000001</v>
+      </c>
+      <c r="C227">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D227" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E227">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="228" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B228">
+        <v>-4.3899288000000002E-2</v>
+      </c>
+      <c r="C228">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D228" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E228">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="229" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B229">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C229">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D229" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E229">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="230" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B230">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C230">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D230" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E230">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="231" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B231">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C231">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D231" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E231">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="232" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B232">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C232">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D232" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E232">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="233" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B233">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C233">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D233" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E233">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="234" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B234">
+        <v>0.39030109099999999</v>
+      </c>
+      <c r="C234">
+        <v>2.9742767272727262</v>
+      </c>
+      <c r="D234">
+        <v>50.926681772727285</v>
+      </c>
+      <c r="E234">
+        <v>6.5215909090909081</v>
+      </c>
+    </row>
+    <row r="235" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B235">
+        <v>1.0220494840000001</v>
+      </c>
+      <c r="C235">
+        <v>2.4578909090909096</v>
+      </c>
+      <c r="D235">
+        <v>58.881908999999979</v>
+      </c>
+      <c r="E235">
+        <v>15.562863636363636</v>
+      </c>
+    </row>
+    <row r="236" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B236">
+        <v>1.5546923829999999</v>
+      </c>
+      <c r="C236">
+        <v>4.9528014545454528</v>
+      </c>
+      <c r="D236">
+        <v>65.72299968181818</v>
+      </c>
+      <c r="E236">
+        <v>27.805454545454548</v>
+      </c>
+    </row>
+    <row r="237" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B237">
+        <v>1.758882015</v>
+      </c>
+      <c r="C237">
+        <v>1.7265116363636364</v>
+      </c>
+      <c r="D237">
+        <v>75.468954409090927</v>
+      </c>
+      <c r="E237">
+        <v>42.925136272727279</v>
+      </c>
+    </row>
+    <row r="238" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B238">
+        <v>1.2050411910000001</v>
+      </c>
+      <c r="C238">
+        <v>1.3089072727272726</v>
+      </c>
+      <c r="D238">
+        <v>86.895408636363655</v>
+      </c>
+      <c r="E238">
+        <v>50.03390904545455</v>
+      </c>
+    </row>
+    <row r="239" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B239">
+        <v>0.382556126</v>
+      </c>
+      <c r="C239">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D239" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E239">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="240" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B240">
+        <v>0.72808197900000005</v>
+      </c>
+      <c r="C240">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D240" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E240">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="241" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B241">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C241">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D241" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E241">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="242" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B242">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C242">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D242" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E242">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="243" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B243">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C243">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D243" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E243">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="244" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B244">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C244">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D244" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E244">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="245" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B245">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C245">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D245" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E245">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="246" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B246">
+        <v>0.39854222500000003</v>
+      </c>
+      <c r="C246">
+        <v>2.9854961818181835</v>
+      </c>
+      <c r="D246">
+        <v>67.188135954545459</v>
+      </c>
+      <c r="E246">
+        <v>34.435454499999999</v>
+      </c>
+    </row>
+    <row r="247" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B247">
+        <v>-0.15099926599999999</v>
+      </c>
+      <c r="C247">
+        <v>9.3167454545454595E-2</v>
+      </c>
+      <c r="D247">
+        <v>51.742681727272732</v>
+      </c>
+      <c r="E247">
+        <v>39.630409045454549</v>
+      </c>
+    </row>
+    <row r="248" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B248">
+        <v>-0.155782746</v>
+      </c>
+      <c r="C248">
+        <v>1.8955261818181812</v>
+      </c>
+      <c r="D248">
+        <v>46.190545409090902</v>
+      </c>
+      <c r="E248">
+        <v>33.366409045454539</v>
+      </c>
+    </row>
+    <row r="249" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B249">
+        <v>0.54734800699999997</v>
+      </c>
+      <c r="C249">
+        <v>3.8919098181818197</v>
+      </c>
+      <c r="D249">
+        <v>44.511363590909099</v>
+      </c>
+      <c r="E249">
+        <v>38.477772636363632</v>
+      </c>
+    </row>
+    <row r="250" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B250">
+        <v>1.493907146</v>
+      </c>
+      <c r="C250">
+        <v>3.2321169090909083</v>
+      </c>
+      <c r="D250">
+        <v>49.06049981818181</v>
+      </c>
+      <c r="E250">
+        <v>66.711863409090896</v>
+      </c>
+    </row>
+    <row r="251" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B251">
+        <v>1.59350192</v>
+      </c>
+      <c r="C251">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D251" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E251">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="252" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B252">
+        <v>1.586627217</v>
+      </c>
+      <c r="C252">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D252" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E252">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="253" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B253">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C253">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D253" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E253">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="254" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B254">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C254">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D254" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E254">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="255" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B255">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C255">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D255" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E255">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="256" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B256">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C256">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D256" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E256">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="257" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B257">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C257">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D257" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E257">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="258" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B258">
+        <v>0.49578688500000001</v>
+      </c>
+      <c r="C258">
+        <v>3.1200005454545443</v>
+      </c>
+      <c r="D258">
+        <v>90.45149931818186</v>
+      </c>
+      <c r="E258">
+        <v>43.921045318181825</v>
+      </c>
+    </row>
+    <row r="259" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B259">
+        <v>2.7289328000000002E-2</v>
+      </c>
+      <c r="C259">
+        <v>0.26075018181818194</v>
+      </c>
+      <c r="D259">
+        <v>81.845999681818185</v>
+      </c>
+      <c r="E259">
+        <v>24.013499999999997</v>
+      </c>
+    </row>
+    <row r="260" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B260">
+        <v>-0.65961513800000005</v>
+      </c>
+      <c r="C260">
+        <v>0.46817145454545456</v>
+      </c>
+      <c r="D260">
+        <v>66.150772499999988</v>
+      </c>
+      <c r="E260">
+        <v>84.365455954545482</v>
+      </c>
+    </row>
+    <row r="261" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B261">
+        <v>0.33424169500000001</v>
+      </c>
+      <c r="C261">
+        <v>4.6722347272727278</v>
+      </c>
+      <c r="D261">
+        <v>39.940181772727286</v>
+      </c>
+      <c r="E261">
+        <v>22.710909045454549</v>
+      </c>
+    </row>
+    <row r="262" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B262">
+        <v>0.61460779799999998</v>
+      </c>
+      <c r="C262">
+        <v>0.98271654545454545</v>
+      </c>
+      <c r="D262">
+        <v>39.117227136363624</v>
+      </c>
+      <c r="E262">
+        <v>39.49437249999999</v>
+      </c>
+    </row>
+    <row r="263" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B263">
+        <v>1.2276512399999999</v>
+      </c>
+      <c r="C263">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D263" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E263">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="264" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B264">
+        <v>0.51189115799999996</v>
+      </c>
+      <c r="C264">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D264" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E264">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="265" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B265">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C265">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D265" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E265">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="266" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B266">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C266">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D266" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E266">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="267" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B267">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C267">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D267" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E267">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="268" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B268">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C268">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D268" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E268">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="269" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B269">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C269">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D269" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E269">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="270" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B270">
+        <v>0.41766682399999999</v>
+      </c>
+      <c r="C270">
+        <v>3.0116399999999994</v>
+      </c>
+      <c r="D270">
+        <v>64.704772272727269</v>
+      </c>
+      <c r="E270">
+        <v>35.836499954545459</v>
+      </c>
+    </row>
+    <row r="271" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B271">
+        <v>0.38291089499999997</v>
+      </c>
+      <c r="C271">
+        <v>1.0297009090909095</v>
+      </c>
+      <c r="D271">
+        <v>46.311818136363641</v>
+      </c>
+      <c r="E271">
+        <v>60.64163627272729</v>
+      </c>
+    </row>
+    <row r="272" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B272">
+        <v>6.6899519999999999E-3</v>
+      </c>
+      <c r="C272">
+        <v>1.3384969090909087</v>
+      </c>
+      <c r="D272">
+        <v>22.138636318181824</v>
+      </c>
+      <c r="E272">
+        <v>60.69704513636362</v>
+      </c>
+    </row>
+    <row r="273" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B273">
+        <v>0.52081505100000003</v>
+      </c>
+      <c r="C273">
+        <v>3.4512414545454555</v>
+      </c>
+      <c r="D273">
+        <v>29.988590909090913</v>
+      </c>
+      <c r="E273">
+        <v>40.960590909090904</v>
+      </c>
+    </row>
+    <row r="274" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B274">
+        <v>0.26901652799999998</v>
+      </c>
+      <c r="C274">
+        <v>0.38731690909090927</v>
+      </c>
+      <c r="D274">
+        <v>48.569272590909094</v>
+      </c>
+      <c r="E274">
+        <v>31.528136363636353</v>
+      </c>
+    </row>
+    <row r="275" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B275">
+        <v>0.67981305299999994</v>
+      </c>
+      <c r="C275">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D275" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E275">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="276" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B276">
+        <v>-5.8326536999999998E-2</v>
+      </c>
+      <c r="C276">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D276" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E276">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="277" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B277">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C277">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D277" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E277">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="278" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B278">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C278">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D278" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E278">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="279" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B279">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C279">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D279" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E279">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="280" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B280">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C280">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D280" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E280">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="281" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B281">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C281">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D281" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E281">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="282" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B282">
+        <v>0.62530055600000001</v>
+      </c>
+      <c r="C282">
+        <v>3.3052452727272725</v>
+      </c>
+      <c r="D282">
+        <v>62.963227045454524</v>
+      </c>
+      <c r="E282">
+        <v>52.089999954545469</v>
+      </c>
+    </row>
+    <row r="283" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B283">
+        <v>6.0362519999999998E-3</v>
+      </c>
+      <c r="C283">
+        <v>3.8491454545454544E-2</v>
+      </c>
+      <c r="D283">
+        <v>44.653363590909088</v>
+      </c>
+      <c r="E283">
+        <v>48.186181681818155</v>
+      </c>
+    </row>
+    <row r="284" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B284">
+        <v>-0.13465027199999999</v>
+      </c>
+      <c r="C284">
+        <v>1.6820067272727273</v>
+      </c>
+      <c r="D284">
+        <v>20.088954454545451</v>
+      </c>
+      <c r="E284">
+        <v>45.582636227272751</v>
+      </c>
+    </row>
+    <row r="285" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B285">
+        <v>-1.473840308</v>
+      </c>
+      <c r="C285">
+        <v>0.62312854545454543</v>
+      </c>
+      <c r="D285">
+        <v>25.911000000000001</v>
+      </c>
+      <c r="E285">
+        <v>37.774227136363642</v>
+      </c>
+    </row>
+    <row r="286" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B286">
+        <v>-1.0668379960000001</v>
+      </c>
+      <c r="C286">
+        <v>0.13674509090909093</v>
+      </c>
+      <c r="D286">
+        <v>40.657636363636371</v>
+      </c>
+      <c r="E286">
+        <v>31.501499999999997</v>
+      </c>
+    </row>
+    <row r="287" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B287">
+        <v>-0.98739057600000002</v>
+      </c>
+      <c r="C287">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D287" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E287">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="288" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B288">
+        <v>-0.52161407699999995</v>
+      </c>
+      <c r="C288">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D288" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E288">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="289" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B289">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C289">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D289" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E289">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="290" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B290">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C290">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D290" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E290">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="291" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B291">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C291">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D291" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E291">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="292" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B292">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C292">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D292" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E292">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="293" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B293">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C293">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D293" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E293">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="294" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B294">
+        <v>0.53843812999999996</v>
+      </c>
+      <c r="C294">
+        <v>3.1802309090909087</v>
+      </c>
+      <c r="D294">
+        <v>58.670499727272741</v>
+      </c>
+      <c r="E294">
+        <v>39.330045363636387</v>
+      </c>
+    </row>
+    <row r="295" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B295">
+        <v>0.60411658400000001</v>
+      </c>
+      <c r="C295">
+        <v>1.3122450909090908</v>
+      </c>
+      <c r="D295">
+        <v>40.432454454545471</v>
+      </c>
+      <c r="E295">
+        <v>62.670908818181829</v>
+      </c>
+    </row>
+    <row r="296" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B296">
+        <v>1.0999627679999999</v>
+      </c>
+      <c r="C296">
+        <v>4.1992292727272718</v>
+      </c>
+      <c r="D296">
+        <v>17.838545409090909</v>
+      </c>
+      <c r="E296">
+        <v>58.115227045454546</v>
+      </c>
+    </row>
+    <row r="297" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B297">
+        <v>0.88569452299999996</v>
+      </c>
+      <c r="C297">
+        <v>1.1863692727272728</v>
+      </c>
+      <c r="D297">
+        <v>31.211181727272727</v>
+      </c>
+      <c r="E297">
+        <v>38.18486363636363</v>
+      </c>
+    </row>
+    <row r="298" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B298">
+        <v>0.90326311299999995</v>
+      </c>
+      <c r="C298">
+        <v>1.6092996363636365</v>
+      </c>
+      <c r="D298">
+        <v>53.247136136363643</v>
+      </c>
+      <c r="E298">
+        <v>26.158909090909098</v>
+      </c>
+    </row>
+    <row r="299" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B299">
+        <v>0.28384666600000003</v>
+      </c>
+      <c r="C299">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D299" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E299">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="300" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B300">
+        <v>0.898702326</v>
+      </c>
+      <c r="C300">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D300" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E300">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="301" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B301">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C301">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D301" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E301">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="302" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B302">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C302">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D302" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E302">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="303" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B303">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C303">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D303" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E303">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="304" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B304">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C304">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D304" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E304">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="305" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B305">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C305">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D305" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E305">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="306" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B306">
+        <v>0.4947397</v>
+      </c>
+      <c r="C306">
+        <v>3.1185312727272732</v>
+      </c>
+      <c r="D306">
+        <v>66.700590909090892</v>
+      </c>
+      <c r="E306">
+        <v>43.551454545454561</v>
+      </c>
+    </row>
+    <row r="307" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B307">
+        <v>0.22410369999999999</v>
+      </c>
+      <c r="C307">
+        <v>0.61810781818181826</v>
+      </c>
+      <c r="D307">
+        <v>44.914454454545464</v>
+      </c>
+      <c r="E307">
+        <v>48.635363545454553</v>
+      </c>
+    </row>
+    <row r="308" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B308">
+        <v>-0.10425334</v>
+      </c>
+      <c r="C308">
+        <v>1.3638896363636364</v>
+      </c>
+      <c r="D308">
+        <v>19.432727272727277</v>
+      </c>
+      <c r="E308">
+        <v>57.215681636363627</v>
+      </c>
+    </row>
+    <row r="309" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B309">
+        <v>-0.43107942799999999</v>
+      </c>
+      <c r="C309">
+        <v>1.9128223636363642</v>
+      </c>
+      <c r="D309">
+        <v>29.288909090909094</v>
+      </c>
+      <c r="E309">
+        <v>42.049545318181806</v>
+      </c>
+    </row>
+    <row r="310" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B310">
+        <v>-0.508626519</v>
+      </c>
+      <c r="C310">
+        <v>0.13955127272727275</v>
+      </c>
+      <c r="D310">
+        <v>6.5334543636363618</v>
+      </c>
+      <c r="E310">
+        <v>33.466045409090903</v>
+      </c>
+    </row>
+    <row r="311" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B311">
+        <v>-6.4116998999999994E-2</v>
+      </c>
+      <c r="C311">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D311" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E311">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="312" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B312">
+        <v>-0.51393948700000003</v>
+      </c>
+      <c r="C312">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D312" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E312">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="313" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B313">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C313">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D313" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E313">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="314" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B314">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C314">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D314" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E314">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="315" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B315">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C315">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D315" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E315">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="316" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B316">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C316">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D316" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E316">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="317" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B317">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C317">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D317" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E317">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="318" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B318">
+        <v>0.89331495800000005</v>
+      </c>
+      <c r="C318">
+        <v>3.7111139999999994</v>
+      </c>
+      <c r="D318">
+        <v>58.460818000000003</v>
+      </c>
+      <c r="E318">
+        <v>28.62090904545455</v>
+      </c>
+    </row>
+    <row r="319" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B319">
+        <v>0.813948224</v>
+      </c>
+      <c r="C319">
+        <v>1.238666</v>
+      </c>
+      <c r="D319">
+        <v>41.283636272727279</v>
+      </c>
+      <c r="E319">
+        <v>53.895409000000008</v>
+      </c>
+    </row>
+    <row r="320" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B320">
+        <v>1.183652554</v>
+      </c>
+      <c r="C320">
+        <v>4.0391534545454544</v>
+      </c>
+      <c r="D320">
+        <v>22.60304540909091</v>
+      </c>
+      <c r="E320">
+        <v>59.768499727272733</v>
+      </c>
+    </row>
+    <row r="321" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B321">
+        <v>0.612213856</v>
+      </c>
+      <c r="C321">
+        <v>0.75408963636363646</v>
+      </c>
+      <c r="D321">
+        <v>38.638045363636358</v>
+      </c>
+      <c r="E321">
+        <v>43.633045409090911</v>
+      </c>
+    </row>
+    <row r="322" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B322">
+        <v>0.13493322399999999</v>
+      </c>
+      <c r="C322">
+        <v>4.4602727272727252E-2</v>
+      </c>
+      <c r="D322">
+        <v>12.144408954545456</v>
+      </c>
+      <c r="E322">
+        <v>31.12318181818182</v>
+      </c>
+    </row>
+    <row r="323" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B323">
+        <v>-0.94684958799999996</v>
+      </c>
+      <c r="C323">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D323" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E323">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="324" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B324">
+        <v>-0.87731666200000002</v>
+      </c>
+      <c r="C324">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D324" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E324">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="325" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B325">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C325">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D325" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E325">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="326" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B326">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C326">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D326" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E326">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="327" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B327">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C327">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D327" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E327">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="328" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B328">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C328">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D328" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E328">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="329" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B329">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C329">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D329" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E329">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="330" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B330">
+        <v>-3.7348471569999999</v>
+      </c>
+      <c r="C330">
+        <v>0.19335781818181824</v>
+      </c>
+      <c r="D330">
+        <v>59.14759063636366</v>
+      </c>
+      <c r="E330">
+        <v>11.334499999999998</v>
+      </c>
+    </row>
+    <row r="331" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B331">
+        <v>-1.7622734330000001</v>
+      </c>
+      <c r="C331">
+        <v>0.94400090909090917</v>
+      </c>
+      <c r="D331">
+        <v>40.859090772727271</v>
+      </c>
+      <c r="E331">
+        <v>22.001363590909097</v>
+      </c>
+    </row>
+    <row r="332" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B332">
+        <v>-1.430425353</v>
+      </c>
+      <c r="C332">
+        <v>1.3512196363636364</v>
+      </c>
+      <c r="D332">
+        <v>18.765772681818181</v>
+      </c>
+      <c r="E332">
+        <v>40.77940904545455</v>
+      </c>
+    </row>
+    <row r="333" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B333">
+        <v>-0.79738964099999998</v>
+      </c>
+      <c r="C333">
+        <v>0.99207472727272716</v>
+      </c>
+      <c r="D333">
+        <v>27.945999954545449</v>
+      </c>
+      <c r="E333">
+        <v>36.760909090909081</v>
+      </c>
+    </row>
+    <row r="334" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B334">
+        <v>-1.0436263079999999</v>
+      </c>
+      <c r="C334">
+        <v>0.13463672727272727</v>
+      </c>
+      <c r="D334">
+        <v>42.012636318181833</v>
+      </c>
+      <c r="E334">
+        <v>30.34009090909089</v>
+      </c>
+    </row>
+    <row r="335" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B335">
+        <v>-0.65190422100000001</v>
+      </c>
+      <c r="C335">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D335" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E335">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="336" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B336">
+        <v>-0.527452001</v>
+      </c>
+      <c r="C336">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D336" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E336">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="337" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B337">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C337">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D337" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E337">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="338" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B338">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C338">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D338" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E338">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="339" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B339">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C339">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D339" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E339">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="340" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B340">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C340">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D340" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E340">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="341" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B341">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C341">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D341" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E341">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="342" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B342">
+        <v>-2.0580658829999998</v>
+      </c>
+      <c r="C342">
+        <v>0.74924636363636365</v>
+      </c>
+      <c r="D342">
+        <v>57.407272636363622</v>
+      </c>
+      <c r="E342">
+        <v>53.246772636363609</v>
+      </c>
+    </row>
+    <row r="343" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B343">
+        <v>-1.0451221829999999</v>
+      </c>
+      <c r="C343">
+        <v>1.0879647272727273</v>
+      </c>
+      <c r="D343">
+        <v>39.967499954545453</v>
+      </c>
+      <c r="E343">
+        <v>52.553454409090911</v>
+      </c>
+    </row>
+    <row r="344" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B344">
+        <v>-1.257993914</v>
+      </c>
+      <c r="C344">
+        <v>0.92008254545454504</v>
+      </c>
+      <c r="D344">
+        <v>17.311636318181819</v>
+      </c>
+      <c r="E344">
+        <v>52.258999863636362</v>
+      </c>
+    </row>
+    <row r="345" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B345">
+        <v>-0.67583829699999998</v>
+      </c>
+      <c r="C345">
+        <v>1.4730329090909089</v>
+      </c>
+      <c r="D345">
+        <v>25.045272727272732</v>
+      </c>
+      <c r="E345">
+        <v>39.835363500000007</v>
+      </c>
+    </row>
+    <row r="346" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B346">
+        <v>-0.34262161499999999</v>
+      </c>
+      <c r="C346">
+        <v>1.3580639999999999</v>
+      </c>
+      <c r="D346">
+        <v>42.012636318181833</v>
+      </c>
+      <c r="E346">
+        <v>36.666090909090904</v>
+      </c>
+    </row>
+    <row r="347" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B347">
+        <v>0.29877953000000002</v>
+      </c>
+      <c r="C347">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D347" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E347">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="348" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B348">
+        <v>0.75757136999999997</v>
+      </c>
+      <c r="C348">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D348" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E348">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="349" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B349">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C349">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D349" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E349">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="350" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B350">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C350">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D350" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E350">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="351" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B351">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C351">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D351" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E351">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="352" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B352">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C352">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D352" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E352">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="353" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B353">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C353">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D353" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E353">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="354" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B354">
+        <v>-3.620798819</v>
+      </c>
+      <c r="C354">
+        <v>0.21493981818181818</v>
+      </c>
+      <c r="D354">
+        <v>61.607136000000011</v>
+      </c>
+      <c r="E354">
+        <v>60.280681545454556</v>
+      </c>
+    </row>
+    <row r="355" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B355">
+        <v>-2.037561824</v>
+      </c>
+      <c r="C355">
+        <v>0.71434818181818183</v>
+      </c>
+      <c r="D355">
+        <v>42.846409000000001</v>
+      </c>
+      <c r="E355">
+        <v>67.012090727272735</v>
+      </c>
+    </row>
+    <row r="356" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B356">
+        <v>-1.388159937</v>
+      </c>
+      <c r="C356">
+        <v>1.6233460000000002</v>
+      </c>
+      <c r="D356">
+        <v>19.875727272727275</v>
+      </c>
+      <c r="E356">
+        <v>58.164499545454554</v>
+      </c>
+    </row>
+    <row r="357" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B357">
+        <v>0.38901994299999998</v>
+      </c>
+      <c r="C357">
+        <v>3.1841370909090903</v>
+      </c>
+      <c r="D357">
+        <v>30.651863454545456</v>
+      </c>
+      <c r="E357">
+        <v>39.69781804545454</v>
+      </c>
+    </row>
+    <row r="358" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B358">
+        <v>0.91793926999999997</v>
+      </c>
+      <c r="C358">
+        <v>2.2337670909090908</v>
+      </c>
+      <c r="D358">
+        <v>3.8024544090909247</v>
+      </c>
+      <c r="E358">
+        <v>37.888590772727269</v>
+      </c>
+    </row>
+    <row r="359" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B359">
+        <v>1.1632318210000001</v>
+      </c>
+      <c r="C359">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D359" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E359">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="360" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B360">
+        <v>1.1986394869999999</v>
+      </c>
+      <c r="C360">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D360" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E360">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="361" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B361">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C361">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D361" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E361">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -6852,12 +11964,30 @@
         <v>37.88859077</v>
       </c>
     </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B152">
+        <f>MIN(B2:B151)</f>
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C152">
+        <f>AVERAGE(C2:C151)</f>
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D152">
+        <f>AVERAGE(D2:D151)</f>
+        <v>46.32601623387999</v>
+      </c>
+      <c r="E152">
+        <f>AVERAGE(E2:E151)</f>
+        <v>38.856213219546675</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A151"/>
   <sheetViews>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ujjawal\AppData\Local\Programs\Python\Python39\phd_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{51E09C28-39DB-4540-80A2-EC3CEF94791D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{92B813A7-90C6-4CE9-BB2A-4D6FD3B1CE14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1"/>
   </bookViews>
@@ -4280,8 +4280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E361"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A370" workbookViewId="0">
+      <selection activeCell="D257" sqref="D257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -7373,8 +7373,8 @@
       <c r="C218">
         <v>1.7111561096333336</v>
       </c>
-      <c r="D218" t="e">
-        <v>#DIV/0!</v>
+      <c r="D218">
+        <v>46.32601623</v>
       </c>
       <c r="E218">
         <v>38.856213220000001</v>
@@ -7387,8 +7387,8 @@
       <c r="C219">
         <v>1.7111561096333336</v>
       </c>
-      <c r="D219" t="e">
-        <v>#DIV/0!</v>
+      <c r="D219">
+        <v>46.32601623</v>
       </c>
       <c r="E219">
         <v>38.856213220000001</v>
@@ -7401,8 +7401,8 @@
       <c r="C220">
         <v>1.7111561096333336</v>
       </c>
-      <c r="D220" t="e">
-        <v>#DIV/0!</v>
+      <c r="D220">
+        <v>46.32601623</v>
       </c>
       <c r="E220">
         <v>38.856213220000001</v>
@@ -7415,8 +7415,8 @@
       <c r="C221">
         <v>1.7111561096333336</v>
       </c>
-      <c r="D221" t="e">
-        <v>#DIV/0!</v>
+      <c r="D221">
+        <v>46.32601623</v>
       </c>
       <c r="E221">
         <v>38.856213220000001</v>
@@ -7499,8 +7499,8 @@
       <c r="C227">
         <v>1.7111561096333336</v>
       </c>
-      <c r="D227" t="e">
-        <v>#DIV/0!</v>
+      <c r="D227">
+        <v>46.32601623</v>
       </c>
       <c r="E227">
         <v>38.856213220000001</v>
@@ -7513,8 +7513,8 @@
       <c r="C228">
         <v>1.7111561096333336</v>
       </c>
-      <c r="D228" t="e">
-        <v>#DIV/0!</v>
+      <c r="D228">
+        <v>46.32601623</v>
       </c>
       <c r="E228">
         <v>38.856213220000001</v>
@@ -7527,8 +7527,8 @@
       <c r="C229">
         <v>1.7111561096333336</v>
       </c>
-      <c r="D229" t="e">
-        <v>#DIV/0!</v>
+      <c r="D229">
+        <v>46.32601623</v>
       </c>
       <c r="E229">
         <v>38.856213220000001</v>
@@ -7541,8 +7541,8 @@
       <c r="C230">
         <v>1.7111561096333336</v>
       </c>
-      <c r="D230" t="e">
-        <v>#DIV/0!</v>
+      <c r="D230">
+        <v>46.32601623</v>
       </c>
       <c r="E230">
         <v>38.856213220000001</v>
@@ -7555,8 +7555,8 @@
       <c r="C231">
         <v>1.7111561096333336</v>
       </c>
-      <c r="D231" t="e">
-        <v>#DIV/0!</v>
+      <c r="D231">
+        <v>46.32601623</v>
       </c>
       <c r="E231">
         <v>38.856213220000001</v>
@@ -7569,8 +7569,8 @@
       <c r="C232">
         <v>1.7111561096333336</v>
       </c>
-      <c r="D232" t="e">
-        <v>#DIV/0!</v>
+      <c r="D232">
+        <v>46.32601623</v>
       </c>
       <c r="E232">
         <v>38.856213220000001</v>
@@ -7583,8 +7583,8 @@
       <c r="C233">
         <v>1.7111561096333336</v>
       </c>
-      <c r="D233" t="e">
-        <v>#DIV/0!</v>
+      <c r="D233">
+        <v>46.32601623</v>
       </c>
       <c r="E233">
         <v>38.856213220000001</v>
@@ -7667,8 +7667,8 @@
       <c r="C239">
         <v>1.7111561096333336</v>
       </c>
-      <c r="D239" t="e">
-        <v>#DIV/0!</v>
+      <c r="D239">
+        <v>46.32601623</v>
       </c>
       <c r="E239">
         <v>38.856213220000001</v>
@@ -7681,8 +7681,8 @@
       <c r="C240">
         <v>1.7111561096333336</v>
       </c>
-      <c r="D240" t="e">
-        <v>#DIV/0!</v>
+      <c r="D240">
+        <v>46.32601623</v>
       </c>
       <c r="E240">
         <v>38.856213220000001</v>
@@ -7695,8 +7695,8 @@
       <c r="C241">
         <v>1.7111561096333336</v>
       </c>
-      <c r="D241" t="e">
-        <v>#DIV/0!</v>
+      <c r="D241">
+        <v>46.32601623</v>
       </c>
       <c r="E241">
         <v>38.856213220000001</v>
@@ -7709,8 +7709,8 @@
       <c r="C242">
         <v>1.7111561096333336</v>
       </c>
-      <c r="D242" t="e">
-        <v>#DIV/0!</v>
+      <c r="D242">
+        <v>46.32601623</v>
       </c>
       <c r="E242">
         <v>38.856213220000001</v>
@@ -7723,8 +7723,8 @@
       <c r="C243">
         <v>1.7111561096333336</v>
       </c>
-      <c r="D243" t="e">
-        <v>#DIV/0!</v>
+      <c r="D243">
+        <v>46.32601623</v>
       </c>
       <c r="E243">
         <v>38.856213220000001</v>
@@ -7737,8 +7737,8 @@
       <c r="C244">
         <v>1.7111561096333336</v>
       </c>
-      <c r="D244" t="e">
-        <v>#DIV/0!</v>
+      <c r="D244">
+        <v>46.32601623</v>
       </c>
       <c r="E244">
         <v>38.856213220000001</v>
@@ -7751,8 +7751,8 @@
       <c r="C245">
         <v>1.7111561096333336</v>
       </c>
-      <c r="D245" t="e">
-        <v>#DIV/0!</v>
+      <c r="D245">
+        <v>46.32601623</v>
       </c>
       <c r="E245">
         <v>38.856213220000001</v>
@@ -7835,8 +7835,8 @@
       <c r="C251">
         <v>1.7111561096333336</v>
       </c>
-      <c r="D251" t="e">
-        <v>#DIV/0!</v>
+      <c r="D251">
+        <v>46.32601623</v>
       </c>
       <c r="E251">
         <v>38.856213220000001</v>
@@ -7849,8 +7849,8 @@
       <c r="C252">
         <v>1.7111561096333336</v>
       </c>
-      <c r="D252" t="e">
-        <v>#DIV/0!</v>
+      <c r="D252">
+        <v>46.32601623</v>
       </c>
       <c r="E252">
         <v>38.856213220000001</v>
@@ -7863,8 +7863,8 @@
       <c r="C253">
         <v>1.7111561096333336</v>
       </c>
-      <c r="D253" t="e">
-        <v>#DIV/0!</v>
+      <c r="D253">
+        <v>46.32601623</v>
       </c>
       <c r="E253">
         <v>38.856213220000001</v>
@@ -7877,8 +7877,8 @@
       <c r="C254">
         <v>1.7111561096333336</v>
       </c>
-      <c r="D254" t="e">
-        <v>#DIV/0!</v>
+      <c r="D254">
+        <v>46.32601623</v>
       </c>
       <c r="E254">
         <v>38.856213220000001</v>
@@ -7891,8 +7891,8 @@
       <c r="C255">
         <v>1.7111561096333336</v>
       </c>
-      <c r="D255" t="e">
-        <v>#DIV/0!</v>
+      <c r="D255">
+        <v>46.32601623</v>
       </c>
       <c r="E255">
         <v>38.856213220000001</v>
@@ -7905,8 +7905,8 @@
       <c r="C256">
         <v>1.7111561096333336</v>
       </c>
-      <c r="D256" t="e">
-        <v>#DIV/0!</v>
+      <c r="D256">
+        <v>46.32601623</v>
       </c>
       <c r="E256">
         <v>38.856213220000001</v>
@@ -7919,8 +7919,8 @@
       <c r="C257">
         <v>1.7111561096333336</v>
       </c>
-      <c r="D257" t="e">
-        <v>#DIV/0!</v>
+      <c r="D257">
+        <v>46.32601623</v>
       </c>
       <c r="E257">
         <v>38.856213220000001</v>
@@ -8003,8 +8003,8 @@
       <c r="C263">
         <v>1.7111561096333336</v>
       </c>
-      <c r="D263" t="e">
-        <v>#DIV/0!</v>
+      <c r="D263">
+        <v>46.32601623</v>
       </c>
       <c r="E263">
         <v>38.856213220000001</v>
@@ -8017,8 +8017,8 @@
       <c r="C264">
         <v>1.7111561096333336</v>
       </c>
-      <c r="D264" t="e">
-        <v>#DIV/0!</v>
+      <c r="D264">
+        <v>46.32601623</v>
       </c>
       <c r="E264">
         <v>38.856213220000001</v>
@@ -8031,8 +8031,8 @@
       <c r="C265">
         <v>1.7111561096333336</v>
       </c>
-      <c r="D265" t="e">
-        <v>#DIV/0!</v>
+      <c r="D265">
+        <v>46.32601623</v>
       </c>
       <c r="E265">
         <v>38.856213220000001</v>
@@ -8045,8 +8045,8 @@
       <c r="C266">
         <v>1.7111561096333336</v>
       </c>
-      <c r="D266" t="e">
-        <v>#DIV/0!</v>
+      <c r="D266">
+        <v>46.32601623</v>
       </c>
       <c r="E266">
         <v>38.856213220000001</v>
@@ -8059,8 +8059,8 @@
       <c r="C267">
         <v>1.7111561096333336</v>
       </c>
-      <c r="D267" t="e">
-        <v>#DIV/0!</v>
+      <c r="D267">
+        <v>46.32601623</v>
       </c>
       <c r="E267">
         <v>38.856213220000001</v>
@@ -8073,8 +8073,8 @@
       <c r="C268">
         <v>1.7111561096333336</v>
       </c>
-      <c r="D268" t="e">
-        <v>#DIV/0!</v>
+      <c r="D268">
+        <v>46.32601623</v>
       </c>
       <c r="E268">
         <v>38.856213220000001</v>
@@ -8087,8 +8087,8 @@
       <c r="C269">
         <v>1.7111561096333336</v>
       </c>
-      <c r="D269" t="e">
-        <v>#DIV/0!</v>
+      <c r="D269">
+        <v>46.32601623</v>
       </c>
       <c r="E269">
         <v>38.856213220000001</v>
@@ -8171,8 +8171,8 @@
       <c r="C275">
         <v>1.7111561096333336</v>
       </c>
-      <c r="D275" t="e">
-        <v>#DIV/0!</v>
+      <c r="D275">
+        <v>46.32601623</v>
       </c>
       <c r="E275">
         <v>38.856213220000001</v>
@@ -8185,8 +8185,8 @@
       <c r="C276">
         <v>1.7111561096333336</v>
       </c>
-      <c r="D276" t="e">
-        <v>#DIV/0!</v>
+      <c r="D276">
+        <v>46.32601623</v>
       </c>
       <c r="E276">
         <v>38.856213220000001</v>
@@ -8199,8 +8199,8 @@
       <c r="C277">
         <v>1.7111561096333336</v>
       </c>
-      <c r="D277" t="e">
-        <v>#DIV/0!</v>
+      <c r="D277">
+        <v>46.32601623</v>
       </c>
       <c r="E277">
         <v>38.856213220000001</v>
@@ -8213,8 +8213,8 @@
       <c r="C278">
         <v>1.7111561096333336</v>
       </c>
-      <c r="D278" t="e">
-        <v>#DIV/0!</v>
+      <c r="D278">
+        <v>46.32601623</v>
       </c>
       <c r="E278">
         <v>38.856213220000001</v>
@@ -8227,8 +8227,8 @@
       <c r="C279">
         <v>1.7111561096333336</v>
       </c>
-      <c r="D279" t="e">
-        <v>#DIV/0!</v>
+      <c r="D279">
+        <v>46.32601623</v>
       </c>
       <c r="E279">
         <v>38.856213220000001</v>
@@ -8241,8 +8241,8 @@
       <c r="C280">
         <v>1.7111561096333336</v>
       </c>
-      <c r="D280" t="e">
-        <v>#DIV/0!</v>
+      <c r="D280">
+        <v>46.32601623</v>
       </c>
       <c r="E280">
         <v>38.856213220000001</v>
@@ -8255,8 +8255,8 @@
       <c r="C281">
         <v>1.7111561096333336</v>
       </c>
-      <c r="D281" t="e">
-        <v>#DIV/0!</v>
+      <c r="D281">
+        <v>46.32601623</v>
       </c>
       <c r="E281">
         <v>38.856213220000001</v>
@@ -8339,8 +8339,8 @@
       <c r="C287">
         <v>1.7111561096333336</v>
       </c>
-      <c r="D287" t="e">
-        <v>#DIV/0!</v>
+      <c r="D287">
+        <v>46.32601623</v>
       </c>
       <c r="E287">
         <v>38.856213220000001</v>
@@ -8353,8 +8353,8 @@
       <c r="C288">
         <v>1.7111561096333336</v>
       </c>
-      <c r="D288" t="e">
-        <v>#DIV/0!</v>
+      <c r="D288">
+        <v>46.32601623</v>
       </c>
       <c r="E288">
         <v>38.856213220000001</v>
@@ -8367,8 +8367,8 @@
       <c r="C289">
         <v>1.7111561096333336</v>
       </c>
-      <c r="D289" t="e">
-        <v>#DIV/0!</v>
+      <c r="D289">
+        <v>46.32601623</v>
       </c>
       <c r="E289">
         <v>38.856213220000001</v>
@@ -8381,8 +8381,8 @@
       <c r="C290">
         <v>1.7111561096333336</v>
       </c>
-      <c r="D290" t="e">
-        <v>#DIV/0!</v>
+      <c r="D290">
+        <v>46.32601623</v>
       </c>
       <c r="E290">
         <v>38.856213220000001</v>
@@ -8395,8 +8395,8 @@
       <c r="C291">
         <v>1.7111561096333336</v>
       </c>
-      <c r="D291" t="e">
-        <v>#DIV/0!</v>
+      <c r="D291">
+        <v>46.32601623</v>
       </c>
       <c r="E291">
         <v>38.856213220000001</v>
@@ -8409,8 +8409,8 @@
       <c r="C292">
         <v>1.7111561096333336</v>
       </c>
-      <c r="D292" t="e">
-        <v>#DIV/0!</v>
+      <c r="D292">
+        <v>46.32601623</v>
       </c>
       <c r="E292">
         <v>38.856213220000001</v>
@@ -8423,8 +8423,8 @@
       <c r="C293">
         <v>1.7111561096333336</v>
       </c>
-      <c r="D293" t="e">
-        <v>#DIV/0!</v>
+      <c r="D293">
+        <v>46.32601623</v>
       </c>
       <c r="E293">
         <v>38.856213220000001</v>
@@ -8507,8 +8507,8 @@
       <c r="C299">
         <v>1.7111561096333336</v>
       </c>
-      <c r="D299" t="e">
-        <v>#DIV/0!</v>
+      <c r="D299">
+        <v>46.32601623</v>
       </c>
       <c r="E299">
         <v>38.856213220000001</v>
@@ -8521,8 +8521,8 @@
       <c r="C300">
         <v>1.7111561096333336</v>
       </c>
-      <c r="D300" t="e">
-        <v>#DIV/0!</v>
+      <c r="D300">
+        <v>46.32601623</v>
       </c>
       <c r="E300">
         <v>38.856213220000001</v>
@@ -8535,8 +8535,8 @@
       <c r="C301">
         <v>1.7111561096333336</v>
       </c>
-      <c r="D301" t="e">
-        <v>#DIV/0!</v>
+      <c r="D301">
+        <v>46.32601623</v>
       </c>
       <c r="E301">
         <v>38.856213220000001</v>
@@ -8549,8 +8549,8 @@
       <c r="C302">
         <v>1.7111561096333336</v>
       </c>
-      <c r="D302" t="e">
-        <v>#DIV/0!</v>
+      <c r="D302">
+        <v>46.32601623</v>
       </c>
       <c r="E302">
         <v>38.856213220000001</v>
@@ -8563,8 +8563,8 @@
       <c r="C303">
         <v>1.7111561096333336</v>
       </c>
-      <c r="D303" t="e">
-        <v>#DIV/0!</v>
+      <c r="D303">
+        <v>46.32601623</v>
       </c>
       <c r="E303">
         <v>38.856213220000001</v>
@@ -8577,8 +8577,8 @@
       <c r="C304">
         <v>1.7111561096333336</v>
       </c>
-      <c r="D304" t="e">
-        <v>#DIV/0!</v>
+      <c r="D304">
+        <v>46.32601623</v>
       </c>
       <c r="E304">
         <v>38.856213220000001</v>
@@ -8591,8 +8591,8 @@
       <c r="C305">
         <v>1.7111561096333336</v>
       </c>
-      <c r="D305" t="e">
-        <v>#DIV/0!</v>
+      <c r="D305">
+        <v>46.32601623</v>
       </c>
       <c r="E305">
         <v>38.856213220000001</v>
@@ -8675,8 +8675,8 @@
       <c r="C311">
         <v>1.7111561096333336</v>
       </c>
-      <c r="D311" t="e">
-        <v>#DIV/0!</v>
+      <c r="D311">
+        <v>46.32601623</v>
       </c>
       <c r="E311">
         <v>38.856213220000001</v>
@@ -8689,8 +8689,8 @@
       <c r="C312">
         <v>1.7111561096333336</v>
       </c>
-      <c r="D312" t="e">
-        <v>#DIV/0!</v>
+      <c r="D312">
+        <v>46.32601623</v>
       </c>
       <c r="E312">
         <v>38.856213220000001</v>
@@ -8703,8 +8703,8 @@
       <c r="C313">
         <v>1.7111561096333336</v>
       </c>
-      <c r="D313" t="e">
-        <v>#DIV/0!</v>
+      <c r="D313">
+        <v>46.32601623</v>
       </c>
       <c r="E313">
         <v>38.856213220000001</v>
@@ -8717,8 +8717,8 @@
       <c r="C314">
         <v>1.7111561096333336</v>
       </c>
-      <c r="D314" t="e">
-        <v>#DIV/0!</v>
+      <c r="D314">
+        <v>46.32601623</v>
       </c>
       <c r="E314">
         <v>38.856213220000001</v>
@@ -8731,8 +8731,8 @@
       <c r="C315">
         <v>1.7111561096333336</v>
       </c>
-      <c r="D315" t="e">
-        <v>#DIV/0!</v>
+      <c r="D315">
+        <v>46.32601623</v>
       </c>
       <c r="E315">
         <v>38.856213220000001</v>
@@ -8745,8 +8745,8 @@
       <c r="C316">
         <v>1.7111561096333336</v>
       </c>
-      <c r="D316" t="e">
-        <v>#DIV/0!</v>
+      <c r="D316">
+        <v>46.32601623</v>
       </c>
       <c r="E316">
         <v>38.856213220000001</v>
@@ -8759,8 +8759,8 @@
       <c r="C317">
         <v>1.7111561096333336</v>
       </c>
-      <c r="D317" t="e">
-        <v>#DIV/0!</v>
+      <c r="D317">
+        <v>46.32601623</v>
       </c>
       <c r="E317">
         <v>38.856213220000001</v>
@@ -8843,8 +8843,8 @@
       <c r="C323">
         <v>1.7111561096333336</v>
       </c>
-      <c r="D323" t="e">
-        <v>#DIV/0!</v>
+      <c r="D323">
+        <v>46.32601623</v>
       </c>
       <c r="E323">
         <v>38.856213220000001</v>
@@ -8857,8 +8857,8 @@
       <c r="C324">
         <v>1.7111561096333336</v>
       </c>
-      <c r="D324" t="e">
-        <v>#DIV/0!</v>
+      <c r="D324">
+        <v>46.32601623</v>
       </c>
       <c r="E324">
         <v>38.856213220000001</v>
@@ -8871,8 +8871,8 @@
       <c r="C325">
         <v>1.7111561096333336</v>
       </c>
-      <c r="D325" t="e">
-        <v>#DIV/0!</v>
+      <c r="D325">
+        <v>46.32601623</v>
       </c>
       <c r="E325">
         <v>38.856213220000001</v>
@@ -8885,8 +8885,8 @@
       <c r="C326">
         <v>1.7111561096333336</v>
       </c>
-      <c r="D326" t="e">
-        <v>#DIV/0!</v>
+      <c r="D326">
+        <v>46.32601623</v>
       </c>
       <c r="E326">
         <v>38.856213220000001</v>
@@ -8899,8 +8899,8 @@
       <c r="C327">
         <v>1.7111561096333336</v>
       </c>
-      <c r="D327" t="e">
-        <v>#DIV/0!</v>
+      <c r="D327">
+        <v>46.32601623</v>
       </c>
       <c r="E327">
         <v>38.856213220000001</v>
@@ -8913,8 +8913,8 @@
       <c r="C328">
         <v>1.7111561096333336</v>
       </c>
-      <c r="D328" t="e">
-        <v>#DIV/0!</v>
+      <c r="D328">
+        <v>46.32601623</v>
       </c>
       <c r="E328">
         <v>38.856213220000001</v>
@@ -8927,8 +8927,8 @@
       <c r="C329">
         <v>1.7111561096333336</v>
       </c>
-      <c r="D329" t="e">
-        <v>#DIV/0!</v>
+      <c r="D329">
+        <v>46.32601623</v>
       </c>
       <c r="E329">
         <v>38.856213220000001</v>
@@ -9011,8 +9011,8 @@
       <c r="C335">
         <v>1.7111561096333336</v>
       </c>
-      <c r="D335" t="e">
-        <v>#DIV/0!</v>
+      <c r="D335">
+        <v>46.32601623</v>
       </c>
       <c r="E335">
         <v>38.856213220000001</v>
@@ -9025,8 +9025,8 @@
       <c r="C336">
         <v>1.7111561096333336</v>
       </c>
-      <c r="D336" t="e">
-        <v>#DIV/0!</v>
+      <c r="D336">
+        <v>46.32601623</v>
       </c>
       <c r="E336">
         <v>38.856213220000001</v>
@@ -9039,8 +9039,8 @@
       <c r="C337">
         <v>1.7111561096333336</v>
       </c>
-      <c r="D337" t="e">
-        <v>#DIV/0!</v>
+      <c r="D337">
+        <v>46.32601623</v>
       </c>
       <c r="E337">
         <v>38.856213220000001</v>
@@ -9053,8 +9053,8 @@
       <c r="C338">
         <v>1.7111561096333336</v>
       </c>
-      <c r="D338" t="e">
-        <v>#DIV/0!</v>
+      <c r="D338">
+        <v>46.32601623</v>
       </c>
       <c r="E338">
         <v>38.856213220000001</v>
@@ -9067,8 +9067,8 @@
       <c r="C339">
         <v>1.7111561096333336</v>
       </c>
-      <c r="D339" t="e">
-        <v>#DIV/0!</v>
+      <c r="D339">
+        <v>46.32601623</v>
       </c>
       <c r="E339">
         <v>38.856213220000001</v>
@@ -9081,8 +9081,8 @@
       <c r="C340">
         <v>1.7111561096333336</v>
       </c>
-      <c r="D340" t="e">
-        <v>#DIV/0!</v>
+      <c r="D340">
+        <v>46.32601623</v>
       </c>
       <c r="E340">
         <v>38.856213220000001</v>
@@ -9095,8 +9095,8 @@
       <c r="C341">
         <v>1.7111561096333336</v>
       </c>
-      <c r="D341" t="e">
-        <v>#DIV/0!</v>
+      <c r="D341">
+        <v>46.32601623</v>
       </c>
       <c r="E341">
         <v>38.856213220000001</v>
@@ -9179,8 +9179,8 @@
       <c r="C347">
         <v>1.7111561096333336</v>
       </c>
-      <c r="D347" t="e">
-        <v>#DIV/0!</v>
+      <c r="D347">
+        <v>46.32601623</v>
       </c>
       <c r="E347">
         <v>38.856213220000001</v>
@@ -9193,8 +9193,8 @@
       <c r="C348">
         <v>1.7111561096333336</v>
       </c>
-      <c r="D348" t="e">
-        <v>#DIV/0!</v>
+      <c r="D348">
+        <v>46.32601623</v>
       </c>
       <c r="E348">
         <v>38.856213220000001</v>
@@ -9207,8 +9207,8 @@
       <c r="C349">
         <v>1.7111561096333336</v>
       </c>
-      <c r="D349" t="e">
-        <v>#DIV/0!</v>
+      <c r="D349">
+        <v>46.32601623</v>
       </c>
       <c r="E349">
         <v>38.856213220000001</v>
@@ -9221,8 +9221,8 @@
       <c r="C350">
         <v>1.7111561096333336</v>
       </c>
-      <c r="D350" t="e">
-        <v>#DIV/0!</v>
+      <c r="D350">
+        <v>46.32601623</v>
       </c>
       <c r="E350">
         <v>38.856213220000001</v>
@@ -9235,8 +9235,8 @@
       <c r="C351">
         <v>1.7111561096333336</v>
       </c>
-      <c r="D351" t="e">
-        <v>#DIV/0!</v>
+      <c r="D351">
+        <v>46.32601623</v>
       </c>
       <c r="E351">
         <v>38.856213220000001</v>
@@ -9249,8 +9249,8 @@
       <c r="C352">
         <v>1.7111561096333336</v>
       </c>
-      <c r="D352" t="e">
-        <v>#DIV/0!</v>
+      <c r="D352">
+        <v>46.32601623</v>
       </c>
       <c r="E352">
         <v>38.856213220000001</v>
@@ -9263,8 +9263,8 @@
       <c r="C353">
         <v>1.7111561096333336</v>
       </c>
-      <c r="D353" t="e">
-        <v>#DIV/0!</v>
+      <c r="D353">
+        <v>46.32601623</v>
       </c>
       <c r="E353">
         <v>38.856213220000001</v>
@@ -9347,8 +9347,8 @@
       <c r="C359">
         <v>1.7111561096333336</v>
       </c>
-      <c r="D359" t="e">
-        <v>#DIV/0!</v>
+      <c r="D359">
+        <v>46.32601623</v>
       </c>
       <c r="E359">
         <v>38.856213220000001</v>
@@ -9361,8 +9361,8 @@
       <c r="C360">
         <v>1.7111561096333336</v>
       </c>
-      <c r="D360" t="e">
-        <v>#DIV/0!</v>
+      <c r="D360">
+        <v>46.32601623</v>
       </c>
       <c r="E360">
         <v>38.856213220000001</v>
@@ -9375,8 +9375,8 @@
       <c r="C361">
         <v>1.7111561096333336</v>
       </c>
-      <c r="D361" t="e">
-        <v>#DIV/0!</v>
+      <c r="D361">
+        <v>46.32601623</v>
       </c>
       <c r="E361">
         <v>38.856213220000001</v>
@@ -9391,7 +9391,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E152"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A136" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ujjawal\AppData\Local\Programs\Python\Python39\phd_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{92B813A7-90C6-4CE9-BB2A-4D6FD3B1CE14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{C9248497-A4F6-48C1-9784-DB9E8A1C83FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SPI3" sheetId="1" r:id="rId1"/>
-    <sheet name="12-months data" sheetId="4" r:id="rId2"/>
-    <sheet name="SPI1" sheetId="2" r:id="rId3"/>
-    <sheet name="Uni_SPI1" sheetId="3" r:id="rId4"/>
+    <sheet name="12-months data(1991-2020)" sheetId="4" r:id="rId2"/>
+    <sheet name="12-months data(1981-2020)" sheetId="5" r:id="rId3"/>
+    <sheet name="SPI1" sheetId="2" r:id="rId4"/>
+    <sheet name="Uni_SPI1" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="5">
   <si>
     <t>Month</t>
   </si>
@@ -4280,8 +4281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E361"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A370" workbookViewId="0">
-      <selection activeCell="D257" sqref="D257"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H271" sqref="H271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -9388,6 +9389,6341 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E433"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A410" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>31048</v>
+      </c>
+      <c r="B2">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C2">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D2">
+        <v>46.32601623</v>
+      </c>
+      <c r="E2">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>31079</v>
+      </c>
+      <c r="B3">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C3">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D3">
+        <v>46.32601623</v>
+      </c>
+      <c r="E3">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>31107</v>
+      </c>
+      <c r="B4">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C4">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D4">
+        <v>46.32601623</v>
+      </c>
+      <c r="E4">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>31138</v>
+      </c>
+      <c r="B5">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C5">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D5">
+        <v>46.32601623</v>
+      </c>
+      <c r="E5">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>31168</v>
+      </c>
+      <c r="B6">
+        <v>0.44326736100000003</v>
+      </c>
+      <c r="C6">
+        <v>3.0468725454545451</v>
+      </c>
+      <c r="D6">
+        <v>74.399136136363651</v>
+      </c>
+      <c r="E6">
+        <v>25.761590859999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>31199</v>
+      </c>
+      <c r="B7">
+        <v>3.4632994E-2</v>
+      </c>
+      <c r="C7">
+        <v>0.34673145454545451</v>
+      </c>
+      <c r="D7">
+        <v>68.941636227272724</v>
+      </c>
+      <c r="E7">
+        <v>10.947181820000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>31229</v>
+      </c>
+      <c r="B8">
+        <v>0.78846469399999997</v>
+      </c>
+      <c r="C8">
+        <v>4.2477427272727271</v>
+      </c>
+      <c r="D8">
+        <v>49.789409045454548</v>
+      </c>
+      <c r="E8">
+        <v>7.980590909</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>31260</v>
+      </c>
+      <c r="B9">
+        <v>0.48816437400000001</v>
+      </c>
+      <c r="C9">
+        <v>1.1502749090909095</v>
+      </c>
+      <c r="D9">
+        <v>44.887409045454547</v>
+      </c>
+      <c r="E9">
+        <v>15.532</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>31291</v>
+      </c>
+      <c r="B10">
+        <v>0.50913940099999999</v>
+      </c>
+      <c r="C10">
+        <v>0.42525690909090913</v>
+      </c>
+      <c r="D10">
+        <v>52.238499909090919</v>
+      </c>
+      <c r="E10">
+        <v>18.163636360000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>31321</v>
+      </c>
+      <c r="B11">
+        <v>-0.33614949500000002</v>
+      </c>
+      <c r="C11">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D11">
+        <v>46.32601623</v>
+      </c>
+      <c r="E11">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>31352</v>
+      </c>
+      <c r="B12">
+        <v>-8.7698729999999992E-3</v>
+      </c>
+      <c r="C12">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D12">
+        <v>46.32601623</v>
+      </c>
+      <c r="E12">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>31382</v>
+      </c>
+      <c r="B13">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C13">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D13">
+        <v>46.32601623</v>
+      </c>
+      <c r="E13">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>31413</v>
+      </c>
+      <c r="B14">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C14">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D14">
+        <v>46.32601623</v>
+      </c>
+      <c r="E14">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>31444</v>
+      </c>
+      <c r="B15">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C15">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D15">
+        <v>46.32601623</v>
+      </c>
+      <c r="E15">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>31472</v>
+      </c>
+      <c r="B16">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C16">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D16">
+        <v>46.32601623</v>
+      </c>
+      <c r="E16">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>31503</v>
+      </c>
+      <c r="B17">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C17">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D17">
+        <v>46.32601623</v>
+      </c>
+      <c r="E17">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>31533</v>
+      </c>
+      <c r="B18">
+        <v>1.0909838220000001</v>
+      </c>
+      <c r="C18">
+        <v>4.0302812727272732</v>
+      </c>
+      <c r="D18">
+        <v>61.677954136363645</v>
+      </c>
+      <c r="E18">
+        <v>28.489045449999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>31564</v>
+      </c>
+      <c r="B19">
+        <v>2.1038267780000002</v>
+      </c>
+      <c r="C19">
+        <v>4.3929309090909081</v>
+      </c>
+      <c r="D19">
+        <v>52.811772500000004</v>
+      </c>
+      <c r="E19">
+        <v>39.669045449999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>31594</v>
+      </c>
+      <c r="B20">
+        <v>1.331026772</v>
+      </c>
+      <c r="C20">
+        <v>1.1048341818181813</v>
+      </c>
+      <c r="D20">
+        <v>64.722681727272715</v>
+      </c>
+      <c r="E20">
+        <v>25.81804545</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>31625</v>
+      </c>
+      <c r="B21">
+        <v>0.71936117399999999</v>
+      </c>
+      <c r="C21">
+        <v>0.78962854545454564</v>
+      </c>
+      <c r="D21">
+        <v>59.119227045454565</v>
+      </c>
+      <c r="E21">
+        <v>19.701909090000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>31656</v>
+      </c>
+      <c r="B22">
+        <v>-1.4081247059999999</v>
+      </c>
+      <c r="C22">
+        <v>5.9406545454545462E-2</v>
+      </c>
+      <c r="D22">
+        <v>43.325363500000002</v>
+      </c>
+      <c r="E22">
+        <v>22.65295455</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>31686</v>
+      </c>
+      <c r="B23">
+        <v>-0.89639787000000004</v>
+      </c>
+      <c r="C23">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D23">
+        <v>46.32601623</v>
+      </c>
+      <c r="E23">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>31717</v>
+      </c>
+      <c r="B24">
+        <v>-0.798035143</v>
+      </c>
+      <c r="C24">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D24">
+        <v>46.32601623</v>
+      </c>
+      <c r="E24">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>31747</v>
+      </c>
+      <c r="B25">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C25">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D25">
+        <v>46.32601623</v>
+      </c>
+      <c r="E25">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>31778</v>
+      </c>
+      <c r="B26">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C26">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D26">
+        <v>46.32601623</v>
+      </c>
+      <c r="E26">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>31809</v>
+      </c>
+      <c r="B27">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C27">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D27">
+        <v>46.32601623</v>
+      </c>
+      <c r="E27">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>31837</v>
+      </c>
+      <c r="B28">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C28">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D28">
+        <v>46.32601623</v>
+      </c>
+      <c r="E28">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>31868</v>
+      </c>
+      <c r="B29">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C29">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D29">
+        <v>46.32601623</v>
+      </c>
+      <c r="E29">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>31898</v>
+      </c>
+      <c r="B30">
+        <v>-0.196110116</v>
+      </c>
+      <c r="C30">
+        <v>2.2460194545454542</v>
+      </c>
+      <c r="D30">
+        <v>81.111226954545415</v>
+      </c>
+      <c r="E30">
+        <v>88.643726770000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>31929</v>
+      </c>
+      <c r="B31">
+        <v>-0.43376891699999998</v>
+      </c>
+      <c r="C31">
+        <v>0.39191727272727273</v>
+      </c>
+      <c r="D31">
+        <v>77.82322690909092</v>
+      </c>
+      <c r="E31">
+        <v>84.166499819999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>31959</v>
+      </c>
+      <c r="B32">
+        <v>0.81279453899999998</v>
+      </c>
+      <c r="C32">
+        <v>5.0823078181818166</v>
+      </c>
+      <c r="D32">
+        <v>85.108636090909087</v>
+      </c>
+      <c r="E32">
+        <v>76.660408770000004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>31990</v>
+      </c>
+      <c r="B33">
+        <v>0.99821470499999998</v>
+      </c>
+      <c r="C33">
+        <v>1.5109272727272729</v>
+      </c>
+      <c r="D33">
+        <v>88.441136136363653</v>
+      </c>
+      <c r="E33">
+        <v>52.983181590000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>32021</v>
+      </c>
+      <c r="B34">
+        <v>1.4449820630000001</v>
+      </c>
+      <c r="C34">
+        <v>2.2460194545454542</v>
+      </c>
+      <c r="D34">
+        <v>84.890227090909107</v>
+      </c>
+      <c r="E34">
+        <v>61.834727000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>32051</v>
+      </c>
+      <c r="B35">
+        <v>0.65158797700000004</v>
+      </c>
+      <c r="C35">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D35">
+        <v>46.32601623</v>
+      </c>
+      <c r="E35">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <v>32082</v>
+      </c>
+      <c r="B36">
+        <v>1.203975349</v>
+      </c>
+      <c r="C36">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D36">
+        <v>46.32601623</v>
+      </c>
+      <c r="E36">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>32112</v>
+      </c>
+      <c r="B37">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C37">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D37">
+        <v>46.32601623</v>
+      </c>
+      <c r="E37">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>32143</v>
+      </c>
+      <c r="B38">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C38">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D38">
+        <v>46.32601623</v>
+      </c>
+      <c r="E38">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <v>32174</v>
+      </c>
+      <c r="B39">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C39">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D39">
+        <v>46.32601623</v>
+      </c>
+      <c r="E39">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <v>32203</v>
+      </c>
+      <c r="B40">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C40">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D40">
+        <v>46.32601623</v>
+      </c>
+      <c r="E40">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <v>32234</v>
+      </c>
+      <c r="B41">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C41">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D41">
+        <v>46.32601623</v>
+      </c>
+      <c r="E41">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <v>32264</v>
+      </c>
+      <c r="B42">
+        <v>0.44947251900000001</v>
+      </c>
+      <c r="C42">
+        <v>3.0554530909090913</v>
+      </c>
+      <c r="D42">
+        <v>73.084408818181828</v>
+      </c>
+      <c r="E42">
+        <v>57.760908999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <v>32295</v>
+      </c>
+      <c r="B43">
+        <v>0.607588499</v>
+      </c>
+      <c r="C43">
+        <v>1.4443550909090905</v>
+      </c>
+      <c r="D43">
+        <v>70.024045272727278</v>
+      </c>
+      <c r="E43">
+        <v>40.413590859999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
+        <v>32325</v>
+      </c>
+      <c r="B44">
+        <v>1.286319575</v>
+      </c>
+      <c r="C44">
+        <v>4.8625663636363665</v>
+      </c>
+      <c r="D44">
+        <v>72.68759054545454</v>
+      </c>
+      <c r="E44">
+        <v>22.23509086</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <v>32356</v>
+      </c>
+      <c r="B45">
+        <v>0.72743277799999995</v>
+      </c>
+      <c r="C45">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D45">
+        <v>74.686544999999995</v>
+      </c>
+      <c r="E45">
+        <v>9.7742727269999996</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <v>32387</v>
+      </c>
+      <c r="B46">
+        <v>0.50308770700000005</v>
+      </c>
+      <c r="C46">
+        <v>0.94380218181818154</v>
+      </c>
+      <c r="D46">
+        <v>66.936635954545451</v>
+      </c>
+      <c r="E46">
+        <v>11.74131818</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
+        <v>32417</v>
+      </c>
+      <c r="B47">
+        <v>-0.80712953700000001</v>
+      </c>
+      <c r="C47">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D47">
+        <v>46.32601623</v>
+      </c>
+      <c r="E47">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
+        <v>32448</v>
+      </c>
+      <c r="B48">
+        <v>0.48317251</v>
+      </c>
+      <c r="C48">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D48">
+        <v>46.32601623</v>
+      </c>
+      <c r="E48">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
+        <v>32478</v>
+      </c>
+      <c r="B49">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C49">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D49">
+        <v>46.32601623</v>
+      </c>
+      <c r="E49">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
+        <v>32509</v>
+      </c>
+      <c r="B50">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C50">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D50">
+        <v>46.32601623</v>
+      </c>
+      <c r="E50">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
+        <v>32540</v>
+      </c>
+      <c r="B51">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C51">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D51">
+        <v>46.32601623</v>
+      </c>
+      <c r="E51">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="1">
+        <v>32568</v>
+      </c>
+      <c r="B52">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C52">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D52">
+        <v>46.32601623</v>
+      </c>
+      <c r="E52">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="1">
+        <v>32599</v>
+      </c>
+      <c r="B53">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C53">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D53">
+        <v>46.32601623</v>
+      </c>
+      <c r="E53">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" s="1">
+        <v>32629</v>
+      </c>
+      <c r="B54">
+        <v>-3.620798819</v>
+      </c>
+      <c r="C54">
+        <v>0.21493981818181818</v>
+      </c>
+      <c r="D54">
+        <v>61.607136000000011</v>
+      </c>
+      <c r="E54">
+        <v>60.280681545454556</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" s="1">
+        <v>32660</v>
+      </c>
+      <c r="B55">
+        <v>-2.037561824</v>
+      </c>
+      <c r="C55">
+        <v>0.71434818181818183</v>
+      </c>
+      <c r="D55">
+        <v>42.846409000000001</v>
+      </c>
+      <c r="E55">
+        <v>67.012090727272735</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" s="1">
+        <v>32690</v>
+      </c>
+      <c r="B56">
+        <v>-1.388159937</v>
+      </c>
+      <c r="C56">
+        <v>1.6233460000000002</v>
+      </c>
+      <c r="D56">
+        <v>19.875727272727275</v>
+      </c>
+      <c r="E56">
+        <v>58.164499545454554</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" s="1">
+        <v>32721</v>
+      </c>
+      <c r="B57">
+        <v>0.38901994299999998</v>
+      </c>
+      <c r="C57">
+        <v>3.1841370909090903</v>
+      </c>
+      <c r="D57">
+        <v>30.651863454545456</v>
+      </c>
+      <c r="E57">
+        <v>39.69781804545454</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" s="1">
+        <v>32752</v>
+      </c>
+      <c r="B58">
+        <v>0.91793926999999997</v>
+      </c>
+      <c r="C58">
+        <v>2.2337670909090908</v>
+      </c>
+      <c r="D58">
+        <v>3.8024544090909247</v>
+      </c>
+      <c r="E58">
+        <v>37.888590772727269</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" s="1">
+        <v>32782</v>
+      </c>
+      <c r="B59">
+        <v>1.1632318210000001</v>
+      </c>
+      <c r="C59">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D59">
+        <v>46.32601623</v>
+      </c>
+      <c r="E59">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" s="1">
+        <v>32813</v>
+      </c>
+      <c r="B60">
+        <v>1.1986394869999999</v>
+      </c>
+      <c r="C60">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D60">
+        <v>46.32601623</v>
+      </c>
+      <c r="E60">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" s="1">
+        <v>32843</v>
+      </c>
+      <c r="B61">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C61">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D61">
+        <v>46.32601623</v>
+      </c>
+      <c r="E61">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" s="1">
+        <v>32874</v>
+      </c>
+      <c r="B62">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C62">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D62">
+        <v>46.32601623</v>
+      </c>
+      <c r="E62">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" s="1">
+        <v>32905</v>
+      </c>
+      <c r="B63">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C63">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D63">
+        <v>46.32601623</v>
+      </c>
+      <c r="E63">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" s="1">
+        <v>32933</v>
+      </c>
+      <c r="B64">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C64">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D64">
+        <v>46.32601623</v>
+      </c>
+      <c r="E64">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" s="1">
+        <v>32964</v>
+      </c>
+      <c r="B65">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C65">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D65">
+        <v>46.32601623</v>
+      </c>
+      <c r="E65">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" s="1">
+        <v>32994</v>
+      </c>
+      <c r="B66">
+        <v>0.48591820400000002</v>
+      </c>
+      <c r="C66">
+        <v>3.1061721818181809</v>
+      </c>
+      <c r="D66">
+        <v>52.245908954545463</v>
+      </c>
+      <c r="E66">
+        <v>51.318863589999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" s="1">
+        <v>33025</v>
+      </c>
+      <c r="B67">
+        <v>5.4064229999999996E-3</v>
+      </c>
+      <c r="C67">
+        <v>0.23647181818181828</v>
+      </c>
+      <c r="D67">
+        <v>50.72172695454546</v>
+      </c>
+      <c r="E67">
+        <v>48.892999949999997</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" s="1">
+        <v>33055</v>
+      </c>
+      <c r="B68">
+        <v>-0.172469701</v>
+      </c>
+      <c r="C68">
+        <v>1.5910905454545463</v>
+      </c>
+      <c r="D68">
+        <v>47.972545318181837</v>
+      </c>
+      <c r="E68">
+        <v>68.907636229999994</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" s="1">
+        <v>33086</v>
+      </c>
+      <c r="B69">
+        <v>-0.35860864399999998</v>
+      </c>
+      <c r="C69">
+        <v>2.1959119999999999</v>
+      </c>
+      <c r="D69">
+        <v>47.994499909090926</v>
+      </c>
+      <c r="E69">
+        <v>90.360545139999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" s="1">
+        <v>33117</v>
+      </c>
+      <c r="B70">
+        <v>0.82698484500000002</v>
+      </c>
+      <c r="C70">
+        <v>2.9701670909090909</v>
+      </c>
+      <c r="D70">
+        <v>52.7133635</v>
+      </c>
+      <c r="E70">
+        <v>70.315454270000004</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" s="1">
+        <v>33147</v>
+      </c>
+      <c r="B71">
+        <v>1.092819083</v>
+      </c>
+      <c r="C71">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D71">
+        <v>46.32601623</v>
+      </c>
+      <c r="E71">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" s="1">
+        <v>33178</v>
+      </c>
+      <c r="B72">
+        <v>1.492679748</v>
+      </c>
+      <c r="C72">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D72">
+        <v>46.32601623</v>
+      </c>
+      <c r="E72">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" s="1">
+        <v>33208</v>
+      </c>
+      <c r="B73">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C73">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D73">
+        <v>46.32601623</v>
+      </c>
+      <c r="E73">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" s="1">
+        <v>33239</v>
+      </c>
+      <c r="B74">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C74">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D74">
+        <v>46.32601623</v>
+      </c>
+      <c r="E74">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" s="1">
+        <v>33270</v>
+      </c>
+      <c r="B75">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C75">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D75">
+        <v>46.32601623</v>
+      </c>
+      <c r="E75">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" s="1">
+        <v>33298</v>
+      </c>
+      <c r="B76">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C76">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D76">
+        <v>46.32601623</v>
+      </c>
+      <c r="E76">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" s="1">
+        <v>33329</v>
+      </c>
+      <c r="B77">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C77">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D77">
+        <v>46.32601623</v>
+      </c>
+      <c r="E77">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" s="1">
+        <v>33359</v>
+      </c>
+      <c r="B78">
+        <v>0.443657684</v>
+      </c>
+      <c r="C78">
+        <v>3.0474118181818177</v>
+      </c>
+      <c r="D78">
+        <v>47.489499818181805</v>
+      </c>
+      <c r="E78">
+        <v>38.583045454545449</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" s="1">
+        <v>33390</v>
+      </c>
+      <c r="B79">
+        <v>0.112494049</v>
+      </c>
+      <c r="C79">
+        <v>0.48448945454545445</v>
+      </c>
+      <c r="D79">
+        <v>38.865454499999991</v>
+      </c>
+      <c r="E79">
+        <v>23.00649995454545</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80" s="1">
+        <v>33420</v>
+      </c>
+      <c r="B80">
+        <v>-0.55924382699999997</v>
+      </c>
+      <c r="C80">
+        <v>0.52560672727272717</v>
+      </c>
+      <c r="D80">
+        <v>32.032681727272724</v>
+      </c>
+      <c r="E80">
+        <v>2.7467272727272731</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81" s="1">
+        <v>33451</v>
+      </c>
+      <c r="B81">
+        <v>-1.631902489</v>
+      </c>
+      <c r="C81">
+        <v>1.1443267272727273</v>
+      </c>
+      <c r="D81">
+        <v>20.649636363636372</v>
+      </c>
+      <c r="E81">
+        <v>4.4108636363636364</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82" s="1">
+        <v>33482</v>
+      </c>
+      <c r="B82">
+        <v>-1.505868325</v>
+      </c>
+      <c r="C82">
+        <v>0.15817472727272724</v>
+      </c>
+      <c r="D82">
+        <v>16.984545454545451</v>
+      </c>
+      <c r="E82">
+        <v>10.715363636363636</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83" s="1">
+        <v>33512</v>
+      </c>
+      <c r="B83">
+        <v>-0.51908046600000002</v>
+      </c>
+      <c r="C83">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D83">
+        <v>46.32601623</v>
+      </c>
+      <c r="E83">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84" s="1">
+        <v>33543</v>
+      </c>
+      <c r="B84">
+        <v>-0.46552908599999998</v>
+      </c>
+      <c r="C84">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D84">
+        <v>46.32601623</v>
+      </c>
+      <c r="E84">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85" s="1">
+        <v>33573</v>
+      </c>
+      <c r="B85">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C85">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D85">
+        <v>46.32601623</v>
+      </c>
+      <c r="E85">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B86">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C86">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D86">
+        <v>46.32601623</v>
+      </c>
+      <c r="E86">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B87">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C87">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D87">
+        <v>46.32601623</v>
+      </c>
+      <c r="E87">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B88">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C88">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D88">
+        <v>46.32601623</v>
+      </c>
+      <c r="E88">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B89">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C89">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D89">
+        <v>46.32601623</v>
+      </c>
+      <c r="E89">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B90">
+        <v>0.48591820400000002</v>
+      </c>
+      <c r="C90">
+        <v>3.1061721818181809</v>
+      </c>
+      <c r="D90">
+        <v>52.245908954545463</v>
+      </c>
+      <c r="E90">
+        <v>51.318863589999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B91">
+        <v>5.4064229999999996E-3</v>
+      </c>
+      <c r="C91">
+        <v>0.23647181818181828</v>
+      </c>
+      <c r="D91">
+        <v>50.72172695454546</v>
+      </c>
+      <c r="E91">
+        <v>48.892999949999997</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B92">
+        <v>-0.172469701</v>
+      </c>
+      <c r="C92">
+        <v>1.5910905454545463</v>
+      </c>
+      <c r="D92">
+        <v>47.972545318181837</v>
+      </c>
+      <c r="E92">
+        <v>68.907636229999994</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B93">
+        <v>-0.35860864399999998</v>
+      </c>
+      <c r="C93">
+        <v>2.1959119999999999</v>
+      </c>
+      <c r="D93">
+        <v>47.994499909090926</v>
+      </c>
+      <c r="E93">
+        <v>90.360545139999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B94">
+        <v>0.82698484500000002</v>
+      </c>
+      <c r="C94">
+        <v>2.9701670909090909</v>
+      </c>
+      <c r="D94">
+        <v>52.7133635</v>
+      </c>
+      <c r="E94">
+        <v>70.315454270000004</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B95">
+        <v>1.092819083</v>
+      </c>
+      <c r="C95">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D95">
+        <v>46.32601623</v>
+      </c>
+      <c r="E95">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B96">
+        <v>1.492679748</v>
+      </c>
+      <c r="C96">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D96">
+        <v>46.32601623</v>
+      </c>
+      <c r="E96">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B97">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C97">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D97">
+        <v>46.32601623</v>
+      </c>
+      <c r="E97">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B98">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C98">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D98">
+        <v>46.32601623</v>
+      </c>
+      <c r="E98">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B99">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C99">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D99">
+        <v>46.32601623</v>
+      </c>
+      <c r="E99">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B100">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C100">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D100">
+        <v>46.32601623</v>
+      </c>
+      <c r="E100">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B101">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C101">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D101">
+        <v>46.32601623</v>
+      </c>
+      <c r="E101">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B102">
+        <v>0.44947251900000001</v>
+      </c>
+      <c r="C102">
+        <v>3.0554530909090913</v>
+      </c>
+      <c r="D102">
+        <v>73.084408818181828</v>
+      </c>
+      <c r="E102">
+        <v>57.760908999999998</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B103">
+        <v>0.607588499</v>
+      </c>
+      <c r="C103">
+        <v>1.4443550909090905</v>
+      </c>
+      <c r="D103">
+        <v>70.024045272727278</v>
+      </c>
+      <c r="E103">
+        <v>40.413590859999999</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B104">
+        <v>1.286319575</v>
+      </c>
+      <c r="C104">
+        <v>4.8625663636363665</v>
+      </c>
+      <c r="D104">
+        <v>72.68759054545454</v>
+      </c>
+      <c r="E104">
+        <v>22.23509086</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B105">
+        <v>0.72743277799999995</v>
+      </c>
+      <c r="C105">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D105">
+        <v>74.686544999999995</v>
+      </c>
+      <c r="E105">
+        <v>9.7742727269999996</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B106">
+        <v>0.50308770700000005</v>
+      </c>
+      <c r="C106">
+        <v>0.94380218181818154</v>
+      </c>
+      <c r="D106">
+        <v>66.936635954545451</v>
+      </c>
+      <c r="E106">
+        <v>11.74131818</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B107">
+        <v>-0.80712953700000001</v>
+      </c>
+      <c r="C107">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D107">
+        <v>46.32601623</v>
+      </c>
+      <c r="E107">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B108">
+        <v>0.48317251</v>
+      </c>
+      <c r="C108">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D108">
+        <v>46.32601623</v>
+      </c>
+      <c r="E108">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B109">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C109">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D109">
+        <v>46.32601623</v>
+      </c>
+      <c r="E109">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B110">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C110">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D110">
+        <v>46.32601623</v>
+      </c>
+      <c r="E110">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B111">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C111">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D111">
+        <v>46.32601623</v>
+      </c>
+      <c r="E111">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B112">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C112">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D112">
+        <v>46.32601623</v>
+      </c>
+      <c r="E112">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B113">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C113">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D113">
+        <v>46.32601623</v>
+      </c>
+      <c r="E113">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B114">
+        <v>-0.196110116</v>
+      </c>
+      <c r="C114">
+        <v>2.2460194545454542</v>
+      </c>
+      <c r="D114">
+        <v>81.111226954545415</v>
+      </c>
+      <c r="E114">
+        <v>88.643726770000001</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B115">
+        <v>-0.43376891699999998</v>
+      </c>
+      <c r="C115">
+        <v>0.39191727272727273</v>
+      </c>
+      <c r="D115">
+        <v>77.82322690909092</v>
+      </c>
+      <c r="E115">
+        <v>84.166499819999999</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B116">
+        <v>0.81279453899999998</v>
+      </c>
+      <c r="C116">
+        <v>5.0823078181818166</v>
+      </c>
+      <c r="D116">
+        <v>85.108636090909087</v>
+      </c>
+      <c r="E116">
+        <v>76.660408770000004</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B117">
+        <v>0.99821470499999998</v>
+      </c>
+      <c r="C117">
+        <v>1.5109272727272729</v>
+      </c>
+      <c r="D117">
+        <v>88.441136136363653</v>
+      </c>
+      <c r="E117">
+        <v>52.983181590000001</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B118">
+        <v>1.4449820630000001</v>
+      </c>
+      <c r="C118">
+        <v>2.2460194545454542</v>
+      </c>
+      <c r="D118">
+        <v>84.890227090909107</v>
+      </c>
+      <c r="E118">
+        <v>61.834727000000001</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B119">
+        <v>0.65158797700000004</v>
+      </c>
+      <c r="C119">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D119">
+        <v>46.32601623</v>
+      </c>
+      <c r="E119">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B120">
+        <v>1.203975349</v>
+      </c>
+      <c r="C120">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D120">
+        <v>46.32601623</v>
+      </c>
+      <c r="E120">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B121">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C121">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D121">
+        <v>46.32601623</v>
+      </c>
+      <c r="E121">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B122">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C122">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D122">
+        <v>46.32601623</v>
+      </c>
+      <c r="E122">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B123">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C123">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D123">
+        <v>46.32601623</v>
+      </c>
+      <c r="E123">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B124">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C124">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D124">
+        <v>46.32601623</v>
+      </c>
+      <c r="E124">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B125">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C125">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D125">
+        <v>46.32601623</v>
+      </c>
+      <c r="E125">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="126" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B126">
+        <v>0.44326736100000003</v>
+      </c>
+      <c r="C126">
+        <v>3.0468725454545451</v>
+      </c>
+      <c r="D126">
+        <v>74.399136136363651</v>
+      </c>
+      <c r="E126">
+        <v>25.761590859999998</v>
+      </c>
+    </row>
+    <row r="127" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B127">
+        <v>3.4632994E-2</v>
+      </c>
+      <c r="C127">
+        <v>0.34673145454545451</v>
+      </c>
+      <c r="D127">
+        <v>68.941636227272724</v>
+      </c>
+      <c r="E127">
+        <v>10.947181820000001</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B128">
+        <v>0.78846469399999997</v>
+      </c>
+      <c r="C128">
+        <v>4.2477427272727271</v>
+      </c>
+      <c r="D128">
+        <v>49.789409045454548</v>
+      </c>
+      <c r="E128">
+        <v>7.980590909</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B129">
+        <v>0.48816437400000001</v>
+      </c>
+      <c r="C129">
+        <v>1.1502749090909095</v>
+      </c>
+      <c r="D129">
+        <v>44.887409045454547</v>
+      </c>
+      <c r="E129">
+        <v>15.532</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B130">
+        <v>0.50913940099999999</v>
+      </c>
+      <c r="C130">
+        <v>0.42525690909090913</v>
+      </c>
+      <c r="D130">
+        <v>52.238499909090919</v>
+      </c>
+      <c r="E130">
+        <v>18.163636360000002</v>
+      </c>
+    </row>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B131">
+        <v>-0.33614949500000002</v>
+      </c>
+      <c r="C131">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D131">
+        <v>46.32601623</v>
+      </c>
+      <c r="E131">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B132">
+        <v>-8.7698729999999992E-3</v>
+      </c>
+      <c r="C132">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D132">
+        <v>46.32601623</v>
+      </c>
+      <c r="E132">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B133">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C133">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D133">
+        <v>46.32601623</v>
+      </c>
+      <c r="E133">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B134">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C134">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D134">
+        <v>46.32601623</v>
+      </c>
+      <c r="E134">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B135">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C135">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D135">
+        <v>46.32601623</v>
+      </c>
+      <c r="E135">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B136">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C136">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D136">
+        <v>46.32601623</v>
+      </c>
+      <c r="E136">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B137">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C137">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D137">
+        <v>46.32601623</v>
+      </c>
+      <c r="E137">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B138">
+        <v>1.0909838220000001</v>
+      </c>
+      <c r="C138">
+        <v>4.0302812727272732</v>
+      </c>
+      <c r="D138">
+        <v>61.677954136363645</v>
+      </c>
+      <c r="E138">
+        <v>28.489045449999999</v>
+      </c>
+    </row>
+    <row r="139" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B139">
+        <v>2.1038267780000002</v>
+      </c>
+      <c r="C139">
+        <v>4.3929309090909081</v>
+      </c>
+      <c r="D139">
+        <v>52.811772500000004</v>
+      </c>
+      <c r="E139">
+        <v>39.669045449999999</v>
+      </c>
+    </row>
+    <row r="140" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B140">
+        <v>1.331026772</v>
+      </c>
+      <c r="C140">
+        <v>1.1048341818181813</v>
+      </c>
+      <c r="D140">
+        <v>64.722681727272715</v>
+      </c>
+      <c r="E140">
+        <v>25.81804545</v>
+      </c>
+    </row>
+    <row r="141" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B141">
+        <v>0.71936117399999999</v>
+      </c>
+      <c r="C141">
+        <v>0.78962854545454564</v>
+      </c>
+      <c r="D141">
+        <v>59.119227045454565</v>
+      </c>
+      <c r="E141">
+        <v>19.701909090000001</v>
+      </c>
+    </row>
+    <row r="142" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B142">
+        <v>-1.4081247059999999</v>
+      </c>
+      <c r="C142">
+        <v>5.9406545454545462E-2</v>
+      </c>
+      <c r="D142">
+        <v>43.325363500000002</v>
+      </c>
+      <c r="E142">
+        <v>22.65295455</v>
+      </c>
+    </row>
+    <row r="143" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B143">
+        <v>-0.89639787000000004</v>
+      </c>
+      <c r="C143">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D143">
+        <v>46.32601623</v>
+      </c>
+      <c r="E143">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="144" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B144">
+        <v>-0.798035143</v>
+      </c>
+      <c r="C144">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D144">
+        <v>46.32601623</v>
+      </c>
+      <c r="E144">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="145" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B145">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C145">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D145">
+        <v>46.32601623</v>
+      </c>
+      <c r="E145">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B146">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C146">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D146">
+        <v>46.32601623</v>
+      </c>
+      <c r="E146">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="147" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B147">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C147">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D147">
+        <v>46.32601623</v>
+      </c>
+      <c r="E147">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="148" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B148">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C148">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D148">
+        <v>46.32601623</v>
+      </c>
+      <c r="E148">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="149" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B149">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C149">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D149">
+        <v>46.32601623</v>
+      </c>
+      <c r="E149">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="150" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B150">
+        <v>0.738375644</v>
+      </c>
+      <c r="C150">
+        <v>3.4727479999999993</v>
+      </c>
+      <c r="D150">
+        <v>59.187590681818165</v>
+      </c>
+      <c r="E150">
+        <v>36.245575700000003</v>
+      </c>
+    </row>
+    <row r="151" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B151">
+        <v>1.3464969979999999</v>
+      </c>
+      <c r="C151">
+        <v>2.7701538181818179</v>
+      </c>
+      <c r="D151">
+        <v>47.346045318181808</v>
+      </c>
+      <c r="E151">
+        <v>37.580681769999998</v>
+      </c>
+    </row>
+    <row r="152" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B152">
+        <v>0.59926995699999996</v>
+      </c>
+      <c r="C152">
+        <v>0.80280709090909086</v>
+      </c>
+      <c r="D152">
+        <v>46.998863545454526</v>
+      </c>
+      <c r="E152">
+        <v>18.644681819999999</v>
+      </c>
+    </row>
+    <row r="153" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B153">
+        <v>3.8087688000000001E-2</v>
+      </c>
+      <c r="C153">
+        <v>1.206014181818182</v>
+      </c>
+      <c r="D153">
+        <v>43.908954454545452</v>
+      </c>
+      <c r="E153">
+        <v>12.454727269999999</v>
+      </c>
+    </row>
+    <row r="154" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B154">
+        <v>-1.1413470219999999</v>
+      </c>
+      <c r="C154">
+        <v>0.31984654545454544</v>
+      </c>
+      <c r="D154">
+        <v>40.187954499999996</v>
+      </c>
+      <c r="E154">
+        <v>17.533045449999999</v>
+      </c>
+    </row>
+    <row r="155" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B155">
+        <v>-0.36765915900000001</v>
+      </c>
+      <c r="C155">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D155">
+        <v>46.32601623</v>
+      </c>
+      <c r="E155">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="156" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B156">
+        <v>-0.155283584</v>
+      </c>
+      <c r="C156">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D156">
+        <v>46.32601623</v>
+      </c>
+      <c r="E156">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="157" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B157">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C157">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D157">
+        <v>46.32601623</v>
+      </c>
+      <c r="E157">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="158" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B158">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C158">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D158">
+        <v>46.32601623</v>
+      </c>
+      <c r="E158">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="159" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B159">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C159">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D159">
+        <v>46.32601623</v>
+      </c>
+      <c r="E159">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="160" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B160">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C160">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D160">
+        <v>46.32601623</v>
+      </c>
+      <c r="E160">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="161" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B161">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C161">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D161">
+        <v>46.32601623</v>
+      </c>
+      <c r="E161">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="162" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B162">
+        <v>0.38589372100000002</v>
+      </c>
+      <c r="C162">
+        <v>2.9682880000000003</v>
+      </c>
+      <c r="D162">
+        <v>55.988408954545456</v>
+      </c>
+      <c r="E162">
+        <v>45.315227229999998</v>
+      </c>
+    </row>
+    <row r="163" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B163">
+        <v>0.34966792400000002</v>
+      </c>
+      <c r="C163">
+        <v>1.0079565450000001</v>
+      </c>
+      <c r="D163">
+        <v>59.976045363636366</v>
+      </c>
+      <c r="E163">
+        <v>36.77690905</v>
+      </c>
+    </row>
+    <row r="164" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B164">
+        <v>0.210613782</v>
+      </c>
+      <c r="C164">
+        <v>1.9433883636363627</v>
+      </c>
+      <c r="D164">
+        <v>54.210317999999987</v>
+      </c>
+      <c r="E164">
+        <v>31.655045449999999</v>
+      </c>
+    </row>
+    <row r="165" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B165">
+        <v>-0.50064646800000001</v>
+      </c>
+      <c r="C165">
+        <v>0.82263836363636356</v>
+      </c>
+      <c r="D165">
+        <v>38.100954454545452</v>
+      </c>
+      <c r="E165">
+        <v>17.844363640000001</v>
+      </c>
+    </row>
+    <row r="166" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B166">
+        <v>0.59336236799999997</v>
+      </c>
+      <c r="C166">
+        <v>3.2958994545454541</v>
+      </c>
+      <c r="D166">
+        <v>25.361772636363643</v>
+      </c>
+      <c r="E166">
+        <v>21.850909089999998</v>
+      </c>
+    </row>
+    <row r="167" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B167">
+        <v>0.77378273900000005</v>
+      </c>
+      <c r="C167">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D167">
+        <v>46.32601623</v>
+      </c>
+      <c r="E167">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="168" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B168">
+        <v>1.608817121</v>
+      </c>
+      <c r="C168">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D168">
+        <v>46.32601623</v>
+      </c>
+      <c r="E168">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="169" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B169">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C169">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D169">
+        <v>46.32601623</v>
+      </c>
+      <c r="E169">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="170" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B170">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C170">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D170">
+        <v>46.32601623</v>
+      </c>
+      <c r="E170">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="171" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B171">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C171">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D171">
+        <v>46.32601623</v>
+      </c>
+      <c r="E171">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="172" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B172">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C172">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D172">
+        <v>46.32601623</v>
+      </c>
+      <c r="E172">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="173" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B173">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C173">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D173">
+        <v>46.32601623</v>
+      </c>
+      <c r="E173">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="174" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B174">
+        <v>2.2219626080000001</v>
+      </c>
+      <c r="C174">
+        <v>6.1943185454545446</v>
+      </c>
+      <c r="D174">
+        <v>85.86009059090911</v>
+      </c>
+      <c r="E174">
+        <v>51.819272590909087</v>
+      </c>
+    </row>
+    <row r="175" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B175">
+        <v>1.5726474699999999</v>
+      </c>
+      <c r="C175">
+        <v>0.65686781818181816</v>
+      </c>
+      <c r="D175">
+        <v>89.997999772727283</v>
+      </c>
+      <c r="E175">
+        <v>47.167727181818158</v>
+      </c>
+    </row>
+    <row r="176" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B176">
+        <v>0.69696351999999995</v>
+      </c>
+      <c r="C176">
+        <v>0.49814472727272713</v>
+      </c>
+      <c r="D176">
+        <v>85.102317954545441</v>
+      </c>
+      <c r="E176">
+        <v>15.449272727272728</v>
+      </c>
+    </row>
+    <row r="177" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B177">
+        <v>0.53720115899999998</v>
+      </c>
+      <c r="C177">
+        <v>4.702150545454546</v>
+      </c>
+      <c r="D177">
+        <v>67.651317818181809</v>
+      </c>
+      <c r="E177">
+        <v>10.556590909090906</v>
+      </c>
+    </row>
+    <row r="178" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B178">
+        <v>0.28412856800000003</v>
+      </c>
+      <c r="C178">
+        <v>1.5954545454545461E-2</v>
+      </c>
+      <c r="D178">
+        <v>62.897954181818186</v>
+      </c>
+      <c r="E178">
+        <v>18.080090909090913</v>
+      </c>
+    </row>
+    <row r="179" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B179">
+        <v>0.96197793300000001</v>
+      </c>
+      <c r="C179">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D179">
+        <v>46.32601623</v>
+      </c>
+      <c r="E179">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="180" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B180">
+        <v>-1.1056887660000001</v>
+      </c>
+      <c r="C180">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D180">
+        <v>46.32601623</v>
+      </c>
+      <c r="E180">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="181" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B181">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C181">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D181">
+        <v>46.32601623</v>
+      </c>
+      <c r="E181">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="182" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B182">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C182">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D182">
+        <v>46.32601623</v>
+      </c>
+      <c r="E182">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="183" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B183">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C183">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D183">
+        <v>46.32601623</v>
+      </c>
+      <c r="E183">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="184" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B184">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C184">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D184">
+        <v>46.32601623</v>
+      </c>
+      <c r="E184">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="185" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B185">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C185">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D185">
+        <v>46.32601623</v>
+      </c>
+      <c r="E185">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="186" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B186">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C186">
+        <v>4.3068181818181816E-3</v>
+      </c>
+      <c r="D186">
+        <v>21.454090909090905</v>
+      </c>
+      <c r="E186">
+        <v>74.102726818181793</v>
+      </c>
+    </row>
+    <row r="187" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B187">
+        <v>-3.904517507</v>
+      </c>
+      <c r="C187">
+        <v>0.16643227272727271</v>
+      </c>
+      <c r="D187">
+        <v>4.1096363636363638</v>
+      </c>
+      <c r="E187">
+        <v>72.735636090909082</v>
+      </c>
+    </row>
+    <row r="188" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B188">
+        <v>-1.295743877</v>
+      </c>
+      <c r="C188">
+        <v>2.5260418181818181</v>
+      </c>
+      <c r="D188">
+        <v>12.41790909090909</v>
+      </c>
+      <c r="E188">
+        <v>33.557045409090918</v>
+      </c>
+    </row>
+    <row r="189" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B189">
+        <v>-0.96759947899999998</v>
+      </c>
+      <c r="C189">
+        <v>0.33617636363636361</v>
+      </c>
+      <c r="D189">
+        <v>27.1785909090909</v>
+      </c>
+      <c r="E189">
+        <v>22.945999999999998</v>
+      </c>
+    </row>
+    <row r="190" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B190">
+        <v>-0.77343355400000002</v>
+      </c>
+      <c r="C190">
+        <v>6.3381636363636376E-2</v>
+      </c>
+      <c r="D190">
+        <v>32.697318181818176</v>
+      </c>
+      <c r="E190">
+        <v>27.770045454545446</v>
+      </c>
+    </row>
+    <row r="191" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B191">
+        <v>-1.4685914200000001</v>
+      </c>
+      <c r="C191">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D191">
+        <v>46.32601623</v>
+      </c>
+      <c r="E191">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="192" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B192">
+        <v>-0.779073342</v>
+      </c>
+      <c r="C192">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D192">
+        <v>46.32601623</v>
+      </c>
+      <c r="E192">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="193" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B193">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C193">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D193">
+        <v>46.32601623</v>
+      </c>
+      <c r="E193">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="194" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B194">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C194">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D194">
+        <v>46.32601623</v>
+      </c>
+      <c r="E194">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="195" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B195">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C195">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D195">
+        <v>46.32601623</v>
+      </c>
+      <c r="E195">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="196" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B196">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C196">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D196">
+        <v>46.32601623</v>
+      </c>
+      <c r="E196">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="197" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B197">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C197">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D197">
+        <v>46.32601623</v>
+      </c>
+      <c r="E197">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="198" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B198">
+        <v>0.62110289600000002</v>
+      </c>
+      <c r="C198">
+        <v>3.2991310909090914</v>
+      </c>
+      <c r="D198">
+        <v>23.736090909090908</v>
+      </c>
+      <c r="E198">
+        <v>52.013954363636365</v>
+      </c>
+    </row>
+    <row r="199" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B199">
+        <v>0.82072905900000004</v>
+      </c>
+      <c r="C199">
+        <v>1.6659110909090906</v>
+      </c>
+      <c r="D199">
+        <v>11.932181818181817</v>
+      </c>
+      <c r="E199">
+        <v>81.528681636363643</v>
+      </c>
+    </row>
+    <row r="200" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B200">
+        <v>1.233799206</v>
+      </c>
+      <c r="C200">
+        <v>4.2050770909090893</v>
+      </c>
+      <c r="D200">
+        <v>45.545817999999997</v>
+      </c>
+      <c r="E200">
+        <v>60.154681772727258</v>
+      </c>
+    </row>
+    <row r="201" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B201">
+        <v>1.1227490979999999</v>
+      </c>
+      <c r="C201">
+        <v>1.4413276363636365</v>
+      </c>
+      <c r="D201">
+        <v>78.052681681818171</v>
+      </c>
+      <c r="E201">
+        <v>41.191318136363641</v>
+      </c>
+    </row>
+    <row r="202" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B202">
+        <v>0.47612327900000001</v>
+      </c>
+      <c r="C202">
+        <v>8.5028545454545426E-2</v>
+      </c>
+      <c r="D202">
+        <v>75.078408909090911</v>
+      </c>
+      <c r="E202">
+        <v>27.910045454545454</v>
+      </c>
+    </row>
+    <row r="203" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B203">
+        <v>-0.36734131599999997</v>
+      </c>
+      <c r="C203">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D203">
+        <v>46.32601623</v>
+      </c>
+      <c r="E203">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="204" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B204">
+        <v>-0.68796082400000003</v>
+      </c>
+      <c r="C204">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D204">
+        <v>46.32601623</v>
+      </c>
+      <c r="E204">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="205" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B205">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C205">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D205">
+        <v>46.32601623</v>
+      </c>
+      <c r="E205">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="206" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B206">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C206">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D206">
+        <v>46.32601623</v>
+      </c>
+      <c r="E206">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="207" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B207">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C207">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D207">
+        <v>46.32601623</v>
+      </c>
+      <c r="E207">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="208" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B208">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C208">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D208">
+        <v>46.32601623</v>
+      </c>
+      <c r="E208">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="209" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B209">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C209">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D209">
+        <v>46.32601623</v>
+      </c>
+      <c r="E209">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="210" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B210">
+        <v>-3.8504461280000002</v>
+      </c>
+      <c r="C210">
+        <v>0.1733026086956522</v>
+      </c>
+      <c r="D210">
+        <v>68.757590727272728</v>
+      </c>
+      <c r="E210">
+        <v>13.571000000000002</v>
+      </c>
+    </row>
+    <row r="211" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B211">
+        <v>-2.413822454</v>
+      </c>
+      <c r="C211">
+        <v>0.51925108695652167</v>
+      </c>
+      <c r="D211">
+        <v>48.975227181818184</v>
+      </c>
+      <c r="E211">
+        <v>8.0361363636363627</v>
+      </c>
+    </row>
+    <row r="212" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B212">
+        <v>-3.2318402810000002</v>
+      </c>
+      <c r="C212">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D212">
+        <v>26.240318181818182</v>
+      </c>
+      <c r="E212">
+        <v>4.8535454545454551</v>
+      </c>
+    </row>
+    <row r="213" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B213">
+        <v>-3.7892466100000002</v>
+      </c>
+      <c r="C213">
+        <v>2.0046956521739129E-2</v>
+      </c>
+      <c r="D213">
+        <v>11.792681818181817</v>
+      </c>
+      <c r="E213">
+        <v>4.0346363636363636</v>
+      </c>
+    </row>
+    <row r="214" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B214">
+        <v>-3.2610745149999998</v>
+      </c>
+      <c r="C214">
+        <v>0.41508163636363632</v>
+      </c>
+      <c r="D214">
+        <v>6.8055454545454559</v>
+      </c>
+      <c r="E214">
+        <v>2.9205454545454548</v>
+      </c>
+    </row>
+    <row r="215" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B215">
+        <v>-1.4088135740000001</v>
+      </c>
+      <c r="C215">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D215">
+        <v>46.32601623</v>
+      </c>
+      <c r="E215">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="216" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B216">
+        <v>-2.1757505E-2</v>
+      </c>
+      <c r="C216">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D216">
+        <v>46.32601623</v>
+      </c>
+      <c r="E216">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="217" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B217">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C217">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D217">
+        <v>46.32601623</v>
+      </c>
+      <c r="E217">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="218" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B218">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C218">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D218">
+        <v>46.32601623</v>
+      </c>
+      <c r="E218">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="219" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B219">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C219">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D219">
+        <v>46.32601623</v>
+      </c>
+      <c r="E219">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="220" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B220">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C220">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D220">
+        <v>46.32601623</v>
+      </c>
+      <c r="E220">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="221" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B221">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C221">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D221">
+        <v>46.32601623</v>
+      </c>
+      <c r="E221">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="222" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B222">
+        <v>0.40207002600000002</v>
+      </c>
+      <c r="C222">
+        <v>2.9903074545454551</v>
+      </c>
+      <c r="D222">
+        <v>41.750409090909095</v>
+      </c>
+      <c r="E222">
+        <v>42.956136363636297</v>
+      </c>
+    </row>
+    <row r="223" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B223">
+        <v>0.15283897499999999</v>
+      </c>
+      <c r="C223">
+        <v>0.61471527272727255</v>
+      </c>
+      <c r="D223">
+        <v>29.045090863636364</v>
+      </c>
+      <c r="E223">
+        <v>59.117908863636366</v>
+      </c>
+    </row>
+    <row r="224" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B224">
+        <v>0.52912827500000004</v>
+      </c>
+      <c r="C224">
+        <v>3.2278439999999988</v>
+      </c>
+      <c r="D224">
+        <v>34.328090909090918</v>
+      </c>
+      <c r="E224">
+        <v>68.519090636363657</v>
+      </c>
+    </row>
+    <row r="225" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B225">
+        <v>0.55782725300000002</v>
+      </c>
+      <c r="C225">
+        <v>2.0623170909090907</v>
+      </c>
+      <c r="D225">
+        <v>56.59909050000001</v>
+      </c>
+      <c r="E225">
+        <v>53.379363590909094</v>
+      </c>
+    </row>
+    <row r="226" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B226">
+        <v>0.31242234099999999</v>
+      </c>
+      <c r="C226">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D226">
+        <v>70.874727136363632</v>
+      </c>
+      <c r="E226">
+        <v>41.057499909090907</v>
+      </c>
+    </row>
+    <row r="227" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B227">
+        <v>-5.8935620000000001E-2</v>
+      </c>
+      <c r="C227">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D227">
+        <v>46.32601623</v>
+      </c>
+      <c r="E227">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="228" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B228">
+        <v>-1.5010859459999999</v>
+      </c>
+      <c r="C228">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D228">
+        <v>46.32601623</v>
+      </c>
+      <c r="E228">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="229" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B229">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C229">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D229">
+        <v>46.32601623</v>
+      </c>
+      <c r="E229">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="230" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B230">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C230">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D230">
+        <v>46.32601623</v>
+      </c>
+      <c r="E230">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="231" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B231">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C231">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D231">
+        <v>46.32601623</v>
+      </c>
+      <c r="E231">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="232" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B232">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C232">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D232">
+        <v>46.32601623</v>
+      </c>
+      <c r="E232">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="233" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B233">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C233">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D233">
+        <v>46.32601623</v>
+      </c>
+      <c r="E233">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="234" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B234">
+        <v>0.40207002600000002</v>
+      </c>
+      <c r="C234">
+        <v>2.9903074545454551</v>
+      </c>
+      <c r="D234">
+        <v>46.32601623</v>
+      </c>
+      <c r="E234">
+        <v>42.956136363636297</v>
+      </c>
+    </row>
+    <row r="235" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B235">
+        <v>0.15283897499999999</v>
+      </c>
+      <c r="C235">
+        <v>0.61471527272727255</v>
+      </c>
+      <c r="D235">
+        <v>46.32601623</v>
+      </c>
+      <c r="E235">
+        <v>59.117908863636366</v>
+      </c>
+    </row>
+    <row r="236" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B236">
+        <v>0.52912827500000004</v>
+      </c>
+      <c r="C236">
+        <v>3.2278439999999988</v>
+      </c>
+      <c r="D236">
+        <v>46.32601623</v>
+      </c>
+      <c r="E236">
+        <v>68.519090636363657</v>
+      </c>
+    </row>
+    <row r="237" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B237">
+        <v>0.55782725300000002</v>
+      </c>
+      <c r="C237">
+        <v>2.0623170909090907</v>
+      </c>
+      <c r="D237">
+        <v>46.32601623</v>
+      </c>
+      <c r="E237">
+        <v>53.379363590909094</v>
+      </c>
+    </row>
+    <row r="238" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B238">
+        <v>0.31242234099999999</v>
+      </c>
+      <c r="C238">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D238">
+        <v>46.32601623</v>
+      </c>
+      <c r="E238">
+        <v>41.057499909090907</v>
+      </c>
+    </row>
+    <row r="239" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B239">
+        <v>-5.8935620000000001E-2</v>
+      </c>
+      <c r="C239">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D239">
+        <v>46.32601623</v>
+      </c>
+      <c r="E239">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="240" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B240">
+        <v>-1.5010859459999999</v>
+      </c>
+      <c r="C240">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D240">
+        <v>46.32601623</v>
+      </c>
+      <c r="E240">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="241" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B241">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C241">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D241">
+        <v>46.32601623</v>
+      </c>
+      <c r="E241">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="242" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B242">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C242">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D242">
+        <v>46.32601623</v>
+      </c>
+      <c r="E242">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="243" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B243">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C243">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D243">
+        <v>46.32601623</v>
+      </c>
+      <c r="E243">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="244" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B244">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C244">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D244">
+        <v>46.32601623</v>
+      </c>
+      <c r="E244">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="245" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B245">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C245">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D245">
+        <v>46.32601623</v>
+      </c>
+      <c r="E245">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="246" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B246">
+        <v>0.83946729899999994</v>
+      </c>
+      <c r="C246">
+        <v>3.6271045454545456</v>
+      </c>
+      <c r="D246">
+        <v>57.947272454545441</v>
+      </c>
+      <c r="E246">
+        <v>67.39945431818181</v>
+      </c>
+    </row>
+    <row r="247" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B247">
+        <v>0.62436090200000005</v>
+      </c>
+      <c r="C247">
+        <v>0.90823490909090931</v>
+      </c>
+      <c r="D247">
+        <v>49.611045318181823</v>
+      </c>
+      <c r="E247">
+        <v>68.043772681818183</v>
+      </c>
+    </row>
+    <row r="248" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B248">
+        <v>3.1461437000000002E-2</v>
+      </c>
+      <c r="C248">
+        <v>0.90823490909090931</v>
+      </c>
+      <c r="D248">
+        <v>39.489272681818179</v>
+      </c>
+      <c r="E248">
+        <v>41.423863545454537</v>
+      </c>
+    </row>
+    <row r="249" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B249">
+        <v>-1.1810850180000001</v>
+      </c>
+      <c r="C249">
+        <v>0.90823490909090931</v>
+      </c>
+      <c r="D249">
+        <v>31.533727227272731</v>
+      </c>
+      <c r="E249">
+        <v>20.885545454545458</v>
+      </c>
+    </row>
+    <row r="250" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B250">
+        <v>-0.89081250899999997</v>
+      </c>
+      <c r="C250">
+        <v>0.90823490909090931</v>
+      </c>
+      <c r="D250">
+        <v>32.093954545454551</v>
+      </c>
+      <c r="E250">
+        <v>11.9815</v>
+      </c>
+    </row>
+    <row r="251" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B251">
+        <v>-0.19247051700000001</v>
+      </c>
+      <c r="C251">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D251">
+        <v>46.32601623</v>
+      </c>
+      <c r="E251">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="252" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B252">
+        <v>0.45624809399999999</v>
+      </c>
+      <c r="C252">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D252">
+        <v>46.32601623</v>
+      </c>
+      <c r="E252">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="253" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B253">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C253">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D253">
+        <v>46.32601623</v>
+      </c>
+      <c r="E253">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="254" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B254">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C254">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D254">
+        <v>46.32601623</v>
+      </c>
+      <c r="E254">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="255" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B255">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C255">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D255">
+        <v>46.32601623</v>
+      </c>
+      <c r="E255">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="256" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B256">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C256">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D256">
+        <v>46.32601623</v>
+      </c>
+      <c r="E256">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="257" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B257">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C257">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D257">
+        <v>46.32601623</v>
+      </c>
+      <c r="E257">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="258" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B258">
+        <v>0.38622188699999999</v>
+      </c>
+      <c r="C258">
+        <v>2.9687336363636359</v>
+      </c>
+      <c r="D258">
+        <v>29.896272727272734</v>
+      </c>
+      <c r="E258">
+        <v>41.917045409090903</v>
+      </c>
+    </row>
+    <row r="259" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B259">
+        <v>0.232779666</v>
+      </c>
+      <c r="C259">
+        <v>0.78414400000000006</v>
+      </c>
+      <c r="D259">
+        <v>25.349636363636364</v>
+      </c>
+      <c r="E259">
+        <v>37.634136272727268</v>
+      </c>
+    </row>
+    <row r="260" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B260">
+        <v>-0.577252243</v>
+      </c>
+      <c r="C260">
+        <v>0.26664727272727257</v>
+      </c>
+      <c r="D260">
+        <v>23.114363636363638</v>
+      </c>
+      <c r="E260">
+        <v>51.908454500000005</v>
+      </c>
+    </row>
+    <row r="261" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B261">
+        <v>1.8254723719999999</v>
+      </c>
+      <c r="C261">
+        <v>8.2925900000000006</v>
+      </c>
+      <c r="D261">
+        <v>24.164681818181808</v>
+      </c>
+      <c r="E261">
+        <v>46.179681500000008</v>
+      </c>
+    </row>
+    <row r="262" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B262">
+        <v>1.4275267169999999</v>
+      </c>
+      <c r="C262">
+        <v>0.21624909090909084</v>
+      </c>
+      <c r="D262">
+        <v>38.470999909090914</v>
+      </c>
+      <c r="E262">
+        <v>62.969454409090908</v>
+      </c>
+    </row>
+    <row r="263" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B263">
+        <v>1.897802735</v>
+      </c>
+      <c r="C263">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D263">
+        <v>46.32601623</v>
+      </c>
+      <c r="E263">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="264" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B264">
+        <v>-0.33612974800000001</v>
+      </c>
+      <c r="C264">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D264">
+        <v>46.32601623</v>
+      </c>
+      <c r="E264">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="265" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B265">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C265">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D265">
+        <v>46.32601623</v>
+      </c>
+      <c r="E265">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="266" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B266">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C266">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D266">
+        <v>46.32601623</v>
+      </c>
+      <c r="E266">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="267" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B267">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C267">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D267">
+        <v>46.32601623</v>
+      </c>
+      <c r="E267">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="268" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B268">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C268">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D268">
+        <v>46.32601623</v>
+      </c>
+      <c r="E268">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="269" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B269">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C269">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D269">
+        <v>46.32601623</v>
+      </c>
+      <c r="E269">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="270" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B270">
+        <v>0.48953523100000002</v>
+      </c>
+      <c r="C270">
+        <v>3.1112358000000002</v>
+      </c>
+      <c r="D270">
+        <v>80.677908772727278</v>
+      </c>
+      <c r="E270">
+        <v>30.87827272727273</v>
+      </c>
+    </row>
+    <row r="271" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B271">
+        <v>4.4147000999999998E-2</v>
+      </c>
+      <c r="C271">
+        <v>0.29906882352941172</v>
+      </c>
+      <c r="D271">
+        <v>57.654727090909098</v>
+      </c>
+      <c r="E271">
+        <v>45.425272545454561</v>
+      </c>
+    </row>
+    <row r="272" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B272">
+        <v>-0.337106079</v>
+      </c>
+      <c r="C272">
+        <v>1.1361674509803921</v>
+      </c>
+      <c r="D272">
+        <v>42.866545363636355</v>
+      </c>
+      <c r="E272">
+        <v>34.027954454545451</v>
+      </c>
+    </row>
+    <row r="273" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B273">
+        <v>-0.15820946599999999</v>
+      </c>
+      <c r="C273">
+        <v>2.9589443137254898</v>
+      </c>
+      <c r="D273">
+        <v>35.018999999999991</v>
+      </c>
+      <c r="E273">
+        <v>20.306863636363641</v>
+      </c>
+    </row>
+    <row r="274" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B274">
+        <v>0.92198289700000002</v>
+      </c>
+      <c r="C274">
+        <v>2.9589443137254898</v>
+      </c>
+      <c r="D274">
+        <v>37.879909045454546</v>
+      </c>
+      <c r="E274">
+        <v>23.759818181818186</v>
+      </c>
+    </row>
+    <row r="275" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B275">
+        <v>1.297153032</v>
+      </c>
+      <c r="C275">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D275">
+        <v>46.32601623</v>
+      </c>
+      <c r="E275">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="276" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B276">
+        <v>1.4885473220000001</v>
+      </c>
+      <c r="C276">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D276">
+        <v>46.32601623</v>
+      </c>
+      <c r="E276">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="277" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B277">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C277">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D277">
+        <v>46.32601623</v>
+      </c>
+      <c r="E277">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="278" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B278">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C278">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D278">
+        <v>46.32601623</v>
+      </c>
+      <c r="E278">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="279" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B279">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C279">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D279">
+        <v>46.32601623</v>
+      </c>
+      <c r="E279">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="280" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B280">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C280">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D280">
+        <v>46.32601623</v>
+      </c>
+      <c r="E280">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="281" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B281">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C281">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D281">
+        <v>46.32601623</v>
+      </c>
+      <c r="E281">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="282" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B282">
+        <v>0.53129171600000002</v>
+      </c>
+      <c r="C282">
+        <v>3.1700861818181827</v>
+      </c>
+      <c r="D282">
+        <v>42.014909090909079</v>
+      </c>
+      <c r="E282">
+        <v>43.08309086363635</v>
+      </c>
+    </row>
+    <row r="283" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B283">
+        <v>0.33353440600000001</v>
+      </c>
+      <c r="C283">
+        <v>0.77481745454545448</v>
+      </c>
+      <c r="D283">
+        <v>27.954772727272729</v>
+      </c>
+      <c r="E283">
+        <v>63.525227090909098</v>
+      </c>
+    </row>
+    <row r="284" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B284">
+        <v>0.50081321300000003</v>
+      </c>
+      <c r="C284">
+        <v>2.8032541818181822</v>
+      </c>
+      <c r="D284">
+        <v>33.057181681818186</v>
+      </c>
+      <c r="E284">
+        <v>33.616318045454555</v>
+      </c>
+    </row>
+    <row r="285" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B285">
+        <v>-0.15849913700000001</v>
+      </c>
+      <c r="C285">
+        <v>0.8155570909090909</v>
+      </c>
+      <c r="D285">
+        <v>40.333681818181837</v>
+      </c>
+      <c r="E285">
+        <v>23.142818181818178</v>
+      </c>
+    </row>
+    <row r="286" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B286">
+        <v>-0.396503039</v>
+      </c>
+      <c r="C286">
+        <v>2.1305090909090919E-2</v>
+      </c>
+      <c r="D286">
+        <v>46.186454545454545</v>
+      </c>
+      <c r="E286">
+        <v>21.622045454545461</v>
+      </c>
+    </row>
+    <row r="287" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B287">
+        <v>-0.90838962999999995</v>
+      </c>
+      <c r="C287">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D287">
+        <v>46.32601623</v>
+      </c>
+      <c r="E287">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="288" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B288">
+        <v>-1.0496387650000001</v>
+      </c>
+      <c r="C288">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D288">
+        <v>46.32601623</v>
+      </c>
+      <c r="E288">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="289" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B289">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C289">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D289">
+        <v>46.32601623</v>
+      </c>
+      <c r="E289">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="290" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B290">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C290">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D290">
+        <v>46.32601623</v>
+      </c>
+      <c r="E290">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="291" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B291">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C291">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D291">
+        <v>46.32601623</v>
+      </c>
+      <c r="E291">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="292" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B292">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C292">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D292">
+        <v>46.32601623</v>
+      </c>
+      <c r="E292">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="293" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B293">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C293">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D293">
+        <v>46.32601623</v>
+      </c>
+      <c r="E293">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="294" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B294">
+        <v>-6.2935370989999999</v>
+      </c>
+      <c r="C294">
+        <v>9.5067272727272674E-3</v>
+      </c>
+      <c r="D294">
+        <v>52.537999863636372</v>
+      </c>
+      <c r="E294">
+        <v>38.333409000000003</v>
+      </c>
+    </row>
+    <row r="295" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B295">
+        <v>-1.879846828</v>
+      </c>
+      <c r="C295">
+        <v>1.0351790909090908</v>
+      </c>
+      <c r="D295">
+        <v>43.242272727272734</v>
+      </c>
+      <c r="E295">
+        <v>25.765727272727275</v>
+      </c>
+    </row>
+    <row r="296" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B296">
+        <v>-1.5358710010000001</v>
+      </c>
+      <c r="C296">
+        <v>1.2891103636363634</v>
+      </c>
+      <c r="D296">
+        <v>33.55831809090909</v>
+      </c>
+      <c r="E296">
+        <v>18.482227272727272</v>
+      </c>
+    </row>
+    <row r="297" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B297">
+        <v>-1.2930246000000001</v>
+      </c>
+      <c r="C297">
+        <v>0.24991163636363642</v>
+      </c>
+      <c r="D297">
+        <v>29.277590909090911</v>
+      </c>
+      <c r="E297">
+        <v>14.679636363636364</v>
+      </c>
+    </row>
+    <row r="298" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B298">
+        <v>-1.420861865</v>
+      </c>
+      <c r="C298">
+        <v>0.39811563636363628</v>
+      </c>
+      <c r="D298">
+        <v>27.106772681818185</v>
+      </c>
+      <c r="E298">
+        <v>14.878227272727273</v>
+      </c>
+    </row>
+    <row r="299" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B299">
+        <v>-1.1135816510000001</v>
+      </c>
+      <c r="C299">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D299">
+        <v>46.32601623</v>
+      </c>
+      <c r="E299">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="300" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B300">
+        <v>-4.3899288000000002E-2</v>
+      </c>
+      <c r="C300">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D300">
+        <v>46.32601623</v>
+      </c>
+      <c r="E300">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="301" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B301">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C301">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D301">
+        <v>46.32601623</v>
+      </c>
+      <c r="E301">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="302" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B302">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C302">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D302">
+        <v>46.32601623</v>
+      </c>
+      <c r="E302">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="303" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B303">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C303">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D303">
+        <v>46.32601623</v>
+      </c>
+      <c r="E303">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="304" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B304">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C304">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D304">
+        <v>46.32601623</v>
+      </c>
+      <c r="E304">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="305" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B305">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C305">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D305">
+        <v>46.32601623</v>
+      </c>
+      <c r="E305">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="306" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B306">
+        <v>0.39030109099999999</v>
+      </c>
+      <c r="C306">
+        <v>2.9742767272727262</v>
+      </c>
+      <c r="D306">
+        <v>50.926681772727285</v>
+      </c>
+      <c r="E306">
+        <v>6.5215909090909081</v>
+      </c>
+    </row>
+    <row r="307" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B307">
+        <v>1.0220494840000001</v>
+      </c>
+      <c r="C307">
+        <v>2.4578909090909096</v>
+      </c>
+      <c r="D307">
+        <v>58.881908999999979</v>
+      </c>
+      <c r="E307">
+        <v>15.562863636363636</v>
+      </c>
+    </row>
+    <row r="308" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B308">
+        <v>1.5546923829999999</v>
+      </c>
+      <c r="C308">
+        <v>4.9528014545454528</v>
+      </c>
+      <c r="D308">
+        <v>65.72299968181818</v>
+      </c>
+      <c r="E308">
+        <v>27.805454545454548</v>
+      </c>
+    </row>
+    <row r="309" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B309">
+        <v>1.758882015</v>
+      </c>
+      <c r="C309">
+        <v>1.7265116363636364</v>
+      </c>
+      <c r="D309">
+        <v>75.468954409090927</v>
+      </c>
+      <c r="E309">
+        <v>42.925136272727279</v>
+      </c>
+    </row>
+    <row r="310" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B310">
+        <v>1.2050411910000001</v>
+      </c>
+      <c r="C310">
+        <v>1.3089072727272726</v>
+      </c>
+      <c r="D310">
+        <v>86.895408636363655</v>
+      </c>
+      <c r="E310">
+        <v>50.03390904545455</v>
+      </c>
+    </row>
+    <row r="311" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B311">
+        <v>0.382556126</v>
+      </c>
+      <c r="C311">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D311">
+        <v>46.32601623</v>
+      </c>
+      <c r="E311">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="312" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B312">
+        <v>0.72808197900000005</v>
+      </c>
+      <c r="C312">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D312">
+        <v>46.32601623</v>
+      </c>
+      <c r="E312">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="313" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B313">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C313">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D313">
+        <v>46.32601623</v>
+      </c>
+      <c r="E313">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="314" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B314">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C314">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D314">
+        <v>46.32601623</v>
+      </c>
+      <c r="E314">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="315" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B315">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C315">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D315">
+        <v>46.32601623</v>
+      </c>
+      <c r="E315">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="316" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B316">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C316">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D316">
+        <v>46.32601623</v>
+      </c>
+      <c r="E316">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="317" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B317">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C317">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D317">
+        <v>46.32601623</v>
+      </c>
+      <c r="E317">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="318" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B318">
+        <v>0.39854222500000003</v>
+      </c>
+      <c r="C318">
+        <v>2.9854961818181835</v>
+      </c>
+      <c r="D318">
+        <v>67.188135954545459</v>
+      </c>
+      <c r="E318">
+        <v>34.435454499999999</v>
+      </c>
+    </row>
+    <row r="319" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B319">
+        <v>-0.15099926599999999</v>
+      </c>
+      <c r="C319">
+        <v>9.3167454545454595E-2</v>
+      </c>
+      <c r="D319">
+        <v>51.742681727272732</v>
+      </c>
+      <c r="E319">
+        <v>39.630409045454549</v>
+      </c>
+    </row>
+    <row r="320" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B320">
+        <v>-0.155782746</v>
+      </c>
+      <c r="C320">
+        <v>1.8955261818181812</v>
+      </c>
+      <c r="D320">
+        <v>46.190545409090902</v>
+      </c>
+      <c r="E320">
+        <v>33.366409045454539</v>
+      </c>
+    </row>
+    <row r="321" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B321">
+        <v>0.54734800699999997</v>
+      </c>
+      <c r="C321">
+        <v>3.8919098181818197</v>
+      </c>
+      <c r="D321">
+        <v>44.511363590909099</v>
+      </c>
+      <c r="E321">
+        <v>38.477772636363632</v>
+      </c>
+    </row>
+    <row r="322" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B322">
+        <v>1.493907146</v>
+      </c>
+      <c r="C322">
+        <v>3.2321169090909083</v>
+      </c>
+      <c r="D322">
+        <v>49.06049981818181</v>
+      </c>
+      <c r="E322">
+        <v>66.711863409090896</v>
+      </c>
+    </row>
+    <row r="323" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B323">
+        <v>1.59350192</v>
+      </c>
+      <c r="C323">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D323">
+        <v>46.32601623</v>
+      </c>
+      <c r="E323">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="324" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B324">
+        <v>1.586627217</v>
+      </c>
+      <c r="C324">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D324">
+        <v>46.32601623</v>
+      </c>
+      <c r="E324">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="325" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B325">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C325">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D325">
+        <v>46.32601623</v>
+      </c>
+      <c r="E325">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="326" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B326">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C326">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D326">
+        <v>46.32601623</v>
+      </c>
+      <c r="E326">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="327" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B327">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C327">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D327">
+        <v>46.32601623</v>
+      </c>
+      <c r="E327">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="328" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B328">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C328">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D328">
+        <v>46.32601623</v>
+      </c>
+      <c r="E328">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="329" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B329">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C329">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D329">
+        <v>46.32601623</v>
+      </c>
+      <c r="E329">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="330" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B330">
+        <v>0.49578688500000001</v>
+      </c>
+      <c r="C330">
+        <v>3.1200005454545443</v>
+      </c>
+      <c r="D330">
+        <v>90.45149931818186</v>
+      </c>
+      <c r="E330">
+        <v>43.921045318181825</v>
+      </c>
+    </row>
+    <row r="331" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B331">
+        <v>2.7289328000000002E-2</v>
+      </c>
+      <c r="C331">
+        <v>0.26075018181818194</v>
+      </c>
+      <c r="D331">
+        <v>81.845999681818185</v>
+      </c>
+      <c r="E331">
+        <v>24.013499999999997</v>
+      </c>
+    </row>
+    <row r="332" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B332">
+        <v>-0.65961513800000005</v>
+      </c>
+      <c r="C332">
+        <v>0.46817145454545456</v>
+      </c>
+      <c r="D332">
+        <v>66.150772499999988</v>
+      </c>
+      <c r="E332">
+        <v>84.365455954545482</v>
+      </c>
+    </row>
+    <row r="333" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B333">
+        <v>0.33424169500000001</v>
+      </c>
+      <c r="C333">
+        <v>4.6722347272727278</v>
+      </c>
+      <c r="D333">
+        <v>39.940181772727286</v>
+      </c>
+      <c r="E333">
+        <v>22.710909045454549</v>
+      </c>
+    </row>
+    <row r="334" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B334">
+        <v>0.61460779799999998</v>
+      </c>
+      <c r="C334">
+        <v>0.98271654545454545</v>
+      </c>
+      <c r="D334">
+        <v>39.117227136363624</v>
+      </c>
+      <c r="E334">
+        <v>39.49437249999999</v>
+      </c>
+    </row>
+    <row r="335" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B335">
+        <v>1.2276512399999999</v>
+      </c>
+      <c r="C335">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D335">
+        <v>46.32601623</v>
+      </c>
+      <c r="E335">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="336" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B336">
+        <v>0.51189115799999996</v>
+      </c>
+      <c r="C336">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D336">
+        <v>46.32601623</v>
+      </c>
+      <c r="E336">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="337" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B337">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C337">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D337">
+        <v>46.32601623</v>
+      </c>
+      <c r="E337">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="338" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B338">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C338">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D338">
+        <v>46.32601623</v>
+      </c>
+      <c r="E338">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="339" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B339">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C339">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D339">
+        <v>46.32601623</v>
+      </c>
+      <c r="E339">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="340" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B340">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C340">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D340">
+        <v>46.32601623</v>
+      </c>
+      <c r="E340">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="341" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B341">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C341">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D341">
+        <v>46.32601623</v>
+      </c>
+      <c r="E341">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="342" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B342">
+        <v>0.41766682399999999</v>
+      </c>
+      <c r="C342">
+        <v>3.0116399999999994</v>
+      </c>
+      <c r="D342">
+        <v>64.704772272727269</v>
+      </c>
+      <c r="E342">
+        <v>35.836499954545459</v>
+      </c>
+    </row>
+    <row r="343" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B343">
+        <v>0.38291089499999997</v>
+      </c>
+      <c r="C343">
+        <v>1.0297009090909095</v>
+      </c>
+      <c r="D343">
+        <v>46.311818136363641</v>
+      </c>
+      <c r="E343">
+        <v>60.64163627272729</v>
+      </c>
+    </row>
+    <row r="344" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B344">
+        <v>6.6899519999999999E-3</v>
+      </c>
+      <c r="C344">
+        <v>1.3384969090909087</v>
+      </c>
+      <c r="D344">
+        <v>22.138636318181824</v>
+      </c>
+      <c r="E344">
+        <v>60.69704513636362</v>
+      </c>
+    </row>
+    <row r="345" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B345">
+        <v>0.52081505100000003</v>
+      </c>
+      <c r="C345">
+        <v>3.4512414545454555</v>
+      </c>
+      <c r="D345">
+        <v>29.988590909090913</v>
+      </c>
+      <c r="E345">
+        <v>40.960590909090904</v>
+      </c>
+    </row>
+    <row r="346" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B346">
+        <v>0.26901652799999998</v>
+      </c>
+      <c r="C346">
+        <v>0.38731690909090927</v>
+      </c>
+      <c r="D346">
+        <v>48.569272590909094</v>
+      </c>
+      <c r="E346">
+        <v>31.528136363636353</v>
+      </c>
+    </row>
+    <row r="347" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B347">
+        <v>0.67981305299999994</v>
+      </c>
+      <c r="C347">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D347">
+        <v>46.32601623</v>
+      </c>
+      <c r="E347">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="348" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B348">
+        <v>-5.8326536999999998E-2</v>
+      </c>
+      <c r="C348">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D348">
+        <v>46.32601623</v>
+      </c>
+      <c r="E348">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="349" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B349">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C349">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D349">
+        <v>46.32601623</v>
+      </c>
+      <c r="E349">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="350" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B350">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C350">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D350">
+        <v>46.32601623</v>
+      </c>
+      <c r="E350">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="351" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B351">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C351">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D351">
+        <v>46.32601623</v>
+      </c>
+      <c r="E351">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="352" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B352">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C352">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D352">
+        <v>46.32601623</v>
+      </c>
+      <c r="E352">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="353" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B353">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C353">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D353">
+        <v>46.32601623</v>
+      </c>
+      <c r="E353">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="354" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B354">
+        <v>0.62530055600000001</v>
+      </c>
+      <c r="C354">
+        <v>3.3052452727272725</v>
+      </c>
+      <c r="D354">
+        <v>62.963227045454524</v>
+      </c>
+      <c r="E354">
+        <v>52.089999954545469</v>
+      </c>
+    </row>
+    <row r="355" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B355">
+        <v>6.0362519999999998E-3</v>
+      </c>
+      <c r="C355">
+        <v>3.8491454545454544E-2</v>
+      </c>
+      <c r="D355">
+        <v>44.653363590909088</v>
+      </c>
+      <c r="E355">
+        <v>48.186181681818155</v>
+      </c>
+    </row>
+    <row r="356" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B356">
+        <v>-0.13465027199999999</v>
+      </c>
+      <c r="C356">
+        <v>1.6820067272727273</v>
+      </c>
+      <c r="D356">
+        <v>20.088954454545451</v>
+      </c>
+      <c r="E356">
+        <v>45.582636227272751</v>
+      </c>
+    </row>
+    <row r="357" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B357">
+        <v>-1.473840308</v>
+      </c>
+      <c r="C357">
+        <v>0.62312854545454543</v>
+      </c>
+      <c r="D357">
+        <v>25.911000000000001</v>
+      </c>
+      <c r="E357">
+        <v>37.774227136363642</v>
+      </c>
+    </row>
+    <row r="358" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B358">
+        <v>-1.0668379960000001</v>
+      </c>
+      <c r="C358">
+        <v>0.13674509090909093</v>
+      </c>
+      <c r="D358">
+        <v>40.657636363636371</v>
+      </c>
+      <c r="E358">
+        <v>31.501499999999997</v>
+      </c>
+    </row>
+    <row r="359" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B359">
+        <v>-0.98739057600000002</v>
+      </c>
+      <c r="C359">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D359">
+        <v>46.32601623</v>
+      </c>
+      <c r="E359">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="360" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B360">
+        <v>-0.52161407699999995</v>
+      </c>
+      <c r="C360">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D360">
+        <v>46.32601623</v>
+      </c>
+      <c r="E360">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="361" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B361">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C361">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D361">
+        <v>46.32601623</v>
+      </c>
+      <c r="E361">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="362" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B362">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C362">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D362">
+        <v>46.32601623</v>
+      </c>
+      <c r="E362">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="363" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B363">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C363">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D363">
+        <v>46.32601623</v>
+      </c>
+      <c r="E363">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="364" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B364">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C364">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D364">
+        <v>46.32601623</v>
+      </c>
+      <c r="E364">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="365" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B365">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C365">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D365">
+        <v>46.32601623</v>
+      </c>
+      <c r="E365">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="366" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B366">
+        <v>0.53843812999999996</v>
+      </c>
+      <c r="C366">
+        <v>3.1802309090909087</v>
+      </c>
+      <c r="D366">
+        <v>58.670499727272741</v>
+      </c>
+      <c r="E366">
+        <v>39.330045363636387</v>
+      </c>
+    </row>
+    <row r="367" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B367">
+        <v>0.60411658400000001</v>
+      </c>
+      <c r="C367">
+        <v>1.3122450909090908</v>
+      </c>
+      <c r="D367">
+        <v>40.432454454545471</v>
+      </c>
+      <c r="E367">
+        <v>62.670908818181829</v>
+      </c>
+    </row>
+    <row r="368" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B368">
+        <v>1.0999627679999999</v>
+      </c>
+      <c r="C368">
+        <v>4.1992292727272718</v>
+      </c>
+      <c r="D368">
+        <v>17.838545409090909</v>
+      </c>
+      <c r="E368">
+        <v>58.115227045454546</v>
+      </c>
+    </row>
+    <row r="369" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B369">
+        <v>0.88569452299999996</v>
+      </c>
+      <c r="C369">
+        <v>1.1863692727272728</v>
+      </c>
+      <c r="D369">
+        <v>31.211181727272727</v>
+      </c>
+      <c r="E369">
+        <v>38.18486363636363</v>
+      </c>
+    </row>
+    <row r="370" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B370">
+        <v>0.90326311299999995</v>
+      </c>
+      <c r="C370">
+        <v>1.6092996363636365</v>
+      </c>
+      <c r="D370">
+        <v>53.247136136363643</v>
+      </c>
+      <c r="E370">
+        <v>26.158909090909098</v>
+      </c>
+    </row>
+    <row r="371" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B371">
+        <v>0.28384666600000003</v>
+      </c>
+      <c r="C371">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D371">
+        <v>46.32601623</v>
+      </c>
+      <c r="E371">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="372" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B372">
+        <v>0.898702326</v>
+      </c>
+      <c r="C372">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D372">
+        <v>46.32601623</v>
+      </c>
+      <c r="E372">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="373" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B373">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C373">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D373">
+        <v>46.32601623</v>
+      </c>
+      <c r="E373">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="374" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B374">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C374">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D374">
+        <v>46.32601623</v>
+      </c>
+      <c r="E374">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="375" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B375">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C375">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D375">
+        <v>46.32601623</v>
+      </c>
+      <c r="E375">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="376" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B376">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C376">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D376">
+        <v>46.32601623</v>
+      </c>
+      <c r="E376">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="377" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B377">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C377">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D377">
+        <v>46.32601623</v>
+      </c>
+      <c r="E377">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="378" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B378">
+        <v>0.4947397</v>
+      </c>
+      <c r="C378">
+        <v>3.1185312727272732</v>
+      </c>
+      <c r="D378">
+        <v>66.700590909090892</v>
+      </c>
+      <c r="E378">
+        <v>43.551454545454561</v>
+      </c>
+    </row>
+    <row r="379" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B379">
+        <v>0.22410369999999999</v>
+      </c>
+      <c r="C379">
+        <v>0.61810781818181826</v>
+      </c>
+      <c r="D379">
+        <v>44.914454454545464</v>
+      </c>
+      <c r="E379">
+        <v>48.635363545454553</v>
+      </c>
+    </row>
+    <row r="380" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B380">
+        <v>-0.10425334</v>
+      </c>
+      <c r="C380">
+        <v>1.3638896363636364</v>
+      </c>
+      <c r="D380">
+        <v>19.432727272727277</v>
+      </c>
+      <c r="E380">
+        <v>57.215681636363627</v>
+      </c>
+    </row>
+    <row r="381" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B381">
+        <v>-0.43107942799999999</v>
+      </c>
+      <c r="C381">
+        <v>1.9128223636363642</v>
+      </c>
+      <c r="D381">
+        <v>29.288909090909094</v>
+      </c>
+      <c r="E381">
+        <v>42.049545318181806</v>
+      </c>
+    </row>
+    <row r="382" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B382">
+        <v>-0.508626519</v>
+      </c>
+      <c r="C382">
+        <v>0.13955127272727275</v>
+      </c>
+      <c r="D382">
+        <v>6.5334543636363618</v>
+      </c>
+      <c r="E382">
+        <v>33.466045409090903</v>
+      </c>
+    </row>
+    <row r="383" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B383">
+        <v>-6.4116998999999994E-2</v>
+      </c>
+      <c r="C383">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D383">
+        <v>46.32601623</v>
+      </c>
+      <c r="E383">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="384" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B384">
+        <v>-0.51393948700000003</v>
+      </c>
+      <c r="C384">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D384">
+        <v>46.32601623</v>
+      </c>
+      <c r="E384">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="385" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B385">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C385">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D385">
+        <v>46.32601623</v>
+      </c>
+      <c r="E385">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="386" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B386">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C386">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D386">
+        <v>46.32601623</v>
+      </c>
+      <c r="E386">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="387" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B387">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C387">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D387">
+        <v>46.32601623</v>
+      </c>
+      <c r="E387">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="388" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B388">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C388">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D388">
+        <v>46.32601623</v>
+      </c>
+      <c r="E388">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="389" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B389">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C389">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D389">
+        <v>46.32601623</v>
+      </c>
+      <c r="E389">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="390" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B390">
+        <v>0.89331495800000005</v>
+      </c>
+      <c r="C390">
+        <v>3.7111139999999994</v>
+      </c>
+      <c r="D390">
+        <v>58.460818000000003</v>
+      </c>
+      <c r="E390">
+        <v>28.62090904545455</v>
+      </c>
+    </row>
+    <row r="391" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B391">
+        <v>0.813948224</v>
+      </c>
+      <c r="C391">
+        <v>1.238666</v>
+      </c>
+      <c r="D391">
+        <v>41.283636272727279</v>
+      </c>
+      <c r="E391">
+        <v>53.895409000000008</v>
+      </c>
+    </row>
+    <row r="392" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B392">
+        <v>1.183652554</v>
+      </c>
+      <c r="C392">
+        <v>4.0391534545454544</v>
+      </c>
+      <c r="D392">
+        <v>22.60304540909091</v>
+      </c>
+      <c r="E392">
+        <v>59.768499727272733</v>
+      </c>
+    </row>
+    <row r="393" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B393">
+        <v>0.612213856</v>
+      </c>
+      <c r="C393">
+        <v>0.75408963636363646</v>
+      </c>
+      <c r="D393">
+        <v>38.638045363636358</v>
+      </c>
+      <c r="E393">
+        <v>43.633045409090911</v>
+      </c>
+    </row>
+    <row r="394" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B394">
+        <v>0.13493322399999999</v>
+      </c>
+      <c r="C394">
+        <v>4.4602727272727252E-2</v>
+      </c>
+      <c r="D394">
+        <v>12.144408954545456</v>
+      </c>
+      <c r="E394">
+        <v>31.12318181818182</v>
+      </c>
+    </row>
+    <row r="395" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B395">
+        <v>-0.94684958799999996</v>
+      </c>
+      <c r="C395">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D395">
+        <v>46.32601623</v>
+      </c>
+      <c r="E395">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="396" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B396">
+        <v>-0.87731666200000002</v>
+      </c>
+      <c r="C396">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D396">
+        <v>46.32601623</v>
+      </c>
+      <c r="E396">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="397" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B397">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C397">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D397">
+        <v>46.32601623</v>
+      </c>
+      <c r="E397">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="398" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B398">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C398">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D398">
+        <v>46.32601623</v>
+      </c>
+      <c r="E398">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="399" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B399">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C399">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D399">
+        <v>46.32601623</v>
+      </c>
+      <c r="E399">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="400" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B400">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C400">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D400">
+        <v>46.32601623</v>
+      </c>
+      <c r="E400">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="401" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B401">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C401">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D401">
+        <v>46.32601623</v>
+      </c>
+      <c r="E401">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="402" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B402">
+        <v>-3.7348471569999999</v>
+      </c>
+      <c r="C402">
+        <v>0.19335781818181824</v>
+      </c>
+      <c r="D402">
+        <v>59.14759063636366</v>
+      </c>
+      <c r="E402">
+        <v>11.334499999999998</v>
+      </c>
+    </row>
+    <row r="403" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B403">
+        <v>-1.7622734330000001</v>
+      </c>
+      <c r="C403">
+        <v>0.94400090909090917</v>
+      </c>
+      <c r="D403">
+        <v>40.859090772727271</v>
+      </c>
+      <c r="E403">
+        <v>22.001363590909097</v>
+      </c>
+    </row>
+    <row r="404" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B404">
+        <v>-1.430425353</v>
+      </c>
+      <c r="C404">
+        <v>1.3512196363636364</v>
+      </c>
+      <c r="D404">
+        <v>18.765772681818181</v>
+      </c>
+      <c r="E404">
+        <v>40.77940904545455</v>
+      </c>
+    </row>
+    <row r="405" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B405">
+        <v>-0.79738964099999998</v>
+      </c>
+      <c r="C405">
+        <v>0.99207472727272716</v>
+      </c>
+      <c r="D405">
+        <v>27.945999954545449</v>
+      </c>
+      <c r="E405">
+        <v>36.760909090909081</v>
+      </c>
+    </row>
+    <row r="406" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B406">
+        <v>-1.0436263079999999</v>
+      </c>
+      <c r="C406">
+        <v>0.13463672727272727</v>
+      </c>
+      <c r="D406">
+        <v>42.012636318181833</v>
+      </c>
+      <c r="E406">
+        <v>30.34009090909089</v>
+      </c>
+    </row>
+    <row r="407" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B407">
+        <v>-0.65190422100000001</v>
+      </c>
+      <c r="C407">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D407">
+        <v>46.32601623</v>
+      </c>
+      <c r="E407">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="408" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B408">
+        <v>-0.527452001</v>
+      </c>
+      <c r="C408">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D408">
+        <v>46.32601623</v>
+      </c>
+      <c r="E408">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="409" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B409">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C409">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D409">
+        <v>46.32601623</v>
+      </c>
+      <c r="E409">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="410" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B410">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C410">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D410">
+        <v>46.32601623</v>
+      </c>
+      <c r="E410">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="411" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B411">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C411">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D411">
+        <v>46.32601623</v>
+      </c>
+      <c r="E411">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="412" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B412">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C412">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D412">
+        <v>46.32601623</v>
+      </c>
+      <c r="E412">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="413" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B413">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C413">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D413">
+        <v>46.32601623</v>
+      </c>
+      <c r="E413">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="414" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B414">
+        <v>-2.0580658829999998</v>
+      </c>
+      <c r="C414">
+        <v>0.74924636363636365</v>
+      </c>
+      <c r="D414">
+        <v>57.407272636363622</v>
+      </c>
+      <c r="E414">
+        <v>53.246772636363609</v>
+      </c>
+    </row>
+    <row r="415" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B415">
+        <v>-1.0451221829999999</v>
+      </c>
+      <c r="C415">
+        <v>1.0879647272727273</v>
+      </c>
+      <c r="D415">
+        <v>39.967499954545453</v>
+      </c>
+      <c r="E415">
+        <v>52.553454409090911</v>
+      </c>
+    </row>
+    <row r="416" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B416">
+        <v>-1.257993914</v>
+      </c>
+      <c r="C416">
+        <v>0.92008254545454504</v>
+      </c>
+      <c r="D416">
+        <v>17.311636318181819</v>
+      </c>
+      <c r="E416">
+        <v>52.258999863636362</v>
+      </c>
+    </row>
+    <row r="417" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B417">
+        <v>-0.67583829699999998</v>
+      </c>
+      <c r="C417">
+        <v>1.4730329090909089</v>
+      </c>
+      <c r="D417">
+        <v>25.045272727272732</v>
+      </c>
+      <c r="E417">
+        <v>39.835363500000007</v>
+      </c>
+    </row>
+    <row r="418" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B418">
+        <v>-0.34262161499999999</v>
+      </c>
+      <c r="C418">
+        <v>1.3580639999999999</v>
+      </c>
+      <c r="D418">
+        <v>42.012636318181833</v>
+      </c>
+      <c r="E418">
+        <v>36.666090909090904</v>
+      </c>
+    </row>
+    <row r="419" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B419">
+        <v>0.29877953000000002</v>
+      </c>
+      <c r="C419">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D419">
+        <v>46.32601623</v>
+      </c>
+      <c r="E419">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="420" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B420">
+        <v>0.75757136999999997</v>
+      </c>
+      <c r="C420">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D420">
+        <v>46.32601623</v>
+      </c>
+      <c r="E420">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="421" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B421">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C421">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D421">
+        <v>46.32601623</v>
+      </c>
+      <c r="E421">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="422" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B422">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C422">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D422">
+        <v>46.32601623</v>
+      </c>
+      <c r="E422">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="423" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B423">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C423">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D423">
+        <v>46.32601623</v>
+      </c>
+      <c r="E423">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="424" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B424">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C424">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D424">
+        <v>46.32601623</v>
+      </c>
+      <c r="E424">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="425" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B425">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C425">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D425">
+        <v>46.32601623</v>
+      </c>
+      <c r="E425">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="426" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B426">
+        <v>-3.620798819</v>
+      </c>
+      <c r="C426">
+        <v>0.21493981818181818</v>
+      </c>
+      <c r="D426">
+        <v>61.607136000000011</v>
+      </c>
+      <c r="E426">
+        <v>60.280681545454556</v>
+      </c>
+    </row>
+    <row r="427" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B427">
+        <v>-2.037561824</v>
+      </c>
+      <c r="C427">
+        <v>0.71434818181818183</v>
+      </c>
+      <c r="D427">
+        <v>42.846409000000001</v>
+      </c>
+      <c r="E427">
+        <v>67.012090727272735</v>
+      </c>
+    </row>
+    <row r="428" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B428">
+        <v>-1.388159937</v>
+      </c>
+      <c r="C428">
+        <v>1.6233460000000002</v>
+      </c>
+      <c r="D428">
+        <v>19.875727272727275</v>
+      </c>
+      <c r="E428">
+        <v>58.164499545454554</v>
+      </c>
+    </row>
+    <row r="429" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B429">
+        <v>0.38901994299999998</v>
+      </c>
+      <c r="C429">
+        <v>3.1841370909090903</v>
+      </c>
+      <c r="D429">
+        <v>30.651863454545456</v>
+      </c>
+      <c r="E429">
+        <v>39.69781804545454</v>
+      </c>
+    </row>
+    <row r="430" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B430">
+        <v>0.91793926999999997</v>
+      </c>
+      <c r="C430">
+        <v>2.2337670909090908</v>
+      </c>
+      <c r="D430">
+        <v>3.8024544090909247</v>
+      </c>
+      <c r="E430">
+        <v>37.888590772727269</v>
+      </c>
+    </row>
+    <row r="431" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B431">
+        <v>1.1632318210000001</v>
+      </c>
+      <c r="C431">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D431">
+        <v>46.32601623</v>
+      </c>
+      <c r="E431">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="432" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B432">
+        <v>1.1986394869999999</v>
+      </c>
+      <c r="C432">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D432">
+        <v>46.32601623</v>
+      </c>
+      <c r="E432">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+    <row r="433" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B433">
+        <v>-6.8242493160000004</v>
+      </c>
+      <c r="C433">
+        <v>1.7111561096333336</v>
+      </c>
+      <c r="D433">
+        <v>46.32601623</v>
+      </c>
+      <c r="E433">
+        <v>38.856213220000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E152"/>
   <sheetViews>
@@ -11987,7 +18323,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A151"/>
   <sheetViews>

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,32 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ujjawal\AppData\Local\Programs\Python\Python39\phd_work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ujjawal\Documents\R\phd_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{5C4109B3-CBCC-44C8-B8AD-99580643CE2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750EA19A-AA40-4921-ABE3-C68DAA391691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SPI3" sheetId="1" r:id="rId1"/>
+    <sheet name="5-months(1991-2020)" sheetId="1" r:id="rId1"/>
     <sheet name="12-months data(1991-2020)" sheetId="4" r:id="rId2"/>
     <sheet name="12-months data(1981-2020)" sheetId="5" r:id="rId3"/>
     <sheet name="SPI1" sheetId="2" r:id="rId4"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId5"/>
     <sheet name="Uni_SPI1" sheetId="3" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'SPI1'!$A$1:$G$1501</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="8">
   <si>
     <t>Month</t>
   </si>
@@ -48,12 +63,15 @@
   <si>
     <t>Y</t>
   </si>
+  <si>
+    <t>SPI</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -170,6 +188,13 @@
       <color theme="0"/>
       <name val="Palatino Linotype"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Palatino Linotype"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -513,9 +538,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -870,7 +896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4285,11 +4311,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E361"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -9396,11 +9422,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E433"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -15731,38 +15757,39 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G1501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1338" workbookViewId="0">
-      <selection activeCell="F1352" sqref="F1352:G1501"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -50267,12 +50294,14 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1501" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A57:D451"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -50301,955 +50330,955 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="e">
-        <f t="shared" ref="A58:A121" si="0">#REF!-0.2</f>
+        <f t="shared" ref="A58" si="0">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="B58" t="e">
-        <f t="shared" ref="B58:B121" si="1">#REF!-0.2</f>
+        <f t="shared" ref="B58" si="1">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="C58" t="e">
-        <f t="shared" ref="C58:C121" si="2">#REF!-0.2</f>
+        <f t="shared" ref="C58" si="2">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="D58" t="e">
-        <f t="shared" ref="D58:D121" si="3">#REF!-0.2</f>
+        <f t="shared" ref="D58" si="3">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="e">
-        <f t="shared" ref="A59:A122" si="4">#REF!-0.2</f>
+        <f t="shared" ref="A59" si="4">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="B59" t="e">
-        <f t="shared" ref="B59:B122" si="5">#REF!-0.2</f>
+        <f t="shared" ref="B59" si="5">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="C59" t="e">
-        <f t="shared" ref="C59:C122" si="6">#REF!-0.2</f>
+        <f t="shared" ref="C59" si="6">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="D59" t="e">
-        <f t="shared" ref="D59:D122" si="7">#REF!-0.2</f>
+        <f t="shared" ref="D59" si="7">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="e">
-        <f t="shared" ref="A60:A123" si="8">#REF!-0.2</f>
+        <f t="shared" ref="A60" si="8">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="B60" t="e">
-        <f t="shared" ref="B60:B123" si="9">#REF!-0.2</f>
+        <f t="shared" ref="B60" si="9">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="C60" t="e">
-        <f t="shared" ref="C60:C123" si="10">#REF!-0.2</f>
+        <f t="shared" ref="C60" si="10">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="D60" t="e">
-        <f t="shared" ref="D60:D123" si="11">#REF!-0.2</f>
+        <f t="shared" ref="D60" si="11">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="e">
-        <f t="shared" ref="A61:A124" si="12">#REF!-0.2</f>
+        <f t="shared" ref="A61" si="12">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="B61" t="e">
-        <f t="shared" ref="B61:B124" si="13">#REF!-0.2</f>
+        <f t="shared" ref="B61" si="13">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="C61" t="e">
-        <f t="shared" ref="C61:C124" si="14">#REF!-0.2</f>
+        <f t="shared" ref="C61" si="14">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="D61" t="e">
-        <f t="shared" ref="D61:D124" si="15">#REF!-0.2</f>
+        <f t="shared" ref="D61" si="15">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="e">
-        <f t="shared" ref="A62:A125" si="16">#REF!-0.2</f>
+        <f t="shared" ref="A62" si="16">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="B62" t="e">
-        <f t="shared" ref="B62:B125" si="17">#REF!-0.2</f>
+        <f t="shared" ref="B62" si="17">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="C62" t="e">
-        <f t="shared" ref="C62:C125" si="18">#REF!-0.2</f>
+        <f t="shared" ref="C62" si="18">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="D62" t="e">
-        <f t="shared" ref="D62:D125" si="19">#REF!-0.2</f>
+        <f t="shared" ref="D62" si="19">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="e">
-        <f t="shared" ref="A63:A126" si="20">#REF!-0.2</f>
+        <f t="shared" ref="A63" si="20">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="B63" t="e">
-        <f t="shared" ref="B63:B126" si="21">#REF!-0.2</f>
+        <f t="shared" ref="B63" si="21">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="C63" t="e">
-        <f t="shared" ref="C63:C126" si="22">#REF!-0.2</f>
+        <f t="shared" ref="C63" si="22">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="D63" t="e">
-        <f t="shared" ref="D63:D126" si="23">#REF!-0.2</f>
+        <f t="shared" ref="D63" si="23">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="e">
-        <f t="shared" ref="A64:A127" si="24">#REF!-0.2</f>
+        <f t="shared" ref="A64" si="24">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="B64" t="e">
-        <f t="shared" ref="B64:B127" si="25">#REF!-0.2</f>
+        <f t="shared" ref="B64" si="25">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="C64" t="e">
-        <f t="shared" ref="C64:C127" si="26">#REF!-0.2</f>
+        <f t="shared" ref="C64" si="26">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="D64" t="e">
-        <f t="shared" ref="D64:D127" si="27">#REF!-0.2</f>
+        <f t="shared" ref="D64" si="27">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="e">
-        <f t="shared" ref="A65:A128" si="28">#REF!-0.2</f>
+        <f t="shared" ref="A65" si="28">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="B65" t="e">
-        <f t="shared" ref="B65:B128" si="29">#REF!-0.2</f>
+        <f t="shared" ref="B65" si="29">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="C65" t="e">
-        <f t="shared" ref="C65:C128" si="30">#REF!-0.2</f>
+        <f t="shared" ref="C65" si="30">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="D65" t="e">
-        <f t="shared" ref="D65:D128" si="31">#REF!-0.2</f>
+        <f t="shared" ref="D65" si="31">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="e">
-        <f t="shared" ref="A66:A129" si="32">#REF!-0.2</f>
+        <f t="shared" ref="A66" si="32">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="B66" t="e">
-        <f t="shared" ref="B66:B129" si="33">#REF!-0.2</f>
+        <f t="shared" ref="B66" si="33">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="C66" t="e">
-        <f t="shared" ref="C66:C129" si="34">#REF!-0.2</f>
+        <f t="shared" ref="C66" si="34">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="D66" t="e">
-        <f t="shared" ref="D66:D129" si="35">#REF!-0.2</f>
+        <f t="shared" ref="D66" si="35">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="e">
-        <f t="shared" ref="A67:A130" si="36">#REF!-0.2</f>
+        <f t="shared" ref="A67" si="36">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="B67" t="e">
-        <f t="shared" ref="B67:B130" si="37">#REF!-0.2</f>
+        <f t="shared" ref="B67" si="37">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="C67" t="e">
-        <f t="shared" ref="C67:C130" si="38">#REF!-0.2</f>
+        <f t="shared" ref="C67" si="38">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="D67" t="e">
-        <f t="shared" ref="D67:D130" si="39">#REF!-0.2</f>
+        <f t="shared" ref="D67" si="39">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="e">
-        <f t="shared" ref="A68:A131" si="40">#REF!-0.2</f>
+        <f t="shared" ref="A68" si="40">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="B68" t="e">
-        <f t="shared" ref="B68:B131" si="41">#REF!-0.2</f>
+        <f t="shared" ref="B68" si="41">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="C68" t="e">
-        <f t="shared" ref="C68:C131" si="42">#REF!-0.2</f>
+        <f t="shared" ref="C68" si="42">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="D68" t="e">
-        <f t="shared" ref="D68:D131" si="43">#REF!-0.2</f>
+        <f t="shared" ref="D68" si="43">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="e">
-        <f t="shared" ref="A69:A132" si="44">#REF!-0.2</f>
+        <f t="shared" ref="A69" si="44">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="B69" t="e">
-        <f t="shared" ref="B69:B132" si="45">#REF!-0.2</f>
+        <f t="shared" ref="B69" si="45">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="C69" t="e">
-        <f t="shared" ref="C69:C132" si="46">#REF!-0.2</f>
+        <f t="shared" ref="C69" si="46">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="D69" t="e">
-        <f t="shared" ref="D69:D132" si="47">#REF!-0.2</f>
+        <f t="shared" ref="D69" si="47">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="e">
-        <f t="shared" ref="A70:A133" si="48">#REF!-0.2</f>
+        <f t="shared" ref="A70" si="48">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="B70" t="e">
-        <f t="shared" ref="B70:B133" si="49">#REF!-0.2</f>
+        <f t="shared" ref="B70" si="49">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="C70" t="e">
-        <f t="shared" ref="C70:C133" si="50">#REF!-0.2</f>
+        <f t="shared" ref="C70" si="50">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="D70" t="e">
-        <f t="shared" ref="D70:D133" si="51">#REF!-0.2</f>
+        <f t="shared" ref="D70" si="51">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="e">
-        <f t="shared" ref="A71:A134" si="52">#REF!-0.2</f>
+        <f t="shared" ref="A71" si="52">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="B71" t="e">
-        <f t="shared" ref="B71:B134" si="53">#REF!-0.2</f>
+        <f t="shared" ref="B71" si="53">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="C71" t="e">
-        <f t="shared" ref="C71:C134" si="54">#REF!-0.2</f>
+        <f t="shared" ref="C71" si="54">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="D71" t="e">
-        <f t="shared" ref="D71:D134" si="55">#REF!-0.2</f>
+        <f t="shared" ref="D71" si="55">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="e">
-        <f t="shared" ref="A72:A135" si="56">#REF!-0.2</f>
+        <f t="shared" ref="A72" si="56">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="B72" t="e">
-        <f t="shared" ref="B72:B135" si="57">#REF!-0.2</f>
+        <f t="shared" ref="B72" si="57">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="C72" t="e">
-        <f t="shared" ref="C72:C135" si="58">#REF!-0.2</f>
+        <f t="shared" ref="C72" si="58">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="D72" t="e">
-        <f t="shared" ref="D72:D135" si="59">#REF!-0.2</f>
+        <f t="shared" ref="D72" si="59">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="e">
-        <f t="shared" ref="A73:A136" si="60">#REF!-0.2</f>
+        <f t="shared" ref="A73" si="60">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="B73" t="e">
-        <f t="shared" ref="B73:B136" si="61">#REF!-0.2</f>
+        <f t="shared" ref="B73" si="61">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="C73" t="e">
-        <f t="shared" ref="C73:C136" si="62">#REF!-0.2</f>
+        <f t="shared" ref="C73" si="62">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="D73" t="e">
-        <f t="shared" ref="D73:D136" si="63">#REF!-0.2</f>
+        <f t="shared" ref="D73" si="63">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="e">
-        <f t="shared" ref="A74:A137" si="64">#REF!-0.2</f>
+        <f t="shared" ref="A74" si="64">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="B74" t="e">
-        <f t="shared" ref="B74:B137" si="65">#REF!-0.2</f>
+        <f t="shared" ref="B74" si="65">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="C74" t="e">
-        <f t="shared" ref="C74:C137" si="66">#REF!-0.2</f>
+        <f t="shared" ref="C74" si="66">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="D74" t="e">
-        <f t="shared" ref="D74:D137" si="67">#REF!-0.2</f>
+        <f t="shared" ref="D74" si="67">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="e">
-        <f t="shared" ref="A75:A138" si="68">#REF!-0.2</f>
+        <f t="shared" ref="A75" si="68">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="B75" t="e">
-        <f t="shared" ref="B75:B138" si="69">#REF!-0.2</f>
+        <f t="shared" ref="B75" si="69">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="C75" t="e">
-        <f t="shared" ref="C75:C138" si="70">#REF!-0.2</f>
+        <f t="shared" ref="C75" si="70">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="D75" t="e">
-        <f t="shared" ref="D75:D138" si="71">#REF!-0.2</f>
+        <f t="shared" ref="D75" si="71">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="e">
-        <f t="shared" ref="A76:A139" si="72">#REF!-0.2</f>
+        <f t="shared" ref="A76" si="72">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="B76" t="e">
-        <f t="shared" ref="B76:B139" si="73">#REF!-0.2</f>
+        <f t="shared" ref="B76" si="73">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="C76" t="e">
-        <f t="shared" ref="C76:C139" si="74">#REF!-0.2</f>
+        <f t="shared" ref="C76" si="74">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="D76" t="e">
-        <f t="shared" ref="D76:D139" si="75">#REF!-0.2</f>
+        <f t="shared" ref="D76" si="75">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="e">
-        <f t="shared" ref="A77:A140" si="76">#REF!-0.2</f>
+        <f t="shared" ref="A77" si="76">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="B77" t="e">
-        <f t="shared" ref="B77:B140" si="77">#REF!-0.2</f>
+        <f t="shared" ref="B77" si="77">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="C77" t="e">
-        <f t="shared" ref="C77:C140" si="78">#REF!-0.2</f>
+        <f t="shared" ref="C77" si="78">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="D77" t="e">
-        <f t="shared" ref="D77:D140" si="79">#REF!-0.2</f>
+        <f t="shared" ref="D77" si="79">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="e">
-        <f t="shared" ref="A78:A141" si="80">#REF!-0.2</f>
+        <f t="shared" ref="A78" si="80">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="B78" t="e">
-        <f t="shared" ref="B78:B141" si="81">#REF!-0.2</f>
+        <f t="shared" ref="B78" si="81">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="C78" t="e">
-        <f t="shared" ref="C78:C141" si="82">#REF!-0.2</f>
+        <f t="shared" ref="C78" si="82">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="D78" t="e">
-        <f t="shared" ref="D78:D141" si="83">#REF!-0.2</f>
+        <f t="shared" ref="D78" si="83">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="e">
-        <f t="shared" ref="A79:A142" si="84">#REF!-0.2</f>
+        <f t="shared" ref="A79" si="84">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="B79" t="e">
-        <f t="shared" ref="B79:B142" si="85">#REF!-0.2</f>
+        <f t="shared" ref="B79" si="85">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="C79" t="e">
-        <f t="shared" ref="C79:C142" si="86">#REF!-0.2</f>
+        <f t="shared" ref="C79" si="86">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="D79" t="e">
-        <f t="shared" ref="D79:D142" si="87">#REF!-0.2</f>
+        <f t="shared" ref="D79" si="87">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="e">
-        <f t="shared" ref="A80:A143" si="88">#REF!-0.2</f>
+        <f t="shared" ref="A80" si="88">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="B80" t="e">
-        <f t="shared" ref="B80:B143" si="89">#REF!-0.2</f>
+        <f t="shared" ref="B80" si="89">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="C80" t="e">
-        <f t="shared" ref="C80:C143" si="90">#REF!-0.2</f>
+        <f t="shared" ref="C80" si="90">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="D80" t="e">
-        <f t="shared" ref="D80:D143" si="91">#REF!-0.2</f>
+        <f t="shared" ref="D80" si="91">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="e">
-        <f t="shared" ref="A81:A144" si="92">#REF!-0.2</f>
+        <f t="shared" ref="A81" si="92">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="B81" t="e">
-        <f t="shared" ref="B81:B144" si="93">#REF!-0.2</f>
+        <f t="shared" ref="B81" si="93">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="C81" t="e">
-        <f t="shared" ref="C81:C144" si="94">#REF!-0.2</f>
+        <f t="shared" ref="C81" si="94">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="D81" t="e">
-        <f t="shared" ref="D81:D144" si="95">#REF!-0.2</f>
+        <f t="shared" ref="D81" si="95">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="e">
-        <f t="shared" ref="A82:A145" si="96">#REF!-0.2</f>
+        <f t="shared" ref="A82" si="96">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="B82" t="e">
-        <f t="shared" ref="B82:B145" si="97">#REF!-0.2</f>
+        <f t="shared" ref="B82" si="97">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="C82" t="e">
-        <f t="shared" ref="C82:C145" si="98">#REF!-0.2</f>
+        <f t="shared" ref="C82" si="98">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="D82" t="e">
-        <f t="shared" ref="D82:D145" si="99">#REF!-0.2</f>
+        <f t="shared" ref="D82" si="99">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="e">
-        <f t="shared" ref="A83:A146" si="100">#REF!-0.2</f>
+        <f t="shared" ref="A83" si="100">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="B83" t="e">
-        <f t="shared" ref="B83:B146" si="101">#REF!-0.2</f>
+        <f t="shared" ref="B83" si="101">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="C83" t="e">
-        <f t="shared" ref="C83:C146" si="102">#REF!-0.2</f>
+        <f t="shared" ref="C83" si="102">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="D83" t="e">
-        <f t="shared" ref="D83:D146" si="103">#REF!-0.2</f>
+        <f t="shared" ref="D83" si="103">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="e">
-        <f t="shared" ref="A84:A147" si="104">#REF!-0.2</f>
+        <f t="shared" ref="A84" si="104">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="B84" t="e">
-        <f t="shared" ref="B84:B147" si="105">#REF!-0.2</f>
+        <f t="shared" ref="B84" si="105">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="C84" t="e">
-        <f t="shared" ref="C84:C147" si="106">#REF!-0.2</f>
+        <f t="shared" ref="C84" si="106">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="D84" t="e">
-        <f t="shared" ref="D84:D147" si="107">#REF!-0.2</f>
+        <f t="shared" ref="D84" si="107">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="e">
-        <f t="shared" ref="A85:A148" si="108">#REF!-0.2</f>
+        <f t="shared" ref="A85" si="108">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="B85" t="e">
-        <f t="shared" ref="B85:B148" si="109">#REF!-0.2</f>
+        <f t="shared" ref="B85" si="109">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="C85" t="e">
-        <f t="shared" ref="C85:C148" si="110">#REF!-0.2</f>
+        <f t="shared" ref="C85" si="110">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="D85" t="e">
-        <f t="shared" ref="D85:D148" si="111">#REF!-0.2</f>
+        <f t="shared" ref="D85" si="111">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="e">
-        <f t="shared" ref="A86:A149" si="112">#REF!-0.2</f>
+        <f t="shared" ref="A86" si="112">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="B86" t="e">
-        <f t="shared" ref="B86:B149" si="113">#REF!-0.2</f>
+        <f t="shared" ref="B86" si="113">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="C86" t="e">
-        <f t="shared" ref="C86:C149" si="114">#REF!-0.2</f>
+        <f t="shared" ref="C86" si="114">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="D86" t="e">
-        <f t="shared" ref="D86:D149" si="115">#REF!-0.2</f>
+        <f t="shared" ref="D86" si="115">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="e">
-        <f t="shared" ref="A87:A150" si="116">#REF!-0.2</f>
+        <f t="shared" ref="A87" si="116">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="B87" t="e">
-        <f t="shared" ref="B87:B150" si="117">#REF!-0.2</f>
+        <f t="shared" ref="B87" si="117">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="C87" t="e">
-        <f t="shared" ref="C87:C150" si="118">#REF!-0.2</f>
+        <f t="shared" ref="C87" si="118">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="D87" t="e">
-        <f t="shared" ref="D87:D150" si="119">#REF!-0.2</f>
+        <f t="shared" ref="D87" si="119">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" t="e">
-        <f t="shared" ref="A88:A151" si="120">#REF!-0.2</f>
+        <f t="shared" ref="A88" si="120">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="B88" t="e">
-        <f t="shared" ref="B88:B151" si="121">#REF!-0.2</f>
+        <f t="shared" ref="B88" si="121">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="C88" t="e">
-        <f t="shared" ref="C88:C151" si="122">#REF!-0.2</f>
+        <f t="shared" ref="C88" si="122">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="D88" t="e">
-        <f t="shared" ref="D88:D151" si="123">#REF!-0.2</f>
+        <f t="shared" ref="D88" si="123">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="e">
-        <f t="shared" ref="A89:A152" si="124">#REF!-0.2</f>
+        <f t="shared" ref="A89" si="124">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="B89" t="e">
-        <f t="shared" ref="B89:B152" si="125">#REF!-0.2</f>
+        <f t="shared" ref="B89" si="125">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="C89" t="e">
-        <f t="shared" ref="C89:C152" si="126">#REF!-0.2</f>
+        <f t="shared" ref="C89" si="126">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="D89" t="e">
-        <f t="shared" ref="D89:D152" si="127">#REF!-0.2</f>
+        <f t="shared" ref="D89" si="127">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="e">
-        <f t="shared" ref="A90:A153" si="128">#REF!-0.2</f>
+        <f t="shared" ref="A90" si="128">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="B90" t="e">
-        <f t="shared" ref="B90:B153" si="129">#REF!-0.2</f>
+        <f t="shared" ref="B90" si="129">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="C90" t="e">
-        <f t="shared" ref="C90:C153" si="130">#REF!-0.2</f>
+        <f t="shared" ref="C90" si="130">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="D90" t="e">
-        <f t="shared" ref="D90:D153" si="131">#REF!-0.2</f>
+        <f t="shared" ref="D90" si="131">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="e">
-        <f t="shared" ref="A91:A154" si="132">#REF!-0.2</f>
+        <f t="shared" ref="A91" si="132">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="B91" t="e">
-        <f t="shared" ref="B91:B154" si="133">#REF!-0.2</f>
+        <f t="shared" ref="B91" si="133">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="C91" t="e">
-        <f t="shared" ref="C91:C154" si="134">#REF!-0.2</f>
+        <f t="shared" ref="C91" si="134">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="D91" t="e">
-        <f t="shared" ref="D91:D154" si="135">#REF!-0.2</f>
+        <f t="shared" ref="D91" si="135">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" t="e">
-        <f t="shared" ref="A92:A155" si="136">#REF!-0.2</f>
+        <f t="shared" ref="A92" si="136">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="B92" t="e">
-        <f t="shared" ref="B92:B155" si="137">#REF!-0.2</f>
+        <f t="shared" ref="B92" si="137">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="C92" t="e">
-        <f t="shared" ref="C92:C155" si="138">#REF!-0.2</f>
+        <f t="shared" ref="C92" si="138">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="D92" t="e">
-        <f t="shared" ref="D92:D155" si="139">#REF!-0.2</f>
+        <f t="shared" ref="D92" si="139">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="e">
-        <f t="shared" ref="A93:A156" si="140">#REF!-0.2</f>
+        <f t="shared" ref="A93" si="140">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="B93" t="e">
-        <f t="shared" ref="B93:B156" si="141">#REF!-0.2</f>
+        <f t="shared" ref="B93" si="141">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="C93" t="e">
-        <f t="shared" ref="C93:C156" si="142">#REF!-0.2</f>
+        <f t="shared" ref="C93" si="142">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="D93" t="e">
-        <f t="shared" ref="D93:D156" si="143">#REF!-0.2</f>
+        <f t="shared" ref="D93" si="143">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" t="e">
-        <f t="shared" ref="A94:A157" si="144">#REF!-0.2</f>
+        <f t="shared" ref="A94" si="144">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="B94" t="e">
-        <f t="shared" ref="B94:B157" si="145">#REF!-0.2</f>
+        <f t="shared" ref="B94" si="145">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="C94" t="e">
-        <f t="shared" ref="C94:C157" si="146">#REF!-0.2</f>
+        <f t="shared" ref="C94" si="146">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="D94" t="e">
-        <f t="shared" ref="D94:D157" si="147">#REF!-0.2</f>
+        <f t="shared" ref="D94" si="147">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" t="e">
-        <f t="shared" ref="A95:A158" si="148">#REF!-0.2</f>
+        <f t="shared" ref="A95" si="148">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="B95" t="e">
-        <f t="shared" ref="B95:B158" si="149">#REF!-0.2</f>
+        <f t="shared" ref="B95" si="149">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="C95" t="e">
-        <f t="shared" ref="C95:C158" si="150">#REF!-0.2</f>
+        <f t="shared" ref="C95" si="150">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="D95" t="e">
-        <f t="shared" ref="D95:D158" si="151">#REF!-0.2</f>
+        <f t="shared" ref="D95" si="151">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" t="e">
-        <f t="shared" ref="A96:A159" si="152">#REF!-0.2</f>
+        <f t="shared" ref="A96" si="152">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="B96" t="e">
-        <f t="shared" ref="B96:B159" si="153">#REF!-0.2</f>
+        <f t="shared" ref="B96" si="153">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="C96" t="e">
-        <f t="shared" ref="C96:C159" si="154">#REF!-0.2</f>
+        <f t="shared" ref="C96" si="154">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="D96" t="e">
-        <f t="shared" ref="D96:D159" si="155">#REF!-0.2</f>
+        <f t="shared" ref="D96" si="155">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" t="e">
-        <f t="shared" ref="A97:A160" si="156">#REF!-0.2</f>
+        <f t="shared" ref="A97" si="156">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="B97" t="e">
-        <f t="shared" ref="B97:B160" si="157">#REF!-0.2</f>
+        <f t="shared" ref="B97" si="157">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="C97" t="e">
-        <f t="shared" ref="C97:C160" si="158">#REF!-0.2</f>
+        <f t="shared" ref="C97" si="158">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="D97" t="e">
-        <f t="shared" ref="D97:D160" si="159">#REF!-0.2</f>
+        <f t="shared" ref="D97" si="159">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" t="e">
-        <f t="shared" ref="A98:A161" si="160">#REF!-0.2</f>
+        <f t="shared" ref="A98" si="160">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="B98" t="e">
-        <f t="shared" ref="B98:B161" si="161">#REF!-0.2</f>
+        <f t="shared" ref="B98" si="161">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="C98" t="e">
-        <f t="shared" ref="C98:C161" si="162">#REF!-0.2</f>
+        <f t="shared" ref="C98" si="162">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="D98" t="e">
-        <f t="shared" ref="D98:D161" si="163">#REF!-0.2</f>
+        <f t="shared" ref="D98" si="163">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" t="e">
-        <f t="shared" ref="A99:A162" si="164">#REF!-0.2</f>
+        <f t="shared" ref="A99" si="164">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="B99" t="e">
-        <f t="shared" ref="B99:B162" si="165">#REF!-0.2</f>
+        <f t="shared" ref="B99" si="165">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="C99" t="e">
-        <f t="shared" ref="C99:C162" si="166">#REF!-0.2</f>
+        <f t="shared" ref="C99" si="166">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="D99" t="e">
-        <f t="shared" ref="D99:D162" si="167">#REF!-0.2</f>
+        <f t="shared" ref="D99" si="167">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" t="e">
-        <f t="shared" ref="A100:A163" si="168">#REF!-0.2</f>
+        <f t="shared" ref="A100" si="168">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="B100" t="e">
-        <f t="shared" ref="B100:B163" si="169">#REF!-0.2</f>
+        <f t="shared" ref="B100" si="169">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="C100" t="e">
-        <f t="shared" ref="C100:C163" si="170">#REF!-0.2</f>
+        <f t="shared" ref="C100" si="170">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="D100" t="e">
-        <f t="shared" ref="D100:D163" si="171">#REF!-0.2</f>
+        <f t="shared" ref="D100" si="171">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" t="e">
-        <f t="shared" ref="A101:A164" si="172">#REF!-0.2</f>
+        <f t="shared" ref="A101" si="172">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="B101" t="e">
-        <f t="shared" ref="B101:B164" si="173">#REF!-0.2</f>
+        <f t="shared" ref="B101" si="173">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="C101" t="e">
-        <f t="shared" ref="C101:C164" si="174">#REF!-0.2</f>
+        <f t="shared" ref="C101" si="174">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="D101" t="e">
-        <f t="shared" ref="D101:D164" si="175">#REF!-0.2</f>
+        <f t="shared" ref="D101" si="175">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" t="e">
-        <f t="shared" ref="A102:A165" si="176">#REF!-0.2</f>
+        <f t="shared" ref="A102" si="176">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="B102" t="e">
-        <f t="shared" ref="B102:B165" si="177">#REF!-0.2</f>
+        <f t="shared" ref="B102" si="177">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="C102" t="e">
-        <f t="shared" ref="C102:C165" si="178">#REF!-0.2</f>
+        <f t="shared" ref="C102" si="178">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="D102" t="e">
-        <f t="shared" ref="D102:D165" si="179">#REF!-0.2</f>
+        <f t="shared" ref="D102" si="179">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" t="e">
-        <f t="shared" ref="A103:A166" si="180">#REF!-0.2</f>
+        <f t="shared" ref="A103" si="180">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="B103" t="e">
-        <f t="shared" ref="B103:B166" si="181">#REF!-0.2</f>
+        <f t="shared" ref="B103" si="181">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="C103" t="e">
-        <f t="shared" ref="C103:C166" si="182">#REF!-0.2</f>
+        <f t="shared" ref="C103" si="182">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="D103" t="e">
-        <f t="shared" ref="D103:D166" si="183">#REF!-0.2</f>
+        <f t="shared" ref="D103" si="183">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" t="e">
-        <f t="shared" ref="A104:A167" si="184">#REF!-0.2</f>
+        <f t="shared" ref="A104" si="184">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="B104" t="e">
-        <f t="shared" ref="B104:B167" si="185">#REF!-0.2</f>
+        <f t="shared" ref="B104" si="185">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="C104" t="e">
-        <f t="shared" ref="C104:C167" si="186">#REF!-0.2</f>
+        <f t="shared" ref="C104" si="186">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="D104" t="e">
-        <f t="shared" ref="D104:D167" si="187">#REF!-0.2</f>
+        <f t="shared" ref="D104" si="187">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" t="e">
-        <f t="shared" ref="A105:A168" si="188">#REF!-0.2</f>
+        <f t="shared" ref="A105" si="188">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="B105" t="e">
-        <f t="shared" ref="B105:B168" si="189">#REF!-0.2</f>
+        <f t="shared" ref="B105" si="189">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="C105" t="e">
-        <f t="shared" ref="C105:C168" si="190">#REF!-0.2</f>
+        <f t="shared" ref="C105" si="190">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="D105" t="e">
-        <f t="shared" ref="D105:D168" si="191">#REF!-0.2</f>
+        <f t="shared" ref="D105" si="191">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" t="e">
-        <f t="shared" ref="A106:A169" si="192">#REF!-0.2</f>
+        <f t="shared" ref="A106" si="192">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="B106" t="e">
-        <f t="shared" ref="B106:B169" si="193">#REF!-0.2</f>
+        <f t="shared" ref="B106" si="193">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="C106" t="e">
-        <f t="shared" ref="C106:C169" si="194">#REF!-0.2</f>
+        <f t="shared" ref="C106" si="194">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="D106" t="e">
-        <f t="shared" ref="D106:D169" si="195">#REF!-0.2</f>
+        <f t="shared" ref="D106" si="195">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" t="e">
-        <f t="shared" ref="A107:A170" si="196">#REF!-0.2</f>
+        <f t="shared" ref="A107" si="196">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="B107" t="e">
-        <f t="shared" ref="B107:B170" si="197">#REF!-0.2</f>
+        <f t="shared" ref="B107" si="197">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="C107" t="e">
-        <f t="shared" ref="C107:C170" si="198">#REF!-0.2</f>
+        <f t="shared" ref="C107" si="198">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="D107" t="e">
-        <f t="shared" ref="D107:D170" si="199">#REF!-0.2</f>
+        <f t="shared" ref="D107" si="199">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" t="e">
-        <f t="shared" ref="A108:A171" si="200">#REF!-0.2</f>
+        <f t="shared" ref="A108" si="200">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="B108" t="e">
-        <f t="shared" ref="B108:B171" si="201">#REF!-0.2</f>
+        <f t="shared" ref="B108" si="201">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="C108" t="e">
-        <f t="shared" ref="C108:C171" si="202">#REF!-0.2</f>
+        <f t="shared" ref="C108" si="202">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="D108" t="e">
-        <f t="shared" ref="D108:D171" si="203">#REF!-0.2</f>
+        <f t="shared" ref="D108" si="203">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" t="e">
-        <f t="shared" ref="A109:A172" si="204">#REF!-0.2</f>
+        <f t="shared" ref="A109" si="204">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="B109" t="e">
-        <f t="shared" ref="B109:B172" si="205">#REF!-0.2</f>
+        <f t="shared" ref="B109" si="205">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="C109" t="e">
-        <f t="shared" ref="C109:C172" si="206">#REF!-0.2</f>
+        <f t="shared" ref="C109" si="206">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="D109" t="e">
-        <f t="shared" ref="D109:D172" si="207">#REF!-0.2</f>
+        <f t="shared" ref="D109" si="207">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" t="e">
-        <f t="shared" ref="A110:A173" si="208">#REF!-0.2</f>
+        <f t="shared" ref="A110" si="208">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="B110" t="e">
-        <f t="shared" ref="B110:B173" si="209">#REF!-0.2</f>
+        <f t="shared" ref="B110" si="209">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="C110" t="e">
-        <f t="shared" ref="C110:C173" si="210">#REF!-0.2</f>
+        <f t="shared" ref="C110" si="210">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
       <c r="D110" t="e">
-        <f t="shared" ref="D110:D173" si="211">#REF!-0.2</f>
+        <f t="shared" ref="D110" si="211">#REF!-0.2</f>
         <v>#REF!</v>
       </c>
     </row>
@@ -51273,6121 +51302,6121 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" t="e">
-        <f t="shared" ref="A112:A175" si="212">#REF!-0.1</f>
+        <f t="shared" ref="A112" si="212">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B112" t="e">
-        <f t="shared" ref="B112:B175" si="213">#REF!-0.1</f>
+        <f t="shared" ref="B112" si="213">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C112" t="e">
-        <f t="shared" ref="C112:C175" si="214">#REF!-0.1</f>
+        <f t="shared" ref="C112" si="214">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D112" t="e">
-        <f t="shared" ref="D112:D175" si="215">#REF!-0.1</f>
+        <f t="shared" ref="D112" si="215">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" t="e">
-        <f t="shared" ref="A113:A176" si="216">#REF!-0.1</f>
+        <f t="shared" ref="A113" si="216">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B113" t="e">
-        <f t="shared" ref="B113:B176" si="217">#REF!-0.1</f>
+        <f t="shared" ref="B113" si="217">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C113" t="e">
-        <f t="shared" ref="C113:C176" si="218">#REF!-0.1</f>
+        <f t="shared" ref="C113" si="218">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D113" t="e">
-        <f t="shared" ref="D113:D176" si="219">#REF!-0.1</f>
+        <f t="shared" ref="D113" si="219">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" t="e">
-        <f t="shared" ref="A114:A177" si="220">#REF!-0.1</f>
+        <f t="shared" ref="A114" si="220">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B114" t="e">
-        <f t="shared" ref="B114:B177" si="221">#REF!-0.1</f>
+        <f t="shared" ref="B114" si="221">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C114" t="e">
-        <f t="shared" ref="C114:C177" si="222">#REF!-0.1</f>
+        <f t="shared" ref="C114" si="222">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D114" t="e">
-        <f t="shared" ref="D114:D177" si="223">#REF!-0.1</f>
+        <f t="shared" ref="D114" si="223">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" t="e">
-        <f t="shared" ref="A115:A178" si="224">#REF!-0.1</f>
+        <f t="shared" ref="A115" si="224">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B115" t="e">
-        <f t="shared" ref="B115:B178" si="225">#REF!-0.1</f>
+        <f t="shared" ref="B115" si="225">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C115" t="e">
-        <f t="shared" ref="C115:C178" si="226">#REF!-0.1</f>
+        <f t="shared" ref="C115" si="226">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D115" t="e">
-        <f t="shared" ref="D115:D178" si="227">#REF!-0.1</f>
+        <f t="shared" ref="D115" si="227">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" t="e">
-        <f t="shared" ref="A116:A179" si="228">#REF!-0.1</f>
+        <f t="shared" ref="A116" si="228">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B116" t="e">
-        <f t="shared" ref="B116:B179" si="229">#REF!-0.1</f>
+        <f t="shared" ref="B116" si="229">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C116" t="e">
-        <f t="shared" ref="C116:C179" si="230">#REF!-0.1</f>
+        <f t="shared" ref="C116" si="230">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D116" t="e">
-        <f t="shared" ref="D116:D179" si="231">#REF!-0.1</f>
+        <f t="shared" ref="D116" si="231">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" t="e">
-        <f t="shared" ref="A117:A180" si="232">#REF!-0.1</f>
+        <f t="shared" ref="A117" si="232">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B117" t="e">
-        <f t="shared" ref="B117:B180" si="233">#REF!-0.1</f>
+        <f t="shared" ref="B117" si="233">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C117" t="e">
-        <f t="shared" ref="C117:C180" si="234">#REF!-0.1</f>
+        <f t="shared" ref="C117" si="234">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D117" t="e">
-        <f t="shared" ref="D117:D180" si="235">#REF!-0.1</f>
+        <f t="shared" ref="D117" si="235">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" t="e">
-        <f t="shared" ref="A118:A181" si="236">#REF!-0.1</f>
+        <f t="shared" ref="A118" si="236">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B118" t="e">
-        <f t="shared" ref="B118:B181" si="237">#REF!-0.1</f>
+        <f t="shared" ref="B118" si="237">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C118" t="e">
-        <f t="shared" ref="C118:C181" si="238">#REF!-0.1</f>
+        <f t="shared" ref="C118" si="238">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D118" t="e">
-        <f t="shared" ref="D118:D181" si="239">#REF!-0.1</f>
+        <f t="shared" ref="D118" si="239">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" t="e">
-        <f t="shared" ref="A119:A182" si="240">#REF!-0.1</f>
+        <f t="shared" ref="A119" si="240">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B119" t="e">
-        <f t="shared" ref="B119:B182" si="241">#REF!-0.1</f>
+        <f t="shared" ref="B119" si="241">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C119" t="e">
-        <f t="shared" ref="C119:C182" si="242">#REF!-0.1</f>
+        <f t="shared" ref="C119" si="242">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D119" t="e">
-        <f t="shared" ref="D119:D182" si="243">#REF!-0.1</f>
+        <f t="shared" ref="D119" si="243">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" t="e">
-        <f t="shared" ref="A120:A183" si="244">#REF!-0.1</f>
+        <f t="shared" ref="A120" si="244">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B120" t="e">
-        <f t="shared" ref="B120:B183" si="245">#REF!-0.1</f>
+        <f t="shared" ref="B120" si="245">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C120" t="e">
-        <f t="shared" ref="C120:C183" si="246">#REF!-0.1</f>
+        <f t="shared" ref="C120" si="246">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D120" t="e">
-        <f t="shared" ref="D120:D183" si="247">#REF!-0.1</f>
+        <f t="shared" ref="D120" si="247">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" t="e">
-        <f t="shared" ref="A121:A184" si="248">#REF!-0.1</f>
+        <f t="shared" ref="A121" si="248">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B121" t="e">
-        <f t="shared" ref="B121:B184" si="249">#REF!-0.1</f>
+        <f t="shared" ref="B121" si="249">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C121" t="e">
-        <f t="shared" ref="C121:C184" si="250">#REF!-0.1</f>
+        <f t="shared" ref="C121" si="250">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D121" t="e">
-        <f t="shared" ref="D121:D184" si="251">#REF!-0.1</f>
+        <f t="shared" ref="D121" si="251">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" t="e">
-        <f t="shared" ref="A122:A185" si="252">#REF!-0.1</f>
+        <f t="shared" ref="A122" si="252">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B122" t="e">
-        <f t="shared" ref="B122:B185" si="253">#REF!-0.1</f>
+        <f t="shared" ref="B122" si="253">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C122" t="e">
-        <f t="shared" ref="C122:C185" si="254">#REF!-0.1</f>
+        <f t="shared" ref="C122" si="254">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D122" t="e">
-        <f t="shared" ref="D122:D185" si="255">#REF!-0.1</f>
+        <f t="shared" ref="D122" si="255">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" t="e">
-        <f t="shared" ref="A123:A186" si="256">#REF!-0.1</f>
+        <f t="shared" ref="A123" si="256">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B123" t="e">
-        <f t="shared" ref="B123:B186" si="257">#REF!-0.1</f>
+        <f t="shared" ref="B123" si="257">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C123" t="e">
-        <f t="shared" ref="C123:C186" si="258">#REF!-0.1</f>
+        <f t="shared" ref="C123" si="258">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D123" t="e">
-        <f t="shared" ref="D123:D186" si="259">#REF!-0.1</f>
+        <f t="shared" ref="D123" si="259">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" t="e">
-        <f t="shared" ref="A124:A187" si="260">#REF!-0.1</f>
+        <f t="shared" ref="A124" si="260">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B124" t="e">
-        <f t="shared" ref="B124:B187" si="261">#REF!-0.1</f>
+        <f t="shared" ref="B124" si="261">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C124" t="e">
-        <f t="shared" ref="C124:C187" si="262">#REF!-0.1</f>
+        <f t="shared" ref="C124" si="262">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D124" t="e">
-        <f t="shared" ref="D124:D187" si="263">#REF!-0.1</f>
+        <f t="shared" ref="D124" si="263">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" t="e">
-        <f t="shared" ref="A125:A188" si="264">#REF!-0.1</f>
+        <f t="shared" ref="A125" si="264">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B125" t="e">
-        <f t="shared" ref="B125:B188" si="265">#REF!-0.1</f>
+        <f t="shared" ref="B125" si="265">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C125" t="e">
-        <f t="shared" ref="C125:C188" si="266">#REF!-0.1</f>
+        <f t="shared" ref="C125" si="266">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D125" t="e">
-        <f t="shared" ref="D125:D188" si="267">#REF!-0.1</f>
+        <f t="shared" ref="D125" si="267">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" t="e">
-        <f t="shared" ref="A126:A189" si="268">#REF!-0.1</f>
+        <f t="shared" ref="A126" si="268">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B126" t="e">
-        <f t="shared" ref="B126:B189" si="269">#REF!-0.1</f>
+        <f t="shared" ref="B126" si="269">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C126" t="e">
-        <f t="shared" ref="C126:C189" si="270">#REF!-0.1</f>
+        <f t="shared" ref="C126" si="270">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D126" t="e">
-        <f t="shared" ref="D126:D189" si="271">#REF!-0.1</f>
+        <f t="shared" ref="D126" si="271">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" t="e">
-        <f t="shared" ref="A127:A190" si="272">#REF!-0.1</f>
+        <f t="shared" ref="A127" si="272">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B127" t="e">
-        <f t="shared" ref="B127:B190" si="273">#REF!-0.1</f>
+        <f t="shared" ref="B127" si="273">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C127" t="e">
-        <f t="shared" ref="C127:C190" si="274">#REF!-0.1</f>
+        <f t="shared" ref="C127" si="274">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D127" t="e">
-        <f t="shared" ref="D127:D190" si="275">#REF!-0.1</f>
+        <f t="shared" ref="D127" si="275">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" t="e">
-        <f t="shared" ref="A128:A191" si="276">#REF!-0.1</f>
+        <f t="shared" ref="A128" si="276">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B128" t="e">
-        <f t="shared" ref="B128:B191" si="277">#REF!-0.1</f>
+        <f t="shared" ref="B128" si="277">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C128" t="e">
-        <f t="shared" ref="C128:C191" si="278">#REF!-0.1</f>
+        <f t="shared" ref="C128" si="278">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D128" t="e">
-        <f t="shared" ref="D128:D191" si="279">#REF!-0.1</f>
+        <f t="shared" ref="D128" si="279">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" t="e">
-        <f t="shared" ref="A129:A192" si="280">#REF!-0.1</f>
+        <f t="shared" ref="A129" si="280">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B129" t="e">
-        <f t="shared" ref="B129:B192" si="281">#REF!-0.1</f>
+        <f t="shared" ref="B129" si="281">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C129" t="e">
-        <f t="shared" ref="C129:C192" si="282">#REF!-0.1</f>
+        <f t="shared" ref="C129" si="282">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D129" t="e">
-        <f t="shared" ref="D129:D192" si="283">#REF!-0.1</f>
+        <f t="shared" ref="D129" si="283">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" t="e">
-        <f t="shared" ref="A130:A193" si="284">#REF!-0.1</f>
+        <f t="shared" ref="A130" si="284">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B130" t="e">
-        <f t="shared" ref="B130:B193" si="285">#REF!-0.1</f>
+        <f t="shared" ref="B130" si="285">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C130" t="e">
-        <f t="shared" ref="C130:C193" si="286">#REF!-0.1</f>
+        <f t="shared" ref="C130" si="286">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D130" t="e">
-        <f t="shared" ref="D130:D193" si="287">#REF!-0.1</f>
+        <f t="shared" ref="D130" si="287">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" t="e">
-        <f t="shared" ref="A131:A194" si="288">#REF!-0.1</f>
+        <f t="shared" ref="A131" si="288">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B131" t="e">
-        <f t="shared" ref="B131:B194" si="289">#REF!-0.1</f>
+        <f t="shared" ref="B131" si="289">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C131" t="e">
-        <f t="shared" ref="C131:C194" si="290">#REF!-0.1</f>
+        <f t="shared" ref="C131" si="290">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D131" t="e">
-        <f t="shared" ref="D131:D194" si="291">#REF!-0.1</f>
+        <f t="shared" ref="D131" si="291">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" t="e">
-        <f t="shared" ref="A132:A195" si="292">#REF!-0.1</f>
+        <f t="shared" ref="A132" si="292">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B132" t="e">
-        <f t="shared" ref="B132:B195" si="293">#REF!-0.1</f>
+        <f t="shared" ref="B132" si="293">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C132" t="e">
-        <f t="shared" ref="C132:C195" si="294">#REF!-0.1</f>
+        <f t="shared" ref="C132" si="294">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D132" t="e">
-        <f t="shared" ref="D132:D195" si="295">#REF!-0.1</f>
+        <f t="shared" ref="D132" si="295">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" t="e">
-        <f t="shared" ref="A133:A196" si="296">#REF!-0.1</f>
+        <f t="shared" ref="A133" si="296">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B133" t="e">
-        <f t="shared" ref="B133:B196" si="297">#REF!-0.1</f>
+        <f t="shared" ref="B133" si="297">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C133" t="e">
-        <f t="shared" ref="C133:C196" si="298">#REF!-0.1</f>
+        <f t="shared" ref="C133" si="298">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D133" t="e">
-        <f t="shared" ref="D133:D196" si="299">#REF!-0.1</f>
+        <f t="shared" ref="D133" si="299">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" t="e">
-        <f t="shared" ref="A134:A197" si="300">#REF!-0.1</f>
+        <f t="shared" ref="A134" si="300">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B134" t="e">
-        <f t="shared" ref="B134:B197" si="301">#REF!-0.1</f>
+        <f t="shared" ref="B134" si="301">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C134" t="e">
-        <f t="shared" ref="C134:C197" si="302">#REF!-0.1</f>
+        <f t="shared" ref="C134" si="302">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D134" t="e">
-        <f t="shared" ref="D134:D197" si="303">#REF!-0.1</f>
+        <f t="shared" ref="D134" si="303">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" t="e">
-        <f t="shared" ref="A135:A198" si="304">#REF!-0.1</f>
+        <f t="shared" ref="A135" si="304">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B135" t="e">
-        <f t="shared" ref="B135:B198" si="305">#REF!-0.1</f>
+        <f t="shared" ref="B135" si="305">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C135" t="e">
-        <f t="shared" ref="C135:C198" si="306">#REF!-0.1</f>
+        <f t="shared" ref="C135" si="306">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D135" t="e">
-        <f t="shared" ref="D135:D198" si="307">#REF!-0.1</f>
+        <f t="shared" ref="D135" si="307">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" t="e">
-        <f t="shared" ref="A136:A199" si="308">#REF!-0.1</f>
+        <f t="shared" ref="A136" si="308">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B136" t="e">
-        <f t="shared" ref="B136:B199" si="309">#REF!-0.1</f>
+        <f t="shared" ref="B136" si="309">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C136" t="e">
-        <f t="shared" ref="C136:C199" si="310">#REF!-0.1</f>
+        <f t="shared" ref="C136" si="310">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D136" t="e">
-        <f t="shared" ref="D136:D199" si="311">#REF!-0.1</f>
+        <f t="shared" ref="D136" si="311">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" t="e">
-        <f t="shared" ref="A137:A200" si="312">#REF!-0.1</f>
+        <f t="shared" ref="A137" si="312">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B137" t="e">
-        <f t="shared" ref="B137:B200" si="313">#REF!-0.1</f>
+        <f t="shared" ref="B137" si="313">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C137" t="e">
-        <f t="shared" ref="C137:C200" si="314">#REF!-0.1</f>
+        <f t="shared" ref="C137" si="314">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D137" t="e">
-        <f t="shared" ref="D137:D200" si="315">#REF!-0.1</f>
+        <f t="shared" ref="D137" si="315">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" t="e">
-        <f t="shared" ref="A138:A201" si="316">#REF!-0.1</f>
+        <f t="shared" ref="A138" si="316">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B138" t="e">
-        <f t="shared" ref="B138:B201" si="317">#REF!-0.1</f>
+        <f t="shared" ref="B138" si="317">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C138" t="e">
-        <f t="shared" ref="C138:C201" si="318">#REF!-0.1</f>
+        <f t="shared" ref="C138" si="318">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D138" t="e">
-        <f t="shared" ref="D138:D201" si="319">#REF!-0.1</f>
+        <f t="shared" ref="D138" si="319">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" t="e">
-        <f t="shared" ref="A139:A202" si="320">#REF!-0.1</f>
+        <f t="shared" ref="A139" si="320">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B139" t="e">
-        <f t="shared" ref="B139:B202" si="321">#REF!-0.1</f>
+        <f t="shared" ref="B139" si="321">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C139" t="e">
-        <f t="shared" ref="C139:C202" si="322">#REF!-0.1</f>
+        <f t="shared" ref="C139" si="322">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D139" t="e">
-        <f t="shared" ref="D139:D202" si="323">#REF!-0.1</f>
+        <f t="shared" ref="D139" si="323">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" t="e">
-        <f t="shared" ref="A140:A203" si="324">#REF!-0.1</f>
+        <f t="shared" ref="A140" si="324">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B140" t="e">
-        <f t="shared" ref="B140:B203" si="325">#REF!-0.1</f>
+        <f t="shared" ref="B140" si="325">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C140" t="e">
-        <f t="shared" ref="C140:C203" si="326">#REF!-0.1</f>
+        <f t="shared" ref="C140" si="326">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D140" t="e">
-        <f t="shared" ref="D140:D203" si="327">#REF!-0.1</f>
+        <f t="shared" ref="D140" si="327">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" t="e">
-        <f t="shared" ref="A141:A204" si="328">#REF!-0.1</f>
+        <f t="shared" ref="A141" si="328">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B141" t="e">
-        <f t="shared" ref="B141:B204" si="329">#REF!-0.1</f>
+        <f t="shared" ref="B141" si="329">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C141" t="e">
-        <f t="shared" ref="C141:C204" si="330">#REF!-0.1</f>
+        <f t="shared" ref="C141" si="330">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D141" t="e">
-        <f t="shared" ref="D141:D204" si="331">#REF!-0.1</f>
+        <f t="shared" ref="D141" si="331">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" t="e">
-        <f t="shared" ref="A142:A205" si="332">#REF!-0.1</f>
+        <f t="shared" ref="A142" si="332">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B142" t="e">
-        <f t="shared" ref="B142:B205" si="333">#REF!-0.1</f>
+        <f t="shared" ref="B142" si="333">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C142" t="e">
-        <f t="shared" ref="C142:C205" si="334">#REF!-0.1</f>
+        <f t="shared" ref="C142" si="334">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D142" t="e">
-        <f t="shared" ref="D142:D205" si="335">#REF!-0.1</f>
+        <f t="shared" ref="D142" si="335">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" t="e">
-        <f t="shared" ref="A143:A206" si="336">#REF!-0.1</f>
+        <f t="shared" ref="A143" si="336">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B143" t="e">
-        <f t="shared" ref="B143:B206" si="337">#REF!-0.1</f>
+        <f t="shared" ref="B143" si="337">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C143" t="e">
-        <f t="shared" ref="C143:C206" si="338">#REF!-0.1</f>
+        <f t="shared" ref="C143" si="338">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D143" t="e">
-        <f t="shared" ref="D143:D206" si="339">#REF!-0.1</f>
+        <f t="shared" ref="D143" si="339">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" t="e">
-        <f t="shared" ref="A144:A207" si="340">#REF!-0.1</f>
+        <f t="shared" ref="A144" si="340">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B144" t="e">
-        <f t="shared" ref="B144:B207" si="341">#REF!-0.1</f>
+        <f t="shared" ref="B144" si="341">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C144" t="e">
-        <f t="shared" ref="C144:C207" si="342">#REF!-0.1</f>
+        <f t="shared" ref="C144" si="342">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D144" t="e">
-        <f t="shared" ref="D144:D207" si="343">#REF!-0.1</f>
+        <f t="shared" ref="D144" si="343">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" t="e">
-        <f t="shared" ref="A145:A208" si="344">#REF!-0.1</f>
+        <f t="shared" ref="A145" si="344">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B145" t="e">
-        <f t="shared" ref="B145:B208" si="345">#REF!-0.1</f>
+        <f t="shared" ref="B145" si="345">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C145" t="e">
-        <f t="shared" ref="C145:C208" si="346">#REF!-0.1</f>
+        <f t="shared" ref="C145" si="346">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D145" t="e">
-        <f t="shared" ref="D145:D208" si="347">#REF!-0.1</f>
+        <f t="shared" ref="D145" si="347">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" t="e">
-        <f t="shared" ref="A146:A209" si="348">#REF!-0.1</f>
+        <f t="shared" ref="A146" si="348">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B146" t="e">
-        <f t="shared" ref="B146:B209" si="349">#REF!-0.1</f>
+        <f t="shared" ref="B146" si="349">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C146" t="e">
-        <f t="shared" ref="C146:C209" si="350">#REF!-0.1</f>
+        <f t="shared" ref="C146" si="350">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D146" t="e">
-        <f t="shared" ref="D146:D209" si="351">#REF!-0.1</f>
+        <f t="shared" ref="D146" si="351">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" t="e">
-        <f t="shared" ref="A147:A210" si="352">#REF!-0.1</f>
+        <f t="shared" ref="A147" si="352">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B147" t="e">
-        <f t="shared" ref="B147:B210" si="353">#REF!-0.1</f>
+        <f t="shared" ref="B147" si="353">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C147" t="e">
-        <f t="shared" ref="C147:C210" si="354">#REF!-0.1</f>
+        <f t="shared" ref="C147" si="354">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D147" t="e">
-        <f t="shared" ref="D147:D210" si="355">#REF!-0.1</f>
+        <f t="shared" ref="D147" si="355">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" t="e">
-        <f t="shared" ref="A148:A211" si="356">#REF!-0.1</f>
+        <f t="shared" ref="A148" si="356">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B148" t="e">
-        <f t="shared" ref="B148:B211" si="357">#REF!-0.1</f>
+        <f t="shared" ref="B148" si="357">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C148" t="e">
-        <f t="shared" ref="C148:C211" si="358">#REF!-0.1</f>
+        <f t="shared" ref="C148" si="358">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D148" t="e">
-        <f t="shared" ref="D148:D211" si="359">#REF!-0.1</f>
+        <f t="shared" ref="D148" si="359">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" t="e">
-        <f t="shared" ref="A149:A212" si="360">#REF!-0.1</f>
+        <f t="shared" ref="A149" si="360">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B149" t="e">
-        <f t="shared" ref="B149:B212" si="361">#REF!-0.1</f>
+        <f t="shared" ref="B149" si="361">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C149" t="e">
-        <f t="shared" ref="C149:C212" si="362">#REF!-0.1</f>
+        <f t="shared" ref="C149" si="362">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D149" t="e">
-        <f t="shared" ref="D149:D212" si="363">#REF!-0.1</f>
+        <f t="shared" ref="D149" si="363">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" t="e">
-        <f t="shared" ref="A150:A213" si="364">#REF!-0.1</f>
+        <f t="shared" ref="A150" si="364">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B150" t="e">
-        <f t="shared" ref="B150:B213" si="365">#REF!-0.1</f>
+        <f t="shared" ref="B150" si="365">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C150" t="e">
-        <f t="shared" ref="C150:C213" si="366">#REF!-0.1</f>
+        <f t="shared" ref="C150" si="366">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D150" t="e">
-        <f t="shared" ref="D150:D213" si="367">#REF!-0.1</f>
+        <f t="shared" ref="D150" si="367">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151" t="e">
-        <f t="shared" ref="A151:A214" si="368">#REF!-0.1</f>
+        <f t="shared" ref="A151" si="368">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B151" t="e">
-        <f t="shared" ref="B151:B214" si="369">#REF!-0.1</f>
+        <f t="shared" ref="B151" si="369">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C151" t="e">
-        <f t="shared" ref="C151:C214" si="370">#REF!-0.1</f>
+        <f t="shared" ref="C151" si="370">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D151" t="e">
-        <f t="shared" ref="D151:D214" si="371">#REF!-0.1</f>
+        <f t="shared" ref="D151" si="371">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" t="e">
-        <f t="shared" ref="A152:A215" si="372">#REF!-0.1</f>
+        <f t="shared" ref="A152" si="372">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B152" t="e">
-        <f t="shared" ref="B152:B215" si="373">#REF!-0.1</f>
+        <f t="shared" ref="B152" si="373">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C152" t="e">
-        <f t="shared" ref="C152:C215" si="374">#REF!-0.1</f>
+        <f t="shared" ref="C152" si="374">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D152" t="e">
-        <f t="shared" ref="D152:D215" si="375">#REF!-0.1</f>
+        <f t="shared" ref="D152" si="375">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153" t="e">
-        <f t="shared" ref="A153:A216" si="376">#REF!-0.1</f>
+        <f t="shared" ref="A153" si="376">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B153" t="e">
-        <f t="shared" ref="B153:B216" si="377">#REF!-0.1</f>
+        <f t="shared" ref="B153" si="377">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C153" t="e">
-        <f t="shared" ref="C153:C216" si="378">#REF!-0.1</f>
+        <f t="shared" ref="C153" si="378">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D153" t="e">
-        <f t="shared" ref="D153:D216" si="379">#REF!-0.1</f>
+        <f t="shared" ref="D153" si="379">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154" t="e">
-        <f t="shared" ref="A154:A217" si="380">#REF!-0.1</f>
+        <f t="shared" ref="A154" si="380">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B154" t="e">
-        <f t="shared" ref="B154:B217" si="381">#REF!-0.1</f>
+        <f t="shared" ref="B154" si="381">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C154" t="e">
-        <f t="shared" ref="C154:C217" si="382">#REF!-0.1</f>
+        <f t="shared" ref="C154" si="382">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D154" t="e">
-        <f t="shared" ref="D154:D217" si="383">#REF!-0.1</f>
+        <f t="shared" ref="D154" si="383">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" t="e">
-        <f t="shared" ref="A155:A218" si="384">#REF!-0.1</f>
+        <f t="shared" ref="A155" si="384">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B155" t="e">
-        <f t="shared" ref="B155:B218" si="385">#REF!-0.1</f>
+        <f t="shared" ref="B155" si="385">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C155" t="e">
-        <f t="shared" ref="C155:C218" si="386">#REF!-0.1</f>
+        <f t="shared" ref="C155" si="386">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D155" t="e">
-        <f t="shared" ref="D155:D218" si="387">#REF!-0.1</f>
+        <f t="shared" ref="D155" si="387">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156" t="e">
-        <f t="shared" ref="A156:A219" si="388">#REF!-0.1</f>
+        <f t="shared" ref="A156" si="388">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B156" t="e">
-        <f t="shared" ref="B156:B219" si="389">#REF!-0.1</f>
+        <f t="shared" ref="B156" si="389">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C156" t="e">
-        <f t="shared" ref="C156:C219" si="390">#REF!-0.1</f>
+        <f t="shared" ref="C156" si="390">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D156" t="e">
-        <f t="shared" ref="D156:D219" si="391">#REF!-0.1</f>
+        <f t="shared" ref="D156" si="391">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" t="e">
-        <f t="shared" ref="A157:A220" si="392">#REF!-0.1</f>
+        <f t="shared" ref="A157" si="392">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B157" t="e">
-        <f t="shared" ref="B157:B220" si="393">#REF!-0.1</f>
+        <f t="shared" ref="B157" si="393">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C157" t="e">
-        <f t="shared" ref="C157:C220" si="394">#REF!-0.1</f>
+        <f t="shared" ref="C157" si="394">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D157" t="e">
-        <f t="shared" ref="D157:D220" si="395">#REF!-0.1</f>
+        <f t="shared" ref="D157" si="395">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" t="e">
-        <f t="shared" ref="A158:A221" si="396">#REF!-0.1</f>
+        <f t="shared" ref="A158" si="396">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B158" t="e">
-        <f t="shared" ref="B158:B221" si="397">#REF!-0.1</f>
+        <f t="shared" ref="B158" si="397">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C158" t="e">
-        <f t="shared" ref="C158:C221" si="398">#REF!-0.1</f>
+        <f t="shared" ref="C158" si="398">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D158" t="e">
-        <f t="shared" ref="D158:D221" si="399">#REF!-0.1</f>
+        <f t="shared" ref="D158" si="399">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159" t="e">
-        <f t="shared" ref="A159:A222" si="400">#REF!-0.1</f>
+        <f t="shared" ref="A159" si="400">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B159" t="e">
-        <f t="shared" ref="B159:B222" si="401">#REF!-0.1</f>
+        <f t="shared" ref="B159" si="401">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C159" t="e">
-        <f t="shared" ref="C159:C222" si="402">#REF!-0.1</f>
+        <f t="shared" ref="C159" si="402">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D159" t="e">
-        <f t="shared" ref="D159:D222" si="403">#REF!-0.1</f>
+        <f t="shared" ref="D159" si="403">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160" t="e">
-        <f t="shared" ref="A160:A223" si="404">#REF!-0.1</f>
+        <f t="shared" ref="A160" si="404">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B160" t="e">
-        <f t="shared" ref="B160:B223" si="405">#REF!-0.1</f>
+        <f t="shared" ref="B160" si="405">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C160" t="e">
-        <f t="shared" ref="C160:C223" si="406">#REF!-0.1</f>
+        <f t="shared" ref="C160" si="406">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D160" t="e">
-        <f t="shared" ref="D160:D223" si="407">#REF!-0.1</f>
+        <f t="shared" ref="D160" si="407">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" t="e">
-        <f t="shared" ref="A161:A224" si="408">#REF!-0.1</f>
+        <f t="shared" ref="A161" si="408">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B161" t="e">
-        <f t="shared" ref="B161:B224" si="409">#REF!-0.1</f>
+        <f t="shared" ref="B161" si="409">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C161" t="e">
-        <f t="shared" ref="C161:C224" si="410">#REF!-0.1</f>
+        <f t="shared" ref="C161" si="410">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D161" t="e">
-        <f t="shared" ref="D161:D224" si="411">#REF!-0.1</f>
+        <f t="shared" ref="D161" si="411">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162" t="e">
-        <f t="shared" ref="A162:A225" si="412">#REF!-0.1</f>
+        <f t="shared" ref="A162" si="412">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B162" t="e">
-        <f t="shared" ref="B162:B225" si="413">#REF!-0.1</f>
+        <f t="shared" ref="B162" si="413">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C162" t="e">
-        <f t="shared" ref="C162:C225" si="414">#REF!-0.1</f>
+        <f t="shared" ref="C162" si="414">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D162" t="e">
-        <f t="shared" ref="D162:D225" si="415">#REF!-0.1</f>
+        <f t="shared" ref="D162" si="415">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163" t="e">
-        <f t="shared" ref="A163:A226" si="416">#REF!-0.1</f>
+        <f t="shared" ref="A163" si="416">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B163" t="e">
-        <f t="shared" ref="B163:B226" si="417">#REF!-0.1</f>
+        <f t="shared" ref="B163" si="417">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C163" t="e">
-        <f t="shared" ref="C163:C226" si="418">#REF!-0.1</f>
+        <f t="shared" ref="C163" si="418">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D163" t="e">
-        <f t="shared" ref="D163:D226" si="419">#REF!-0.1</f>
+        <f t="shared" ref="D163" si="419">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" t="e">
-        <f t="shared" ref="A164:A227" si="420">#REF!-0.1</f>
+        <f t="shared" ref="A164" si="420">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B164" t="e">
-        <f t="shared" ref="B164:B227" si="421">#REF!-0.1</f>
+        <f t="shared" ref="B164" si="421">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C164" t="e">
-        <f t="shared" ref="C164:C227" si="422">#REF!-0.1</f>
+        <f t="shared" ref="C164" si="422">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D164" t="e">
-        <f t="shared" ref="D164:D227" si="423">#REF!-0.1</f>
+        <f t="shared" ref="D164" si="423">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165" t="e">
-        <f t="shared" ref="A165:A228" si="424">#REF!-0.1</f>
+        <f t="shared" ref="A165" si="424">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B165" t="e">
-        <f t="shared" ref="B165:B228" si="425">#REF!-0.1</f>
+        <f t="shared" ref="B165" si="425">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C165" t="e">
-        <f t="shared" ref="C165:C228" si="426">#REF!-0.1</f>
+        <f t="shared" ref="C165" si="426">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D165" t="e">
-        <f t="shared" ref="D165:D228" si="427">#REF!-0.1</f>
+        <f t="shared" ref="D165" si="427">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166" t="e">
-        <f t="shared" ref="A166:A229" si="428">#REF!-0.1</f>
+        <f t="shared" ref="A166" si="428">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B166" t="e">
-        <f t="shared" ref="B166:B229" si="429">#REF!-0.1</f>
+        <f t="shared" ref="B166" si="429">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C166" t="e">
-        <f t="shared" ref="C166:C229" si="430">#REF!-0.1</f>
+        <f t="shared" ref="C166" si="430">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D166" t="e">
-        <f t="shared" ref="D166:D229" si="431">#REF!-0.1</f>
+        <f t="shared" ref="D166" si="431">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" t="e">
-        <f t="shared" ref="A167:A230" si="432">#REF!-0.1</f>
+        <f t="shared" ref="A167" si="432">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B167" t="e">
-        <f t="shared" ref="B167:B230" si="433">#REF!-0.1</f>
+        <f t="shared" ref="B167" si="433">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C167" t="e">
-        <f t="shared" ref="C167:C230" si="434">#REF!-0.1</f>
+        <f t="shared" ref="C167" si="434">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D167" t="e">
-        <f t="shared" ref="D167:D230" si="435">#REF!-0.1</f>
+        <f t="shared" ref="D167" si="435">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168" t="e">
-        <f t="shared" ref="A168:A231" si="436">#REF!-0.1</f>
+        <f t="shared" ref="A168" si="436">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B168" t="e">
-        <f t="shared" ref="B168:B231" si="437">#REF!-0.1</f>
+        <f t="shared" ref="B168" si="437">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C168" t="e">
-        <f t="shared" ref="C168:C231" si="438">#REF!-0.1</f>
+        <f t="shared" ref="C168" si="438">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D168" t="e">
-        <f t="shared" ref="D168:D231" si="439">#REF!-0.1</f>
+        <f t="shared" ref="D168" si="439">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169" t="e">
-        <f t="shared" ref="A169:A232" si="440">#REF!-0.1</f>
+        <f t="shared" ref="A169" si="440">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B169" t="e">
-        <f t="shared" ref="B169:B232" si="441">#REF!-0.1</f>
+        <f t="shared" ref="B169" si="441">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C169" t="e">
-        <f t="shared" ref="C169:C232" si="442">#REF!-0.1</f>
+        <f t="shared" ref="C169" si="442">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D169" t="e">
-        <f t="shared" ref="D169:D232" si="443">#REF!-0.1</f>
+        <f t="shared" ref="D169" si="443">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170" t="e">
-        <f t="shared" ref="A170:A233" si="444">#REF!-0.1</f>
+        <f t="shared" ref="A170" si="444">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B170" t="e">
-        <f t="shared" ref="B170:B233" si="445">#REF!-0.1</f>
+        <f t="shared" ref="B170" si="445">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C170" t="e">
-        <f t="shared" ref="C170:C233" si="446">#REF!-0.1</f>
+        <f t="shared" ref="C170" si="446">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D170" t="e">
-        <f t="shared" ref="D170:D233" si="447">#REF!-0.1</f>
+        <f t="shared" ref="D170" si="447">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171" t="e">
-        <f t="shared" ref="A171:A234" si="448">#REF!-0.1</f>
+        <f t="shared" ref="A171" si="448">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B171" t="e">
-        <f t="shared" ref="B171:B234" si="449">#REF!-0.1</f>
+        <f t="shared" ref="B171" si="449">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C171" t="e">
-        <f t="shared" ref="C171:C234" si="450">#REF!-0.1</f>
+        <f t="shared" ref="C171" si="450">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D171" t="e">
-        <f t="shared" ref="D171:D234" si="451">#REF!-0.1</f>
+        <f t="shared" ref="D171" si="451">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172" t="e">
-        <f t="shared" ref="A172:A235" si="452">#REF!-0.1</f>
+        <f t="shared" ref="A172" si="452">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B172" t="e">
-        <f t="shared" ref="B172:B235" si="453">#REF!-0.1</f>
+        <f t="shared" ref="B172" si="453">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C172" t="e">
-        <f t="shared" ref="C172:C235" si="454">#REF!-0.1</f>
+        <f t="shared" ref="C172" si="454">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D172" t="e">
-        <f t="shared" ref="D172:D235" si="455">#REF!-0.1</f>
+        <f t="shared" ref="D172" si="455">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" t="e">
-        <f t="shared" ref="A173:A236" si="456">#REF!-0.1</f>
+        <f t="shared" ref="A173" si="456">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B173" t="e">
-        <f t="shared" ref="B173:B236" si="457">#REF!-0.1</f>
+        <f t="shared" ref="B173" si="457">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C173" t="e">
-        <f t="shared" ref="C173:C236" si="458">#REF!-0.1</f>
+        <f t="shared" ref="C173" si="458">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D173" t="e">
-        <f t="shared" ref="D173:D236" si="459">#REF!-0.1</f>
+        <f t="shared" ref="D173" si="459">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174" t="e">
-        <f t="shared" ref="A174:A237" si="460">#REF!-0.1</f>
+        <f t="shared" ref="A174" si="460">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B174" t="e">
-        <f t="shared" ref="B174:B237" si="461">#REF!-0.1</f>
+        <f t="shared" ref="B174" si="461">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C174" t="e">
-        <f t="shared" ref="C174:C237" si="462">#REF!-0.1</f>
+        <f t="shared" ref="C174" si="462">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D174" t="e">
-        <f t="shared" ref="D174:D237" si="463">#REF!-0.1</f>
+        <f t="shared" ref="D174" si="463">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175" t="e">
-        <f t="shared" ref="A175:A238" si="464">#REF!-0.1</f>
+        <f t="shared" ref="A175" si="464">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B175" t="e">
-        <f t="shared" ref="B175:B238" si="465">#REF!-0.1</f>
+        <f t="shared" ref="B175" si="465">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C175" t="e">
-        <f t="shared" ref="C175:C238" si="466">#REF!-0.1</f>
+        <f t="shared" ref="C175" si="466">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D175" t="e">
-        <f t="shared" ref="D175:D238" si="467">#REF!-0.1</f>
+        <f t="shared" ref="D175" si="467">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" t="e">
-        <f t="shared" ref="A176:A239" si="468">#REF!-0.1</f>
+        <f t="shared" ref="A176" si="468">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B176" t="e">
-        <f t="shared" ref="B176:B239" si="469">#REF!-0.1</f>
+        <f t="shared" ref="B176" si="469">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C176" t="e">
-        <f t="shared" ref="C176:C239" si="470">#REF!-0.1</f>
+        <f t="shared" ref="C176" si="470">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D176" t="e">
-        <f t="shared" ref="D176:D239" si="471">#REF!-0.1</f>
+        <f t="shared" ref="D176" si="471">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177" t="e">
-        <f t="shared" ref="A177:A240" si="472">#REF!-0.1</f>
+        <f t="shared" ref="A177" si="472">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B177" t="e">
-        <f t="shared" ref="B177:B240" si="473">#REF!-0.1</f>
+        <f t="shared" ref="B177" si="473">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C177" t="e">
-        <f t="shared" ref="C177:C240" si="474">#REF!-0.1</f>
+        <f t="shared" ref="C177" si="474">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D177" t="e">
-        <f t="shared" ref="D177:D240" si="475">#REF!-0.1</f>
+        <f t="shared" ref="D177" si="475">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178" t="e">
-        <f t="shared" ref="A178:A241" si="476">#REF!-0.1</f>
+        <f t="shared" ref="A178" si="476">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B178" t="e">
-        <f t="shared" ref="B178:B241" si="477">#REF!-0.1</f>
+        <f t="shared" ref="B178" si="477">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C178" t="e">
-        <f t="shared" ref="C178:C241" si="478">#REF!-0.1</f>
+        <f t="shared" ref="C178" si="478">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D178" t="e">
-        <f t="shared" ref="D178:D241" si="479">#REF!-0.1</f>
+        <f t="shared" ref="D178" si="479">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" t="e">
-        <f t="shared" ref="A179:A242" si="480">#REF!-0.1</f>
+        <f t="shared" ref="A179" si="480">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B179" t="e">
-        <f t="shared" ref="B179:B242" si="481">#REF!-0.1</f>
+        <f t="shared" ref="B179" si="481">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C179" t="e">
-        <f t="shared" ref="C179:C242" si="482">#REF!-0.1</f>
+        <f t="shared" ref="C179" si="482">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D179" t="e">
-        <f t="shared" ref="D179:D242" si="483">#REF!-0.1</f>
+        <f t="shared" ref="D179" si="483">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180" t="e">
-        <f t="shared" ref="A180:A243" si="484">#REF!-0.1</f>
+        <f t="shared" ref="A180" si="484">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B180" t="e">
-        <f t="shared" ref="B180:B243" si="485">#REF!-0.1</f>
+        <f t="shared" ref="B180" si="485">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C180" t="e">
-        <f t="shared" ref="C180:C243" si="486">#REF!-0.1</f>
+        <f t="shared" ref="C180" si="486">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D180" t="e">
-        <f t="shared" ref="D180:D243" si="487">#REF!-0.1</f>
+        <f t="shared" ref="D180" si="487">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181" t="e">
-        <f t="shared" ref="A181:A244" si="488">#REF!-0.1</f>
+        <f t="shared" ref="A181" si="488">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B181" t="e">
-        <f t="shared" ref="B181:B244" si="489">#REF!-0.1</f>
+        <f t="shared" ref="B181" si="489">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C181" t="e">
-        <f t="shared" ref="C181:C244" si="490">#REF!-0.1</f>
+        <f t="shared" ref="C181" si="490">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D181" t="e">
-        <f t="shared" ref="D181:D244" si="491">#REF!-0.1</f>
+        <f t="shared" ref="D181" si="491">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182" t="e">
-        <f t="shared" ref="A182:A245" si="492">#REF!-0.1</f>
+        <f t="shared" ref="A182" si="492">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B182" t="e">
-        <f t="shared" ref="B182:B245" si="493">#REF!-0.1</f>
+        <f t="shared" ref="B182" si="493">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C182" t="e">
-        <f t="shared" ref="C182:C245" si="494">#REF!-0.1</f>
+        <f t="shared" ref="C182" si="494">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D182" t="e">
-        <f t="shared" ref="D182:D245" si="495">#REF!-0.1</f>
+        <f t="shared" ref="D182" si="495">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183" t="e">
-        <f t="shared" ref="A183:A246" si="496">#REF!-0.1</f>
+        <f t="shared" ref="A183" si="496">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B183" t="e">
-        <f t="shared" ref="B183:B246" si="497">#REF!-0.1</f>
+        <f t="shared" ref="B183" si="497">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C183" t="e">
-        <f t="shared" ref="C183:C246" si="498">#REF!-0.1</f>
+        <f t="shared" ref="C183" si="498">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D183" t="e">
-        <f t="shared" ref="D183:D246" si="499">#REF!-0.1</f>
+        <f t="shared" ref="D183" si="499">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184" t="e">
-        <f t="shared" ref="A184:A247" si="500">#REF!-0.1</f>
+        <f t="shared" ref="A184" si="500">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B184" t="e">
-        <f t="shared" ref="B184:B247" si="501">#REF!-0.1</f>
+        <f t="shared" ref="B184" si="501">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C184" t="e">
-        <f t="shared" ref="C184:C247" si="502">#REF!-0.1</f>
+        <f t="shared" ref="C184" si="502">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D184" t="e">
-        <f t="shared" ref="D184:D247" si="503">#REF!-0.1</f>
+        <f t="shared" ref="D184" si="503">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" t="e">
-        <f t="shared" ref="A185:A248" si="504">#REF!-0.1</f>
+        <f t="shared" ref="A185" si="504">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B185" t="e">
-        <f t="shared" ref="B185:B248" si="505">#REF!-0.1</f>
+        <f t="shared" ref="B185" si="505">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C185" t="e">
-        <f t="shared" ref="C185:C248" si="506">#REF!-0.1</f>
+        <f t="shared" ref="C185" si="506">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D185" t="e">
-        <f t="shared" ref="D185:D248" si="507">#REF!-0.1</f>
+        <f t="shared" ref="D185" si="507">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A186" t="e">
-        <f t="shared" ref="A186:A249" si="508">#REF!-0.1</f>
+        <f t="shared" ref="A186" si="508">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B186" t="e">
-        <f t="shared" ref="B186:B249" si="509">#REF!-0.1</f>
+        <f t="shared" ref="B186" si="509">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C186" t="e">
-        <f t="shared" ref="C186:C249" si="510">#REF!-0.1</f>
+        <f t="shared" ref="C186" si="510">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D186" t="e">
-        <f t="shared" ref="D186:D249" si="511">#REF!-0.1</f>
+        <f t="shared" ref="D186" si="511">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187" t="e">
-        <f t="shared" ref="A187:A250" si="512">#REF!-0.1</f>
+        <f t="shared" ref="A187" si="512">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B187" t="e">
-        <f t="shared" ref="B187:B250" si="513">#REF!-0.1</f>
+        <f t="shared" ref="B187" si="513">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C187" t="e">
-        <f t="shared" ref="C187:C250" si="514">#REF!-0.1</f>
+        <f t="shared" ref="C187" si="514">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D187" t="e">
-        <f t="shared" ref="D187:D250" si="515">#REF!-0.1</f>
+        <f t="shared" ref="D187" si="515">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188" t="e">
-        <f t="shared" ref="A188:A251" si="516">#REF!-0.1</f>
+        <f t="shared" ref="A188" si="516">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B188" t="e">
-        <f t="shared" ref="B188:B251" si="517">#REF!-0.1</f>
+        <f t="shared" ref="B188" si="517">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C188" t="e">
-        <f t="shared" ref="C188:C251" si="518">#REF!-0.1</f>
+        <f t="shared" ref="C188" si="518">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D188" t="e">
-        <f t="shared" ref="D188:D251" si="519">#REF!-0.1</f>
+        <f t="shared" ref="D188" si="519">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189" t="e">
-        <f t="shared" ref="A189:A252" si="520">#REF!-0.1</f>
+        <f t="shared" ref="A189" si="520">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B189" t="e">
-        <f t="shared" ref="B189:B252" si="521">#REF!-0.1</f>
+        <f t="shared" ref="B189" si="521">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C189" t="e">
-        <f t="shared" ref="C189:C252" si="522">#REF!-0.1</f>
+        <f t="shared" ref="C189" si="522">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D189" t="e">
-        <f t="shared" ref="D189:D252" si="523">#REF!-0.1</f>
+        <f t="shared" ref="D189" si="523">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190" t="e">
-        <f t="shared" ref="A190:A253" si="524">#REF!-0.1</f>
+        <f t="shared" ref="A190" si="524">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B190" t="e">
-        <f t="shared" ref="B190:B253" si="525">#REF!-0.1</f>
+        <f t="shared" ref="B190" si="525">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C190" t="e">
-        <f t="shared" ref="C190:C253" si="526">#REF!-0.1</f>
+        <f t="shared" ref="C190" si="526">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D190" t="e">
-        <f t="shared" ref="D190:D253" si="527">#REF!-0.1</f>
+        <f t="shared" ref="D190" si="527">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" t="e">
-        <f t="shared" ref="A191:A254" si="528">#REF!-0.1</f>
+        <f t="shared" ref="A191" si="528">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B191" t="e">
-        <f t="shared" ref="B191:B254" si="529">#REF!-0.1</f>
+        <f t="shared" ref="B191" si="529">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C191" t="e">
-        <f t="shared" ref="C191:C254" si="530">#REF!-0.1</f>
+        <f t="shared" ref="C191" si="530">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D191" t="e">
-        <f t="shared" ref="D191:D254" si="531">#REF!-0.1</f>
+        <f t="shared" ref="D191" si="531">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192" t="e">
-        <f t="shared" ref="A192:A255" si="532">#REF!-0.1</f>
+        <f t="shared" ref="A192" si="532">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B192" t="e">
-        <f t="shared" ref="B192:B255" si="533">#REF!-0.1</f>
+        <f t="shared" ref="B192" si="533">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C192" t="e">
-        <f t="shared" ref="C192:C255" si="534">#REF!-0.1</f>
+        <f t="shared" ref="C192" si="534">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D192" t="e">
-        <f t="shared" ref="D192:D255" si="535">#REF!-0.1</f>
+        <f t="shared" ref="D192" si="535">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193" t="e">
-        <f t="shared" ref="A193:A256" si="536">#REF!-0.1</f>
+        <f t="shared" ref="A193" si="536">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B193" t="e">
-        <f t="shared" ref="B193:B256" si="537">#REF!-0.1</f>
+        <f t="shared" ref="B193" si="537">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C193" t="e">
-        <f t="shared" ref="C193:C256" si="538">#REF!-0.1</f>
+        <f t="shared" ref="C193" si="538">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D193" t="e">
-        <f t="shared" ref="D193:D256" si="539">#REF!-0.1</f>
+        <f t="shared" ref="D193" si="539">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" t="e">
-        <f t="shared" ref="A194:A257" si="540">#REF!-0.1</f>
+        <f t="shared" ref="A194" si="540">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B194" t="e">
-        <f t="shared" ref="B194:B257" si="541">#REF!-0.1</f>
+        <f t="shared" ref="B194" si="541">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C194" t="e">
-        <f t="shared" ref="C194:C257" si="542">#REF!-0.1</f>
+        <f t="shared" ref="C194" si="542">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D194" t="e">
-        <f t="shared" ref="D194:D257" si="543">#REF!-0.1</f>
+        <f t="shared" ref="D194" si="543">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195" t="e">
-        <f t="shared" ref="A195:A258" si="544">#REF!-0.1</f>
+        <f t="shared" ref="A195" si="544">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B195" t="e">
-        <f t="shared" ref="B195:B258" si="545">#REF!-0.1</f>
+        <f t="shared" ref="B195" si="545">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C195" t="e">
-        <f t="shared" ref="C195:C258" si="546">#REF!-0.1</f>
+        <f t="shared" ref="C195" si="546">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D195" t="e">
-        <f t="shared" ref="D195:D258" si="547">#REF!-0.1</f>
+        <f t="shared" ref="D195" si="547">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196" t="e">
-        <f t="shared" ref="A196:A259" si="548">#REF!-0.1</f>
+        <f t="shared" ref="A196" si="548">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B196" t="e">
-        <f t="shared" ref="B196:B259" si="549">#REF!-0.1</f>
+        <f t="shared" ref="B196" si="549">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C196" t="e">
-        <f t="shared" ref="C196:C259" si="550">#REF!-0.1</f>
+        <f t="shared" ref="C196" si="550">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D196" t="e">
-        <f t="shared" ref="D196:D259" si="551">#REF!-0.1</f>
+        <f t="shared" ref="D196" si="551">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" t="e">
-        <f t="shared" ref="A197:A260" si="552">#REF!-0.1</f>
+        <f t="shared" ref="A197" si="552">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B197" t="e">
-        <f t="shared" ref="B197:B260" si="553">#REF!-0.1</f>
+        <f t="shared" ref="B197" si="553">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C197" t="e">
-        <f t="shared" ref="C197:C260" si="554">#REF!-0.1</f>
+        <f t="shared" ref="C197" si="554">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D197" t="e">
-        <f t="shared" ref="D197:D260" si="555">#REF!-0.1</f>
+        <f t="shared" ref="D197" si="555">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198" t="e">
-        <f t="shared" ref="A198:A261" si="556">#REF!-0.1</f>
+        <f t="shared" ref="A198" si="556">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B198" t="e">
-        <f t="shared" ref="B198:B261" si="557">#REF!-0.1</f>
+        <f t="shared" ref="B198" si="557">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C198" t="e">
-        <f t="shared" ref="C198:C261" si="558">#REF!-0.1</f>
+        <f t="shared" ref="C198" si="558">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D198" t="e">
-        <f t="shared" ref="D198:D261" si="559">#REF!-0.1</f>
+        <f t="shared" ref="D198" si="559">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A199" t="e">
-        <f t="shared" ref="A199:A262" si="560">#REF!-0.1</f>
+        <f t="shared" ref="A199" si="560">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B199" t="e">
-        <f t="shared" ref="B199:B262" si="561">#REF!-0.1</f>
+        <f t="shared" ref="B199" si="561">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C199" t="e">
-        <f t="shared" ref="C199:C262" si="562">#REF!-0.1</f>
+        <f t="shared" ref="C199" si="562">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D199" t="e">
-        <f t="shared" ref="D199:D262" si="563">#REF!-0.1</f>
+        <f t="shared" ref="D199" si="563">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200" t="e">
-        <f t="shared" ref="A200:A263" si="564">#REF!-0.1</f>
+        <f t="shared" ref="A200" si="564">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B200" t="e">
-        <f t="shared" ref="B200:B263" si="565">#REF!-0.1</f>
+        <f t="shared" ref="B200" si="565">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C200" t="e">
-        <f t="shared" ref="C200:C263" si="566">#REF!-0.1</f>
+        <f t="shared" ref="C200" si="566">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D200" t="e">
-        <f t="shared" ref="D200:D263" si="567">#REF!-0.1</f>
+        <f t="shared" ref="D200" si="567">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201" t="e">
-        <f t="shared" ref="A201:A264" si="568">#REF!-0.1</f>
+        <f t="shared" ref="A201" si="568">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B201" t="e">
-        <f t="shared" ref="B201:B264" si="569">#REF!-0.1</f>
+        <f t="shared" ref="B201" si="569">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C201" t="e">
-        <f t="shared" ref="C201:C264" si="570">#REF!-0.1</f>
+        <f t="shared" ref="C201" si="570">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D201" t="e">
-        <f t="shared" ref="D201:D264" si="571">#REF!-0.1</f>
+        <f t="shared" ref="D201" si="571">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A202" t="e">
-        <f t="shared" ref="A202:A265" si="572">#REF!-0.1</f>
+        <f t="shared" ref="A202" si="572">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B202" t="e">
-        <f t="shared" ref="B202:B265" si="573">#REF!-0.1</f>
+        <f t="shared" ref="B202" si="573">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C202" t="e">
-        <f t="shared" ref="C202:C265" si="574">#REF!-0.1</f>
+        <f t="shared" ref="C202" si="574">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D202" t="e">
-        <f t="shared" ref="D202:D265" si="575">#REF!-0.1</f>
+        <f t="shared" ref="D202" si="575">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203" t="e">
-        <f t="shared" ref="A203:A266" si="576">#REF!-0.1</f>
+        <f t="shared" ref="A203" si="576">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B203" t="e">
-        <f t="shared" ref="B203:B266" si="577">#REF!-0.1</f>
+        <f t="shared" ref="B203" si="577">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C203" t="e">
-        <f t="shared" ref="C203:C266" si="578">#REF!-0.1</f>
+        <f t="shared" ref="C203" si="578">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D203" t="e">
-        <f t="shared" ref="D203:D266" si="579">#REF!-0.1</f>
+        <f t="shared" ref="D203" si="579">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A204" t="e">
-        <f t="shared" ref="A204:A267" si="580">#REF!-0.1</f>
+        <f t="shared" ref="A204" si="580">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B204" t="e">
-        <f t="shared" ref="B204:B267" si="581">#REF!-0.1</f>
+        <f t="shared" ref="B204" si="581">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C204" t="e">
-        <f t="shared" ref="C204:C267" si="582">#REF!-0.1</f>
+        <f t="shared" ref="C204" si="582">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D204" t="e">
-        <f t="shared" ref="D204:D267" si="583">#REF!-0.1</f>
+        <f t="shared" ref="D204" si="583">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A205" t="e">
-        <f t="shared" ref="A205:A268" si="584">#REF!-0.1</f>
+        <f t="shared" ref="A205" si="584">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B205" t="e">
-        <f t="shared" ref="B205:B268" si="585">#REF!-0.1</f>
+        <f t="shared" ref="B205" si="585">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C205" t="e">
-        <f t="shared" ref="C205:C268" si="586">#REF!-0.1</f>
+        <f t="shared" ref="C205" si="586">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D205" t="e">
-        <f t="shared" ref="D205:D268" si="587">#REF!-0.1</f>
+        <f t="shared" ref="D205" si="587">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206" t="e">
-        <f t="shared" ref="A206:A269" si="588">#REF!-0.1</f>
+        <f t="shared" ref="A206" si="588">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B206" t="e">
-        <f t="shared" ref="B206:B269" si="589">#REF!-0.1</f>
+        <f t="shared" ref="B206" si="589">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C206" t="e">
-        <f t="shared" ref="C206:C269" si="590">#REF!-0.1</f>
+        <f t="shared" ref="C206" si="590">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D206" t="e">
-        <f t="shared" ref="D206:D269" si="591">#REF!-0.1</f>
+        <f t="shared" ref="D206" si="591">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A207" t="e">
-        <f t="shared" ref="A207:A270" si="592">#REF!-0.1</f>
+        <f t="shared" ref="A207" si="592">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B207" t="e">
-        <f t="shared" ref="B207:B270" si="593">#REF!-0.1</f>
+        <f t="shared" ref="B207" si="593">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C207" t="e">
-        <f t="shared" ref="C207:C270" si="594">#REF!-0.1</f>
+        <f t="shared" ref="C207" si="594">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D207" t="e">
-        <f t="shared" ref="D207:D270" si="595">#REF!-0.1</f>
+        <f t="shared" ref="D207" si="595">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A208" t="e">
-        <f t="shared" ref="A208:A271" si="596">#REF!-0.1</f>
+        <f t="shared" ref="A208" si="596">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B208" t="e">
-        <f t="shared" ref="B208:B271" si="597">#REF!-0.1</f>
+        <f t="shared" ref="B208" si="597">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C208" t="e">
-        <f t="shared" ref="C208:C271" si="598">#REF!-0.1</f>
+        <f t="shared" ref="C208" si="598">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D208" t="e">
-        <f t="shared" ref="D208:D271" si="599">#REF!-0.1</f>
+        <f t="shared" ref="D208" si="599">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209" t="e">
-        <f t="shared" ref="A209:A272" si="600">#REF!-0.1</f>
+        <f t="shared" ref="A209" si="600">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B209" t="e">
-        <f t="shared" ref="B209:B272" si="601">#REF!-0.1</f>
+        <f t="shared" ref="B209" si="601">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C209" t="e">
-        <f t="shared" ref="C209:C272" si="602">#REF!-0.1</f>
+        <f t="shared" ref="C209" si="602">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D209" t="e">
-        <f t="shared" ref="D209:D272" si="603">#REF!-0.1</f>
+        <f t="shared" ref="D209" si="603">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A210" t="e">
-        <f t="shared" ref="A210:A273" si="604">#REF!-0.1</f>
+        <f t="shared" ref="A210" si="604">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B210" t="e">
-        <f t="shared" ref="B210:B273" si="605">#REF!-0.1</f>
+        <f t="shared" ref="B210" si="605">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C210" t="e">
-        <f t="shared" ref="C210:C273" si="606">#REF!-0.1</f>
+        <f t="shared" ref="C210" si="606">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D210" t="e">
-        <f t="shared" ref="D210:D273" si="607">#REF!-0.1</f>
+        <f t="shared" ref="D210" si="607">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A211" t="e">
-        <f t="shared" ref="A211:A274" si="608">#REF!-0.1</f>
+        <f t="shared" ref="A211" si="608">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B211" t="e">
-        <f t="shared" ref="B211:B274" si="609">#REF!-0.1</f>
+        <f t="shared" ref="B211" si="609">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C211" t="e">
-        <f t="shared" ref="C211:C274" si="610">#REF!-0.1</f>
+        <f t="shared" ref="C211" si="610">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D211" t="e">
-        <f t="shared" ref="D211:D274" si="611">#REF!-0.1</f>
+        <f t="shared" ref="D211" si="611">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212" t="e">
-        <f t="shared" ref="A212:A275" si="612">#REF!-0.1</f>
+        <f t="shared" ref="A212" si="612">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B212" t="e">
-        <f t="shared" ref="B212:B275" si="613">#REF!-0.1</f>
+        <f t="shared" ref="B212" si="613">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C212" t="e">
-        <f t="shared" ref="C212:C275" si="614">#REF!-0.1</f>
+        <f t="shared" ref="C212" si="614">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D212" t="e">
-        <f t="shared" ref="D212:D275" si="615">#REF!-0.1</f>
+        <f t="shared" ref="D212" si="615">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A213" t="e">
-        <f t="shared" ref="A213:A276" si="616">#REF!-0.1</f>
+        <f t="shared" ref="A213" si="616">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B213" t="e">
-        <f t="shared" ref="B213:B276" si="617">#REF!-0.1</f>
+        <f t="shared" ref="B213" si="617">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C213" t="e">
-        <f t="shared" ref="C213:C276" si="618">#REF!-0.1</f>
+        <f t="shared" ref="C213" si="618">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D213" t="e">
-        <f t="shared" ref="D213:D276" si="619">#REF!-0.1</f>
+        <f t="shared" ref="D213" si="619">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A214" t="e">
-        <f t="shared" ref="A214:A277" si="620">#REF!-0.1</f>
+        <f t="shared" ref="A214" si="620">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B214" t="e">
-        <f t="shared" ref="B214:B277" si="621">#REF!-0.1</f>
+        <f t="shared" ref="B214" si="621">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C214" t="e">
-        <f t="shared" ref="C214:C277" si="622">#REF!-0.1</f>
+        <f t="shared" ref="C214" si="622">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D214" t="e">
-        <f t="shared" ref="D214:D277" si="623">#REF!-0.1</f>
+        <f t="shared" ref="D214" si="623">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215" t="e">
-        <f t="shared" ref="A215:A278" si="624">#REF!-0.1</f>
+        <f t="shared" ref="A215" si="624">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B215" t="e">
-        <f t="shared" ref="B215:B278" si="625">#REF!-0.1</f>
+        <f t="shared" ref="B215" si="625">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C215" t="e">
-        <f t="shared" ref="C215:C278" si="626">#REF!-0.1</f>
+        <f t="shared" ref="C215" si="626">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D215" t="e">
-        <f t="shared" ref="D215:D278" si="627">#REF!-0.1</f>
+        <f t="shared" ref="D215" si="627">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A216" t="e">
-        <f t="shared" ref="A216:A279" si="628">#REF!-0.1</f>
+        <f t="shared" ref="A216" si="628">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B216" t="e">
-        <f t="shared" ref="B216:B279" si="629">#REF!-0.1</f>
+        <f t="shared" ref="B216" si="629">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C216" t="e">
-        <f t="shared" ref="C216:C279" si="630">#REF!-0.1</f>
+        <f t="shared" ref="C216" si="630">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D216" t="e">
-        <f t="shared" ref="D216:D279" si="631">#REF!-0.1</f>
+        <f t="shared" ref="D216" si="631">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A217" t="e">
-        <f t="shared" ref="A217:A280" si="632">#REF!-0.1</f>
+        <f t="shared" ref="A217" si="632">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B217" t="e">
-        <f t="shared" ref="B217:B280" si="633">#REF!-0.1</f>
+        <f t="shared" ref="B217" si="633">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C217" t="e">
-        <f t="shared" ref="C217:C280" si="634">#REF!-0.1</f>
+        <f t="shared" ref="C217" si="634">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D217" t="e">
-        <f t="shared" ref="D217:D280" si="635">#REF!-0.1</f>
+        <f t="shared" ref="D217" si="635">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218" t="e">
-        <f t="shared" ref="A218:A281" si="636">#REF!-0.1</f>
+        <f t="shared" ref="A218" si="636">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B218" t="e">
-        <f t="shared" ref="B218:B281" si="637">#REF!-0.1</f>
+        <f t="shared" ref="B218" si="637">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C218" t="e">
-        <f t="shared" ref="C218:C281" si="638">#REF!-0.1</f>
+        <f t="shared" ref="C218" si="638">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D218" t="e">
-        <f t="shared" ref="D218:D281" si="639">#REF!-0.1</f>
+        <f t="shared" ref="D218" si="639">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A219" t="e">
-        <f t="shared" ref="A219:A282" si="640">#REF!-0.1</f>
+        <f t="shared" ref="A219" si="640">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B219" t="e">
-        <f t="shared" ref="B219:B282" si="641">#REF!-0.1</f>
+        <f t="shared" ref="B219" si="641">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C219" t="e">
-        <f t="shared" ref="C219:C282" si="642">#REF!-0.1</f>
+        <f t="shared" ref="C219" si="642">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D219" t="e">
-        <f t="shared" ref="D219:D282" si="643">#REF!-0.1</f>
+        <f t="shared" ref="D219" si="643">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A220" t="e">
-        <f t="shared" ref="A220:A283" si="644">#REF!-0.1</f>
+        <f t="shared" ref="A220" si="644">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B220" t="e">
-        <f t="shared" ref="B220:B283" si="645">#REF!-0.1</f>
+        <f t="shared" ref="B220" si="645">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C220" t="e">
-        <f t="shared" ref="C220:C283" si="646">#REF!-0.1</f>
+        <f t="shared" ref="C220" si="646">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D220" t="e">
-        <f t="shared" ref="D220:D283" si="647">#REF!-0.1</f>
+        <f t="shared" ref="D220" si="647">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221" t="e">
-        <f t="shared" ref="A221:A284" si="648">#REF!-0.1</f>
+        <f t="shared" ref="A221" si="648">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B221" t="e">
-        <f t="shared" ref="B221:B284" si="649">#REF!-0.1</f>
+        <f t="shared" ref="B221" si="649">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C221" t="e">
-        <f t="shared" ref="C221:C284" si="650">#REF!-0.1</f>
+        <f t="shared" ref="C221" si="650">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D221" t="e">
-        <f t="shared" ref="D221:D284" si="651">#REF!-0.1</f>
+        <f t="shared" ref="D221" si="651">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A222" t="e">
-        <f t="shared" ref="A222:A285" si="652">#REF!-0.1</f>
+        <f t="shared" ref="A222" si="652">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B222" t="e">
-        <f t="shared" ref="B222:B285" si="653">#REF!-0.1</f>
+        <f t="shared" ref="B222" si="653">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C222" t="e">
-        <f t="shared" ref="C222:C285" si="654">#REF!-0.1</f>
+        <f t="shared" ref="C222" si="654">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D222" t="e">
-        <f t="shared" ref="D222:D285" si="655">#REF!-0.1</f>
+        <f t="shared" ref="D222" si="655">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A223" t="e">
-        <f t="shared" ref="A223:A286" si="656">#REF!-0.1</f>
+        <f t="shared" ref="A223" si="656">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B223" t="e">
-        <f t="shared" ref="B223:B286" si="657">#REF!-0.1</f>
+        <f t="shared" ref="B223" si="657">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C223" t="e">
-        <f t="shared" ref="C223:C286" si="658">#REF!-0.1</f>
+        <f t="shared" ref="C223" si="658">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D223" t="e">
-        <f t="shared" ref="D223:D286" si="659">#REF!-0.1</f>
+        <f t="shared" ref="D223" si="659">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A224" t="e">
-        <f t="shared" ref="A224:A287" si="660">#REF!-0.1</f>
+        <f t="shared" ref="A224" si="660">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B224" t="e">
-        <f t="shared" ref="B224:B287" si="661">#REF!-0.1</f>
+        <f t="shared" ref="B224" si="661">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C224" t="e">
-        <f t="shared" ref="C224:C287" si="662">#REF!-0.1</f>
+        <f t="shared" ref="C224" si="662">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D224" t="e">
-        <f t="shared" ref="D224:D287" si="663">#REF!-0.1</f>
+        <f t="shared" ref="D224" si="663">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A225" t="e">
-        <f t="shared" ref="A225:A288" si="664">#REF!-0.1</f>
+        <f t="shared" ref="A225" si="664">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B225" t="e">
-        <f t="shared" ref="B225:B288" si="665">#REF!-0.1</f>
+        <f t="shared" ref="B225" si="665">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C225" t="e">
-        <f t="shared" ref="C225:C288" si="666">#REF!-0.1</f>
+        <f t="shared" ref="C225" si="666">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D225" t="e">
-        <f t="shared" ref="D225:D288" si="667">#REF!-0.1</f>
+        <f t="shared" ref="D225" si="667">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A226" t="e">
-        <f t="shared" ref="A226:A289" si="668">#REF!-0.1</f>
+        <f t="shared" ref="A226" si="668">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B226" t="e">
-        <f t="shared" ref="B226:B289" si="669">#REF!-0.1</f>
+        <f t="shared" ref="B226" si="669">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C226" t="e">
-        <f t="shared" ref="C226:C289" si="670">#REF!-0.1</f>
+        <f t="shared" ref="C226" si="670">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D226" t="e">
-        <f t="shared" ref="D226:D289" si="671">#REF!-0.1</f>
+        <f t="shared" ref="D226" si="671">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A227" t="e">
-        <f t="shared" ref="A227:A290" si="672">#REF!-0.1</f>
+        <f t="shared" ref="A227" si="672">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B227" t="e">
-        <f t="shared" ref="B227:B290" si="673">#REF!-0.1</f>
+        <f t="shared" ref="B227" si="673">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C227" t="e">
-        <f t="shared" ref="C227:C290" si="674">#REF!-0.1</f>
+        <f t="shared" ref="C227" si="674">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D227" t="e">
-        <f t="shared" ref="D227:D290" si="675">#REF!-0.1</f>
+        <f t="shared" ref="D227" si="675">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A228" t="e">
-        <f t="shared" ref="A228:A291" si="676">#REF!-0.1</f>
+        <f t="shared" ref="A228" si="676">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B228" t="e">
-        <f t="shared" ref="B228:B291" si="677">#REF!-0.1</f>
+        <f t="shared" ref="B228" si="677">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C228" t="e">
-        <f t="shared" ref="C228:C291" si="678">#REF!-0.1</f>
+        <f t="shared" ref="C228" si="678">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D228" t="e">
-        <f t="shared" ref="D228:D291" si="679">#REF!-0.1</f>
+        <f t="shared" ref="D228" si="679">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A229" t="e">
-        <f t="shared" ref="A229:A292" si="680">#REF!-0.1</f>
+        <f t="shared" ref="A229" si="680">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B229" t="e">
-        <f t="shared" ref="B229:B292" si="681">#REF!-0.1</f>
+        <f t="shared" ref="B229" si="681">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C229" t="e">
-        <f t="shared" ref="C229:C292" si="682">#REF!-0.1</f>
+        <f t="shared" ref="C229" si="682">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D229" t="e">
-        <f t="shared" ref="D229:D292" si="683">#REF!-0.1</f>
+        <f t="shared" ref="D229" si="683">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A230" t="e">
-        <f t="shared" ref="A230:A293" si="684">#REF!-0.1</f>
+        <f t="shared" ref="A230" si="684">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B230" t="e">
-        <f t="shared" ref="B230:B293" si="685">#REF!-0.1</f>
+        <f t="shared" ref="B230" si="685">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C230" t="e">
-        <f t="shared" ref="C230:C293" si="686">#REF!-0.1</f>
+        <f t="shared" ref="C230" si="686">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D230" t="e">
-        <f t="shared" ref="D230:D293" si="687">#REF!-0.1</f>
+        <f t="shared" ref="D230" si="687">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A231" t="e">
-        <f t="shared" ref="A231:A294" si="688">#REF!-0.1</f>
+        <f t="shared" ref="A231" si="688">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B231" t="e">
-        <f t="shared" ref="B231:B294" si="689">#REF!-0.1</f>
+        <f t="shared" ref="B231" si="689">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C231" t="e">
-        <f t="shared" ref="C231:C294" si="690">#REF!-0.1</f>
+        <f t="shared" ref="C231" si="690">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D231" t="e">
-        <f t="shared" ref="D231:D294" si="691">#REF!-0.1</f>
+        <f t="shared" ref="D231" si="691">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A232" t="e">
-        <f t="shared" ref="A232:A295" si="692">#REF!-0.1</f>
+        <f t="shared" ref="A232" si="692">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B232" t="e">
-        <f t="shared" ref="B232:B295" si="693">#REF!-0.1</f>
+        <f t="shared" ref="B232" si="693">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C232" t="e">
-        <f t="shared" ref="C232:C295" si="694">#REF!-0.1</f>
+        <f t="shared" ref="C232" si="694">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D232" t="e">
-        <f t="shared" ref="D232:D295" si="695">#REF!-0.1</f>
+        <f t="shared" ref="D232" si="695">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A233" t="e">
-        <f t="shared" ref="A233:A296" si="696">#REF!-0.1</f>
+        <f t="shared" ref="A233" si="696">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B233" t="e">
-        <f t="shared" ref="B233:B296" si="697">#REF!-0.1</f>
+        <f t="shared" ref="B233" si="697">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C233" t="e">
-        <f t="shared" ref="C233:C296" si="698">#REF!-0.1</f>
+        <f t="shared" ref="C233" si="698">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D233" t="e">
-        <f t="shared" ref="D233:D296" si="699">#REF!-0.1</f>
+        <f t="shared" ref="D233" si="699">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A234" t="e">
-        <f t="shared" ref="A234:A297" si="700">#REF!-0.1</f>
+        <f t="shared" ref="A234" si="700">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B234" t="e">
-        <f t="shared" ref="B234:B297" si="701">#REF!-0.1</f>
+        <f t="shared" ref="B234" si="701">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C234" t="e">
-        <f t="shared" ref="C234:C297" si="702">#REF!-0.1</f>
+        <f t="shared" ref="C234" si="702">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D234" t="e">
-        <f t="shared" ref="D234:D297" si="703">#REF!-0.1</f>
+        <f t="shared" ref="D234" si="703">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A235" t="e">
-        <f t="shared" ref="A235:A298" si="704">#REF!-0.1</f>
+        <f t="shared" ref="A235" si="704">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B235" t="e">
-        <f t="shared" ref="B235:B298" si="705">#REF!-0.1</f>
+        <f t="shared" ref="B235" si="705">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C235" t="e">
-        <f t="shared" ref="C235:C298" si="706">#REF!-0.1</f>
+        <f t="shared" ref="C235" si="706">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D235" t="e">
-        <f t="shared" ref="D235:D298" si="707">#REF!-0.1</f>
+        <f t="shared" ref="D235" si="707">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A236" t="e">
-        <f t="shared" ref="A236:A299" si="708">#REF!-0.1</f>
+        <f t="shared" ref="A236" si="708">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B236" t="e">
-        <f t="shared" ref="B236:B299" si="709">#REF!-0.1</f>
+        <f t="shared" ref="B236" si="709">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C236" t="e">
-        <f t="shared" ref="C236:C299" si="710">#REF!-0.1</f>
+        <f t="shared" ref="C236" si="710">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D236" t="e">
-        <f t="shared" ref="D236:D299" si="711">#REF!-0.1</f>
+        <f t="shared" ref="D236" si="711">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A237" t="e">
-        <f t="shared" ref="A237:A300" si="712">#REF!-0.1</f>
+        <f t="shared" ref="A237" si="712">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B237" t="e">
-        <f t="shared" ref="B237:B300" si="713">#REF!-0.1</f>
+        <f t="shared" ref="B237" si="713">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C237" t="e">
-        <f t="shared" ref="C237:C300" si="714">#REF!-0.1</f>
+        <f t="shared" ref="C237" si="714">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D237" t="e">
-        <f t="shared" ref="D237:D300" si="715">#REF!-0.1</f>
+        <f t="shared" ref="D237" si="715">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A238" t="e">
-        <f t="shared" ref="A238:A301" si="716">#REF!-0.1</f>
+        <f t="shared" ref="A238" si="716">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B238" t="e">
-        <f t="shared" ref="B238:B301" si="717">#REF!-0.1</f>
+        <f t="shared" ref="B238" si="717">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C238" t="e">
-        <f t="shared" ref="C238:C301" si="718">#REF!-0.1</f>
+        <f t="shared" ref="C238" si="718">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D238" t="e">
-        <f t="shared" ref="D238:D301" si="719">#REF!-0.1</f>
+        <f t="shared" ref="D238" si="719">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A239" t="e">
-        <f t="shared" ref="A239:A302" si="720">#REF!-0.1</f>
+        <f t="shared" ref="A239" si="720">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B239" t="e">
-        <f t="shared" ref="B239:B302" si="721">#REF!-0.1</f>
+        <f t="shared" ref="B239" si="721">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C239" t="e">
-        <f t="shared" ref="C239:C302" si="722">#REF!-0.1</f>
+        <f t="shared" ref="C239" si="722">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D239" t="e">
-        <f t="shared" ref="D239:D302" si="723">#REF!-0.1</f>
+        <f t="shared" ref="D239" si="723">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A240" t="e">
-        <f t="shared" ref="A240:A303" si="724">#REF!-0.1</f>
+        <f t="shared" ref="A240" si="724">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B240" t="e">
-        <f t="shared" ref="B240:B303" si="725">#REF!-0.1</f>
+        <f t="shared" ref="B240" si="725">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C240" t="e">
-        <f t="shared" ref="C240:C303" si="726">#REF!-0.1</f>
+        <f t="shared" ref="C240" si="726">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D240" t="e">
-        <f t="shared" ref="D240:D303" si="727">#REF!-0.1</f>
+        <f t="shared" ref="D240" si="727">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A241" t="e">
-        <f t="shared" ref="A241:A304" si="728">#REF!-0.1</f>
+        <f t="shared" ref="A241" si="728">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B241" t="e">
-        <f t="shared" ref="B241:B304" si="729">#REF!-0.1</f>
+        <f t="shared" ref="B241" si="729">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C241" t="e">
-        <f t="shared" ref="C241:C304" si="730">#REF!-0.1</f>
+        <f t="shared" ref="C241" si="730">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D241" t="e">
-        <f t="shared" ref="D241:D304" si="731">#REF!-0.1</f>
+        <f t="shared" ref="D241" si="731">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A242" t="e">
-        <f t="shared" ref="A242:A305" si="732">#REF!-0.1</f>
+        <f t="shared" ref="A242" si="732">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B242" t="e">
-        <f t="shared" ref="B242:B305" si="733">#REF!-0.1</f>
+        <f t="shared" ref="B242" si="733">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C242" t="e">
-        <f t="shared" ref="C242:C305" si="734">#REF!-0.1</f>
+        <f t="shared" ref="C242" si="734">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D242" t="e">
-        <f t="shared" ref="D242:D305" si="735">#REF!-0.1</f>
+        <f t="shared" ref="D242" si="735">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A243" t="e">
-        <f t="shared" ref="A243:A306" si="736">#REF!-0.1</f>
+        <f t="shared" ref="A243" si="736">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B243" t="e">
-        <f t="shared" ref="B243:B306" si="737">#REF!-0.1</f>
+        <f t="shared" ref="B243" si="737">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C243" t="e">
-        <f t="shared" ref="C243:C306" si="738">#REF!-0.1</f>
+        <f t="shared" ref="C243" si="738">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D243" t="e">
-        <f t="shared" ref="D243:D306" si="739">#REF!-0.1</f>
+        <f t="shared" ref="D243" si="739">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A244" t="e">
-        <f t="shared" ref="A244:A307" si="740">#REF!-0.1</f>
+        <f t="shared" ref="A244" si="740">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B244" t="e">
-        <f t="shared" ref="B244:B307" si="741">#REF!-0.1</f>
+        <f t="shared" ref="B244" si="741">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C244" t="e">
-        <f t="shared" ref="C244:C307" si="742">#REF!-0.1</f>
+        <f t="shared" ref="C244" si="742">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D244" t="e">
-        <f t="shared" ref="D244:D307" si="743">#REF!-0.1</f>
+        <f t="shared" ref="D244" si="743">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A245" t="e">
-        <f t="shared" ref="A245:A308" si="744">#REF!-0.1</f>
+        <f t="shared" ref="A245" si="744">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B245" t="e">
-        <f t="shared" ref="B245:B308" si="745">#REF!-0.1</f>
+        <f t="shared" ref="B245" si="745">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C245" t="e">
-        <f t="shared" ref="C245:C308" si="746">#REF!-0.1</f>
+        <f t="shared" ref="C245" si="746">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D245" t="e">
-        <f t="shared" ref="D245:D308" si="747">#REF!-0.1</f>
+        <f t="shared" ref="D245" si="747">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A246" t="e">
-        <f t="shared" ref="A246:A309" si="748">#REF!-0.1</f>
+        <f t="shared" ref="A246" si="748">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B246" t="e">
-        <f t="shared" ref="B246:B309" si="749">#REF!-0.1</f>
+        <f t="shared" ref="B246" si="749">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C246" t="e">
-        <f t="shared" ref="C246:C309" si="750">#REF!-0.1</f>
+        <f t="shared" ref="C246" si="750">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D246" t="e">
-        <f t="shared" ref="D246:D309" si="751">#REF!-0.1</f>
+        <f t="shared" ref="D246" si="751">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A247" t="e">
-        <f t="shared" ref="A247:A310" si="752">#REF!-0.1</f>
+        <f t="shared" ref="A247" si="752">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B247" t="e">
-        <f t="shared" ref="B247:B310" si="753">#REF!-0.1</f>
+        <f t="shared" ref="B247" si="753">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C247" t="e">
-        <f t="shared" ref="C247:C310" si="754">#REF!-0.1</f>
+        <f t="shared" ref="C247" si="754">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D247" t="e">
-        <f t="shared" ref="D247:D310" si="755">#REF!-0.1</f>
+        <f t="shared" ref="D247" si="755">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A248" t="e">
-        <f t="shared" ref="A248:A311" si="756">#REF!-0.1</f>
+        <f t="shared" ref="A248" si="756">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B248" t="e">
-        <f t="shared" ref="B248:B311" si="757">#REF!-0.1</f>
+        <f t="shared" ref="B248" si="757">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C248" t="e">
-        <f t="shared" ref="C248:C311" si="758">#REF!-0.1</f>
+        <f t="shared" ref="C248" si="758">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D248" t="e">
-        <f t="shared" ref="D248:D311" si="759">#REF!-0.1</f>
+        <f t="shared" ref="D248" si="759">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A249" t="e">
-        <f t="shared" ref="A249:A312" si="760">#REF!-0.1</f>
+        <f t="shared" ref="A249" si="760">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B249" t="e">
-        <f t="shared" ref="B249:B312" si="761">#REF!-0.1</f>
+        <f t="shared" ref="B249" si="761">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C249" t="e">
-        <f t="shared" ref="C249:C312" si="762">#REF!-0.1</f>
+        <f t="shared" ref="C249" si="762">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D249" t="e">
-        <f t="shared" ref="D249:D312" si="763">#REF!-0.1</f>
+        <f t="shared" ref="D249" si="763">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A250" t="e">
-        <f t="shared" ref="A250:A313" si="764">#REF!-0.1</f>
+        <f t="shared" ref="A250" si="764">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B250" t="e">
-        <f t="shared" ref="B250:B313" si="765">#REF!-0.1</f>
+        <f t="shared" ref="B250" si="765">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C250" t="e">
-        <f t="shared" ref="C250:C313" si="766">#REF!-0.1</f>
+        <f t="shared" ref="C250" si="766">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D250" t="e">
-        <f t="shared" ref="D250:D313" si="767">#REF!-0.1</f>
+        <f t="shared" ref="D250" si="767">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A251" t="e">
-        <f t="shared" ref="A251:A314" si="768">#REF!-0.1</f>
+        <f t="shared" ref="A251" si="768">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B251" t="e">
-        <f t="shared" ref="B251:B314" si="769">#REF!-0.1</f>
+        <f t="shared" ref="B251" si="769">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C251" t="e">
-        <f t="shared" ref="C251:C314" si="770">#REF!-0.1</f>
+        <f t="shared" ref="C251" si="770">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D251" t="e">
-        <f t="shared" ref="D251:D314" si="771">#REF!-0.1</f>
+        <f t="shared" ref="D251" si="771">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A252" t="e">
-        <f t="shared" ref="A252:A315" si="772">#REF!-0.1</f>
+        <f t="shared" ref="A252" si="772">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B252" t="e">
-        <f t="shared" ref="B252:B315" si="773">#REF!-0.1</f>
+        <f t="shared" ref="B252" si="773">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C252" t="e">
-        <f t="shared" ref="C252:C315" si="774">#REF!-0.1</f>
+        <f t="shared" ref="C252" si="774">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D252" t="e">
-        <f t="shared" ref="D252:D315" si="775">#REF!-0.1</f>
+        <f t="shared" ref="D252" si="775">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A253" t="e">
-        <f t="shared" ref="A253:A316" si="776">#REF!-0.1</f>
+        <f t="shared" ref="A253" si="776">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B253" t="e">
-        <f t="shared" ref="B253:B316" si="777">#REF!-0.1</f>
+        <f t="shared" ref="B253" si="777">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C253" t="e">
-        <f t="shared" ref="C253:C316" si="778">#REF!-0.1</f>
+        <f t="shared" ref="C253" si="778">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D253" t="e">
-        <f t="shared" ref="D253:D316" si="779">#REF!-0.1</f>
+        <f t="shared" ref="D253" si="779">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A254" t="e">
-        <f t="shared" ref="A254:A317" si="780">#REF!-0.1</f>
+        <f t="shared" ref="A254" si="780">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B254" t="e">
-        <f t="shared" ref="B254:B317" si="781">#REF!-0.1</f>
+        <f t="shared" ref="B254" si="781">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C254" t="e">
-        <f t="shared" ref="C254:C317" si="782">#REF!-0.1</f>
+        <f t="shared" ref="C254" si="782">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D254" t="e">
-        <f t="shared" ref="D254:D317" si="783">#REF!-0.1</f>
+        <f t="shared" ref="D254" si="783">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A255" t="e">
-        <f t="shared" ref="A255:A318" si="784">#REF!-0.1</f>
+        <f t="shared" ref="A255" si="784">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B255" t="e">
-        <f t="shared" ref="B255:B318" si="785">#REF!-0.1</f>
+        <f t="shared" ref="B255" si="785">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C255" t="e">
-        <f t="shared" ref="C255:C318" si="786">#REF!-0.1</f>
+        <f t="shared" ref="C255" si="786">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D255" t="e">
-        <f t="shared" ref="D255:D318" si="787">#REF!-0.1</f>
+        <f t="shared" ref="D255" si="787">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A256" t="e">
-        <f t="shared" ref="A256:A319" si="788">#REF!-0.1</f>
+        <f t="shared" ref="A256" si="788">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B256" t="e">
-        <f t="shared" ref="B256:B319" si="789">#REF!-0.1</f>
+        <f t="shared" ref="B256" si="789">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C256" t="e">
-        <f t="shared" ref="C256:C319" si="790">#REF!-0.1</f>
+        <f t="shared" ref="C256" si="790">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D256" t="e">
-        <f t="shared" ref="D256:D319" si="791">#REF!-0.1</f>
+        <f t="shared" ref="D256" si="791">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A257" t="e">
-        <f t="shared" ref="A257:A320" si="792">#REF!-0.1</f>
+        <f t="shared" ref="A257" si="792">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B257" t="e">
-        <f t="shared" ref="B257:B320" si="793">#REF!-0.1</f>
+        <f t="shared" ref="B257" si="793">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C257" t="e">
-        <f t="shared" ref="C257:C320" si="794">#REF!-0.1</f>
+        <f t="shared" ref="C257" si="794">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D257" t="e">
-        <f t="shared" ref="D257:D320" si="795">#REF!-0.1</f>
+        <f t="shared" ref="D257" si="795">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A258" t="e">
-        <f t="shared" ref="A258:A321" si="796">#REF!-0.1</f>
+        <f t="shared" ref="A258" si="796">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B258" t="e">
-        <f t="shared" ref="B258:B321" si="797">#REF!-0.1</f>
+        <f t="shared" ref="B258" si="797">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C258" t="e">
-        <f t="shared" ref="C258:C321" si="798">#REF!-0.1</f>
+        <f t="shared" ref="C258" si="798">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D258" t="e">
-        <f t="shared" ref="D258:D321" si="799">#REF!-0.1</f>
+        <f t="shared" ref="D258" si="799">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A259" t="e">
-        <f t="shared" ref="A259:A322" si="800">#REF!-0.1</f>
+        <f t="shared" ref="A259" si="800">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B259" t="e">
-        <f t="shared" ref="B259:B322" si="801">#REF!-0.1</f>
+        <f t="shared" ref="B259" si="801">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C259" t="e">
-        <f t="shared" ref="C259:C322" si="802">#REF!-0.1</f>
+        <f t="shared" ref="C259" si="802">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D259" t="e">
-        <f t="shared" ref="D259:D322" si="803">#REF!-0.1</f>
+        <f t="shared" ref="D259" si="803">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A260" t="e">
-        <f t="shared" ref="A260:A323" si="804">#REF!-0.1</f>
+        <f t="shared" ref="A260" si="804">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B260" t="e">
-        <f t="shared" ref="B260:B323" si="805">#REF!-0.1</f>
+        <f t="shared" ref="B260" si="805">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C260" t="e">
-        <f t="shared" ref="C260:C323" si="806">#REF!-0.1</f>
+        <f t="shared" ref="C260" si="806">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D260" t="e">
-        <f t="shared" ref="D260:D323" si="807">#REF!-0.1</f>
+        <f t="shared" ref="D260" si="807">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A261" t="e">
-        <f t="shared" ref="A261:A324" si="808">#REF!-0.1</f>
+        <f t="shared" ref="A261" si="808">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B261" t="e">
-        <f t="shared" ref="B261:B324" si="809">#REF!-0.1</f>
+        <f t="shared" ref="B261" si="809">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C261" t="e">
-        <f t="shared" ref="C261:C324" si="810">#REF!-0.1</f>
+        <f t="shared" ref="C261" si="810">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D261" t="e">
-        <f t="shared" ref="D261:D324" si="811">#REF!-0.1</f>
+        <f t="shared" ref="D261" si="811">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A262" t="e">
-        <f t="shared" ref="A262:A325" si="812">#REF!-0.1</f>
+        <f t="shared" ref="A262" si="812">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B262" t="e">
-        <f t="shared" ref="B262:B325" si="813">#REF!-0.1</f>
+        <f t="shared" ref="B262" si="813">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C262" t="e">
-        <f t="shared" ref="C262:C325" si="814">#REF!-0.1</f>
+        <f t="shared" ref="C262" si="814">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D262" t="e">
-        <f t="shared" ref="D262:D325" si="815">#REF!-0.1</f>
+        <f t="shared" ref="D262" si="815">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A263" t="e">
-        <f t="shared" ref="A263:A326" si="816">#REF!-0.1</f>
+        <f t="shared" ref="A263" si="816">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B263" t="e">
-        <f t="shared" ref="B263:B326" si="817">#REF!-0.1</f>
+        <f t="shared" ref="B263" si="817">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C263" t="e">
-        <f t="shared" ref="C263:C326" si="818">#REF!-0.1</f>
+        <f t="shared" ref="C263" si="818">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D263" t="e">
-        <f t="shared" ref="D263:D326" si="819">#REF!-0.1</f>
+        <f t="shared" ref="D263" si="819">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A264" t="e">
-        <f t="shared" ref="A264:A327" si="820">#REF!-0.1</f>
+        <f t="shared" ref="A264" si="820">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B264" t="e">
-        <f t="shared" ref="B264:B327" si="821">#REF!-0.1</f>
+        <f t="shared" ref="B264" si="821">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C264" t="e">
-        <f t="shared" ref="C264:C327" si="822">#REF!-0.1</f>
+        <f t="shared" ref="C264" si="822">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D264" t="e">
-        <f t="shared" ref="D264:D327" si="823">#REF!-0.1</f>
+        <f t="shared" ref="D264" si="823">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A265" t="e">
-        <f t="shared" ref="A265:A328" si="824">#REF!-0.1</f>
+        <f t="shared" ref="A265" si="824">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B265" t="e">
-        <f t="shared" ref="B265:B328" si="825">#REF!-0.1</f>
+        <f t="shared" ref="B265" si="825">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C265" t="e">
-        <f t="shared" ref="C265:C328" si="826">#REF!-0.1</f>
+        <f t="shared" ref="C265" si="826">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D265" t="e">
-        <f t="shared" ref="D265:D328" si="827">#REF!-0.1</f>
+        <f t="shared" ref="D265" si="827">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A266" t="e">
-        <f t="shared" ref="A266:A329" si="828">#REF!-0.1</f>
+        <f t="shared" ref="A266" si="828">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B266" t="e">
-        <f t="shared" ref="B266:B329" si="829">#REF!-0.1</f>
+        <f t="shared" ref="B266" si="829">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C266" t="e">
-        <f t="shared" ref="C266:C329" si="830">#REF!-0.1</f>
+        <f t="shared" ref="C266" si="830">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D266" t="e">
-        <f t="shared" ref="D266:D329" si="831">#REF!-0.1</f>
+        <f t="shared" ref="D266" si="831">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A267" t="e">
-        <f t="shared" ref="A267:A330" si="832">#REF!-0.1</f>
+        <f t="shared" ref="A267" si="832">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B267" t="e">
-        <f t="shared" ref="B267:B330" si="833">#REF!-0.1</f>
+        <f t="shared" ref="B267" si="833">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C267" t="e">
-        <f t="shared" ref="C267:C330" si="834">#REF!-0.1</f>
+        <f t="shared" ref="C267" si="834">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D267" t="e">
-        <f t="shared" ref="D267:D330" si="835">#REF!-0.1</f>
+        <f t="shared" ref="D267" si="835">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A268" t="e">
-        <f t="shared" ref="A268:A331" si="836">#REF!-0.1</f>
+        <f t="shared" ref="A268" si="836">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B268" t="e">
-        <f t="shared" ref="B268:B331" si="837">#REF!-0.1</f>
+        <f t="shared" ref="B268" si="837">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C268" t="e">
-        <f t="shared" ref="C268:C331" si="838">#REF!-0.1</f>
+        <f t="shared" ref="C268" si="838">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D268" t="e">
-        <f t="shared" ref="D268:D331" si="839">#REF!-0.1</f>
+        <f t="shared" ref="D268" si="839">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A269" t="e">
-        <f t="shared" ref="A269:A332" si="840">#REF!-0.1</f>
+        <f t="shared" ref="A269" si="840">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B269" t="e">
-        <f t="shared" ref="B269:B332" si="841">#REF!-0.1</f>
+        <f t="shared" ref="B269" si="841">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C269" t="e">
-        <f t="shared" ref="C269:C332" si="842">#REF!-0.1</f>
+        <f t="shared" ref="C269" si="842">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D269" t="e">
-        <f t="shared" ref="D269:D332" si="843">#REF!-0.1</f>
+        <f t="shared" ref="D269" si="843">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A270" t="e">
-        <f t="shared" ref="A270:A333" si="844">#REF!-0.1</f>
+        <f t="shared" ref="A270" si="844">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B270" t="e">
-        <f t="shared" ref="B270:B333" si="845">#REF!-0.1</f>
+        <f t="shared" ref="B270" si="845">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C270" t="e">
-        <f t="shared" ref="C270:C333" si="846">#REF!-0.1</f>
+        <f t="shared" ref="C270" si="846">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D270" t="e">
-        <f t="shared" ref="D270:D333" si="847">#REF!-0.1</f>
+        <f t="shared" ref="D270" si="847">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A271" t="e">
-        <f t="shared" ref="A271:A334" si="848">#REF!-0.1</f>
+        <f t="shared" ref="A271" si="848">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B271" t="e">
-        <f t="shared" ref="B271:B334" si="849">#REF!-0.1</f>
+        <f t="shared" ref="B271" si="849">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C271" t="e">
-        <f t="shared" ref="C271:C334" si="850">#REF!-0.1</f>
+        <f t="shared" ref="C271" si="850">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D271" t="e">
-        <f t="shared" ref="D271:D334" si="851">#REF!-0.1</f>
+        <f t="shared" ref="D271" si="851">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A272" t="e">
-        <f t="shared" ref="A272:A335" si="852">#REF!-0.1</f>
+        <f t="shared" ref="A272" si="852">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B272" t="e">
-        <f t="shared" ref="B272:B335" si="853">#REF!-0.1</f>
+        <f t="shared" ref="B272" si="853">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C272" t="e">
-        <f t="shared" ref="C272:C335" si="854">#REF!-0.1</f>
+        <f t="shared" ref="C272" si="854">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D272" t="e">
-        <f t="shared" ref="D272:D335" si="855">#REF!-0.1</f>
+        <f t="shared" ref="D272" si="855">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A273" t="e">
-        <f t="shared" ref="A273:A336" si="856">#REF!-0.1</f>
+        <f t="shared" ref="A273" si="856">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B273" t="e">
-        <f t="shared" ref="B273:B336" si="857">#REF!-0.1</f>
+        <f t="shared" ref="B273" si="857">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C273" t="e">
-        <f t="shared" ref="C273:C336" si="858">#REF!-0.1</f>
+        <f t="shared" ref="C273" si="858">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D273" t="e">
-        <f t="shared" ref="D273:D336" si="859">#REF!-0.1</f>
+        <f t="shared" ref="D273" si="859">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A274" t="e">
-        <f t="shared" ref="A274:A337" si="860">#REF!-0.1</f>
+        <f t="shared" ref="A274" si="860">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B274" t="e">
-        <f t="shared" ref="B274:B337" si="861">#REF!-0.1</f>
+        <f t="shared" ref="B274" si="861">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C274" t="e">
-        <f t="shared" ref="C274:C337" si="862">#REF!-0.1</f>
+        <f t="shared" ref="C274" si="862">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D274" t="e">
-        <f t="shared" ref="D274:D337" si="863">#REF!-0.1</f>
+        <f t="shared" ref="D274" si="863">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A275" t="e">
-        <f t="shared" ref="A275:A338" si="864">#REF!-0.1</f>
+        <f t="shared" ref="A275" si="864">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B275" t="e">
-        <f t="shared" ref="B275:B338" si="865">#REF!-0.1</f>
+        <f t="shared" ref="B275" si="865">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C275" t="e">
-        <f t="shared" ref="C275:C338" si="866">#REF!-0.1</f>
+        <f t="shared" ref="C275" si="866">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D275" t="e">
-        <f t="shared" ref="D275:D338" si="867">#REF!-0.1</f>
+        <f t="shared" ref="D275" si="867">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A276" t="e">
-        <f t="shared" ref="A276:A339" si="868">#REF!-0.1</f>
+        <f t="shared" ref="A276" si="868">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B276" t="e">
-        <f t="shared" ref="B276:B339" si="869">#REF!-0.1</f>
+        <f t="shared" ref="B276" si="869">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C276" t="e">
-        <f t="shared" ref="C276:C339" si="870">#REF!-0.1</f>
+        <f t="shared" ref="C276" si="870">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D276" t="e">
-        <f t="shared" ref="D276:D339" si="871">#REF!-0.1</f>
+        <f t="shared" ref="D276" si="871">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A277" t="e">
-        <f t="shared" ref="A277:A340" si="872">#REF!-0.1</f>
+        <f t="shared" ref="A277" si="872">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B277" t="e">
-        <f t="shared" ref="B277:B340" si="873">#REF!-0.1</f>
+        <f t="shared" ref="B277" si="873">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C277" t="e">
-        <f t="shared" ref="C277:C340" si="874">#REF!-0.1</f>
+        <f t="shared" ref="C277" si="874">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D277" t="e">
-        <f t="shared" ref="D277:D340" si="875">#REF!-0.1</f>
+        <f t="shared" ref="D277" si="875">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A278" t="e">
-        <f t="shared" ref="A278:A341" si="876">#REF!-0.1</f>
+        <f t="shared" ref="A278" si="876">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B278" t="e">
-        <f t="shared" ref="B278:B341" si="877">#REF!-0.1</f>
+        <f t="shared" ref="B278" si="877">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C278" t="e">
-        <f t="shared" ref="C278:C341" si="878">#REF!-0.1</f>
+        <f t="shared" ref="C278" si="878">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D278" t="e">
-        <f t="shared" ref="D278:D341" si="879">#REF!-0.1</f>
+        <f t="shared" ref="D278" si="879">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A279" t="e">
-        <f t="shared" ref="A279:A342" si="880">#REF!-0.1</f>
+        <f t="shared" ref="A279" si="880">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B279" t="e">
-        <f t="shared" ref="B279:B342" si="881">#REF!-0.1</f>
+        <f t="shared" ref="B279" si="881">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C279" t="e">
-        <f t="shared" ref="C279:C342" si="882">#REF!-0.1</f>
+        <f t="shared" ref="C279" si="882">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D279" t="e">
-        <f t="shared" ref="D279:D342" si="883">#REF!-0.1</f>
+        <f t="shared" ref="D279" si="883">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A280" t="e">
-        <f t="shared" ref="A280:A343" si="884">#REF!-0.1</f>
+        <f t="shared" ref="A280" si="884">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B280" t="e">
-        <f t="shared" ref="B280:B343" si="885">#REF!-0.1</f>
+        <f t="shared" ref="B280" si="885">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C280" t="e">
-        <f t="shared" ref="C280:C343" si="886">#REF!-0.1</f>
+        <f t="shared" ref="C280" si="886">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D280" t="e">
-        <f t="shared" ref="D280:D343" si="887">#REF!-0.1</f>
+        <f t="shared" ref="D280" si="887">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A281" t="e">
-        <f t="shared" ref="A281:A344" si="888">#REF!-0.1</f>
+        <f t="shared" ref="A281" si="888">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B281" t="e">
-        <f t="shared" ref="B281:B344" si="889">#REF!-0.1</f>
+        <f t="shared" ref="B281" si="889">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C281" t="e">
-        <f t="shared" ref="C281:C344" si="890">#REF!-0.1</f>
+        <f t="shared" ref="C281" si="890">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D281" t="e">
-        <f t="shared" ref="D281:D344" si="891">#REF!-0.1</f>
+        <f t="shared" ref="D281" si="891">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A282" t="e">
-        <f t="shared" ref="A282:A345" si="892">#REF!-0.1</f>
+        <f t="shared" ref="A282" si="892">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B282" t="e">
-        <f t="shared" ref="B282:B345" si="893">#REF!-0.1</f>
+        <f t="shared" ref="B282" si="893">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C282" t="e">
-        <f t="shared" ref="C282:C345" si="894">#REF!-0.1</f>
+        <f t="shared" ref="C282" si="894">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D282" t="e">
-        <f t="shared" ref="D282:D345" si="895">#REF!-0.1</f>
+        <f t="shared" ref="D282" si="895">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A283" t="e">
-        <f t="shared" ref="A283:A346" si="896">#REF!-0.1</f>
+        <f t="shared" ref="A283" si="896">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B283" t="e">
-        <f t="shared" ref="B283:B346" si="897">#REF!-0.1</f>
+        <f t="shared" ref="B283" si="897">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C283" t="e">
-        <f t="shared" ref="C283:C346" si="898">#REF!-0.1</f>
+        <f t="shared" ref="C283" si="898">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D283" t="e">
-        <f t="shared" ref="D283:D346" si="899">#REF!-0.1</f>
+        <f t="shared" ref="D283" si="899">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A284" t="e">
-        <f t="shared" ref="A284:A347" si="900">#REF!-0.1</f>
+        <f t="shared" ref="A284" si="900">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B284" t="e">
-        <f t="shared" ref="B284:B347" si="901">#REF!-0.1</f>
+        <f t="shared" ref="B284" si="901">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C284" t="e">
-        <f t="shared" ref="C284:C347" si="902">#REF!-0.1</f>
+        <f t="shared" ref="C284" si="902">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D284" t="e">
-        <f t="shared" ref="D284:D347" si="903">#REF!-0.1</f>
+        <f t="shared" ref="D284" si="903">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A285" t="e">
-        <f t="shared" ref="A285:A348" si="904">#REF!-0.1</f>
+        <f t="shared" ref="A285" si="904">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B285" t="e">
-        <f t="shared" ref="B285:B348" si="905">#REF!-0.1</f>
+        <f t="shared" ref="B285" si="905">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C285" t="e">
-        <f t="shared" ref="C285:C348" si="906">#REF!-0.1</f>
+        <f t="shared" ref="C285" si="906">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D285" t="e">
-        <f t="shared" ref="D285:D348" si="907">#REF!-0.1</f>
+        <f t="shared" ref="D285" si="907">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A286" t="e">
-        <f t="shared" ref="A286:A349" si="908">#REF!-0.1</f>
+        <f t="shared" ref="A286" si="908">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B286" t="e">
-        <f t="shared" ref="B286:B349" si="909">#REF!-0.1</f>
+        <f t="shared" ref="B286" si="909">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C286" t="e">
-        <f t="shared" ref="C286:C349" si="910">#REF!-0.1</f>
+        <f t="shared" ref="C286" si="910">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D286" t="e">
-        <f t="shared" ref="D286:D349" si="911">#REF!-0.1</f>
+        <f t="shared" ref="D286" si="911">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A287" t="e">
-        <f t="shared" ref="A287:A350" si="912">#REF!-0.1</f>
+        <f t="shared" ref="A287" si="912">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B287" t="e">
-        <f t="shared" ref="B287:B350" si="913">#REF!-0.1</f>
+        <f t="shared" ref="B287" si="913">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C287" t="e">
-        <f t="shared" ref="C287:C350" si="914">#REF!-0.1</f>
+        <f t="shared" ref="C287" si="914">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D287" t="e">
-        <f t="shared" ref="D287:D350" si="915">#REF!-0.1</f>
+        <f t="shared" ref="D287" si="915">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A288" t="e">
-        <f t="shared" ref="A288:A351" si="916">#REF!-0.1</f>
+        <f t="shared" ref="A288" si="916">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B288" t="e">
-        <f t="shared" ref="B288:B351" si="917">#REF!-0.1</f>
+        <f t="shared" ref="B288" si="917">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C288" t="e">
-        <f t="shared" ref="C288:C351" si="918">#REF!-0.1</f>
+        <f t="shared" ref="C288" si="918">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D288" t="e">
-        <f t="shared" ref="D288:D351" si="919">#REF!-0.1</f>
+        <f t="shared" ref="D288" si="919">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A289" t="e">
-        <f t="shared" ref="A289:A352" si="920">#REF!-0.1</f>
+        <f t="shared" ref="A289" si="920">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B289" t="e">
-        <f t="shared" ref="B289:B352" si="921">#REF!-0.1</f>
+        <f t="shared" ref="B289" si="921">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C289" t="e">
-        <f t="shared" ref="C289:C352" si="922">#REF!-0.1</f>
+        <f t="shared" ref="C289" si="922">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D289" t="e">
-        <f t="shared" ref="D289:D352" si="923">#REF!-0.1</f>
+        <f t="shared" ref="D289" si="923">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A290" t="e">
-        <f t="shared" ref="A290:A353" si="924">#REF!-0.1</f>
+        <f t="shared" ref="A290" si="924">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B290" t="e">
-        <f t="shared" ref="B290:B353" si="925">#REF!-0.1</f>
+        <f t="shared" ref="B290" si="925">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C290" t="e">
-        <f t="shared" ref="C290:C353" si="926">#REF!-0.1</f>
+        <f t="shared" ref="C290" si="926">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D290" t="e">
-        <f t="shared" ref="D290:D353" si="927">#REF!-0.1</f>
+        <f t="shared" ref="D290" si="927">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A291" t="e">
-        <f t="shared" ref="A291:A354" si="928">#REF!-0.1</f>
+        <f t="shared" ref="A291" si="928">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B291" t="e">
-        <f t="shared" ref="B291:B354" si="929">#REF!-0.1</f>
+        <f t="shared" ref="B291" si="929">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C291" t="e">
-        <f t="shared" ref="C291:C354" si="930">#REF!-0.1</f>
+        <f t="shared" ref="C291" si="930">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D291" t="e">
-        <f t="shared" ref="D291:D354" si="931">#REF!-0.1</f>
+        <f t="shared" ref="D291" si="931">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A292" t="e">
-        <f t="shared" ref="A292:A355" si="932">#REF!-0.1</f>
+        <f t="shared" ref="A292" si="932">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B292" t="e">
-        <f t="shared" ref="B292:B355" si="933">#REF!-0.1</f>
+        <f t="shared" ref="B292" si="933">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C292" t="e">
-        <f t="shared" ref="C292:C355" si="934">#REF!-0.1</f>
+        <f t="shared" ref="C292" si="934">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D292" t="e">
-        <f t="shared" ref="D292:D355" si="935">#REF!-0.1</f>
+        <f t="shared" ref="D292" si="935">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A293" t="e">
-        <f t="shared" ref="A293:A356" si="936">#REF!-0.1</f>
+        <f t="shared" ref="A293" si="936">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B293" t="e">
-        <f t="shared" ref="B293:B356" si="937">#REF!-0.1</f>
+        <f t="shared" ref="B293" si="937">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C293" t="e">
-        <f t="shared" ref="C293:C356" si="938">#REF!-0.1</f>
+        <f t="shared" ref="C293" si="938">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D293" t="e">
-        <f t="shared" ref="D293:D356" si="939">#REF!-0.1</f>
+        <f t="shared" ref="D293" si="939">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A294" t="e">
-        <f t="shared" ref="A294:A357" si="940">#REF!-0.1</f>
+        <f t="shared" ref="A294" si="940">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B294" t="e">
-        <f t="shared" ref="B294:B357" si="941">#REF!-0.1</f>
+        <f t="shared" ref="B294" si="941">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C294" t="e">
-        <f t="shared" ref="C294:C357" si="942">#REF!-0.1</f>
+        <f t="shared" ref="C294" si="942">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D294" t="e">
-        <f t="shared" ref="D294:D357" si="943">#REF!-0.1</f>
+        <f t="shared" ref="D294" si="943">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A295" t="e">
-        <f t="shared" ref="A295:A358" si="944">#REF!-0.1</f>
+        <f t="shared" ref="A295" si="944">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B295" t="e">
-        <f t="shared" ref="B295:B358" si="945">#REF!-0.1</f>
+        <f t="shared" ref="B295" si="945">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C295" t="e">
-        <f t="shared" ref="C295:C358" si="946">#REF!-0.1</f>
+        <f t="shared" ref="C295" si="946">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D295" t="e">
-        <f t="shared" ref="D295:D358" si="947">#REF!-0.1</f>
+        <f t="shared" ref="D295" si="947">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A296" t="e">
-        <f t="shared" ref="A296:A359" si="948">#REF!-0.1</f>
+        <f t="shared" ref="A296" si="948">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B296" t="e">
-        <f t="shared" ref="B296:B359" si="949">#REF!-0.1</f>
+        <f t="shared" ref="B296" si="949">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C296" t="e">
-        <f t="shared" ref="C296:C359" si="950">#REF!-0.1</f>
+        <f t="shared" ref="C296" si="950">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D296" t="e">
-        <f t="shared" ref="D296:D359" si="951">#REF!-0.1</f>
+        <f t="shared" ref="D296" si="951">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A297" t="e">
-        <f t="shared" ref="A297:A360" si="952">#REF!-0.1</f>
+        <f t="shared" ref="A297" si="952">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B297" t="e">
-        <f t="shared" ref="B297:B360" si="953">#REF!-0.1</f>
+        <f t="shared" ref="B297" si="953">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C297" t="e">
-        <f t="shared" ref="C297:C360" si="954">#REF!-0.1</f>
+        <f t="shared" ref="C297" si="954">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D297" t="e">
-        <f t="shared" ref="D297:D360" si="955">#REF!-0.1</f>
+        <f t="shared" ref="D297" si="955">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A298" t="e">
-        <f t="shared" ref="A298:A361" si="956">#REF!-0.1</f>
+        <f t="shared" ref="A298" si="956">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B298" t="e">
-        <f t="shared" ref="B298:B361" si="957">#REF!-0.1</f>
+        <f t="shared" ref="B298" si="957">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C298" t="e">
-        <f t="shared" ref="C298:C361" si="958">#REF!-0.1</f>
+        <f t="shared" ref="C298" si="958">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D298" t="e">
-        <f t="shared" ref="D298:D361" si="959">#REF!-0.1</f>
+        <f t="shared" ref="D298" si="959">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A299" t="e">
-        <f t="shared" ref="A299:A362" si="960">#REF!-0.1</f>
+        <f t="shared" ref="A299" si="960">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B299" t="e">
-        <f t="shared" ref="B299:B362" si="961">#REF!-0.1</f>
+        <f t="shared" ref="B299" si="961">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C299" t="e">
-        <f t="shared" ref="C299:C362" si="962">#REF!-0.1</f>
+        <f t="shared" ref="C299" si="962">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D299" t="e">
-        <f t="shared" ref="D299:D362" si="963">#REF!-0.1</f>
+        <f t="shared" ref="D299" si="963">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A300" t="e">
-        <f t="shared" ref="A300:A363" si="964">#REF!-0.1</f>
+        <f t="shared" ref="A300" si="964">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B300" t="e">
-        <f t="shared" ref="B300:B363" si="965">#REF!-0.1</f>
+        <f t="shared" ref="B300" si="965">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C300" t="e">
-        <f t="shared" ref="C300:C363" si="966">#REF!-0.1</f>
+        <f t="shared" ref="C300" si="966">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D300" t="e">
-        <f t="shared" ref="D300:D363" si="967">#REF!-0.1</f>
+        <f t="shared" ref="D300" si="967">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A301" t="e">
-        <f t="shared" ref="A301:A364" si="968">#REF!-0.1</f>
+        <f t="shared" ref="A301" si="968">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B301" t="e">
-        <f t="shared" ref="B301:B364" si="969">#REF!-0.1</f>
+        <f t="shared" ref="B301" si="969">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C301" t="e">
-        <f t="shared" ref="C301:C364" si="970">#REF!-0.1</f>
+        <f t="shared" ref="C301" si="970">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D301" t="e">
-        <f t="shared" ref="D301:D364" si="971">#REF!-0.1</f>
+        <f t="shared" ref="D301" si="971">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A302" t="e">
-        <f t="shared" ref="A302:A365" si="972">#REF!-0.1</f>
+        <f t="shared" ref="A302" si="972">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B302" t="e">
-        <f t="shared" ref="B302:B365" si="973">#REF!-0.1</f>
+        <f t="shared" ref="B302" si="973">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C302" t="e">
-        <f t="shared" ref="C302:C365" si="974">#REF!-0.1</f>
+        <f t="shared" ref="C302" si="974">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D302" t="e">
-        <f t="shared" ref="D302:D365" si="975">#REF!-0.1</f>
+        <f t="shared" ref="D302" si="975">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A303" t="e">
-        <f t="shared" ref="A303:A366" si="976">#REF!-0.1</f>
+        <f t="shared" ref="A303" si="976">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B303" t="e">
-        <f t="shared" ref="B303:B366" si="977">#REF!-0.1</f>
+        <f t="shared" ref="B303" si="977">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C303" t="e">
-        <f t="shared" ref="C303:C366" si="978">#REF!-0.1</f>
+        <f t="shared" ref="C303" si="978">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D303" t="e">
-        <f t="shared" ref="D303:D366" si="979">#REF!-0.1</f>
+        <f t="shared" ref="D303" si="979">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A304" t="e">
-        <f t="shared" ref="A304:A367" si="980">#REF!-0.1</f>
+        <f t="shared" ref="A304" si="980">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B304" t="e">
-        <f t="shared" ref="B304:B367" si="981">#REF!-0.1</f>
+        <f t="shared" ref="B304" si="981">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C304" t="e">
-        <f t="shared" ref="C304:C367" si="982">#REF!-0.1</f>
+        <f t="shared" ref="C304" si="982">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D304" t="e">
-        <f t="shared" ref="D304:D367" si="983">#REF!-0.1</f>
+        <f t="shared" ref="D304" si="983">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A305" t="e">
-        <f t="shared" ref="A305:A368" si="984">#REF!-0.1</f>
+        <f t="shared" ref="A305" si="984">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B305" t="e">
-        <f t="shared" ref="B305:B368" si="985">#REF!-0.1</f>
+        <f t="shared" ref="B305" si="985">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C305" t="e">
-        <f t="shared" ref="C305:C368" si="986">#REF!-0.1</f>
+        <f t="shared" ref="C305" si="986">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D305" t="e">
-        <f t="shared" ref="D305:D368" si="987">#REF!-0.1</f>
+        <f t="shared" ref="D305" si="987">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A306" t="e">
-        <f t="shared" ref="A306:A369" si="988">#REF!-0.1</f>
+        <f t="shared" ref="A306" si="988">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B306" t="e">
-        <f t="shared" ref="B306:B369" si="989">#REF!-0.1</f>
+        <f t="shared" ref="B306" si="989">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C306" t="e">
-        <f t="shared" ref="C306:C369" si="990">#REF!-0.1</f>
+        <f t="shared" ref="C306" si="990">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D306" t="e">
-        <f t="shared" ref="D306:D369" si="991">#REF!-0.1</f>
+        <f t="shared" ref="D306" si="991">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A307" t="e">
-        <f t="shared" ref="A307:A370" si="992">#REF!-0.1</f>
+        <f t="shared" ref="A307" si="992">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B307" t="e">
-        <f t="shared" ref="B307:B370" si="993">#REF!-0.1</f>
+        <f t="shared" ref="B307" si="993">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C307" t="e">
-        <f t="shared" ref="C307:C370" si="994">#REF!-0.1</f>
+        <f t="shared" ref="C307" si="994">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D307" t="e">
-        <f t="shared" ref="D307:D370" si="995">#REF!-0.1</f>
+        <f t="shared" ref="D307" si="995">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A308" t="e">
-        <f t="shared" ref="A308:A371" si="996">#REF!-0.1</f>
+        <f t="shared" ref="A308" si="996">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B308" t="e">
-        <f t="shared" ref="B308:B371" si="997">#REF!-0.1</f>
+        <f t="shared" ref="B308" si="997">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C308" t="e">
-        <f t="shared" ref="C308:C371" si="998">#REF!-0.1</f>
+        <f t="shared" ref="C308" si="998">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D308" t="e">
-        <f t="shared" ref="D308:D371" si="999">#REF!-0.1</f>
+        <f t="shared" ref="D308" si="999">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A309" t="e">
-        <f t="shared" ref="A309:A372" si="1000">#REF!-0.1</f>
+        <f t="shared" ref="A309" si="1000">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B309" t="e">
-        <f t="shared" ref="B309:B372" si="1001">#REF!-0.1</f>
+        <f t="shared" ref="B309" si="1001">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C309" t="e">
-        <f t="shared" ref="C309:C372" si="1002">#REF!-0.1</f>
+        <f t="shared" ref="C309" si="1002">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D309" t="e">
-        <f t="shared" ref="D309:D372" si="1003">#REF!-0.1</f>
+        <f t="shared" ref="D309" si="1003">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A310" t="e">
-        <f t="shared" ref="A310:A373" si="1004">#REF!-0.1</f>
+        <f t="shared" ref="A310" si="1004">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B310" t="e">
-        <f t="shared" ref="B310:B373" si="1005">#REF!-0.1</f>
+        <f t="shared" ref="B310" si="1005">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C310" t="e">
-        <f t="shared" ref="C310:C373" si="1006">#REF!-0.1</f>
+        <f t="shared" ref="C310" si="1006">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D310" t="e">
-        <f t="shared" ref="D310:D373" si="1007">#REF!-0.1</f>
+        <f t="shared" ref="D310" si="1007">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A311" t="e">
-        <f t="shared" ref="A311:A374" si="1008">#REF!-0.1</f>
+        <f t="shared" ref="A311" si="1008">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B311" t="e">
-        <f t="shared" ref="B311:B374" si="1009">#REF!-0.1</f>
+        <f t="shared" ref="B311" si="1009">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C311" t="e">
-        <f t="shared" ref="C311:C374" si="1010">#REF!-0.1</f>
+        <f t="shared" ref="C311" si="1010">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D311" t="e">
-        <f t="shared" ref="D311:D374" si="1011">#REF!-0.1</f>
+        <f t="shared" ref="D311" si="1011">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A312" t="e">
-        <f t="shared" ref="A312:A375" si="1012">#REF!-0.1</f>
+        <f t="shared" ref="A312" si="1012">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B312" t="e">
-        <f t="shared" ref="B312:B375" si="1013">#REF!-0.1</f>
+        <f t="shared" ref="B312" si="1013">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C312" t="e">
-        <f t="shared" ref="C312:C375" si="1014">#REF!-0.1</f>
+        <f t="shared" ref="C312" si="1014">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D312" t="e">
-        <f t="shared" ref="D312:D375" si="1015">#REF!-0.1</f>
+        <f t="shared" ref="D312" si="1015">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A313" t="e">
-        <f t="shared" ref="A313:A376" si="1016">#REF!-0.1</f>
+        <f t="shared" ref="A313" si="1016">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B313" t="e">
-        <f t="shared" ref="B313:B376" si="1017">#REF!-0.1</f>
+        <f t="shared" ref="B313" si="1017">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C313" t="e">
-        <f t="shared" ref="C313:C376" si="1018">#REF!-0.1</f>
+        <f t="shared" ref="C313" si="1018">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D313" t="e">
-        <f t="shared" ref="D313:D376" si="1019">#REF!-0.1</f>
+        <f t="shared" ref="D313" si="1019">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A314" t="e">
-        <f t="shared" ref="A314:A377" si="1020">#REF!-0.1</f>
+        <f t="shared" ref="A314" si="1020">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B314" t="e">
-        <f t="shared" ref="B314:B377" si="1021">#REF!-0.1</f>
+        <f t="shared" ref="B314" si="1021">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C314" t="e">
-        <f t="shared" ref="C314:C377" si="1022">#REF!-0.1</f>
+        <f t="shared" ref="C314" si="1022">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D314" t="e">
-        <f t="shared" ref="D314:D377" si="1023">#REF!-0.1</f>
+        <f t="shared" ref="D314" si="1023">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A315" t="e">
-        <f t="shared" ref="A315:A378" si="1024">#REF!-0.1</f>
+        <f t="shared" ref="A315" si="1024">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B315" t="e">
-        <f t="shared" ref="B315:B378" si="1025">#REF!-0.1</f>
+        <f t="shared" ref="B315" si="1025">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C315" t="e">
-        <f t="shared" ref="C315:C378" si="1026">#REF!-0.1</f>
+        <f t="shared" ref="C315" si="1026">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D315" t="e">
-        <f t="shared" ref="D315:D378" si="1027">#REF!-0.1</f>
+        <f t="shared" ref="D315" si="1027">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A316" t="e">
-        <f t="shared" ref="A316:A379" si="1028">#REF!-0.1</f>
+        <f t="shared" ref="A316" si="1028">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B316" t="e">
-        <f t="shared" ref="B316:B379" si="1029">#REF!-0.1</f>
+        <f t="shared" ref="B316" si="1029">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C316" t="e">
-        <f t="shared" ref="C316:C379" si="1030">#REF!-0.1</f>
+        <f t="shared" ref="C316" si="1030">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D316" t="e">
-        <f t="shared" ref="D316:D379" si="1031">#REF!-0.1</f>
+        <f t="shared" ref="D316" si="1031">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A317" t="e">
-        <f t="shared" ref="A317:A380" si="1032">#REF!-0.1</f>
+        <f t="shared" ref="A317" si="1032">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B317" t="e">
-        <f t="shared" ref="B317:B380" si="1033">#REF!-0.1</f>
+        <f t="shared" ref="B317" si="1033">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C317" t="e">
-        <f t="shared" ref="C317:C380" si="1034">#REF!-0.1</f>
+        <f t="shared" ref="C317" si="1034">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D317" t="e">
-        <f t="shared" ref="D317:D380" si="1035">#REF!-0.1</f>
+        <f t="shared" ref="D317" si="1035">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A318" t="e">
-        <f t="shared" ref="A318:A381" si="1036">#REF!-0.1</f>
+        <f t="shared" ref="A318" si="1036">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B318" t="e">
-        <f t="shared" ref="B318:B381" si="1037">#REF!-0.1</f>
+        <f t="shared" ref="B318" si="1037">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C318" t="e">
-        <f t="shared" ref="C318:C381" si="1038">#REF!-0.1</f>
+        <f t="shared" ref="C318" si="1038">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D318" t="e">
-        <f t="shared" ref="D318:D381" si="1039">#REF!-0.1</f>
+        <f t="shared" ref="D318" si="1039">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A319" t="e">
-        <f t="shared" ref="A319:A382" si="1040">#REF!-0.1</f>
+        <f t="shared" ref="A319" si="1040">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B319" t="e">
-        <f t="shared" ref="B319:B382" si="1041">#REF!-0.1</f>
+        <f t="shared" ref="B319" si="1041">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C319" t="e">
-        <f t="shared" ref="C319:C382" si="1042">#REF!-0.1</f>
+        <f t="shared" ref="C319" si="1042">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D319" t="e">
-        <f t="shared" ref="D319:D382" si="1043">#REF!-0.1</f>
+        <f t="shared" ref="D319" si="1043">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A320" t="e">
-        <f t="shared" ref="A320:A383" si="1044">#REF!-0.1</f>
+        <f t="shared" ref="A320" si="1044">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B320" t="e">
-        <f t="shared" ref="B320:B383" si="1045">#REF!-0.1</f>
+        <f t="shared" ref="B320" si="1045">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C320" t="e">
-        <f t="shared" ref="C320:C383" si="1046">#REF!-0.1</f>
+        <f t="shared" ref="C320" si="1046">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D320" t="e">
-        <f t="shared" ref="D320:D383" si="1047">#REF!-0.1</f>
+        <f t="shared" ref="D320" si="1047">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A321" t="e">
-        <f t="shared" ref="A321:A384" si="1048">#REF!-0.1</f>
+        <f t="shared" ref="A321" si="1048">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B321" t="e">
-        <f t="shared" ref="B321:B384" si="1049">#REF!-0.1</f>
+        <f t="shared" ref="B321" si="1049">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C321" t="e">
-        <f t="shared" ref="C321:C384" si="1050">#REF!-0.1</f>
+        <f t="shared" ref="C321" si="1050">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D321" t="e">
-        <f t="shared" ref="D321:D384" si="1051">#REF!-0.1</f>
+        <f t="shared" ref="D321" si="1051">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A322" t="e">
-        <f t="shared" ref="A322:A385" si="1052">#REF!-0.1</f>
+        <f t="shared" ref="A322" si="1052">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B322" t="e">
-        <f t="shared" ref="B322:B385" si="1053">#REF!-0.1</f>
+        <f t="shared" ref="B322" si="1053">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C322" t="e">
-        <f t="shared" ref="C322:C385" si="1054">#REF!-0.1</f>
+        <f t="shared" ref="C322" si="1054">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D322" t="e">
-        <f t="shared" ref="D322:D385" si="1055">#REF!-0.1</f>
+        <f t="shared" ref="D322" si="1055">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A323" t="e">
-        <f t="shared" ref="A323:A386" si="1056">#REF!-0.1</f>
+        <f t="shared" ref="A323" si="1056">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B323" t="e">
-        <f t="shared" ref="B323:B386" si="1057">#REF!-0.1</f>
+        <f t="shared" ref="B323" si="1057">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C323" t="e">
-        <f t="shared" ref="C323:C386" si="1058">#REF!-0.1</f>
+        <f t="shared" ref="C323" si="1058">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D323" t="e">
-        <f t="shared" ref="D323:D386" si="1059">#REF!-0.1</f>
+        <f t="shared" ref="D323" si="1059">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A324" t="e">
-        <f t="shared" ref="A324:A387" si="1060">#REF!-0.1</f>
+        <f t="shared" ref="A324" si="1060">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B324" t="e">
-        <f t="shared" ref="B324:B387" si="1061">#REF!-0.1</f>
+        <f t="shared" ref="B324" si="1061">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C324" t="e">
-        <f t="shared" ref="C324:C387" si="1062">#REF!-0.1</f>
+        <f t="shared" ref="C324" si="1062">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D324" t="e">
-        <f t="shared" ref="D324:D387" si="1063">#REF!-0.1</f>
+        <f t="shared" ref="D324" si="1063">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A325" t="e">
-        <f t="shared" ref="A325:A388" si="1064">#REF!-0.1</f>
+        <f t="shared" ref="A325" si="1064">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B325" t="e">
-        <f t="shared" ref="B325:B388" si="1065">#REF!-0.1</f>
+        <f t="shared" ref="B325" si="1065">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C325" t="e">
-        <f t="shared" ref="C325:C388" si="1066">#REF!-0.1</f>
+        <f t="shared" ref="C325" si="1066">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D325" t="e">
-        <f t="shared" ref="D325:D388" si="1067">#REF!-0.1</f>
+        <f t="shared" ref="D325" si="1067">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A326" t="e">
-        <f t="shared" ref="A326:A389" si="1068">#REF!-0.1</f>
+        <f t="shared" ref="A326" si="1068">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B326" t="e">
-        <f t="shared" ref="B326:B389" si="1069">#REF!-0.1</f>
+        <f t="shared" ref="B326" si="1069">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C326" t="e">
-        <f t="shared" ref="C326:C389" si="1070">#REF!-0.1</f>
+        <f t="shared" ref="C326" si="1070">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D326" t="e">
-        <f t="shared" ref="D326:D389" si="1071">#REF!-0.1</f>
+        <f t="shared" ref="D326" si="1071">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A327" t="e">
-        <f t="shared" ref="A327:A390" si="1072">#REF!-0.1</f>
+        <f t="shared" ref="A327" si="1072">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B327" t="e">
-        <f t="shared" ref="B327:B390" si="1073">#REF!-0.1</f>
+        <f t="shared" ref="B327" si="1073">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C327" t="e">
-        <f t="shared" ref="C327:C390" si="1074">#REF!-0.1</f>
+        <f t="shared" ref="C327" si="1074">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D327" t="e">
-        <f t="shared" ref="D327:D390" si="1075">#REF!-0.1</f>
+        <f t="shared" ref="D327" si="1075">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A328" t="e">
-        <f t="shared" ref="A328:A391" si="1076">#REF!-0.1</f>
+        <f t="shared" ref="A328" si="1076">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B328" t="e">
-        <f t="shared" ref="B328:B391" si="1077">#REF!-0.1</f>
+        <f t="shared" ref="B328" si="1077">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C328" t="e">
-        <f t="shared" ref="C328:C391" si="1078">#REF!-0.1</f>
+        <f t="shared" ref="C328" si="1078">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D328" t="e">
-        <f t="shared" ref="D328:D391" si="1079">#REF!-0.1</f>
+        <f t="shared" ref="D328" si="1079">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A329" t="e">
-        <f t="shared" ref="A329:A392" si="1080">#REF!-0.1</f>
+        <f t="shared" ref="A329" si="1080">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B329" t="e">
-        <f t="shared" ref="B329:B392" si="1081">#REF!-0.1</f>
+        <f t="shared" ref="B329" si="1081">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C329" t="e">
-        <f t="shared" ref="C329:C392" si="1082">#REF!-0.1</f>
+        <f t="shared" ref="C329" si="1082">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D329" t="e">
-        <f t="shared" ref="D329:D392" si="1083">#REF!-0.1</f>
+        <f t="shared" ref="D329" si="1083">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A330" t="e">
-        <f t="shared" ref="A330:A393" si="1084">#REF!-0.1</f>
+        <f t="shared" ref="A330" si="1084">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B330" t="e">
-        <f t="shared" ref="B330:B393" si="1085">#REF!-0.1</f>
+        <f t="shared" ref="B330" si="1085">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C330" t="e">
-        <f t="shared" ref="C330:C393" si="1086">#REF!-0.1</f>
+        <f t="shared" ref="C330" si="1086">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D330" t="e">
-        <f t="shared" ref="D330:D393" si="1087">#REF!-0.1</f>
+        <f t="shared" ref="D330" si="1087">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A331" t="e">
-        <f t="shared" ref="A331:A394" si="1088">#REF!-0.1</f>
+        <f t="shared" ref="A331" si="1088">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B331" t="e">
-        <f t="shared" ref="B331:B394" si="1089">#REF!-0.1</f>
+        <f t="shared" ref="B331" si="1089">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C331" t="e">
-        <f t="shared" ref="C331:C394" si="1090">#REF!-0.1</f>
+        <f t="shared" ref="C331" si="1090">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D331" t="e">
-        <f t="shared" ref="D331:D394" si="1091">#REF!-0.1</f>
+        <f t="shared" ref="D331" si="1091">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A332" t="e">
-        <f t="shared" ref="A332:A395" si="1092">#REF!-0.1</f>
+        <f t="shared" ref="A332" si="1092">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B332" t="e">
-        <f t="shared" ref="B332:B395" si="1093">#REF!-0.1</f>
+        <f t="shared" ref="B332" si="1093">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C332" t="e">
-        <f t="shared" ref="C332:C395" si="1094">#REF!-0.1</f>
+        <f t="shared" ref="C332" si="1094">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D332" t="e">
-        <f t="shared" ref="D332:D395" si="1095">#REF!-0.1</f>
+        <f t="shared" ref="D332" si="1095">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A333" t="e">
-        <f t="shared" ref="A333:A396" si="1096">#REF!-0.1</f>
+        <f t="shared" ref="A333" si="1096">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B333" t="e">
-        <f t="shared" ref="B333:B396" si="1097">#REF!-0.1</f>
+        <f t="shared" ref="B333" si="1097">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C333" t="e">
-        <f t="shared" ref="C333:C396" si="1098">#REF!-0.1</f>
+        <f t="shared" ref="C333" si="1098">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D333" t="e">
-        <f t="shared" ref="D333:D396" si="1099">#REF!-0.1</f>
+        <f t="shared" ref="D333" si="1099">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A334" t="e">
-        <f t="shared" ref="A334:A397" si="1100">#REF!-0.1</f>
+        <f t="shared" ref="A334" si="1100">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B334" t="e">
-        <f t="shared" ref="B334:B397" si="1101">#REF!-0.1</f>
+        <f t="shared" ref="B334" si="1101">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C334" t="e">
-        <f t="shared" ref="C334:C397" si="1102">#REF!-0.1</f>
+        <f t="shared" ref="C334" si="1102">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D334" t="e">
-        <f t="shared" ref="D334:D397" si="1103">#REF!-0.1</f>
+        <f t="shared" ref="D334" si="1103">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A335" t="e">
-        <f t="shared" ref="A335:A398" si="1104">#REF!-0.1</f>
+        <f t="shared" ref="A335" si="1104">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B335" t="e">
-        <f t="shared" ref="B335:B398" si="1105">#REF!-0.1</f>
+        <f t="shared" ref="B335" si="1105">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C335" t="e">
-        <f t="shared" ref="C335:C398" si="1106">#REF!-0.1</f>
+        <f t="shared" ref="C335" si="1106">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D335" t="e">
-        <f t="shared" ref="D335:D398" si="1107">#REF!-0.1</f>
+        <f t="shared" ref="D335" si="1107">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A336" t="e">
-        <f t="shared" ref="A336:A399" si="1108">#REF!-0.1</f>
+        <f t="shared" ref="A336" si="1108">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B336" t="e">
-        <f t="shared" ref="B336:B399" si="1109">#REF!-0.1</f>
+        <f t="shared" ref="B336" si="1109">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C336" t="e">
-        <f t="shared" ref="C336:C399" si="1110">#REF!-0.1</f>
+        <f t="shared" ref="C336" si="1110">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D336" t="e">
-        <f t="shared" ref="D336:D399" si="1111">#REF!-0.1</f>
+        <f t="shared" ref="D336" si="1111">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A337" t="e">
-        <f t="shared" ref="A337:A400" si="1112">#REF!-0.1</f>
+        <f t="shared" ref="A337" si="1112">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B337" t="e">
-        <f t="shared" ref="B337:B400" si="1113">#REF!-0.1</f>
+        <f t="shared" ref="B337" si="1113">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C337" t="e">
-        <f t="shared" ref="C337:C400" si="1114">#REF!-0.1</f>
+        <f t="shared" ref="C337" si="1114">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D337" t="e">
-        <f t="shared" ref="D337:D400" si="1115">#REF!-0.1</f>
+        <f t="shared" ref="D337" si="1115">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A338" t="e">
-        <f t="shared" ref="A338:A401" si="1116">#REF!-0.1</f>
+        <f t="shared" ref="A338" si="1116">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B338" t="e">
-        <f t="shared" ref="B338:B401" si="1117">#REF!-0.1</f>
+        <f t="shared" ref="B338" si="1117">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C338" t="e">
-        <f t="shared" ref="C338:C401" si="1118">#REF!-0.1</f>
+        <f t="shared" ref="C338" si="1118">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D338" t="e">
-        <f t="shared" ref="D338:D401" si="1119">#REF!-0.1</f>
+        <f t="shared" ref="D338" si="1119">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A339" t="e">
-        <f t="shared" ref="A339:A402" si="1120">#REF!-0.1</f>
+        <f t="shared" ref="A339" si="1120">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B339" t="e">
-        <f t="shared" ref="B339:B402" si="1121">#REF!-0.1</f>
+        <f t="shared" ref="B339" si="1121">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C339" t="e">
-        <f t="shared" ref="C339:C402" si="1122">#REF!-0.1</f>
+        <f t="shared" ref="C339" si="1122">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D339" t="e">
-        <f t="shared" ref="D339:D402" si="1123">#REF!-0.1</f>
+        <f t="shared" ref="D339" si="1123">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A340" t="e">
-        <f t="shared" ref="A340:A403" si="1124">#REF!-0.1</f>
+        <f t="shared" ref="A340" si="1124">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B340" t="e">
-        <f t="shared" ref="B340:B403" si="1125">#REF!-0.1</f>
+        <f t="shared" ref="B340" si="1125">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C340" t="e">
-        <f t="shared" ref="C340:C403" si="1126">#REF!-0.1</f>
+        <f t="shared" ref="C340" si="1126">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D340" t="e">
-        <f t="shared" ref="D340:D403" si="1127">#REF!-0.1</f>
+        <f t="shared" ref="D340" si="1127">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A341" t="e">
-        <f t="shared" ref="A341:A404" si="1128">#REF!-0.1</f>
+        <f t="shared" ref="A341" si="1128">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B341" t="e">
-        <f t="shared" ref="B341:B404" si="1129">#REF!-0.1</f>
+        <f t="shared" ref="B341" si="1129">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C341" t="e">
-        <f t="shared" ref="C341:C404" si="1130">#REF!-0.1</f>
+        <f t="shared" ref="C341" si="1130">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D341" t="e">
-        <f t="shared" ref="D341:D404" si="1131">#REF!-0.1</f>
+        <f t="shared" ref="D341" si="1131">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A342" t="e">
-        <f t="shared" ref="A342:A405" si="1132">#REF!-0.1</f>
+        <f t="shared" ref="A342" si="1132">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B342" t="e">
-        <f t="shared" ref="B342:B405" si="1133">#REF!-0.1</f>
+        <f t="shared" ref="B342" si="1133">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C342" t="e">
-        <f t="shared" ref="C342:C405" si="1134">#REF!-0.1</f>
+        <f t="shared" ref="C342" si="1134">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D342" t="e">
-        <f t="shared" ref="D342:D405" si="1135">#REF!-0.1</f>
+        <f t="shared" ref="D342" si="1135">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A343" t="e">
-        <f t="shared" ref="A343:A406" si="1136">#REF!-0.1</f>
+        <f t="shared" ref="A343" si="1136">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B343" t="e">
-        <f t="shared" ref="B343:B406" si="1137">#REF!-0.1</f>
+        <f t="shared" ref="B343" si="1137">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C343" t="e">
-        <f t="shared" ref="C343:C406" si="1138">#REF!-0.1</f>
+        <f t="shared" ref="C343" si="1138">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D343" t="e">
-        <f t="shared" ref="D343:D406" si="1139">#REF!-0.1</f>
+        <f t="shared" ref="D343" si="1139">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A344" t="e">
-        <f t="shared" ref="A344:A407" si="1140">#REF!-0.1</f>
+        <f t="shared" ref="A344" si="1140">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B344" t="e">
-        <f t="shared" ref="B344:B407" si="1141">#REF!-0.1</f>
+        <f t="shared" ref="B344" si="1141">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C344" t="e">
-        <f t="shared" ref="C344:C407" si="1142">#REF!-0.1</f>
+        <f t="shared" ref="C344" si="1142">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D344" t="e">
-        <f t="shared" ref="D344:D407" si="1143">#REF!-0.1</f>
+        <f t="shared" ref="D344" si="1143">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A345" t="e">
-        <f t="shared" ref="A345:A408" si="1144">#REF!-0.1</f>
+        <f t="shared" ref="A345" si="1144">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B345" t="e">
-        <f t="shared" ref="B345:B408" si="1145">#REF!-0.1</f>
+        <f t="shared" ref="B345" si="1145">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C345" t="e">
-        <f t="shared" ref="C345:C408" si="1146">#REF!-0.1</f>
+        <f t="shared" ref="C345" si="1146">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D345" t="e">
-        <f t="shared" ref="D345:D408" si="1147">#REF!-0.1</f>
+        <f t="shared" ref="D345" si="1147">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A346" t="e">
-        <f t="shared" ref="A346:A409" si="1148">#REF!-0.1</f>
+        <f t="shared" ref="A346" si="1148">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B346" t="e">
-        <f t="shared" ref="B346:B409" si="1149">#REF!-0.1</f>
+        <f t="shared" ref="B346" si="1149">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C346" t="e">
-        <f t="shared" ref="C346:C409" si="1150">#REF!-0.1</f>
+        <f t="shared" ref="C346" si="1150">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D346" t="e">
-        <f t="shared" ref="D346:D409" si="1151">#REF!-0.1</f>
+        <f t="shared" ref="D346" si="1151">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A347" t="e">
-        <f t="shared" ref="A347:A410" si="1152">#REF!-0.1</f>
+        <f t="shared" ref="A347" si="1152">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B347" t="e">
-        <f t="shared" ref="B347:B410" si="1153">#REF!-0.1</f>
+        <f t="shared" ref="B347" si="1153">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C347" t="e">
-        <f t="shared" ref="C347:C410" si="1154">#REF!-0.1</f>
+        <f t="shared" ref="C347" si="1154">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D347" t="e">
-        <f t="shared" ref="D347:D410" si="1155">#REF!-0.1</f>
+        <f t="shared" ref="D347" si="1155">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A348" t="e">
-        <f t="shared" ref="A348:A411" si="1156">#REF!-0.1</f>
+        <f t="shared" ref="A348" si="1156">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B348" t="e">
-        <f t="shared" ref="B348:B411" si="1157">#REF!-0.1</f>
+        <f t="shared" ref="B348" si="1157">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C348" t="e">
-        <f t="shared" ref="C348:C411" si="1158">#REF!-0.1</f>
+        <f t="shared" ref="C348" si="1158">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D348" t="e">
-        <f t="shared" ref="D348:D411" si="1159">#REF!-0.1</f>
+        <f t="shared" ref="D348" si="1159">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A349" t="e">
-        <f t="shared" ref="A349:A412" si="1160">#REF!-0.1</f>
+        <f t="shared" ref="A349" si="1160">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B349" t="e">
-        <f t="shared" ref="B349:B412" si="1161">#REF!-0.1</f>
+        <f t="shared" ref="B349" si="1161">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C349" t="e">
-        <f t="shared" ref="C349:C412" si="1162">#REF!-0.1</f>
+        <f t="shared" ref="C349" si="1162">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D349" t="e">
-        <f t="shared" ref="D349:D412" si="1163">#REF!-0.1</f>
+        <f t="shared" ref="D349" si="1163">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A350" t="e">
-        <f t="shared" ref="A350:A413" si="1164">#REF!-0.1</f>
+        <f t="shared" ref="A350" si="1164">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B350" t="e">
-        <f t="shared" ref="B350:B413" si="1165">#REF!-0.1</f>
+        <f t="shared" ref="B350" si="1165">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C350" t="e">
-        <f t="shared" ref="C350:C413" si="1166">#REF!-0.1</f>
+        <f t="shared" ref="C350" si="1166">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D350" t="e">
-        <f t="shared" ref="D350:D413" si="1167">#REF!-0.1</f>
+        <f t="shared" ref="D350" si="1167">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A351" t="e">
-        <f t="shared" ref="A351:A414" si="1168">#REF!-0.1</f>
+        <f t="shared" ref="A351" si="1168">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B351" t="e">
-        <f t="shared" ref="B351:B414" si="1169">#REF!-0.1</f>
+        <f t="shared" ref="B351" si="1169">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C351" t="e">
-        <f t="shared" ref="C351:C414" si="1170">#REF!-0.1</f>
+        <f t="shared" ref="C351" si="1170">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D351" t="e">
-        <f t="shared" ref="D351:D414" si="1171">#REF!-0.1</f>
+        <f t="shared" ref="D351" si="1171">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A352" t="e">
-        <f t="shared" ref="A352:A415" si="1172">#REF!-0.1</f>
+        <f t="shared" ref="A352" si="1172">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B352" t="e">
-        <f t="shared" ref="B352:B415" si="1173">#REF!-0.1</f>
+        <f t="shared" ref="B352" si="1173">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C352" t="e">
-        <f t="shared" ref="C352:C415" si="1174">#REF!-0.1</f>
+        <f t="shared" ref="C352" si="1174">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D352" t="e">
-        <f t="shared" ref="D352:D415" si="1175">#REF!-0.1</f>
+        <f t="shared" ref="D352" si="1175">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A353" t="e">
-        <f t="shared" ref="A353:A416" si="1176">#REF!-0.1</f>
+        <f t="shared" ref="A353" si="1176">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B353" t="e">
-        <f t="shared" ref="B353:B416" si="1177">#REF!-0.1</f>
+        <f t="shared" ref="B353" si="1177">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C353" t="e">
-        <f t="shared" ref="C353:C416" si="1178">#REF!-0.1</f>
+        <f t="shared" ref="C353" si="1178">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D353" t="e">
-        <f t="shared" ref="D353:D416" si="1179">#REF!-0.1</f>
+        <f t="shared" ref="D353" si="1179">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A354" t="e">
-        <f t="shared" ref="A354:A417" si="1180">#REF!-0.1</f>
+        <f t="shared" ref="A354" si="1180">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B354" t="e">
-        <f t="shared" ref="B354:B417" si="1181">#REF!-0.1</f>
+        <f t="shared" ref="B354" si="1181">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C354" t="e">
-        <f t="shared" ref="C354:C417" si="1182">#REF!-0.1</f>
+        <f t="shared" ref="C354" si="1182">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D354" t="e">
-        <f t="shared" ref="D354:D417" si="1183">#REF!-0.1</f>
+        <f t="shared" ref="D354" si="1183">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A355" t="e">
-        <f t="shared" ref="A355:A418" si="1184">#REF!-0.1</f>
+        <f t="shared" ref="A355" si="1184">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B355" t="e">
-        <f t="shared" ref="B355:B418" si="1185">#REF!-0.1</f>
+        <f t="shared" ref="B355" si="1185">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C355" t="e">
-        <f t="shared" ref="C355:C418" si="1186">#REF!-0.1</f>
+        <f t="shared" ref="C355" si="1186">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D355" t="e">
-        <f t="shared" ref="D355:D418" si="1187">#REF!-0.1</f>
+        <f t="shared" ref="D355" si="1187">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A356" t="e">
-        <f t="shared" ref="A356:A419" si="1188">#REF!-0.1</f>
+        <f t="shared" ref="A356" si="1188">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B356" t="e">
-        <f t="shared" ref="B356:B419" si="1189">#REF!-0.1</f>
+        <f t="shared" ref="B356" si="1189">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C356" t="e">
-        <f t="shared" ref="C356:C419" si="1190">#REF!-0.1</f>
+        <f t="shared" ref="C356" si="1190">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D356" t="e">
-        <f t="shared" ref="D356:D419" si="1191">#REF!-0.1</f>
+        <f t="shared" ref="D356" si="1191">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A357" t="e">
-        <f t="shared" ref="A357:A420" si="1192">#REF!-0.1</f>
+        <f t="shared" ref="A357" si="1192">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B357" t="e">
-        <f t="shared" ref="B357:B420" si="1193">#REF!-0.1</f>
+        <f t="shared" ref="B357" si="1193">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C357" t="e">
-        <f t="shared" ref="C357:C420" si="1194">#REF!-0.1</f>
+        <f t="shared" ref="C357" si="1194">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D357" t="e">
-        <f t="shared" ref="D357:D420" si="1195">#REF!-0.1</f>
+        <f t="shared" ref="D357" si="1195">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A358" t="e">
-        <f t="shared" ref="A358:A421" si="1196">#REF!-0.1</f>
+        <f t="shared" ref="A358" si="1196">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B358" t="e">
-        <f t="shared" ref="B358:B421" si="1197">#REF!-0.1</f>
+        <f t="shared" ref="B358" si="1197">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C358" t="e">
-        <f t="shared" ref="C358:C421" si="1198">#REF!-0.1</f>
+        <f t="shared" ref="C358" si="1198">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D358" t="e">
-        <f t="shared" ref="D358:D421" si="1199">#REF!-0.1</f>
+        <f t="shared" ref="D358" si="1199">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A359" t="e">
-        <f t="shared" ref="A359:A422" si="1200">#REF!-0.1</f>
+        <f t="shared" ref="A359" si="1200">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B359" t="e">
-        <f t="shared" ref="B359:B422" si="1201">#REF!-0.1</f>
+        <f t="shared" ref="B359" si="1201">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C359" t="e">
-        <f t="shared" ref="C359:C422" si="1202">#REF!-0.1</f>
+        <f t="shared" ref="C359" si="1202">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D359" t="e">
-        <f t="shared" ref="D359:D422" si="1203">#REF!-0.1</f>
+        <f t="shared" ref="D359" si="1203">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A360" t="e">
-        <f t="shared" ref="A360:A423" si="1204">#REF!-0.1</f>
+        <f t="shared" ref="A360" si="1204">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B360" t="e">
-        <f t="shared" ref="B360:B423" si="1205">#REF!-0.1</f>
+        <f t="shared" ref="B360" si="1205">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C360" t="e">
-        <f t="shared" ref="C360:C423" si="1206">#REF!-0.1</f>
+        <f t="shared" ref="C360" si="1206">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D360" t="e">
-        <f t="shared" ref="D360:D423" si="1207">#REF!-0.1</f>
+        <f t="shared" ref="D360" si="1207">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A361" t="e">
-        <f t="shared" ref="A361:A424" si="1208">#REF!-0.1</f>
+        <f t="shared" ref="A361" si="1208">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B361" t="e">
-        <f t="shared" ref="B361:B424" si="1209">#REF!-0.1</f>
+        <f t="shared" ref="B361" si="1209">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C361" t="e">
-        <f t="shared" ref="C361:C424" si="1210">#REF!-0.1</f>
+        <f t="shared" ref="C361" si="1210">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D361" t="e">
-        <f t="shared" ref="D361:D424" si="1211">#REF!-0.1</f>
+        <f t="shared" ref="D361" si="1211">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A362" t="e">
-        <f t="shared" ref="A362:A425" si="1212">#REF!-0.1</f>
+        <f t="shared" ref="A362" si="1212">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B362" t="e">
-        <f t="shared" ref="B362:B425" si="1213">#REF!-0.1</f>
+        <f t="shared" ref="B362" si="1213">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C362" t="e">
-        <f t="shared" ref="C362:C425" si="1214">#REF!-0.1</f>
+        <f t="shared" ref="C362" si="1214">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D362" t="e">
-        <f t="shared" ref="D362:D425" si="1215">#REF!-0.1</f>
+        <f t="shared" ref="D362" si="1215">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A363" t="e">
-        <f t="shared" ref="A363:A426" si="1216">#REF!-0.1</f>
+        <f t="shared" ref="A363" si="1216">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B363" t="e">
-        <f t="shared" ref="B363:B426" si="1217">#REF!-0.1</f>
+        <f t="shared" ref="B363" si="1217">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C363" t="e">
-        <f t="shared" ref="C363:C426" si="1218">#REF!-0.1</f>
+        <f t="shared" ref="C363" si="1218">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D363" t="e">
-        <f t="shared" ref="D363:D426" si="1219">#REF!-0.1</f>
+        <f t="shared" ref="D363" si="1219">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A364" t="e">
-        <f t="shared" ref="A364:A427" si="1220">#REF!-0.1</f>
+        <f t="shared" ref="A364" si="1220">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B364" t="e">
-        <f t="shared" ref="B364:B427" si="1221">#REF!-0.1</f>
+        <f t="shared" ref="B364" si="1221">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C364" t="e">
-        <f t="shared" ref="C364:C427" si="1222">#REF!-0.1</f>
+        <f t="shared" ref="C364" si="1222">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D364" t="e">
-        <f t="shared" ref="D364:D427" si="1223">#REF!-0.1</f>
+        <f t="shared" ref="D364" si="1223">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A365" t="e">
-        <f t="shared" ref="A365:A428" si="1224">#REF!-0.1</f>
+        <f t="shared" ref="A365" si="1224">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B365" t="e">
-        <f t="shared" ref="B365:B428" si="1225">#REF!-0.1</f>
+        <f t="shared" ref="B365" si="1225">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C365" t="e">
-        <f t="shared" ref="C365:C428" si="1226">#REF!-0.1</f>
+        <f t="shared" ref="C365" si="1226">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D365" t="e">
-        <f t="shared" ref="D365:D428" si="1227">#REF!-0.1</f>
+        <f t="shared" ref="D365" si="1227">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A366" t="e">
-        <f t="shared" ref="A366:A429" si="1228">#REF!-0.1</f>
+        <f t="shared" ref="A366" si="1228">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B366" t="e">
-        <f t="shared" ref="B366:B429" si="1229">#REF!-0.1</f>
+        <f t="shared" ref="B366" si="1229">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C366" t="e">
-        <f t="shared" ref="C366:C429" si="1230">#REF!-0.1</f>
+        <f t="shared" ref="C366" si="1230">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D366" t="e">
-        <f t="shared" ref="D366:D429" si="1231">#REF!-0.1</f>
+        <f t="shared" ref="D366" si="1231">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A367" t="e">
-        <f t="shared" ref="A367:A430" si="1232">#REF!-0.1</f>
+        <f t="shared" ref="A367" si="1232">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B367" t="e">
-        <f t="shared" ref="B367:B430" si="1233">#REF!-0.1</f>
+        <f t="shared" ref="B367" si="1233">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C367" t="e">
-        <f t="shared" ref="C367:C430" si="1234">#REF!-0.1</f>
+        <f t="shared" ref="C367" si="1234">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D367" t="e">
-        <f t="shared" ref="D367:D430" si="1235">#REF!-0.1</f>
+        <f t="shared" ref="D367" si="1235">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A368" t="e">
-        <f t="shared" ref="A368:A431" si="1236">#REF!-0.1</f>
+        <f t="shared" ref="A368" si="1236">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B368" t="e">
-        <f t="shared" ref="B368:B431" si="1237">#REF!-0.1</f>
+        <f t="shared" ref="B368" si="1237">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C368" t="e">
-        <f t="shared" ref="C368:C431" si="1238">#REF!-0.1</f>
+        <f t="shared" ref="C368" si="1238">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D368" t="e">
-        <f t="shared" ref="D368:D431" si="1239">#REF!-0.1</f>
+        <f t="shared" ref="D368" si="1239">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A369" t="e">
-        <f t="shared" ref="A369:A432" si="1240">#REF!-0.1</f>
+        <f t="shared" ref="A369" si="1240">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B369" t="e">
-        <f t="shared" ref="B369:B432" si="1241">#REF!-0.1</f>
+        <f t="shared" ref="B369" si="1241">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C369" t="e">
-        <f t="shared" ref="C369:C432" si="1242">#REF!-0.1</f>
+        <f t="shared" ref="C369" si="1242">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D369" t="e">
-        <f t="shared" ref="D369:D432" si="1243">#REF!-0.1</f>
+        <f t="shared" ref="D369" si="1243">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A370" t="e">
-        <f t="shared" ref="A370:A433" si="1244">#REF!-0.1</f>
+        <f t="shared" ref="A370" si="1244">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B370" t="e">
-        <f t="shared" ref="B370:B433" si="1245">#REF!-0.1</f>
+        <f t="shared" ref="B370" si="1245">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C370" t="e">
-        <f t="shared" ref="C370:C433" si="1246">#REF!-0.1</f>
+        <f t="shared" ref="C370" si="1246">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D370" t="e">
-        <f t="shared" ref="D370:D433" si="1247">#REF!-0.1</f>
+        <f t="shared" ref="D370" si="1247">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A371" t="e">
-        <f t="shared" ref="A371:A434" si="1248">#REF!-0.1</f>
+        <f t="shared" ref="A371" si="1248">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B371" t="e">
-        <f t="shared" ref="B371:B434" si="1249">#REF!-0.1</f>
+        <f t="shared" ref="B371" si="1249">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C371" t="e">
-        <f t="shared" ref="C371:C434" si="1250">#REF!-0.1</f>
+        <f t="shared" ref="C371" si="1250">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D371" t="e">
-        <f t="shared" ref="D371:D434" si="1251">#REF!-0.1</f>
+        <f t="shared" ref="D371" si="1251">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A372" t="e">
-        <f t="shared" ref="A372:A435" si="1252">#REF!-0.1</f>
+        <f t="shared" ref="A372" si="1252">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B372" t="e">
-        <f t="shared" ref="B372:B435" si="1253">#REF!-0.1</f>
+        <f t="shared" ref="B372" si="1253">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C372" t="e">
-        <f t="shared" ref="C372:C435" si="1254">#REF!-0.1</f>
+        <f t="shared" ref="C372" si="1254">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D372" t="e">
-        <f t="shared" ref="D372:D435" si="1255">#REF!-0.1</f>
+        <f t="shared" ref="D372" si="1255">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A373" t="e">
-        <f t="shared" ref="A373:A436" si="1256">#REF!-0.1</f>
+        <f t="shared" ref="A373" si="1256">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B373" t="e">
-        <f t="shared" ref="B373:B436" si="1257">#REF!-0.1</f>
+        <f t="shared" ref="B373" si="1257">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C373" t="e">
-        <f t="shared" ref="C373:C436" si="1258">#REF!-0.1</f>
+        <f t="shared" ref="C373" si="1258">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D373" t="e">
-        <f t="shared" ref="D373:D436" si="1259">#REF!-0.1</f>
+        <f t="shared" ref="D373" si="1259">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A374" t="e">
-        <f t="shared" ref="A374:A437" si="1260">#REF!-0.1</f>
+        <f t="shared" ref="A374" si="1260">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B374" t="e">
-        <f t="shared" ref="B374:B437" si="1261">#REF!-0.1</f>
+        <f t="shared" ref="B374" si="1261">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C374" t="e">
-        <f t="shared" ref="C374:C437" si="1262">#REF!-0.1</f>
+        <f t="shared" ref="C374" si="1262">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D374" t="e">
-        <f t="shared" ref="D374:D437" si="1263">#REF!-0.1</f>
+        <f t="shared" ref="D374" si="1263">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A375" t="e">
-        <f t="shared" ref="A375:A438" si="1264">#REF!-0.1</f>
+        <f t="shared" ref="A375" si="1264">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B375" t="e">
-        <f t="shared" ref="B375:B438" si="1265">#REF!-0.1</f>
+        <f t="shared" ref="B375" si="1265">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C375" t="e">
-        <f t="shared" ref="C375:C438" si="1266">#REF!-0.1</f>
+        <f t="shared" ref="C375" si="1266">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D375" t="e">
-        <f t="shared" ref="D375:D438" si="1267">#REF!-0.1</f>
+        <f t="shared" ref="D375" si="1267">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A376" t="e">
-        <f t="shared" ref="A376:A439" si="1268">#REF!-0.1</f>
+        <f t="shared" ref="A376" si="1268">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B376" t="e">
-        <f t="shared" ref="B376:B439" si="1269">#REF!-0.1</f>
+        <f t="shared" ref="B376" si="1269">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C376" t="e">
-        <f t="shared" ref="C376:C439" si="1270">#REF!-0.1</f>
+        <f t="shared" ref="C376" si="1270">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D376" t="e">
-        <f t="shared" ref="D376:D439" si="1271">#REF!-0.1</f>
+        <f t="shared" ref="D376" si="1271">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A377" t="e">
-        <f t="shared" ref="A377:A440" si="1272">#REF!-0.1</f>
+        <f t="shared" ref="A377" si="1272">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B377" t="e">
-        <f t="shared" ref="B377:B440" si="1273">#REF!-0.1</f>
+        <f t="shared" ref="B377" si="1273">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C377" t="e">
-        <f t="shared" ref="C377:C440" si="1274">#REF!-0.1</f>
+        <f t="shared" ref="C377" si="1274">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D377" t="e">
-        <f t="shared" ref="D377:D440" si="1275">#REF!-0.1</f>
+        <f t="shared" ref="D377" si="1275">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A378" t="e">
-        <f t="shared" ref="A378:A441" si="1276">#REF!-0.1</f>
+        <f t="shared" ref="A378" si="1276">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B378" t="e">
-        <f t="shared" ref="B378:B441" si="1277">#REF!-0.1</f>
+        <f t="shared" ref="B378" si="1277">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C378" t="e">
-        <f t="shared" ref="C378:C441" si="1278">#REF!-0.1</f>
+        <f t="shared" ref="C378" si="1278">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D378" t="e">
-        <f t="shared" ref="D378:D441" si="1279">#REF!-0.1</f>
+        <f t="shared" ref="D378" si="1279">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A379" t="e">
-        <f t="shared" ref="A379:A442" si="1280">#REF!-0.1</f>
+        <f t="shared" ref="A379" si="1280">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B379" t="e">
-        <f t="shared" ref="B379:B442" si="1281">#REF!-0.1</f>
+        <f t="shared" ref="B379" si="1281">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C379" t="e">
-        <f t="shared" ref="C379:C442" si="1282">#REF!-0.1</f>
+        <f t="shared" ref="C379" si="1282">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D379" t="e">
-        <f t="shared" ref="D379:D442" si="1283">#REF!-0.1</f>
+        <f t="shared" ref="D379" si="1283">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A380" t="e">
-        <f t="shared" ref="A380:A443" si="1284">#REF!-0.1</f>
+        <f t="shared" ref="A380" si="1284">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B380" t="e">
-        <f t="shared" ref="B380:B443" si="1285">#REF!-0.1</f>
+        <f t="shared" ref="B380" si="1285">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C380" t="e">
-        <f t="shared" ref="C380:C443" si="1286">#REF!-0.1</f>
+        <f t="shared" ref="C380" si="1286">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D380" t="e">
-        <f t="shared" ref="D380:D443" si="1287">#REF!-0.1</f>
+        <f t="shared" ref="D380" si="1287">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A381" t="e">
-        <f t="shared" ref="A381:A444" si="1288">#REF!-0.1</f>
+        <f t="shared" ref="A381" si="1288">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B381" t="e">
-        <f t="shared" ref="B381:B444" si="1289">#REF!-0.1</f>
+        <f t="shared" ref="B381" si="1289">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C381" t="e">
-        <f t="shared" ref="C381:C444" si="1290">#REF!-0.1</f>
+        <f t="shared" ref="C381" si="1290">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D381" t="e">
-        <f t="shared" ref="D381:D444" si="1291">#REF!-0.1</f>
+        <f t="shared" ref="D381" si="1291">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A382" t="e">
-        <f t="shared" ref="A382:A445" si="1292">#REF!-0.1</f>
+        <f t="shared" ref="A382" si="1292">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B382" t="e">
-        <f t="shared" ref="B382:B445" si="1293">#REF!-0.1</f>
+        <f t="shared" ref="B382" si="1293">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C382" t="e">
-        <f t="shared" ref="C382:C445" si="1294">#REF!-0.1</f>
+        <f t="shared" ref="C382" si="1294">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D382" t="e">
-        <f t="shared" ref="D382:D445" si="1295">#REF!-0.1</f>
+        <f t="shared" ref="D382" si="1295">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A383" t="e">
-        <f t="shared" ref="A383:A446" si="1296">#REF!-0.1</f>
+        <f t="shared" ref="A383" si="1296">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B383" t="e">
-        <f t="shared" ref="B383:B446" si="1297">#REF!-0.1</f>
+        <f t="shared" ref="B383" si="1297">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C383" t="e">
-        <f t="shared" ref="C383:C446" si="1298">#REF!-0.1</f>
+        <f t="shared" ref="C383" si="1298">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D383" t="e">
-        <f t="shared" ref="D383:D446" si="1299">#REF!-0.1</f>
+        <f t="shared" ref="D383" si="1299">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A384" t="e">
-        <f t="shared" ref="A384:A447" si="1300">#REF!-0.1</f>
+        <f t="shared" ref="A384" si="1300">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B384" t="e">
-        <f t="shared" ref="B384:B447" si="1301">#REF!-0.1</f>
+        <f t="shared" ref="B384" si="1301">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C384" t="e">
-        <f t="shared" ref="C384:C447" si="1302">#REF!-0.1</f>
+        <f t="shared" ref="C384" si="1302">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D384" t="e">
-        <f t="shared" ref="D384:D447" si="1303">#REF!-0.1</f>
+        <f t="shared" ref="D384" si="1303">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A385" t="e">
-        <f t="shared" ref="A385:A448" si="1304">#REF!-0.1</f>
+        <f t="shared" ref="A385" si="1304">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B385" t="e">
-        <f t="shared" ref="B385:B448" si="1305">#REF!-0.1</f>
+        <f t="shared" ref="B385" si="1305">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C385" t="e">
-        <f t="shared" ref="C385:C448" si="1306">#REF!-0.1</f>
+        <f t="shared" ref="C385" si="1306">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D385" t="e">
-        <f t="shared" ref="D385:D448" si="1307">#REF!-0.1</f>
+        <f t="shared" ref="D385" si="1307">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A386" t="e">
-        <f t="shared" ref="A386:A449" si="1308">#REF!-0.1</f>
+        <f t="shared" ref="A386" si="1308">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B386" t="e">
-        <f t="shared" ref="B386:B449" si="1309">#REF!-0.1</f>
+        <f t="shared" ref="B386" si="1309">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C386" t="e">
-        <f t="shared" ref="C386:C449" si="1310">#REF!-0.1</f>
+        <f t="shared" ref="C386" si="1310">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D386" t="e">
-        <f t="shared" ref="D386:D449" si="1311">#REF!-0.1</f>
+        <f t="shared" ref="D386" si="1311">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A387" t="e">
-        <f t="shared" ref="A387:A450" si="1312">#REF!-0.1</f>
+        <f t="shared" ref="A387" si="1312">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B387" t="e">
-        <f t="shared" ref="B387:B450" si="1313">#REF!-0.1</f>
+        <f t="shared" ref="B387" si="1313">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C387" t="e">
-        <f t="shared" ref="C387:C450" si="1314">#REF!-0.1</f>
+        <f t="shared" ref="C387" si="1314">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D387" t="e">
-        <f t="shared" ref="D387:D450" si="1315">#REF!-0.1</f>
+        <f t="shared" ref="D387" si="1315">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A388" t="e">
-        <f t="shared" ref="A388:A451" si="1316">#REF!-0.1</f>
+        <f t="shared" ref="A388" si="1316">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B388" t="e">
-        <f t="shared" ref="B388:B451" si="1317">#REF!-0.1</f>
+        <f t="shared" ref="B388" si="1317">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C388" t="e">
-        <f t="shared" ref="C388:C451" si="1318">#REF!-0.1</f>
+        <f t="shared" ref="C388" si="1318">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D388" t="e">
-        <f t="shared" ref="D388:D451" si="1319">#REF!-0.1</f>
+        <f t="shared" ref="D388" si="1319">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A389" t="e">
-        <f t="shared" ref="A389:A452" si="1320">#REF!-0.1</f>
+        <f t="shared" ref="A389" si="1320">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B389" t="e">
-        <f t="shared" ref="B389:B452" si="1321">#REF!-0.1</f>
+        <f t="shared" ref="B389" si="1321">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C389" t="e">
-        <f t="shared" ref="C389:C452" si="1322">#REF!-0.1</f>
+        <f t="shared" ref="C389" si="1322">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D389" t="e">
-        <f t="shared" ref="D389:D452" si="1323">#REF!-0.1</f>
+        <f t="shared" ref="D389" si="1323">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A390" t="e">
-        <f t="shared" ref="A390:A453" si="1324">#REF!-0.1</f>
+        <f t="shared" ref="A390" si="1324">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B390" t="e">
-        <f t="shared" ref="B390:B453" si="1325">#REF!-0.1</f>
+        <f t="shared" ref="B390" si="1325">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C390" t="e">
-        <f t="shared" ref="C390:C453" si="1326">#REF!-0.1</f>
+        <f t="shared" ref="C390" si="1326">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D390" t="e">
-        <f t="shared" ref="D390:D453" si="1327">#REF!-0.1</f>
+        <f t="shared" ref="D390" si="1327">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A391" t="e">
-        <f t="shared" ref="A391:A454" si="1328">#REF!-0.1</f>
+        <f t="shared" ref="A391" si="1328">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B391" t="e">
-        <f t="shared" ref="B391:B454" si="1329">#REF!-0.1</f>
+        <f t="shared" ref="B391" si="1329">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C391" t="e">
-        <f t="shared" ref="C391:C454" si="1330">#REF!-0.1</f>
+        <f t="shared" ref="C391" si="1330">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D391" t="e">
-        <f t="shared" ref="D391:D454" si="1331">#REF!-0.1</f>
+        <f t="shared" ref="D391" si="1331">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A392" t="e">
-        <f t="shared" ref="A392:A455" si="1332">#REF!-0.1</f>
+        <f t="shared" ref="A392" si="1332">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B392" t="e">
-        <f t="shared" ref="B392:B455" si="1333">#REF!-0.1</f>
+        <f t="shared" ref="B392" si="1333">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C392" t="e">
-        <f t="shared" ref="C392:C455" si="1334">#REF!-0.1</f>
+        <f t="shared" ref="C392" si="1334">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D392" t="e">
-        <f t="shared" ref="D392:D455" si="1335">#REF!-0.1</f>
+        <f t="shared" ref="D392" si="1335">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A393" t="e">
-        <f t="shared" ref="A393:A456" si="1336">#REF!-0.1</f>
+        <f t="shared" ref="A393" si="1336">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B393" t="e">
-        <f t="shared" ref="B393:B456" si="1337">#REF!-0.1</f>
+        <f t="shared" ref="B393" si="1337">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C393" t="e">
-        <f t="shared" ref="C393:C456" si="1338">#REF!-0.1</f>
+        <f t="shared" ref="C393" si="1338">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D393" t="e">
-        <f t="shared" ref="D393:D456" si="1339">#REF!-0.1</f>
+        <f t="shared" ref="D393" si="1339">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A394" t="e">
-        <f t="shared" ref="A394:A457" si="1340">#REF!-0.1</f>
+        <f t="shared" ref="A394" si="1340">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B394" t="e">
-        <f t="shared" ref="B394:B457" si="1341">#REF!-0.1</f>
+        <f t="shared" ref="B394" si="1341">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C394" t="e">
-        <f t="shared" ref="C394:C457" si="1342">#REF!-0.1</f>
+        <f t="shared" ref="C394" si="1342">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D394" t="e">
-        <f t="shared" ref="D394:D457" si="1343">#REF!-0.1</f>
+        <f t="shared" ref="D394" si="1343">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A395" t="e">
-        <f t="shared" ref="A395:A458" si="1344">#REF!-0.1</f>
+        <f t="shared" ref="A395" si="1344">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B395" t="e">
-        <f t="shared" ref="B395:B458" si="1345">#REF!-0.1</f>
+        <f t="shared" ref="B395" si="1345">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C395" t="e">
-        <f t="shared" ref="C395:C458" si="1346">#REF!-0.1</f>
+        <f t="shared" ref="C395" si="1346">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D395" t="e">
-        <f t="shared" ref="D395:D458" si="1347">#REF!-0.1</f>
+        <f t="shared" ref="D395" si="1347">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A396" t="e">
-        <f t="shared" ref="A396:A459" si="1348">#REF!-0.1</f>
+        <f t="shared" ref="A396" si="1348">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B396" t="e">
-        <f t="shared" ref="B396:B459" si="1349">#REF!-0.1</f>
+        <f t="shared" ref="B396" si="1349">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C396" t="e">
-        <f t="shared" ref="C396:C459" si="1350">#REF!-0.1</f>
+        <f t="shared" ref="C396" si="1350">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D396" t="e">
-        <f t="shared" ref="D396:D459" si="1351">#REF!-0.1</f>
+        <f t="shared" ref="D396" si="1351">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A397" t="e">
-        <f t="shared" ref="A397:A460" si="1352">#REF!-0.1</f>
+        <f t="shared" ref="A397" si="1352">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B397" t="e">
-        <f t="shared" ref="B397:B460" si="1353">#REF!-0.1</f>
+        <f t="shared" ref="B397" si="1353">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C397" t="e">
-        <f t="shared" ref="C397:C460" si="1354">#REF!-0.1</f>
+        <f t="shared" ref="C397" si="1354">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D397" t="e">
-        <f t="shared" ref="D397:D460" si="1355">#REF!-0.1</f>
+        <f t="shared" ref="D397" si="1355">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A398" t="e">
-        <f t="shared" ref="A398:A461" si="1356">#REF!-0.1</f>
+        <f t="shared" ref="A398" si="1356">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B398" t="e">
-        <f t="shared" ref="B398:B461" si="1357">#REF!-0.1</f>
+        <f t="shared" ref="B398" si="1357">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C398" t="e">
-        <f t="shared" ref="C398:C461" si="1358">#REF!-0.1</f>
+        <f t="shared" ref="C398" si="1358">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D398" t="e">
-        <f t="shared" ref="D398:D461" si="1359">#REF!-0.1</f>
+        <f t="shared" ref="D398" si="1359">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A399" t="e">
-        <f t="shared" ref="A399:A462" si="1360">#REF!-0.1</f>
+        <f t="shared" ref="A399" si="1360">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B399" t="e">
-        <f t="shared" ref="B399:B462" si="1361">#REF!-0.1</f>
+        <f t="shared" ref="B399" si="1361">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C399" t="e">
-        <f t="shared" ref="C399:C462" si="1362">#REF!-0.1</f>
+        <f t="shared" ref="C399" si="1362">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D399" t="e">
-        <f t="shared" ref="D399:D462" si="1363">#REF!-0.1</f>
+        <f t="shared" ref="D399" si="1363">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A400" t="e">
-        <f t="shared" ref="A400:A463" si="1364">#REF!-0.1</f>
+        <f t="shared" ref="A400" si="1364">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B400" t="e">
-        <f t="shared" ref="B400:B463" si="1365">#REF!-0.1</f>
+        <f t="shared" ref="B400" si="1365">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C400" t="e">
-        <f t="shared" ref="C400:C463" si="1366">#REF!-0.1</f>
+        <f t="shared" ref="C400" si="1366">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D400" t="e">
-        <f t="shared" ref="D400:D463" si="1367">#REF!-0.1</f>
+        <f t="shared" ref="D400" si="1367">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A401" t="e">
-        <f t="shared" ref="A401:A464" si="1368">#REF!-0.1</f>
+        <f t="shared" ref="A401" si="1368">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B401" t="e">
-        <f t="shared" ref="B401:B464" si="1369">#REF!-0.1</f>
+        <f t="shared" ref="B401" si="1369">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C401" t="e">
-        <f t="shared" ref="C401:C464" si="1370">#REF!-0.1</f>
+        <f t="shared" ref="C401" si="1370">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D401" t="e">
-        <f t="shared" ref="D401:D464" si="1371">#REF!-0.1</f>
+        <f t="shared" ref="D401" si="1371">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A402" t="e">
-        <f t="shared" ref="A402:A465" si="1372">#REF!-0.1</f>
+        <f t="shared" ref="A402" si="1372">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B402" t="e">
-        <f t="shared" ref="B402:B465" si="1373">#REF!-0.1</f>
+        <f t="shared" ref="B402" si="1373">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C402" t="e">
-        <f t="shared" ref="C402:C465" si="1374">#REF!-0.1</f>
+        <f t="shared" ref="C402" si="1374">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D402" t="e">
-        <f t="shared" ref="D402:D465" si="1375">#REF!-0.1</f>
+        <f t="shared" ref="D402" si="1375">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A403" t="e">
-        <f t="shared" ref="A403:A466" si="1376">#REF!-0.1</f>
+        <f t="shared" ref="A403" si="1376">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B403" t="e">
-        <f t="shared" ref="B403:B466" si="1377">#REF!-0.1</f>
+        <f t="shared" ref="B403" si="1377">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C403" t="e">
-        <f t="shared" ref="C403:C466" si="1378">#REF!-0.1</f>
+        <f t="shared" ref="C403" si="1378">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D403" t="e">
-        <f t="shared" ref="D403:D466" si="1379">#REF!-0.1</f>
+        <f t="shared" ref="D403" si="1379">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A404" t="e">
-        <f t="shared" ref="A404:A467" si="1380">#REF!-0.1</f>
+        <f t="shared" ref="A404" si="1380">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B404" t="e">
-        <f t="shared" ref="B404:B467" si="1381">#REF!-0.1</f>
+        <f t="shared" ref="B404" si="1381">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C404" t="e">
-        <f t="shared" ref="C404:C467" si="1382">#REF!-0.1</f>
+        <f t="shared" ref="C404" si="1382">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D404" t="e">
-        <f t="shared" ref="D404:D467" si="1383">#REF!-0.1</f>
+        <f t="shared" ref="D404" si="1383">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A405" t="e">
-        <f t="shared" ref="A405:A468" si="1384">#REF!-0.1</f>
+        <f t="shared" ref="A405" si="1384">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B405" t="e">
-        <f t="shared" ref="B405:B468" si="1385">#REF!-0.1</f>
+        <f t="shared" ref="B405" si="1385">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C405" t="e">
-        <f t="shared" ref="C405:C468" si="1386">#REF!-0.1</f>
+        <f t="shared" ref="C405" si="1386">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D405" t="e">
-        <f t="shared" ref="D405:D468" si="1387">#REF!-0.1</f>
+        <f t="shared" ref="D405" si="1387">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A406" t="e">
-        <f t="shared" ref="A406:A469" si="1388">#REF!-0.1</f>
+        <f t="shared" ref="A406" si="1388">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B406" t="e">
-        <f t="shared" ref="B406:B469" si="1389">#REF!-0.1</f>
+        <f t="shared" ref="B406" si="1389">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C406" t="e">
-        <f t="shared" ref="C406:C469" si="1390">#REF!-0.1</f>
+        <f t="shared" ref="C406" si="1390">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D406" t="e">
-        <f t="shared" ref="D406:D469" si="1391">#REF!-0.1</f>
+        <f t="shared" ref="D406" si="1391">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A407" t="e">
-        <f t="shared" ref="A407:A470" si="1392">#REF!-0.1</f>
+        <f t="shared" ref="A407" si="1392">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B407" t="e">
-        <f t="shared" ref="B407:B470" si="1393">#REF!-0.1</f>
+        <f t="shared" ref="B407" si="1393">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C407" t="e">
-        <f t="shared" ref="C407:C470" si="1394">#REF!-0.1</f>
+        <f t="shared" ref="C407" si="1394">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D407" t="e">
-        <f t="shared" ref="D407:D470" si="1395">#REF!-0.1</f>
+        <f t="shared" ref="D407" si="1395">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A408" t="e">
-        <f t="shared" ref="A408:A471" si="1396">#REF!-0.1</f>
+        <f t="shared" ref="A408" si="1396">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B408" t="e">
-        <f t="shared" ref="B408:B471" si="1397">#REF!-0.1</f>
+        <f t="shared" ref="B408" si="1397">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C408" t="e">
-        <f t="shared" ref="C408:C471" si="1398">#REF!-0.1</f>
+        <f t="shared" ref="C408" si="1398">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D408" t="e">
-        <f t="shared" ref="D408:D471" si="1399">#REF!-0.1</f>
+        <f t="shared" ref="D408" si="1399">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A409" t="e">
-        <f t="shared" ref="A409:A472" si="1400">#REF!-0.1</f>
+        <f t="shared" ref="A409" si="1400">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B409" t="e">
-        <f t="shared" ref="B409:B472" si="1401">#REF!-0.1</f>
+        <f t="shared" ref="B409" si="1401">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C409" t="e">
-        <f t="shared" ref="C409:C472" si="1402">#REF!-0.1</f>
+        <f t="shared" ref="C409" si="1402">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D409" t="e">
-        <f t="shared" ref="D409:D472" si="1403">#REF!-0.1</f>
+        <f t="shared" ref="D409" si="1403">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A410" t="e">
-        <f t="shared" ref="A410:A473" si="1404">#REF!-0.1</f>
+        <f t="shared" ref="A410" si="1404">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B410" t="e">
-        <f t="shared" ref="B410:B473" si="1405">#REF!-0.1</f>
+        <f t="shared" ref="B410" si="1405">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C410" t="e">
-        <f t="shared" ref="C410:C473" si="1406">#REF!-0.1</f>
+        <f t="shared" ref="C410" si="1406">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D410" t="e">
-        <f t="shared" ref="D410:D473" si="1407">#REF!-0.1</f>
+        <f t="shared" ref="D410" si="1407">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A411" t="e">
-        <f t="shared" ref="A411:A474" si="1408">#REF!-0.1</f>
+        <f t="shared" ref="A411" si="1408">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B411" t="e">
-        <f t="shared" ref="B411:B474" si="1409">#REF!-0.1</f>
+        <f t="shared" ref="B411" si="1409">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C411" t="e">
-        <f t="shared" ref="C411:C474" si="1410">#REF!-0.1</f>
+        <f t="shared" ref="C411" si="1410">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D411" t="e">
-        <f t="shared" ref="D411:D474" si="1411">#REF!-0.1</f>
+        <f t="shared" ref="D411" si="1411">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A412" t="e">
-        <f t="shared" ref="A412:A475" si="1412">#REF!-0.1</f>
+        <f t="shared" ref="A412" si="1412">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B412" t="e">
-        <f t="shared" ref="B412:B475" si="1413">#REF!-0.1</f>
+        <f t="shared" ref="B412" si="1413">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C412" t="e">
-        <f t="shared" ref="C412:C475" si="1414">#REF!-0.1</f>
+        <f t="shared" ref="C412" si="1414">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D412" t="e">
-        <f t="shared" ref="D412:D475" si="1415">#REF!-0.1</f>
+        <f t="shared" ref="D412" si="1415">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A413" t="e">
-        <f t="shared" ref="A413:A476" si="1416">#REF!-0.1</f>
+        <f t="shared" ref="A413" si="1416">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B413" t="e">
-        <f t="shared" ref="B413:B476" si="1417">#REF!-0.1</f>
+        <f t="shared" ref="B413" si="1417">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C413" t="e">
-        <f t="shared" ref="C413:C476" si="1418">#REF!-0.1</f>
+        <f t="shared" ref="C413" si="1418">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D413" t="e">
-        <f t="shared" ref="D413:D476" si="1419">#REF!-0.1</f>
+        <f t="shared" ref="D413" si="1419">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A414" t="e">
-        <f t="shared" ref="A414:A477" si="1420">#REF!-0.1</f>
+        <f t="shared" ref="A414" si="1420">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B414" t="e">
-        <f t="shared" ref="B414:B477" si="1421">#REF!-0.1</f>
+        <f t="shared" ref="B414" si="1421">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C414" t="e">
-        <f t="shared" ref="C414:C477" si="1422">#REF!-0.1</f>
+        <f t="shared" ref="C414" si="1422">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D414" t="e">
-        <f t="shared" ref="D414:D477" si="1423">#REF!-0.1</f>
+        <f t="shared" ref="D414" si="1423">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A415" t="e">
-        <f t="shared" ref="A415:A478" si="1424">#REF!-0.1</f>
+        <f t="shared" ref="A415" si="1424">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B415" t="e">
-        <f t="shared" ref="B415:B478" si="1425">#REF!-0.1</f>
+        <f t="shared" ref="B415" si="1425">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C415" t="e">
-        <f t="shared" ref="C415:C478" si="1426">#REF!-0.1</f>
+        <f t="shared" ref="C415" si="1426">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D415" t="e">
-        <f t="shared" ref="D415:D478" si="1427">#REF!-0.1</f>
+        <f t="shared" ref="D415" si="1427">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A416" t="e">
-        <f t="shared" ref="A416:A479" si="1428">#REF!-0.1</f>
+        <f t="shared" ref="A416" si="1428">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B416" t="e">
-        <f t="shared" ref="B416:B479" si="1429">#REF!-0.1</f>
+        <f t="shared" ref="B416" si="1429">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C416" t="e">
-        <f t="shared" ref="C416:C479" si="1430">#REF!-0.1</f>
+        <f t="shared" ref="C416" si="1430">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D416" t="e">
-        <f t="shared" ref="D416:D479" si="1431">#REF!-0.1</f>
+        <f t="shared" ref="D416" si="1431">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A417" t="e">
-        <f t="shared" ref="A417:A480" si="1432">#REF!-0.1</f>
+        <f t="shared" ref="A417" si="1432">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B417" t="e">
-        <f t="shared" ref="B417:B480" si="1433">#REF!-0.1</f>
+        <f t="shared" ref="B417" si="1433">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C417" t="e">
-        <f t="shared" ref="C417:C480" si="1434">#REF!-0.1</f>
+        <f t="shared" ref="C417" si="1434">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D417" t="e">
-        <f t="shared" ref="D417:D480" si="1435">#REF!-0.1</f>
+        <f t="shared" ref="D417" si="1435">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A418" t="e">
-        <f t="shared" ref="A418:A481" si="1436">#REF!-0.1</f>
+        <f t="shared" ref="A418" si="1436">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B418" t="e">
-        <f t="shared" ref="B418:B481" si="1437">#REF!-0.1</f>
+        <f t="shared" ref="B418" si="1437">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C418" t="e">
-        <f t="shared" ref="C418:C481" si="1438">#REF!-0.1</f>
+        <f t="shared" ref="C418" si="1438">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D418" t="e">
-        <f t="shared" ref="D418:D481" si="1439">#REF!-0.1</f>
+        <f t="shared" ref="D418" si="1439">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A419" t="e">
-        <f t="shared" ref="A419:A482" si="1440">#REF!-0.1</f>
+        <f t="shared" ref="A419" si="1440">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B419" t="e">
-        <f t="shared" ref="B419:B482" si="1441">#REF!-0.1</f>
+        <f t="shared" ref="B419" si="1441">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C419" t="e">
-        <f t="shared" ref="C419:C482" si="1442">#REF!-0.1</f>
+        <f t="shared" ref="C419" si="1442">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D419" t="e">
-        <f t="shared" ref="D419:D482" si="1443">#REF!-0.1</f>
+        <f t="shared" ref="D419" si="1443">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A420" t="e">
-        <f t="shared" ref="A420:A483" si="1444">#REF!-0.1</f>
+        <f t="shared" ref="A420" si="1444">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B420" t="e">
-        <f t="shared" ref="B420:B483" si="1445">#REF!-0.1</f>
+        <f t="shared" ref="B420" si="1445">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C420" t="e">
-        <f t="shared" ref="C420:C483" si="1446">#REF!-0.1</f>
+        <f t="shared" ref="C420" si="1446">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D420" t="e">
-        <f t="shared" ref="D420:D483" si="1447">#REF!-0.1</f>
+        <f t="shared" ref="D420" si="1447">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A421" t="e">
-        <f t="shared" ref="A421:A484" si="1448">#REF!-0.1</f>
+        <f t="shared" ref="A421" si="1448">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B421" t="e">
-        <f t="shared" ref="B421:B484" si="1449">#REF!-0.1</f>
+        <f t="shared" ref="B421" si="1449">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C421" t="e">
-        <f t="shared" ref="C421:C484" si="1450">#REF!-0.1</f>
+        <f t="shared" ref="C421" si="1450">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D421" t="e">
-        <f t="shared" ref="D421:D484" si="1451">#REF!-0.1</f>
+        <f t="shared" ref="D421" si="1451">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A422" t="e">
-        <f t="shared" ref="A422:A485" si="1452">#REF!-0.1</f>
+        <f t="shared" ref="A422" si="1452">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B422" t="e">
-        <f t="shared" ref="B422:B485" si="1453">#REF!-0.1</f>
+        <f t="shared" ref="B422" si="1453">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C422" t="e">
-        <f t="shared" ref="C422:C485" si="1454">#REF!-0.1</f>
+        <f t="shared" ref="C422" si="1454">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D422" t="e">
-        <f t="shared" ref="D422:D485" si="1455">#REF!-0.1</f>
+        <f t="shared" ref="D422" si="1455">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A423" t="e">
-        <f t="shared" ref="A423:A486" si="1456">#REF!-0.1</f>
+        <f t="shared" ref="A423" si="1456">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B423" t="e">
-        <f t="shared" ref="B423:B486" si="1457">#REF!-0.1</f>
+        <f t="shared" ref="B423" si="1457">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C423" t="e">
-        <f t="shared" ref="C423:C486" si="1458">#REF!-0.1</f>
+        <f t="shared" ref="C423" si="1458">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D423" t="e">
-        <f t="shared" ref="D423:D486" si="1459">#REF!-0.1</f>
+        <f t="shared" ref="D423" si="1459">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A424" t="e">
-        <f t="shared" ref="A424:A487" si="1460">#REF!-0.1</f>
+        <f t="shared" ref="A424" si="1460">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B424" t="e">
-        <f t="shared" ref="B424:B487" si="1461">#REF!-0.1</f>
+        <f t="shared" ref="B424" si="1461">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C424" t="e">
-        <f t="shared" ref="C424:C487" si="1462">#REF!-0.1</f>
+        <f t="shared" ref="C424" si="1462">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D424" t="e">
-        <f t="shared" ref="D424:D487" si="1463">#REF!-0.1</f>
+        <f t="shared" ref="D424" si="1463">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A425" t="e">
-        <f t="shared" ref="A425:A488" si="1464">#REF!-0.1</f>
+        <f t="shared" ref="A425" si="1464">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B425" t="e">
-        <f t="shared" ref="B425:B488" si="1465">#REF!-0.1</f>
+        <f t="shared" ref="B425" si="1465">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C425" t="e">
-        <f t="shared" ref="C425:C488" si="1466">#REF!-0.1</f>
+        <f t="shared" ref="C425" si="1466">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D425" t="e">
-        <f t="shared" ref="D425:D488" si="1467">#REF!-0.1</f>
+        <f t="shared" ref="D425" si="1467">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A426" t="e">
-        <f t="shared" ref="A426:A489" si="1468">#REF!-0.1</f>
+        <f t="shared" ref="A426" si="1468">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B426" t="e">
-        <f t="shared" ref="B426:B489" si="1469">#REF!-0.1</f>
+        <f t="shared" ref="B426" si="1469">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C426" t="e">
-        <f t="shared" ref="C426:C489" si="1470">#REF!-0.1</f>
+        <f t="shared" ref="C426" si="1470">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D426" t="e">
-        <f t="shared" ref="D426:D489" si="1471">#REF!-0.1</f>
+        <f t="shared" ref="D426" si="1471">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A427" t="e">
-        <f t="shared" ref="A427:A490" si="1472">#REF!-0.1</f>
+        <f t="shared" ref="A427" si="1472">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B427" t="e">
-        <f t="shared" ref="B427:B490" si="1473">#REF!-0.1</f>
+        <f t="shared" ref="B427" si="1473">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C427" t="e">
-        <f t="shared" ref="C427:C490" si="1474">#REF!-0.1</f>
+        <f t="shared" ref="C427" si="1474">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D427" t="e">
-        <f t="shared" ref="D427:D490" si="1475">#REF!-0.1</f>
+        <f t="shared" ref="D427" si="1475">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A428" t="e">
-        <f t="shared" ref="A428:A491" si="1476">#REF!-0.1</f>
+        <f t="shared" ref="A428" si="1476">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B428" t="e">
-        <f t="shared" ref="B428:B491" si="1477">#REF!-0.1</f>
+        <f t="shared" ref="B428" si="1477">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C428" t="e">
-        <f t="shared" ref="C428:C491" si="1478">#REF!-0.1</f>
+        <f t="shared" ref="C428" si="1478">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D428" t="e">
-        <f t="shared" ref="D428:D491" si="1479">#REF!-0.1</f>
+        <f t="shared" ref="D428" si="1479">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A429" t="e">
-        <f t="shared" ref="A429:A492" si="1480">#REF!-0.1</f>
+        <f t="shared" ref="A429" si="1480">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B429" t="e">
-        <f t="shared" ref="B429:B492" si="1481">#REF!-0.1</f>
+        <f t="shared" ref="B429" si="1481">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C429" t="e">
-        <f t="shared" ref="C429:C492" si="1482">#REF!-0.1</f>
+        <f t="shared" ref="C429" si="1482">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D429" t="e">
-        <f t="shared" ref="D429:D492" si="1483">#REF!-0.1</f>
+        <f t="shared" ref="D429" si="1483">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A430" t="e">
-        <f t="shared" ref="A430:A493" si="1484">#REF!-0.1</f>
+        <f t="shared" ref="A430" si="1484">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B430" t="e">
-        <f t="shared" ref="B430:B493" si="1485">#REF!-0.1</f>
+        <f t="shared" ref="B430" si="1485">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C430" t="e">
-        <f t="shared" ref="C430:C493" si="1486">#REF!-0.1</f>
+        <f t="shared" ref="C430" si="1486">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D430" t="e">
-        <f t="shared" ref="D430:D493" si="1487">#REF!-0.1</f>
+        <f t="shared" ref="D430" si="1487">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A431" t="e">
-        <f t="shared" ref="A431:A494" si="1488">#REF!-0.1</f>
+        <f t="shared" ref="A431" si="1488">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B431" t="e">
-        <f t="shared" ref="B431:B494" si="1489">#REF!-0.1</f>
+        <f t="shared" ref="B431" si="1489">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C431" t="e">
-        <f t="shared" ref="C431:C494" si="1490">#REF!-0.1</f>
+        <f t="shared" ref="C431" si="1490">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D431" t="e">
-        <f t="shared" ref="D431:D494" si="1491">#REF!-0.1</f>
+        <f t="shared" ref="D431" si="1491">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A432" t="e">
-        <f t="shared" ref="A432:A451" si="1492">#REF!-0.1</f>
+        <f t="shared" ref="A432" si="1492">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B432" t="e">
-        <f t="shared" ref="B432:B451" si="1493">#REF!-0.1</f>
+        <f t="shared" ref="B432" si="1493">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C432" t="e">
-        <f t="shared" ref="C432:C451" si="1494">#REF!-0.1</f>
+        <f t="shared" ref="C432" si="1494">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D432" t="e">
-        <f t="shared" ref="D432:D451" si="1495">#REF!-0.1</f>
+        <f t="shared" ref="D432" si="1495">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A433" t="e">
-        <f t="shared" ref="A433:A452" si="1496">#REF!-0.1</f>
+        <f t="shared" ref="A433" si="1496">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B433" t="e">
-        <f t="shared" ref="B433:B452" si="1497">#REF!-0.1</f>
+        <f t="shared" ref="B433" si="1497">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C433" t="e">
-        <f t="shared" ref="C433:C452" si="1498">#REF!-0.1</f>
+        <f t="shared" ref="C433" si="1498">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D433" t="e">
-        <f t="shared" ref="D433:D452" si="1499">#REF!-0.1</f>
+        <f t="shared" ref="D433" si="1499">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A434" t="e">
-        <f t="shared" ref="A434:A453" si="1500">#REF!-0.1</f>
+        <f t="shared" ref="A434" si="1500">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B434" t="e">
-        <f t="shared" ref="B434:B453" si="1501">#REF!-0.1</f>
+        <f t="shared" ref="B434" si="1501">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C434" t="e">
-        <f t="shared" ref="C434:C453" si="1502">#REF!-0.1</f>
+        <f t="shared" ref="C434" si="1502">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D434" t="e">
-        <f t="shared" ref="D434:D453" si="1503">#REF!-0.1</f>
+        <f t="shared" ref="D434" si="1503">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A435" t="e">
-        <f t="shared" ref="A435:A454" si="1504">#REF!-0.1</f>
+        <f t="shared" ref="A435" si="1504">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B435" t="e">
-        <f t="shared" ref="B435:B454" si="1505">#REF!-0.1</f>
+        <f t="shared" ref="B435" si="1505">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C435" t="e">
-        <f t="shared" ref="C435:C454" si="1506">#REF!-0.1</f>
+        <f t="shared" ref="C435" si="1506">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D435" t="e">
-        <f t="shared" ref="D435:D454" si="1507">#REF!-0.1</f>
+        <f t="shared" ref="D435" si="1507">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A436" t="e">
-        <f t="shared" ref="A436:A455" si="1508">#REF!-0.1</f>
+        <f t="shared" ref="A436" si="1508">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B436" t="e">
-        <f t="shared" ref="B436:B455" si="1509">#REF!-0.1</f>
+        <f t="shared" ref="B436" si="1509">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C436" t="e">
-        <f t="shared" ref="C436:C455" si="1510">#REF!-0.1</f>
+        <f t="shared" ref="C436" si="1510">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D436" t="e">
-        <f t="shared" ref="D436:D455" si="1511">#REF!-0.1</f>
+        <f t="shared" ref="D436" si="1511">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A437" t="e">
-        <f t="shared" ref="A437:A456" si="1512">#REF!-0.1</f>
+        <f t="shared" ref="A437" si="1512">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B437" t="e">
-        <f t="shared" ref="B437:B456" si="1513">#REF!-0.1</f>
+        <f t="shared" ref="B437" si="1513">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C437" t="e">
-        <f t="shared" ref="C437:C456" si="1514">#REF!-0.1</f>
+        <f t="shared" ref="C437" si="1514">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D437" t="e">
-        <f t="shared" ref="D437:D456" si="1515">#REF!-0.1</f>
+        <f t="shared" ref="D437" si="1515">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A438" t="e">
-        <f t="shared" ref="A438:A457" si="1516">#REF!-0.1</f>
+        <f t="shared" ref="A438" si="1516">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B438" t="e">
-        <f t="shared" ref="B438:B457" si="1517">#REF!-0.1</f>
+        <f t="shared" ref="B438" si="1517">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C438" t="e">
-        <f t="shared" ref="C438:C457" si="1518">#REF!-0.1</f>
+        <f t="shared" ref="C438" si="1518">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D438" t="e">
-        <f t="shared" ref="D438:D457" si="1519">#REF!-0.1</f>
+        <f t="shared" ref="D438" si="1519">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A439" t="e">
-        <f t="shared" ref="A439:A458" si="1520">#REF!-0.1</f>
+        <f t="shared" ref="A439" si="1520">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B439" t="e">
-        <f t="shared" ref="B439:B458" si="1521">#REF!-0.1</f>
+        <f t="shared" ref="B439" si="1521">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C439" t="e">
-        <f t="shared" ref="C439:C458" si="1522">#REF!-0.1</f>
+        <f t="shared" ref="C439" si="1522">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D439" t="e">
-        <f t="shared" ref="D439:D458" si="1523">#REF!-0.1</f>
+        <f t="shared" ref="D439" si="1523">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A440" t="e">
-        <f t="shared" ref="A440:A459" si="1524">#REF!-0.1</f>
+        <f t="shared" ref="A440" si="1524">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B440" t="e">
-        <f t="shared" ref="B440:B459" si="1525">#REF!-0.1</f>
+        <f t="shared" ref="B440" si="1525">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C440" t="e">
-        <f t="shared" ref="C440:C459" si="1526">#REF!-0.1</f>
+        <f t="shared" ref="C440" si="1526">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D440" t="e">
-        <f t="shared" ref="D440:D459" si="1527">#REF!-0.1</f>
+        <f t="shared" ref="D440" si="1527">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A441" t="e">
-        <f t="shared" ref="A441:A460" si="1528">#REF!-0.1</f>
+        <f t="shared" ref="A441" si="1528">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B441" t="e">
-        <f t="shared" ref="B441:B460" si="1529">#REF!-0.1</f>
+        <f t="shared" ref="B441" si="1529">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C441" t="e">
-        <f t="shared" ref="C441:C460" si="1530">#REF!-0.1</f>
+        <f t="shared" ref="C441" si="1530">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D441" t="e">
-        <f t="shared" ref="D441:D460" si="1531">#REF!-0.1</f>
+        <f t="shared" ref="D441" si="1531">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A442" t="e">
-        <f t="shared" ref="A442:A461" si="1532">#REF!-0.1</f>
+        <f t="shared" ref="A442" si="1532">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B442" t="e">
-        <f t="shared" ref="B442:B461" si="1533">#REF!-0.1</f>
+        <f t="shared" ref="B442" si="1533">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C442" t="e">
-        <f t="shared" ref="C442:C461" si="1534">#REF!-0.1</f>
+        <f t="shared" ref="C442" si="1534">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D442" t="e">
-        <f t="shared" ref="D442:D461" si="1535">#REF!-0.1</f>
+        <f t="shared" ref="D442" si="1535">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A443" t="e">
-        <f t="shared" ref="A443:A462" si="1536">#REF!-0.1</f>
+        <f t="shared" ref="A443" si="1536">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B443" t="e">
-        <f t="shared" ref="B443:B462" si="1537">#REF!-0.1</f>
+        <f t="shared" ref="B443" si="1537">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C443" t="e">
-        <f t="shared" ref="C443:C462" si="1538">#REF!-0.1</f>
+        <f t="shared" ref="C443" si="1538">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D443" t="e">
-        <f t="shared" ref="D443:D462" si="1539">#REF!-0.1</f>
+        <f t="shared" ref="D443" si="1539">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A444" t="e">
-        <f t="shared" ref="A444:A463" si="1540">#REF!-0.1</f>
+        <f t="shared" ref="A444" si="1540">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B444" t="e">
-        <f t="shared" ref="B444:B463" si="1541">#REF!-0.1</f>
+        <f t="shared" ref="B444" si="1541">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C444" t="e">
-        <f t="shared" ref="C444:C463" si="1542">#REF!-0.1</f>
+        <f t="shared" ref="C444" si="1542">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D444" t="e">
-        <f t="shared" ref="D444:D463" si="1543">#REF!-0.1</f>
+        <f t="shared" ref="D444" si="1543">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A445" t="e">
-        <f t="shared" ref="A445:A464" si="1544">#REF!-0.1</f>
+        <f t="shared" ref="A445" si="1544">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B445" t="e">
-        <f t="shared" ref="B445:B464" si="1545">#REF!-0.1</f>
+        <f t="shared" ref="B445" si="1545">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C445" t="e">
-        <f t="shared" ref="C445:C464" si="1546">#REF!-0.1</f>
+        <f t="shared" ref="C445" si="1546">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D445" t="e">
-        <f t="shared" ref="D445:D464" si="1547">#REF!-0.1</f>
+        <f t="shared" ref="D445" si="1547">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A446" t="e">
-        <f t="shared" ref="A446:A465" si="1548">#REF!-0.1</f>
+        <f t="shared" ref="A446" si="1548">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B446" t="e">
-        <f t="shared" ref="B446:B465" si="1549">#REF!-0.1</f>
+        <f t="shared" ref="B446" si="1549">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C446" t="e">
-        <f t="shared" ref="C446:C465" si="1550">#REF!-0.1</f>
+        <f t="shared" ref="C446" si="1550">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D446" t="e">
-        <f t="shared" ref="D446:D465" si="1551">#REF!-0.1</f>
+        <f t="shared" ref="D446" si="1551">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A447" t="e">
-        <f t="shared" ref="A447:A466" si="1552">#REF!-0.1</f>
+        <f t="shared" ref="A447" si="1552">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B447" t="e">
-        <f t="shared" ref="B447:B466" si="1553">#REF!-0.1</f>
+        <f t="shared" ref="B447" si="1553">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C447" t="e">
-        <f t="shared" ref="C447:C466" si="1554">#REF!-0.1</f>
+        <f t="shared" ref="C447" si="1554">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D447" t="e">
-        <f t="shared" ref="D447:D466" si="1555">#REF!-0.1</f>
+        <f t="shared" ref="D447" si="1555">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A448" t="e">
-        <f t="shared" ref="A448:A467" si="1556">#REF!-0.1</f>
+        <f t="shared" ref="A448" si="1556">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B448" t="e">
-        <f t="shared" ref="B448:B467" si="1557">#REF!-0.1</f>
+        <f t="shared" ref="B448" si="1557">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C448" t="e">
-        <f t="shared" ref="C448:C467" si="1558">#REF!-0.1</f>
+        <f t="shared" ref="C448" si="1558">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D448" t="e">
-        <f t="shared" ref="D448:D467" si="1559">#REF!-0.1</f>
+        <f t="shared" ref="D448" si="1559">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A449" t="e">
-        <f t="shared" ref="A449:A468" si="1560">#REF!-0.1</f>
+        <f t="shared" ref="A449" si="1560">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B449" t="e">
-        <f t="shared" ref="B449:B468" si="1561">#REF!-0.1</f>
+        <f t="shared" ref="B449" si="1561">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C449" t="e">
-        <f t="shared" ref="C449:C468" si="1562">#REF!-0.1</f>
+        <f t="shared" ref="C449" si="1562">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D449" t="e">
-        <f t="shared" ref="D449:D468" si="1563">#REF!-0.1</f>
+        <f t="shared" ref="D449" si="1563">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A450" t="e">
-        <f t="shared" ref="A450:A469" si="1564">#REF!-0.1</f>
+        <f t="shared" ref="A450" si="1564">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B450" t="e">
-        <f t="shared" ref="B450:B469" si="1565">#REF!-0.1</f>
+        <f t="shared" ref="B450" si="1565">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C450" t="e">
-        <f t="shared" ref="C450:C469" si="1566">#REF!-0.1</f>
+        <f t="shared" ref="C450" si="1566">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D450" t="e">
-        <f t="shared" ref="D450:D469" si="1567">#REF!-0.1</f>
+        <f t="shared" ref="D450" si="1567">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A451" t="e">
-        <f t="shared" ref="A451:A470" si="1568">#REF!-0.1</f>
+        <f t="shared" ref="A451" si="1568">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="B451" t="e">
-        <f t="shared" ref="B451:B470" si="1569">#REF!-0.1</f>
+        <f t="shared" ref="B451" si="1569">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="C451" t="e">
-        <f t="shared" ref="C451:C470" si="1570">#REF!-0.1</f>
+        <f t="shared" ref="C451" si="1570">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="D451" t="e">
-        <f t="shared" ref="D451:D470" si="1571">#REF!-0.1</f>
+        <f t="shared" ref="D451" si="1571">#REF!-0.1</f>
         <v>#REF!</v>
       </c>
     </row>
@@ -57397,10 +57426,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A151"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A127" sqref="A127"/>
     </sheetView>
   </sheetViews>
